--- a/On Boarding Checklist - Bangalore 2024.. (1).xlsx
+++ b/On Boarding Checklist - Bangalore 2024.. (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mouserelec-my.sharepoint.com/personal/ketan_sharma_mouser_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swapnil.changle\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="482" documentId="13_ncr:1_{8AC47C2B-AED3-4577-AE36-BDF9B67122F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8890B1F-6D03-4C2B-8005-CDAE1FD46342}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E230332-A9FD-416D-A4FD-E6A25524BF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="859" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="859" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="11" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="222">
   <si>
     <t>SR.NO.</t>
   </si>
@@ -1125,9 +1125,6 @@
     <t>Residential Address (Current)*</t>
   </si>
   <si>
-    <t>Date*</t>
-  </si>
-  <si>
     <t>Name of the Employee
 (As per Aadhaar Card)</t>
   </si>
@@ -1136,9 +1133,6 @@
   </si>
   <si>
     <t>Applicant Signature</t>
-  </si>
-  <si>
-    <t>Vijay Sharma</t>
   </si>
   <si>
     <t>Orignal Date of Birth
@@ -1275,6 +1269,186 @@
   <si>
     <t xml:space="preserve">                           Please return the form(s) within 5 working days</t>
   </si>
+  <si>
+    <t>Swapnil Changle</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Database Reliability Engineer lll</t>
+  </si>
+  <si>
+    <t>27/06/2024</t>
+  </si>
+  <si>
+    <t>Don’t have a Voter ID</t>
+  </si>
+  <si>
+    <t>Don’t have a recent Health Checkup</t>
+  </si>
+  <si>
+    <t>swapnilchangle@live.com</t>
+  </si>
+  <si>
+    <t>22/03/1995</t>
+  </si>
+  <si>
+    <t>O+</t>
+  </si>
+  <si>
+    <t>Sohan Kumar Changle</t>
+  </si>
+  <si>
+    <t>Anupama Changle</t>
+  </si>
+  <si>
+    <t>Manjula Ingle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House 14, Room 1, Ground Floor, Ashraya Layout, 3rd Cross, 1st Stage, Mahadevapura, Bangalore </t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>BTEPC8065P</t>
+  </si>
+  <si>
+    <t>L5164712</t>
+  </si>
+  <si>
+    <t>25/09/13</t>
+  </si>
+  <si>
+    <t>24/09/23</t>
+  </si>
+  <si>
+    <t>ICICI Bank</t>
+  </si>
+  <si>
+    <t>Bannerghatta</t>
+  </si>
+  <si>
+    <t>ICIC0001007</t>
+  </si>
+  <si>
+    <t>Harshal Khanwilkar</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A310, Amrutha Sparkling Apartment, Garudachar Palya,Mahadevapura </t>
+  </si>
+  <si>
+    <t>MH/BAN/45665/1349808</t>
+  </si>
+  <si>
+    <t>26/06/2024</t>
+  </si>
+  <si>
+    <t>PCM</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>AZ900 and DP900 Microsoft Azure Fundamentals</t>
+  </si>
+  <si>
+    <t>CBSE</t>
+  </si>
+  <si>
+    <t>Rajiv Gandhi Proudyogiki Vishwavidyalaya (R.G.P.V)</t>
+  </si>
+  <si>
+    <t>Ipsoft Global Services</t>
+  </si>
+  <si>
+    <t>Nextgen HealthCare</t>
+  </si>
+  <si>
+    <t>Accenture</t>
+  </si>
+  <si>
+    <t>22/01/18</t>
+  </si>
+  <si>
+    <t>21/01/20</t>
+  </si>
+  <si>
+    <t>11.5+1</t>
+  </si>
+  <si>
+    <t>25/01/20</t>
+  </si>
+  <si>
+    <t>21/03/21</t>
+  </si>
+  <si>
+    <t>26/06/24</t>
+  </si>
+  <si>
+    <t>Sandip Kundu</t>
+  </si>
+  <si>
+    <t>Infra Transformation Senior manager</t>
+  </si>
+  <si>
+    <t>People Lead</t>
+  </si>
+  <si>
+    <t>Sandip.a.Kundu@accenture.com</t>
+  </si>
+  <si>
+    <t>Srinadha Ayyala</t>
+  </si>
+  <si>
+    <t>Srinadha.a.Ayyala@accenture.com</t>
+  </si>
+  <si>
+    <t>Infra Managed service Assosiate Manager</t>
+  </si>
+  <si>
+    <t>Reporting Lead</t>
+  </si>
+  <si>
+    <t>Swapnil.Changle</t>
+  </si>
+  <si>
+    <t>Date*20/06/24</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Less than 15k / Equal to 15K</t>
+  </si>
+  <si>
+    <t>Earlier covered under PF / Pension</t>
+  </si>
 </sst>
 </file>
 
@@ -1284,7 +1458,7 @@
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1635,6 +1809,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2605,7 +2784,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3091,56 +3270,23 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3151,62 +3297,35 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3235,6 +3354,15 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3253,15 +3381,6 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3277,23 +3396,104 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3316,27 +3516,6 @@
     <xf numFmtId="14" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3354,6 +3533,18 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3382,11 +3573,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3398,7 +3589,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3410,7 +3601,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3422,7 +3613,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3438,7 +3629,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3450,7 +3641,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3462,7 +3653,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3514,7 +3705,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3578,7 +3769,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3598,7 +3789,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3646,7 +3837,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3686,7 +3877,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3698,7 +3889,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3710,7 +3901,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3745,8 +3936,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1434042" y="572291"/>
-          <a:ext cx="16496242" cy="6712217"/>
+          <a:off x="1449917" y="593458"/>
+          <a:ext cx="16795750" cy="6709042"/>
           <a:chOff x="793750" y="634999"/>
           <a:chExt cx="18481239" cy="5678303"/>
         </a:xfrm>
@@ -4034,13 +4225,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>7328</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>439615</xdr:colOff>
+          <xdr:colOff>438150</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4089,7 +4280,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4118,13 +4309,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>178636</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>897355</xdr:colOff>
+          <xdr:colOff>895350</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4175,7 +4366,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4206,13 +4397,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1322137</xdr:colOff>
+          <xdr:colOff>1327150</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>8189</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4261,7 +4452,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4292,13 +4483,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>10026</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>483101</xdr:colOff>
+          <xdr:colOff>482600</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>8691</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4347,7 +4538,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4376,15 +4567,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>160421</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>887329</xdr:colOff>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>8189</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4433,7 +4624,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4464,13 +4655,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>8690</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1388645</xdr:colOff>
+          <xdr:colOff>1390650</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>162259</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4519,7 +4710,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4550,13 +4741,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>162259</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>426118</xdr:colOff>
+          <xdr:colOff>425450</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>11363</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4605,7 +4796,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4634,15 +4825,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>10026</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>902368</xdr:colOff>
+          <xdr:colOff>901700</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>162260</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4691,7 +4882,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4722,13 +4913,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>159084</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1360404</xdr:colOff>
+          <xdr:colOff>1358900</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>5013</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4777,7 +4968,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4808,13 +4999,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>159084</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>421105</xdr:colOff>
+          <xdr:colOff>419100</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>8188</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4863,7 +5054,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4892,15 +5083,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>11364</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>887329</xdr:colOff>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>8189</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4949,7 +5140,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4980,13 +5171,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>159084</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1348539</xdr:colOff>
+          <xdr:colOff>1346200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>8188</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5035,7 +5226,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5064,15 +5255,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>48533</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>8952</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>436145</xdr:colOff>
+          <xdr:colOff>438150</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>12128</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5121,7 +5312,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5150,15 +5341,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>159083</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>912395</xdr:colOff>
+          <xdr:colOff>914400</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>163596</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5207,7 +5398,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5236,15 +5427,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>914401</xdr:colOff>
+          <xdr:colOff>914400</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>11363</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1358567</xdr:colOff>
+          <xdr:colOff>1358900</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>6851</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5293,7 +5484,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5324,13 +5515,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>160420</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>456197</xdr:colOff>
+          <xdr:colOff>457200</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>8188</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5379,7 +5570,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5408,15 +5599,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>892342</xdr:colOff>
+          <xdr:colOff>895350</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5465,7 +5656,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5494,15 +5685,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>914401</xdr:colOff>
+          <xdr:colOff>914400</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>160420</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1333501</xdr:colOff>
+          <xdr:colOff>1333500</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>8188</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5551,7 +5742,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5582,13 +5773,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>159084</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>464887</xdr:colOff>
+          <xdr:colOff>469900</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>8189</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5637,7 +5828,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5666,15 +5857,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>10026</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>887329</xdr:colOff>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>163596</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5723,7 +5914,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5752,15 +5943,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>914401</xdr:colOff>
+          <xdr:colOff>914400</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1383633</xdr:colOff>
+          <xdr:colOff>1384300</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>8189</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5809,7 +6000,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5840,13 +6031,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>160421</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>446171</xdr:colOff>
+          <xdr:colOff>444500</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>11865</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5895,7 +6086,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5924,15 +6115,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>170447</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>892342</xdr:colOff>
+          <xdr:colOff>895350</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5981,7 +6172,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6012,13 +6203,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>11364</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1363579</xdr:colOff>
+          <xdr:colOff>1365250</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>155408</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6067,7 +6258,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6098,13 +6289,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>10026</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>531395</xdr:colOff>
+          <xdr:colOff>533400</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>170447</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6153,7 +6344,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6182,13 +6373,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>6350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>888666</xdr:colOff>
+          <xdr:colOff>882650</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6239,7 +6430,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6270,13 +6461,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>155409</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1353553</xdr:colOff>
+          <xdr:colOff>1352550</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>8189</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6325,7 +6516,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6354,15 +6545,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>8690</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>877303</xdr:colOff>
+          <xdr:colOff>876300</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>162259</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6411,7 +6602,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6442,13 +6633,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>19708</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>492672</xdr:colOff>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>6789</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6497,7 +6688,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6526,13 +6717,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>178635</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>892342</xdr:colOff>
+          <xdr:colOff>895350</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6583,7 +6774,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6618,9 +6809,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1303421</xdr:colOff>
+          <xdr:colOff>1301750</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>8188</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6669,7 +6860,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6700,13 +6891,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>170792</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>485884</xdr:colOff>
+          <xdr:colOff>488950</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>9743</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6755,7 +6946,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6784,15 +6975,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>917408</xdr:colOff>
+          <xdr:colOff>914400</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>10027</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6841,7 +7032,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6872,13 +7063,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>159084</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1325312</xdr:colOff>
+          <xdr:colOff>1327150</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>10026</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6927,7 +7118,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6958,13 +7149,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>9963</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>545224</xdr:colOff>
+          <xdr:colOff>546100</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>6570</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7013,7 +7204,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7042,15 +7233,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>159084</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>925596</xdr:colOff>
+          <xdr:colOff>927100</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>11363</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7099,7 +7290,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7130,13 +7321,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>163596</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1342189</xdr:colOff>
+          <xdr:colOff>1339850</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>11364</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7185,7 +7376,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7220,9 +7411,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>502635</xdr:colOff>
+          <xdr:colOff>501650</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>6569</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7271,7 +7462,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7300,15 +7491,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>159084</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>932447</xdr:colOff>
+          <xdr:colOff>933450</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>160422</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7357,7 +7548,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7388,11 +7579,11 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>160420</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1361741</xdr:colOff>
+          <xdr:colOff>1358900</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -7443,7 +7634,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7474,13 +7665,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>6570</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>482709</xdr:colOff>
+          <xdr:colOff>482600</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>6789</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7529,7 +7720,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7558,15 +7749,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>160421</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>917408</xdr:colOff>
+          <xdr:colOff>914400</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>11364</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7615,7 +7806,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7650,9 +7841,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1342189</xdr:colOff>
+          <xdr:colOff>1346200</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>8189</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7701,7 +7892,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7732,13 +7923,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>170792</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>525298</xdr:colOff>
+          <xdr:colOff>520700</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>9743</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7787,7 +7978,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7818,13 +8009,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>520700</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>170447</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>943811</xdr:colOff>
+          <xdr:colOff>946150</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>6852</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7873,7 +8064,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7902,13 +8093,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>914401</xdr:colOff>
+          <xdr:colOff>914400</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>170446</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1378619</xdr:colOff>
+          <xdr:colOff>1377950</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -7959,7 +8150,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7990,13 +8181,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>161050</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>525298</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>6788</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8045,7 +8236,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8074,15 +8265,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>170447</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>912395</xdr:colOff>
+          <xdr:colOff>914400</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>159084</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8131,7 +8322,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8160,13 +8351,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>914401</xdr:colOff>
+          <xdr:colOff>914400</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1364917</xdr:colOff>
+          <xdr:colOff>1358900</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8217,7 +8408,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8248,13 +8439,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>10028</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>531395</xdr:colOff>
+          <xdr:colOff>533400</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>162260</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8303,7 +8494,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8332,15 +8523,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>11363</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>885491</xdr:colOff>
+          <xdr:colOff>882650</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>155409</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8389,7 +8580,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8420,11 +8611,11 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>170446</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1363579</xdr:colOff>
+          <xdr:colOff>1365250</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8475,7 +8666,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8504,15 +8695,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47600</xdr:colOff>
+          <xdr:colOff>44450</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>16806</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>436145</xdr:colOff>
+          <xdr:colOff>438150</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>9119</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8561,7 +8752,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8590,15 +8781,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>44905</xdr:colOff>
+          <xdr:colOff>44450</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>152661</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>436145</xdr:colOff>
+          <xdr:colOff>438150</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>20481</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8647,7 +8838,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8676,13 +8867,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>10026</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>904207</xdr:colOff>
+          <xdr:colOff>901700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8733,7 +8924,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8768,9 +8959,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1363579</xdr:colOff>
+          <xdr:colOff>1365250</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>163597</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8819,7 +9010,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8848,15 +9039,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>522872</xdr:colOff>
+          <xdr:colOff>520700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>160420</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>903872</xdr:colOff>
+          <xdr:colOff>901700</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>8188</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8905,7 +9096,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8934,15 +9125,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>904875</xdr:colOff>
+          <xdr:colOff>908050</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>170446</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1353553</xdr:colOff>
+          <xdr:colOff>1352550</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>6851</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8991,7 +9182,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9020,15 +9211,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>44903</xdr:colOff>
+          <xdr:colOff>44450</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>155407</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>511628</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>31416</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9077,7 +9268,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9106,15 +9297,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>904875</xdr:colOff>
+          <xdr:colOff>908050</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>11364</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1348539</xdr:colOff>
+          <xdr:colOff>1346200</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>162260</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9163,7 +9354,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9194,13 +9385,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>10026</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>484939</xdr:colOff>
+          <xdr:colOff>482600</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>11865</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9249,7 +9440,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9278,15 +9469,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>11363</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>905543</xdr:colOff>
+          <xdr:colOff>908050</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>11363</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9335,7 +9526,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9364,15 +9555,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>914401</xdr:colOff>
+          <xdr:colOff>914400</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1383633</xdr:colOff>
+          <xdr:colOff>1384300</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>11865</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9421,7 +9612,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9452,13 +9643,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>10026</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>521368</xdr:colOff>
+          <xdr:colOff>520700</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>6851</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9507,7 +9698,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9536,15 +9727,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>159084</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>892342</xdr:colOff>
+          <xdr:colOff>895350</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9593,7 +9784,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9622,15 +9813,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>914401</xdr:colOff>
+          <xdr:colOff>914400</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>11363</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1333501</xdr:colOff>
+          <xdr:colOff>1333500</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>6852</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9679,7 +9870,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9710,13 +9901,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>155409</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>511342</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9765,7 +9956,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9794,15 +9985,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>10027</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>932447</xdr:colOff>
+          <xdr:colOff>933450</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>159085</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9851,7 +10042,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9882,13 +10073,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1324811</xdr:colOff>
+          <xdr:colOff>1320800</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>6853</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9937,7 +10128,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9968,13 +10159,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>8689</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>511342</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>10026</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10023,7 +10214,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10052,15 +10243,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>520701</xdr:colOff>
+          <xdr:colOff>520700</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>8189</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>907383</xdr:colOff>
+          <xdr:colOff>908050</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>163597</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10109,7 +10300,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10138,15 +10329,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>914401</xdr:colOff>
+          <xdr:colOff>914400</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>170446</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1383633</xdr:colOff>
+          <xdr:colOff>1384300</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>11864</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10195,7 +10386,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10226,13 +10417,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>11362</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>488114</xdr:colOff>
+          <xdr:colOff>488950</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>8690</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10281,7 +10472,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10310,15 +10501,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>897355</xdr:colOff>
+          <xdr:colOff>895350</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>160422</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10367,7 +10558,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10398,13 +10589,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>11362</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1342189</xdr:colOff>
+          <xdr:colOff>1346200</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>162259</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10453,7 +10644,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10538,9 +10729,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>505810</xdr:colOff>
+          <xdr:colOff>508000</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>19707</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10589,7 +10780,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10618,15 +10809,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>11363</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>932447</xdr:colOff>
+          <xdr:colOff>933450</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10675,7 +10866,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10706,13 +10897,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>11363</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1380457</xdr:colOff>
+          <xdr:colOff>1377950</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>10026</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10761,7 +10952,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10904,7 +11095,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10990,7 +11181,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11076,7 +11267,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11162,7 +11353,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11248,7 +11439,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11334,7 +11525,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12069,8 +12260,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:K41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" topLeftCell="C30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -12113,7 +12304,7 @@
     <row r="4" spans="2:11" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="13"/>
       <c r="C4" s="176" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D4" s="177"/>
       <c r="E4" s="177"/>
@@ -12126,9 +12317,11 @@
     <row r="5" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="13"/>
       <c r="C5" s="154" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
-      <c r="D5" s="184"/>
+      <c r="D5" s="184" t="s">
+        <v>162</v>
+      </c>
       <c r="E5" s="184"/>
       <c r="F5" s="185"/>
       <c r="G5" s="13"/>
@@ -12139,9 +12332,11 @@
     <row r="6" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="13"/>
       <c r="C6" s="155" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
-      <c r="D6" s="182"/>
+      <c r="D6" s="182" t="s">
+        <v>163</v>
+      </c>
       <c r="E6" s="182"/>
       <c r="F6" s="183"/>
       <c r="G6" s="13"/>
@@ -12152,9 +12347,11 @@
     <row r="7" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B7" s="13"/>
       <c r="C7" s="155" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
-      <c r="D7" s="182"/>
+      <c r="D7" s="182" t="s">
+        <v>164</v>
+      </c>
       <c r="E7" s="182"/>
       <c r="F7" s="183"/>
       <c r="G7" s="13"/>
@@ -12165,7 +12362,7 @@
     <row r="8" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B8" s="13"/>
       <c r="C8" s="155" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D8" s="182"/>
       <c r="E8" s="182"/>
@@ -12178,9 +12375,11 @@
     <row r="9" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="13"/>
       <c r="C9" s="155" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
-      <c r="D9" s="186"/>
+      <c r="D9" s="186" t="s">
+        <v>165</v>
+      </c>
       <c r="E9" s="186"/>
       <c r="F9" s="187"/>
       <c r="G9" s="13"/>
@@ -12194,13 +12393,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="157" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" s="157" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F10" s="158" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G10" s="13"/>
     </row>
@@ -12208,7 +12407,7 @@
       <c r="B11" s="13"/>
       <c r="C11" s="159"/>
       <c r="D11" s="160" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11" s="161"/>
       <c r="F11" s="162"/>
@@ -12220,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="148"/>
@@ -12244,7 +12443,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="150" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="148"/>
@@ -12256,7 +12455,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="149" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="148"/>
@@ -12268,7 +12467,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="148"/>
@@ -12292,7 +12491,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="163" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="148"/>
@@ -12304,10 +12503,12 @@
         <v>8</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E19" s="14"/>
-      <c r="F19" s="148"/>
+      <c r="F19" s="148" t="s">
+        <v>167</v>
+      </c>
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
@@ -12316,7 +12517,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="149" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="148"/>
@@ -12328,7 +12529,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="148"/>
@@ -12340,10 +12541,12 @@
         <v>11</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="148"/>
+      <c r="F22" s="148" t="s">
+        <v>166</v>
+      </c>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12352,7 +12555,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="149" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="148"/>
@@ -12369,11 +12572,11 @@
       <c r="B25" s="13"/>
       <c r="C25" s="159"/>
       <c r="D25" s="160" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E25" s="161"/>
       <c r="F25" s="164" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
@@ -12382,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="149" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="148"/>
@@ -12393,7 +12596,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="149" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="148"/>
@@ -12404,7 +12607,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="148"/>
@@ -12415,7 +12618,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="152" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="148"/>
@@ -12426,7 +12629,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="148"/>
@@ -12437,7 +12640,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="149" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="148"/>
@@ -12448,7 +12651,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="149" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="148"/>
@@ -12459,7 +12662,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="149" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="148"/>
@@ -12470,7 +12673,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="149" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="148"/>
@@ -12481,7 +12684,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="165" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="148"/>
@@ -12491,7 +12694,7 @@
         <v>11</v>
       </c>
       <c r="D36" s="166" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="148"/>
@@ -12501,7 +12704,7 @@
         <v>12</v>
       </c>
       <c r="D37" s="149" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="148"/>
@@ -12511,7 +12714,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="149" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="148"/>
@@ -12521,18 +12724,18 @@
         <v>14</v>
       </c>
       <c r="D39" s="149" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="148"/>
     </row>
     <row r="40" spans="2:6" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C40" s="170" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D40" s="171"/>
       <c r="E40" s="167" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F40" s="153"/>
     </row>
@@ -14325,24 +14528,24 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="140" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="141" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="145"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="142" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="146"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="144" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B4" s="143"/>
     </row>
@@ -14368,8 +14571,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:R89"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:N8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88:J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -14414,94 +14617,94 @@
     </row>
     <row r="3" spans="2:18" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="57"/>
-      <c r="C3" s="227" t="s">
+      <c r="C3" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="229"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
       <c r="O3" s="57"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="188"/>
+      <c r="Q3" s="241"/>
+      <c r="R3" s="241"/>
     </row>
     <row r="4" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="57"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="231"/>
-      <c r="F4" s="231"/>
-      <c r="G4" s="231"/>
-      <c r="H4" s="231"/>
-      <c r="I4" s="231"/>
-      <c r="J4" s="231"/>
-      <c r="K4" s="231"/>
-      <c r="L4" s="231"/>
-      <c r="M4" s="231"/>
-      <c r="N4" s="232"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="212"/>
       <c r="O4" s="57"/>
-      <c r="Q4" s="188"/>
-      <c r="R4" s="188"/>
+      <c r="Q4" s="241"/>
+      <c r="R4" s="241"/>
     </row>
     <row r="5" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="57"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="231"/>
-      <c r="J5" s="231"/>
-      <c r="K5" s="231"/>
-      <c r="L5" s="231"/>
-      <c r="M5" s="231"/>
-      <c r="N5" s="232"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="212"/>
       <c r="O5" s="57"/>
-      <c r="Q5" s="188"/>
-      <c r="R5" s="188"/>
+      <c r="Q5" s="241"/>
+      <c r="R5" s="241"/>
     </row>
     <row r="6" spans="2:18" ht="12.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="57"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="234"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="234"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="234"/>
-      <c r="N6" s="235"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="214"/>
+      <c r="N6" s="215"/>
       <c r="O6" s="57"/>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="188"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="241"/>
     </row>
     <row r="7" spans="2:18" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="57"/>
-      <c r="C7" s="205" t="s">
+      <c r="C7" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="206"/>
-      <c r="E7" s="206"/>
-      <c r="F7" s="206"/>
-      <c r="G7" s="206"/>
-      <c r="H7" s="206"/>
-      <c r="I7" s="206"/>
-      <c r="J7" s="206"/>
-      <c r="K7" s="206"/>
-      <c r="L7" s="206"/>
-      <c r="M7" s="206"/>
-      <c r="N7" s="207"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="195"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="195"/>
+      <c r="N7" s="196"/>
       <c r="O7" s="57"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -14510,19 +14713,19 @@
         <v>6</v>
       </c>
       <c r="D8" s="59"/>
-      <c r="E8" s="224" t="str">
+      <c r="E8" s="232" t="str">
         <f>'Documentation Checklist'!D5&amp;" "&amp;'Documentation Checklist'!D6&amp;" "&amp;'Documentation Checklist'!D7</f>
-        <v xml:space="preserve">  </v>
+        <v>Swapnil Changle Bangalore Database Reliability Engineer lll</v>
       </c>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="225"/>
-      <c r="J8" s="225"/>
-      <c r="K8" s="225"/>
-      <c r="L8" s="225"/>
-      <c r="M8" s="225"/>
-      <c r="N8" s="226"/>
+      <c r="F8" s="233"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="233"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="233"/>
+      <c r="K8" s="233"/>
+      <c r="L8" s="233"/>
+      <c r="M8" s="233"/>
+      <c r="N8" s="234"/>
       <c r="O8" s="57"/>
     </row>
     <row r="9" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -14531,16 +14734,18 @@
         <v>7</v>
       </c>
       <c r="D9" s="61"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="212"/>
+      <c r="E9" s="191">
+        <v>8871643958</v>
+      </c>
+      <c r="F9" s="191"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="192"/>
       <c r="O9" s="57"/>
     </row>
     <row r="10" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -14549,16 +14754,18 @@
         <v>8</v>
       </c>
       <c r="D10" s="63"/>
-      <c r="E10" s="237"/>
-      <c r="F10" s="238"/>
-      <c r="G10" s="238"/>
-      <c r="H10" s="238"/>
-      <c r="I10" s="238"/>
-      <c r="J10" s="238"/>
-      <c r="K10" s="238"/>
-      <c r="L10" s="238"/>
-      <c r="M10" s="238"/>
-      <c r="N10" s="239"/>
+      <c r="E10" s="220" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="221"/>
+      <c r="K10" s="221"/>
+      <c r="L10" s="221"/>
+      <c r="M10" s="221"/>
+      <c r="N10" s="222"/>
       <c r="O10" s="57"/>
     </row>
     <row r="11" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -14567,18 +14774,18 @@
         <v>9</v>
       </c>
       <c r="D11" s="63"/>
-      <c r="E11" s="219">
-        <v>36872</v>
+      <c r="E11" s="193" t="s">
+        <v>169</v>
       </c>
-      <c r="F11" s="220"/>
-      <c r="G11" s="220"/>
-      <c r="H11" s="220"/>
-      <c r="I11" s="220"/>
-      <c r="J11" s="220"/>
-      <c r="K11" s="220"/>
-      <c r="L11" s="220"/>
-      <c r="M11" s="220"/>
-      <c r="N11" s="221"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
+      <c r="M11" s="189"/>
+      <c r="N11" s="190"/>
       <c r="O11" s="57"/>
     </row>
     <row r="12" spans="2:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -14587,16 +14794,16 @@
         <v>10</v>
       </c>
       <c r="D12" s="65"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="222"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="222"/>
-      <c r="I12" s="222"/>
-      <c r="J12" s="222"/>
-      <c r="K12" s="222"/>
-      <c r="L12" s="222"/>
-      <c r="M12" s="222"/>
-      <c r="N12" s="223"/>
+      <c r="E12" s="230"/>
+      <c r="F12" s="230"/>
+      <c r="G12" s="230"/>
+      <c r="H12" s="230"/>
+      <c r="I12" s="230"/>
+      <c r="J12" s="230"/>
+      <c r="K12" s="230"/>
+      <c r="L12" s="230"/>
+      <c r="M12" s="230"/>
+      <c r="N12" s="231"/>
       <c r="O12" s="57"/>
     </row>
     <row r="13" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -14605,16 +14812,18 @@
         <v>11</v>
       </c>
       <c r="D13" s="63"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="220"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="220"/>
-      <c r="N13" s="221"/>
+      <c r="E13" s="189" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="190"/>
       <c r="O13" s="57"/>
     </row>
     <row r="14" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -14623,16 +14832,18 @@
         <v>12</v>
       </c>
       <c r="D14" s="61"/>
-      <c r="E14" s="211"/>
-      <c r="F14" s="211"/>
-      <c r="G14" s="211"/>
-      <c r="H14" s="211"/>
-      <c r="I14" s="211"/>
-      <c r="J14" s="211"/>
-      <c r="K14" s="211"/>
-      <c r="L14" s="211"/>
-      <c r="M14" s="211"/>
-      <c r="N14" s="212"/>
+      <c r="E14" s="191" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="191"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="192"/>
       <c r="O14" s="57"/>
     </row>
     <row r="15" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -14641,16 +14852,18 @@
         <v>13</v>
       </c>
       <c r="D15" s="68"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="211"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="211"/>
-      <c r="K15" s="211"/>
-      <c r="L15" s="211"/>
-      <c r="M15" s="211"/>
-      <c r="N15" s="212"/>
+      <c r="E15" s="191" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="191"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="192"/>
       <c r="O15" s="57"/>
     </row>
     <row r="16" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -14659,16 +14872,16 @@
         <v>14</v>
       </c>
       <c r="D16" s="63"/>
-      <c r="E16" s="222"/>
-      <c r="F16" s="222"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="222"/>
-      <c r="K16" s="222"/>
-      <c r="L16" s="222"/>
-      <c r="M16" s="222"/>
-      <c r="N16" s="223"/>
+      <c r="E16" s="230"/>
+      <c r="F16" s="230"/>
+      <c r="G16" s="230"/>
+      <c r="H16" s="230"/>
+      <c r="I16" s="230"/>
+      <c r="J16" s="230"/>
+      <c r="K16" s="230"/>
+      <c r="L16" s="230"/>
+      <c r="M16" s="230"/>
+      <c r="N16" s="231"/>
       <c r="O16" s="57"/>
     </row>
     <row r="17" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -14677,16 +14890,18 @@
         <v>15</v>
       </c>
       <c r="D17" s="68"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="211"/>
-      <c r="H17" s="211"/>
-      <c r="I17" s="211"/>
-      <c r="J17" s="211"/>
-      <c r="K17" s="211"/>
-      <c r="L17" s="211"/>
-      <c r="M17" s="211"/>
-      <c r="N17" s="212"/>
+      <c r="E17" s="191" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="191"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="192"/>
       <c r="O17" s="57"/>
     </row>
     <row r="18" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -14695,16 +14910,18 @@
         <v>16</v>
       </c>
       <c r="D18" s="70"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="211"/>
-      <c r="K18" s="211"/>
-      <c r="L18" s="211"/>
-      <c r="M18" s="211"/>
-      <c r="N18" s="212"/>
+      <c r="E18" s="191" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="191"/>
+      <c r="G18" s="191"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="191"/>
+      <c r="J18" s="191"/>
+      <c r="K18" s="191"/>
+      <c r="L18" s="191"/>
+      <c r="M18" s="191"/>
+      <c r="N18" s="192"/>
       <c r="O18" s="57"/>
     </row>
     <row r="19" spans="2:15" ht="12.5" x14ac:dyDescent="0.35">
@@ -14713,16 +14930,18 @@
         <v>17</v>
       </c>
       <c r="D19" s="72"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="211"/>
-      <c r="K19" s="211"/>
-      <c r="L19" s="211"/>
-      <c r="M19" s="211"/>
-      <c r="N19" s="212"/>
+      <c r="E19" s="191" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="191"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="191"/>
+      <c r="M19" s="191"/>
+      <c r="N19" s="192"/>
       <c r="O19" s="57"/>
     </row>
     <row r="20" spans="2:15" ht="12.5" x14ac:dyDescent="0.35">
@@ -14731,16 +14950,18 @@
         <v>18</v>
       </c>
       <c r="D20" s="72"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
-      <c r="H20" s="211"/>
-      <c r="I20" s="211"/>
-      <c r="J20" s="211"/>
-      <c r="K20" s="211"/>
-      <c r="L20" s="211"/>
-      <c r="M20" s="211"/>
-      <c r="N20" s="212"/>
+      <c r="E20" s="191" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="191"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="191"/>
+      <c r="J20" s="191"/>
+      <c r="K20" s="191"/>
+      <c r="L20" s="191"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="192"/>
       <c r="O20" s="57"/>
     </row>
     <row r="21" spans="2:15" ht="12.5" x14ac:dyDescent="0.35">
@@ -14749,16 +14970,18 @@
         <v>19</v>
       </c>
       <c r="D21" s="72"/>
-      <c r="E21" s="211"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="211"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="211"/>
-      <c r="J21" s="211"/>
-      <c r="K21" s="211"/>
-      <c r="L21" s="211"/>
-      <c r="M21" s="211"/>
-      <c r="N21" s="212"/>
+      <c r="E21" s="191">
+        <v>560048</v>
+      </c>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="191"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="192"/>
       <c r="O21" s="57"/>
     </row>
     <row r="22" spans="2:15" ht="12.5" x14ac:dyDescent="0.35">
@@ -14785,7 +15008,9 @@
         <v>115</v>
       </c>
       <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
+      <c r="E23" s="126" t="s">
+        <v>174</v>
+      </c>
       <c r="F23" s="127"/>
       <c r="G23" s="127"/>
       <c r="H23" s="127"/>
@@ -14803,16 +15028,18 @@
         <v>17</v>
       </c>
       <c r="D24" s="125"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="217"/>
-      <c r="G24" s="217"/>
-      <c r="H24" s="217"/>
-      <c r="I24" s="217"/>
-      <c r="J24" s="217"/>
-      <c r="K24" s="217"/>
-      <c r="L24" s="217"/>
-      <c r="M24" s="217"/>
-      <c r="N24" s="218"/>
+      <c r="E24" s="237" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="238"/>
+      <c r="G24" s="238"/>
+      <c r="H24" s="238"/>
+      <c r="I24" s="238"/>
+      <c r="J24" s="238"/>
+      <c r="K24" s="238"/>
+      <c r="L24" s="238"/>
+      <c r="M24" s="238"/>
+      <c r="N24" s="239"/>
       <c r="O24" s="57"/>
     </row>
     <row r="25" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -14821,7 +15048,9 @@
         <v>18</v>
       </c>
       <c r="D25" s="125"/>
-      <c r="E25" s="129"/>
+      <c r="E25" s="129" t="s">
+        <v>175</v>
+      </c>
       <c r="F25" s="130"/>
       <c r="G25" s="130"/>
       <c r="H25" s="130"/>
@@ -14839,16 +15068,18 @@
         <v>19</v>
       </c>
       <c r="D26" s="125"/>
-      <c r="E26" s="211"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="211"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="211"/>
-      <c r="J26" s="211"/>
-      <c r="K26" s="211"/>
-      <c r="L26" s="211"/>
-      <c r="M26" s="211"/>
-      <c r="N26" s="212"/>
+      <c r="E26" s="191">
+        <v>560048</v>
+      </c>
+      <c r="F26" s="191"/>
+      <c r="G26" s="191"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="191"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="192"/>
       <c r="O26" s="57"/>
     </row>
     <row r="27" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.4">
@@ -14857,34 +15088,34 @@
         <v>20</v>
       </c>
       <c r="D27" s="74"/>
-      <c r="E27" s="211"/>
-      <c r="F27" s="211"/>
-      <c r="G27" s="211"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="211"/>
-      <c r="J27" s="211"/>
-      <c r="K27" s="211"/>
-      <c r="L27" s="211"/>
-      <c r="M27" s="211"/>
-      <c r="N27" s="212"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="191"/>
+      <c r="G27" s="191"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="191"/>
+      <c r="K27" s="191"/>
+      <c r="L27" s="191"/>
+      <c r="M27" s="191"/>
+      <c r="N27" s="192"/>
       <c r="O27" s="57"/>
     </row>
     <row r="28" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="57"/>
-      <c r="C28" s="205" t="s">
-        <v>118</v>
+      <c r="C28" s="194" t="s">
+        <v>117</v>
       </c>
-      <c r="D28" s="214"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="214"/>
-      <c r="I28" s="214"/>
-      <c r="J28" s="214"/>
-      <c r="K28" s="214"/>
-      <c r="L28" s="214"/>
-      <c r="M28" s="214"/>
-      <c r="N28" s="215"/>
+      <c r="D28" s="235"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="235"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="235"/>
+      <c r="J28" s="235"/>
+      <c r="K28" s="235"/>
+      <c r="L28" s="235"/>
+      <c r="M28" s="235"/>
+      <c r="N28" s="236"/>
       <c r="O28" s="57"/>
     </row>
     <row r="29" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -14893,16 +15124,18 @@
         <v>21</v>
       </c>
       <c r="D29" s="76"/>
-      <c r="E29" s="240"/>
-      <c r="F29" s="240"/>
-      <c r="G29" s="240"/>
-      <c r="H29" s="240"/>
-      <c r="I29" s="240"/>
-      <c r="J29" s="240"/>
-      <c r="K29" s="240"/>
-      <c r="L29" s="240"/>
-      <c r="M29" s="240"/>
-      <c r="N29" s="241"/>
+      <c r="E29" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="223"/>
+      <c r="G29" s="223"/>
+      <c r="H29" s="223"/>
+      <c r="I29" s="223"/>
+      <c r="J29" s="223"/>
+      <c r="K29" s="223"/>
+      <c r="L29" s="223"/>
+      <c r="M29" s="223"/>
+      <c r="N29" s="224"/>
       <c r="O29" s="57"/>
     </row>
     <row r="30" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -14911,16 +15144,18 @@
         <v>22</v>
       </c>
       <c r="D30" s="77"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="220"/>
-      <c r="J30" s="220"/>
-      <c r="K30" s="220"/>
-      <c r="L30" s="220"/>
-      <c r="M30" s="220"/>
-      <c r="N30" s="221"/>
+      <c r="E30" s="189">
+        <v>486902038353</v>
+      </c>
+      <c r="F30" s="189"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="189"/>
+      <c r="K30" s="189"/>
+      <c r="L30" s="189"/>
+      <c r="M30" s="189"/>
+      <c r="N30" s="190"/>
       <c r="O30" s="57"/>
     </row>
     <row r="31" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -14929,16 +15164,18 @@
         <v>23</v>
       </c>
       <c r="D31" s="77"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="220"/>
-      <c r="G31" s="220"/>
-      <c r="H31" s="220"/>
-      <c r="I31" s="220"/>
-      <c r="J31" s="220"/>
-      <c r="K31" s="220"/>
-      <c r="L31" s="220"/>
-      <c r="M31" s="220"/>
-      <c r="N31" s="221"/>
+      <c r="E31" s="189" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="189"/>
+      <c r="L31" s="189"/>
+      <c r="M31" s="189"/>
+      <c r="N31" s="190"/>
       <c r="O31" s="57"/>
     </row>
     <row r="32" spans="2:15" ht="12.5" x14ac:dyDescent="0.35">
@@ -14947,16 +15184,18 @@
         <v>24</v>
       </c>
       <c r="D32" s="77"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="220"/>
-      <c r="G32" s="220"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="220"/>
-      <c r="J32" s="220"/>
-      <c r="K32" s="220"/>
-      <c r="L32" s="220"/>
-      <c r="M32" s="220"/>
-      <c r="N32" s="221"/>
+      <c r="E32" s="193" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="189"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="189"/>
+      <c r="K32" s="189"/>
+      <c r="L32" s="189"/>
+      <c r="M32" s="189"/>
+      <c r="N32" s="190"/>
       <c r="O32" s="57"/>
     </row>
     <row r="33" spans="2:15" ht="12.5" x14ac:dyDescent="0.35">
@@ -14965,16 +15204,18 @@
         <v>25</v>
       </c>
       <c r="D33" s="77"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="220"/>
-      <c r="G33" s="220"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="220"/>
-      <c r="K33" s="220"/>
-      <c r="L33" s="220"/>
-      <c r="M33" s="220"/>
-      <c r="N33" s="221"/>
+      <c r="E33" s="193" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
+      <c r="J33" s="189"/>
+      <c r="K33" s="189"/>
+      <c r="L33" s="189"/>
+      <c r="M33" s="189"/>
+      <c r="N33" s="190"/>
       <c r="O33" s="57"/>
     </row>
     <row r="34" spans="2:15" ht="12.5" x14ac:dyDescent="0.35">
@@ -14983,16 +15224,18 @@
         <v>26</v>
       </c>
       <c r="D34" s="77"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="211"/>
-      <c r="G34" s="211"/>
-      <c r="H34" s="211"/>
-      <c r="I34" s="211"/>
-      <c r="J34" s="211"/>
-      <c r="K34" s="211"/>
-      <c r="L34" s="211"/>
-      <c r="M34" s="211"/>
-      <c r="N34" s="212"/>
+      <c r="E34" s="191" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="191"/>
+      <c r="G34" s="191"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="191"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="191"/>
+      <c r="M34" s="191"/>
+      <c r="N34" s="192"/>
       <c r="O34" s="57"/>
     </row>
     <row r="35" spans="2:15" ht="12.5" x14ac:dyDescent="0.35">
@@ -15001,16 +15244,18 @@
         <v>27</v>
       </c>
       <c r="D35" s="77"/>
-      <c r="E35" s="211"/>
-      <c r="F35" s="211"/>
-      <c r="G35" s="211"/>
-      <c r="H35" s="211"/>
-      <c r="I35" s="211"/>
-      <c r="J35" s="211"/>
-      <c r="K35" s="211"/>
-      <c r="L35" s="211"/>
-      <c r="M35" s="211"/>
-      <c r="N35" s="212"/>
+      <c r="E35" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="191"/>
+      <c r="K35" s="191"/>
+      <c r="L35" s="191"/>
+      <c r="M35" s="191"/>
+      <c r="N35" s="192"/>
       <c r="O35" s="57"/>
     </row>
     <row r="36" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15019,16 +15264,18 @@
         <v>28</v>
       </c>
       <c r="D36" s="77"/>
-      <c r="E36" s="211"/>
-      <c r="F36" s="211"/>
-      <c r="G36" s="211"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="211"/>
-      <c r="J36" s="211"/>
-      <c r="K36" s="211"/>
-      <c r="L36" s="211"/>
-      <c r="M36" s="211"/>
-      <c r="N36" s="212"/>
+      <c r="E36" s="191" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="191"/>
+      <c r="G36" s="191"/>
+      <c r="H36" s="191"/>
+      <c r="I36" s="191"/>
+      <c r="J36" s="191"/>
+      <c r="K36" s="191"/>
+      <c r="L36" s="191"/>
+      <c r="M36" s="191"/>
+      <c r="N36" s="192"/>
       <c r="O36" s="57"/>
     </row>
     <row r="37" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -15037,34 +15284,36 @@
         <v>29</v>
       </c>
       <c r="D37" s="79"/>
-      <c r="E37" s="211"/>
-      <c r="F37" s="211"/>
-      <c r="G37" s="211"/>
-      <c r="H37" s="211"/>
-      <c r="I37" s="211"/>
-      <c r="J37" s="211"/>
-      <c r="K37" s="211"/>
-      <c r="L37" s="211"/>
-      <c r="M37" s="211"/>
-      <c r="N37" s="212"/>
+      <c r="E37" s="191">
+        <v>100701532133</v>
+      </c>
+      <c r="F37" s="191"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="191"/>
+      <c r="J37" s="191"/>
+      <c r="K37" s="191"/>
+      <c r="L37" s="191"/>
+      <c r="M37" s="191"/>
+      <c r="N37" s="192"/>
       <c r="O37" s="57"/>
     </row>
     <row r="38" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="57"/>
-      <c r="C38" s="205" t="s">
+      <c r="C38" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="214"/>
-      <c r="E38" s="214"/>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
-      <c r="I38" s="214"/>
-      <c r="J38" s="214"/>
-      <c r="K38" s="214"/>
-      <c r="L38" s="214"/>
-      <c r="M38" s="214"/>
-      <c r="N38" s="215"/>
+      <c r="D38" s="235"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="235"/>
+      <c r="G38" s="235"/>
+      <c r="H38" s="235"/>
+      <c r="I38" s="235"/>
+      <c r="J38" s="235"/>
+      <c r="K38" s="235"/>
+      <c r="L38" s="235"/>
+      <c r="M38" s="235"/>
+      <c r="N38" s="236"/>
       <c r="O38" s="57"/>
     </row>
     <row r="39" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15073,18 +15322,18 @@
         <v>31</v>
       </c>
       <c r="D39" s="76"/>
-      <c r="E39" s="211" t="s">
-        <v>120</v>
+      <c r="E39" s="191" t="s">
+        <v>183</v>
       </c>
-      <c r="F39" s="211"/>
-      <c r="G39" s="211"/>
-      <c r="H39" s="211"/>
-      <c r="I39" s="211"/>
-      <c r="J39" s="211"/>
-      <c r="K39" s="211"/>
-      <c r="L39" s="211"/>
-      <c r="M39" s="211"/>
-      <c r="N39" s="212"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="191"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="191"/>
+      <c r="J39" s="191"/>
+      <c r="K39" s="191"/>
+      <c r="L39" s="191"/>
+      <c r="M39" s="191"/>
+      <c r="N39" s="192"/>
       <c r="O39" s="57"/>
     </row>
     <row r="40" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -15093,16 +15342,18 @@
         <v>114</v>
       </c>
       <c r="D40" s="77"/>
-      <c r="E40" s="211"/>
-      <c r="F40" s="211"/>
-      <c r="G40" s="211"/>
-      <c r="H40" s="211"/>
-      <c r="I40" s="211"/>
-      <c r="J40" s="211"/>
-      <c r="K40" s="211"/>
-      <c r="L40" s="211"/>
-      <c r="M40" s="211"/>
-      <c r="N40" s="212"/>
+      <c r="E40" s="191" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="191"/>
+      <c r="G40" s="191"/>
+      <c r="H40" s="191"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="191"/>
+      <c r="K40" s="191"/>
+      <c r="L40" s="191"/>
+      <c r="M40" s="191"/>
+      <c r="N40" s="192"/>
       <c r="O40" s="57"/>
     </row>
     <row r="41" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15111,18 +15362,18 @@
         <v>7</v>
       </c>
       <c r="D41" s="77"/>
-      <c r="E41" s="211">
-        <v>808362922</v>
+      <c r="E41" s="191">
+        <v>9945551901</v>
       </c>
-      <c r="F41" s="211"/>
-      <c r="G41" s="211"/>
-      <c r="H41" s="211"/>
-      <c r="I41" s="211"/>
-      <c r="J41" s="211"/>
-      <c r="K41" s="211"/>
-      <c r="L41" s="211"/>
-      <c r="M41" s="211"/>
-      <c r="N41" s="212"/>
+      <c r="F41" s="191"/>
+      <c r="G41" s="191"/>
+      <c r="H41" s="191"/>
+      <c r="I41" s="191"/>
+      <c r="J41" s="191"/>
+      <c r="K41" s="191"/>
+      <c r="L41" s="191"/>
+      <c r="M41" s="191"/>
+      <c r="N41" s="192"/>
       <c r="O41" s="57"/>
     </row>
     <row r="42" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15130,17 +15381,21 @@
       <c r="C42" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="77"/>
-      <c r="E42" s="211"/>
-      <c r="F42" s="211"/>
-      <c r="G42" s="211"/>
-      <c r="H42" s="211"/>
-      <c r="I42" s="211"/>
-      <c r="J42" s="211"/>
-      <c r="K42" s="211"/>
-      <c r="L42" s="211"/>
-      <c r="M42" s="211"/>
-      <c r="N42" s="212"/>
+      <c r="D42" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="191" t="s">
+        <v>186</v>
+      </c>
+      <c r="F42" s="191"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="191"/>
+      <c r="J42" s="191"/>
+      <c r="K42" s="191"/>
+      <c r="L42" s="191"/>
+      <c r="M42" s="191"/>
+      <c r="N42" s="192"/>
       <c r="O42" s="57"/>
     </row>
     <row r="43" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15149,16 +15404,18 @@
         <v>17</v>
       </c>
       <c r="D43" s="77"/>
-      <c r="E43" s="211"/>
-      <c r="F43" s="211"/>
-      <c r="G43" s="211"/>
-      <c r="H43" s="211"/>
-      <c r="I43" s="211"/>
-      <c r="J43" s="211"/>
-      <c r="K43" s="211"/>
-      <c r="L43" s="211"/>
-      <c r="M43" s="211"/>
-      <c r="N43" s="212"/>
+      <c r="E43" s="191" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" s="191"/>
+      <c r="G43" s="191"/>
+      <c r="H43" s="191"/>
+      <c r="I43" s="191"/>
+      <c r="J43" s="191"/>
+      <c r="K43" s="191"/>
+      <c r="L43" s="191"/>
+      <c r="M43" s="191"/>
+      <c r="N43" s="192"/>
       <c r="O43" s="57"/>
     </row>
     <row r="44" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15167,16 +15424,18 @@
         <v>18</v>
       </c>
       <c r="D44" s="77"/>
-      <c r="E44" s="211"/>
-      <c r="F44" s="211"/>
-      <c r="G44" s="211"/>
-      <c r="H44" s="211"/>
-      <c r="I44" s="211"/>
-      <c r="J44" s="211"/>
-      <c r="K44" s="211"/>
-      <c r="L44" s="211"/>
-      <c r="M44" s="211"/>
-      <c r="N44" s="212"/>
+      <c r="E44" s="191" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="191"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="191"/>
+      <c r="J44" s="191"/>
+      <c r="K44" s="191"/>
+      <c r="L44" s="191"/>
+      <c r="M44" s="191"/>
+      <c r="N44" s="192"/>
       <c r="O44" s="57"/>
     </row>
     <row r="45" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15185,16 +15444,18 @@
         <v>19</v>
       </c>
       <c r="D45" s="77"/>
-      <c r="E45" s="211"/>
-      <c r="F45" s="211"/>
-      <c r="G45" s="211"/>
-      <c r="H45" s="211"/>
-      <c r="I45" s="211"/>
-      <c r="J45" s="211"/>
-      <c r="K45" s="211"/>
-      <c r="L45" s="211"/>
-      <c r="M45" s="211"/>
-      <c r="N45" s="212"/>
+      <c r="E45" s="191">
+        <v>560048</v>
+      </c>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="191"/>
+      <c r="J45" s="191"/>
+      <c r="K45" s="191"/>
+      <c r="L45" s="191"/>
+      <c r="M45" s="191"/>
+      <c r="N45" s="192"/>
       <c r="O45" s="57"/>
     </row>
     <row r="46" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -15203,34 +15464,34 @@
         <v>20</v>
       </c>
       <c r="D46" s="82"/>
-      <c r="E46" s="211"/>
-      <c r="F46" s="211"/>
-      <c r="G46" s="211"/>
-      <c r="H46" s="211"/>
-      <c r="I46" s="211"/>
-      <c r="J46" s="211"/>
-      <c r="K46" s="211"/>
-      <c r="L46" s="211"/>
-      <c r="M46" s="211"/>
-      <c r="N46" s="212"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="191"/>
+      <c r="G46" s="191"/>
+      <c r="H46" s="191"/>
+      <c r="I46" s="191"/>
+      <c r="J46" s="191"/>
+      <c r="K46" s="191"/>
+      <c r="L46" s="191"/>
+      <c r="M46" s="191"/>
+      <c r="N46" s="192"/>
       <c r="O46" s="57"/>
     </row>
     <row r="47" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="57"/>
-      <c r="C47" s="205" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="206"/>
-      <c r="E47" s="206"/>
-      <c r="F47" s="206"/>
-      <c r="G47" s="206"/>
-      <c r="H47" s="206"/>
-      <c r="I47" s="206"/>
-      <c r="J47" s="206"/>
-      <c r="K47" s="206"/>
-      <c r="L47" s="206"/>
-      <c r="M47" s="206"/>
-      <c r="N47" s="207"/>
+      <c r="D47" s="195"/>
+      <c r="E47" s="195"/>
+      <c r="F47" s="195"/>
+      <c r="G47" s="195"/>
+      <c r="H47" s="195"/>
+      <c r="I47" s="195"/>
+      <c r="J47" s="195"/>
+      <c r="K47" s="195"/>
+      <c r="L47" s="195"/>
+      <c r="M47" s="195"/>
+      <c r="N47" s="196"/>
       <c r="O47" s="57"/>
     </row>
     <row r="48" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -15239,16 +15500,16 @@
         <v>34</v>
       </c>
       <c r="D48" s="84"/>
-      <c r="E48" s="211"/>
-      <c r="F48" s="211"/>
-      <c r="G48" s="211"/>
-      <c r="H48" s="211"/>
-      <c r="I48" s="211"/>
-      <c r="J48" s="211"/>
-      <c r="K48" s="211"/>
-      <c r="L48" s="211"/>
-      <c r="M48" s="211"/>
-      <c r="N48" s="212"/>
+      <c r="E48" s="191"/>
+      <c r="F48" s="191"/>
+      <c r="G48" s="191"/>
+      <c r="H48" s="191"/>
+      <c r="I48" s="191"/>
+      <c r="J48" s="191"/>
+      <c r="K48" s="191"/>
+      <c r="L48" s="191"/>
+      <c r="M48" s="191"/>
+      <c r="N48" s="192"/>
       <c r="O48" s="57"/>
     </row>
     <row r="49" spans="2:15" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -15257,16 +15518,16 @@
         <v>35</v>
       </c>
       <c r="D49" s="86"/>
-      <c r="E49" s="211"/>
-      <c r="F49" s="211"/>
-      <c r="G49" s="211"/>
-      <c r="H49" s="211"/>
-      <c r="I49" s="211"/>
-      <c r="J49" s="211"/>
-      <c r="K49" s="211"/>
-      <c r="L49" s="211"/>
-      <c r="M49" s="211"/>
-      <c r="N49" s="212"/>
+      <c r="E49" s="191"/>
+      <c r="F49" s="191"/>
+      <c r="G49" s="191"/>
+      <c r="H49" s="191"/>
+      <c r="I49" s="191"/>
+      <c r="J49" s="191"/>
+      <c r="K49" s="191"/>
+      <c r="L49" s="191"/>
+      <c r="M49" s="191"/>
+      <c r="N49" s="192"/>
       <c r="O49" s="57"/>
     </row>
     <row r="50" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -15275,34 +15536,34 @@
         <v>36</v>
       </c>
       <c r="D50" s="88"/>
-      <c r="E50" s="211"/>
-      <c r="F50" s="211"/>
-      <c r="G50" s="211"/>
-      <c r="H50" s="211"/>
-      <c r="I50" s="211"/>
-      <c r="J50" s="211"/>
-      <c r="K50" s="211"/>
-      <c r="L50" s="211"/>
-      <c r="M50" s="211"/>
-      <c r="N50" s="212"/>
+      <c r="E50" s="191"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="191"/>
+      <c r="H50" s="191"/>
+      <c r="I50" s="191"/>
+      <c r="J50" s="191"/>
+      <c r="K50" s="191"/>
+      <c r="L50" s="191"/>
+      <c r="M50" s="191"/>
+      <c r="N50" s="192"/>
       <c r="O50" s="57"/>
     </row>
     <row r="51" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="57"/>
-      <c r="C51" s="205" t="s">
+      <c r="C51" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="206"/>
-      <c r="E51" s="206"/>
-      <c r="F51" s="206"/>
-      <c r="G51" s="206"/>
-      <c r="H51" s="206"/>
-      <c r="I51" s="206"/>
-      <c r="J51" s="206"/>
-      <c r="K51" s="206"/>
-      <c r="L51" s="206"/>
-      <c r="M51" s="206"/>
-      <c r="N51" s="207"/>
+      <c r="D51" s="195"/>
+      <c r="E51" s="195"/>
+      <c r="F51" s="195"/>
+      <c r="G51" s="195"/>
+      <c r="H51" s="195"/>
+      <c r="I51" s="195"/>
+      <c r="J51" s="195"/>
+      <c r="K51" s="195"/>
+      <c r="L51" s="195"/>
+      <c r="M51" s="195"/>
+      <c r="N51" s="196"/>
       <c r="O51" s="57"/>
     </row>
     <row r="52" spans="2:15" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -15311,16 +15572,18 @@
         <v>38</v>
       </c>
       <c r="D52" s="84"/>
-      <c r="E52" s="211"/>
-      <c r="F52" s="211"/>
-      <c r="G52" s="211"/>
-      <c r="H52" s="211"/>
-      <c r="I52" s="211"/>
-      <c r="J52" s="211"/>
-      <c r="K52" s="211"/>
-      <c r="L52" s="211"/>
-      <c r="M52" s="211"/>
-      <c r="N52" s="212"/>
+      <c r="E52" s="191" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="191"/>
+      <c r="G52" s="191"/>
+      <c r="H52" s="191"/>
+      <c r="I52" s="191"/>
+      <c r="J52" s="191"/>
+      <c r="K52" s="191"/>
+      <c r="L52" s="191"/>
+      <c r="M52" s="191"/>
+      <c r="N52" s="192"/>
       <c r="O52" s="57"/>
     </row>
     <row r="53" spans="2:15" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -15329,18 +15592,18 @@
         <v>39</v>
       </c>
       <c r="D53" s="86"/>
-      <c r="E53" s="213">
-        <v>36872</v>
+      <c r="E53" s="240" t="s">
+        <v>188</v>
       </c>
-      <c r="F53" s="211"/>
-      <c r="G53" s="211"/>
-      <c r="H53" s="211"/>
-      <c r="I53" s="211"/>
-      <c r="J53" s="211"/>
-      <c r="K53" s="211"/>
-      <c r="L53" s="211"/>
-      <c r="M53" s="211"/>
-      <c r="N53" s="212"/>
+      <c r="F53" s="191"/>
+      <c r="G53" s="191"/>
+      <c r="H53" s="191"/>
+      <c r="I53" s="191"/>
+      <c r="J53" s="191"/>
+      <c r="K53" s="191"/>
+      <c r="L53" s="191"/>
+      <c r="M53" s="191"/>
+      <c r="N53" s="192"/>
       <c r="O53" s="57"/>
     </row>
     <row r="54" spans="2:15" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -15349,16 +15612,18 @@
         <v>40</v>
       </c>
       <c r="D54" s="86"/>
-      <c r="E54" s="211"/>
-      <c r="F54" s="211"/>
-      <c r="G54" s="211"/>
-      <c r="H54" s="211"/>
-      <c r="I54" s="211"/>
-      <c r="J54" s="211"/>
-      <c r="K54" s="211"/>
-      <c r="L54" s="211"/>
-      <c r="M54" s="211"/>
-      <c r="N54" s="212"/>
+      <c r="E54" s="191">
+        <v>101260620347</v>
+      </c>
+      <c r="F54" s="191"/>
+      <c r="G54" s="191"/>
+      <c r="H54" s="191"/>
+      <c r="I54" s="191"/>
+      <c r="J54" s="191"/>
+      <c r="K54" s="191"/>
+      <c r="L54" s="191"/>
+      <c r="M54" s="191"/>
+      <c r="N54" s="192"/>
       <c r="O54" s="57"/>
     </row>
     <row r="55" spans="2:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -15367,34 +15632,34 @@
         <v>41</v>
       </c>
       <c r="D55" s="90"/>
-      <c r="E55" s="211"/>
-      <c r="F55" s="211"/>
-      <c r="G55" s="211"/>
-      <c r="H55" s="211"/>
-      <c r="I55" s="211"/>
-      <c r="J55" s="211"/>
-      <c r="K55" s="211"/>
-      <c r="L55" s="211"/>
-      <c r="M55" s="211"/>
-      <c r="N55" s="212"/>
+      <c r="E55" s="191"/>
+      <c r="F55" s="191"/>
+      <c r="G55" s="191"/>
+      <c r="H55" s="191"/>
+      <c r="I55" s="191"/>
+      <c r="J55" s="191"/>
+      <c r="K55" s="191"/>
+      <c r="L55" s="191"/>
+      <c r="M55" s="191"/>
+      <c r="N55" s="192"/>
       <c r="O55" s="57"/>
     </row>
     <row r="56" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="57"/>
-      <c r="C56" s="205" t="s">
+      <c r="C56" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="206"/>
-      <c r="E56" s="206"/>
-      <c r="F56" s="206"/>
-      <c r="G56" s="206"/>
-      <c r="H56" s="206"/>
-      <c r="I56" s="206"/>
-      <c r="J56" s="206"/>
-      <c r="K56" s="206"/>
-      <c r="L56" s="206"/>
-      <c r="M56" s="206"/>
-      <c r="N56" s="207"/>
+      <c r="D56" s="195"/>
+      <c r="E56" s="195"/>
+      <c r="F56" s="195"/>
+      <c r="G56" s="195"/>
+      <c r="H56" s="195"/>
+      <c r="I56" s="195"/>
+      <c r="J56" s="195"/>
+      <c r="K56" s="195"/>
+      <c r="L56" s="195"/>
+      <c r="M56" s="195"/>
+      <c r="N56" s="196"/>
       <c r="O56" s="57"/>
     </row>
     <row r="57" spans="2:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15403,21 +15668,21 @@
         <v>43</v>
       </c>
       <c r="D57" s="92"/>
-      <c r="E57" s="208" t="s">
+      <c r="E57" s="216" t="s">
         <v>44</v>
       </c>
-      <c r="F57" s="209"/>
-      <c r="G57" s="210"/>
-      <c r="H57" s="208" t="s">
+      <c r="F57" s="217"/>
+      <c r="G57" s="218"/>
+      <c r="H57" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="I57" s="209"/>
-      <c r="J57" s="209"/>
-      <c r="K57" s="210"/>
-      <c r="L57" s="208" t="s">
+      <c r="I57" s="217"/>
+      <c r="J57" s="217"/>
+      <c r="K57" s="218"/>
+      <c r="L57" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="M57" s="236"/>
+      <c r="M57" s="219"/>
       <c r="N57" s="91" t="s">
         <v>47</v>
       </c>
@@ -15429,16 +15694,22 @@
         <v>48</v>
       </c>
       <c r="D58" s="93"/>
-      <c r="E58" s="204"/>
-      <c r="F58" s="204"/>
-      <c r="G58" s="204"/>
-      <c r="H58" s="204"/>
-      <c r="I58" s="204"/>
-      <c r="J58" s="204"/>
-      <c r="K58" s="204"/>
-      <c r="L58" s="204"/>
-      <c r="M58" s="204"/>
-      <c r="N58" s="94"/>
+      <c r="E58" s="254"/>
+      <c r="F58" s="254"/>
+      <c r="G58" s="254"/>
+      <c r="H58" s="254" t="s">
+        <v>192</v>
+      </c>
+      <c r="I58" s="254"/>
+      <c r="J58" s="254"/>
+      <c r="K58" s="254"/>
+      <c r="L58" s="254">
+        <v>2011</v>
+      </c>
+      <c r="M58" s="254"/>
+      <c r="N58" s="94">
+        <v>74</v>
+      </c>
       <c r="O58" s="57"/>
     </row>
     <row r="59" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
@@ -15447,16 +15718,24 @@
         <v>49</v>
       </c>
       <c r="D59" s="93"/>
-      <c r="E59" s="197"/>
-      <c r="F59" s="197"/>
-      <c r="G59" s="197"/>
-      <c r="H59" s="197"/>
-      <c r="I59" s="197"/>
-      <c r="J59" s="197"/>
-      <c r="K59" s="197"/>
-      <c r="L59" s="197"/>
-      <c r="M59" s="197"/>
-      <c r="N59" s="95"/>
+      <c r="E59" s="188" t="s">
+        <v>189</v>
+      </c>
+      <c r="F59" s="188"/>
+      <c r="G59" s="188"/>
+      <c r="H59" s="188" t="s">
+        <v>192</v>
+      </c>
+      <c r="I59" s="188"/>
+      <c r="J59" s="188"/>
+      <c r="K59" s="188"/>
+      <c r="L59" s="188">
+        <v>2013</v>
+      </c>
+      <c r="M59" s="188"/>
+      <c r="N59" s="95">
+        <v>70.400000000000006</v>
+      </c>
       <c r="O59" s="57"/>
     </row>
     <row r="60" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
@@ -15465,16 +15744,24 @@
         <v>50</v>
       </c>
       <c r="D60" s="93"/>
-      <c r="E60" s="197"/>
-      <c r="F60" s="197"/>
-      <c r="G60" s="197"/>
-      <c r="H60" s="197"/>
-      <c r="I60" s="197"/>
-      <c r="J60" s="197"/>
-      <c r="K60" s="197"/>
-      <c r="L60" s="197"/>
-      <c r="M60" s="197"/>
-      <c r="N60" s="95"/>
+      <c r="E60" s="188" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="188"/>
+      <c r="G60" s="188"/>
+      <c r="H60" s="188" t="s">
+        <v>193</v>
+      </c>
+      <c r="I60" s="188"/>
+      <c r="J60" s="188"/>
+      <c r="K60" s="188"/>
+      <c r="L60" s="188">
+        <v>2017</v>
+      </c>
+      <c r="M60" s="188"/>
+      <c r="N60" s="95">
+        <v>6.37</v>
+      </c>
       <c r="O60" s="57"/>
     </row>
     <row r="61" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
@@ -15483,15 +15770,15 @@
         <v>51</v>
       </c>
       <c r="D61" s="93"/>
-      <c r="E61" s="197"/>
-      <c r="F61" s="197"/>
-      <c r="G61" s="197"/>
-      <c r="H61" s="197"/>
-      <c r="I61" s="197"/>
-      <c r="J61" s="197"/>
-      <c r="K61" s="197"/>
-      <c r="L61" s="197"/>
-      <c r="M61" s="197"/>
+      <c r="E61" s="188"/>
+      <c r="F61" s="188"/>
+      <c r="G61" s="188"/>
+      <c r="H61" s="188"/>
+      <c r="I61" s="188"/>
+      <c r="J61" s="188"/>
+      <c r="K61" s="188"/>
+      <c r="L61" s="188"/>
+      <c r="M61" s="188"/>
       <c r="N61" s="95"/>
       <c r="O61" s="57"/>
     </row>
@@ -15501,34 +15788,36 @@
         <v>52</v>
       </c>
       <c r="D62" s="96"/>
-      <c r="E62" s="201"/>
-      <c r="F62" s="202"/>
-      <c r="G62" s="202"/>
-      <c r="H62" s="202"/>
-      <c r="I62" s="202"/>
-      <c r="J62" s="202"/>
-      <c r="K62" s="202"/>
-      <c r="L62" s="202"/>
-      <c r="M62" s="202"/>
-      <c r="N62" s="203"/>
+      <c r="E62" s="251" t="s">
+        <v>191</v>
+      </c>
+      <c r="F62" s="252"/>
+      <c r="G62" s="252"/>
+      <c r="H62" s="252"/>
+      <c r="I62" s="252"/>
+      <c r="J62" s="252"/>
+      <c r="K62" s="252"/>
+      <c r="L62" s="252"/>
+      <c r="M62" s="252"/>
+      <c r="N62" s="253"/>
       <c r="O62" s="57"/>
     </row>
     <row r="63" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="57"/>
-      <c r="C63" s="242" t="s">
+      <c r="C63" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="D63" s="243"/>
-      <c r="E63" s="243"/>
-      <c r="F63" s="243"/>
-      <c r="G63" s="243"/>
-      <c r="H63" s="243"/>
-      <c r="I63" s="243"/>
-      <c r="J63" s="243"/>
-      <c r="K63" s="243"/>
-      <c r="L63" s="243"/>
-      <c r="M63" s="243"/>
-      <c r="N63" s="244"/>
+      <c r="D63" s="205"/>
+      <c r="E63" s="205"/>
+      <c r="F63" s="205"/>
+      <c r="G63" s="205"/>
+      <c r="H63" s="205"/>
+      <c r="I63" s="205"/>
+      <c r="J63" s="205"/>
+      <c r="K63" s="205"/>
+      <c r="L63" s="205"/>
+      <c r="M63" s="205"/>
+      <c r="N63" s="206"/>
       <c r="O63" s="57"/>
     </row>
     <row r="64" spans="2:15" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -15537,16 +15826,18 @@
         <v>54</v>
       </c>
       <c r="D64" s="98"/>
-      <c r="E64" s="198"/>
-      <c r="F64" s="199"/>
-      <c r="G64" s="199"/>
-      <c r="H64" s="199"/>
-      <c r="I64" s="199"/>
-      <c r="J64" s="199"/>
-      <c r="K64" s="199"/>
-      <c r="L64" s="199"/>
-      <c r="M64" s="199"/>
-      <c r="N64" s="200"/>
+      <c r="E64" s="248">
+        <v>6.5</v>
+      </c>
+      <c r="F64" s="249"/>
+      <c r="G64" s="249"/>
+      <c r="H64" s="249"/>
+      <c r="I64" s="249"/>
+      <c r="J64" s="249"/>
+      <c r="K64" s="249"/>
+      <c r="L64" s="249"/>
+      <c r="M64" s="249"/>
+      <c r="N64" s="250"/>
       <c r="O64" s="57"/>
     </row>
     <row r="65" spans="2:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15555,34 +15846,36 @@
         <v>55</v>
       </c>
       <c r="D65" s="100"/>
-      <c r="E65" s="194"/>
-      <c r="F65" s="195"/>
-      <c r="G65" s="195"/>
-      <c r="H65" s="195"/>
-      <c r="I65" s="195"/>
-      <c r="J65" s="195"/>
-      <c r="K65" s="195"/>
-      <c r="L65" s="195"/>
-      <c r="M65" s="195"/>
-      <c r="N65" s="196"/>
+      <c r="E65" s="245">
+        <v>6.5</v>
+      </c>
+      <c r="F65" s="246"/>
+      <c r="G65" s="246"/>
+      <c r="H65" s="246"/>
+      <c r="I65" s="246"/>
+      <c r="J65" s="246"/>
+      <c r="K65" s="246"/>
+      <c r="L65" s="246"/>
+      <c r="M65" s="246"/>
+      <c r="N65" s="247"/>
       <c r="O65" s="57"/>
     </row>
     <row r="66" spans="2:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="57"/>
-      <c r="C66" s="245" t="s">
+      <c r="C66" s="225" t="s">
         <v>56</v>
       </c>
-      <c r="D66" s="246"/>
-      <c r="E66" s="246"/>
-      <c r="F66" s="246"/>
-      <c r="G66" s="246"/>
-      <c r="H66" s="246"/>
-      <c r="I66" s="246"/>
-      <c r="J66" s="246"/>
-      <c r="K66" s="246"/>
-      <c r="L66" s="246"/>
-      <c r="M66" s="246"/>
-      <c r="N66" s="247"/>
+      <c r="D66" s="226"/>
+      <c r="E66" s="226"/>
+      <c r="F66" s="226"/>
+      <c r="G66" s="226"/>
+      <c r="H66" s="226"/>
+      <c r="I66" s="226"/>
+      <c r="J66" s="226"/>
+      <c r="K66" s="226"/>
+      <c r="L66" s="226"/>
+      <c r="M66" s="226"/>
+      <c r="N66" s="227"/>
       <c r="O66" s="57"/>
     </row>
     <row r="67" spans="2:15" ht="36.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -15591,14 +15884,14 @@
         <v>57</v>
       </c>
       <c r="D67" s="102"/>
-      <c r="E67" s="248" t="s">
+      <c r="E67" s="228" t="s">
         <v>58</v>
       </c>
-      <c r="F67" s="249"/>
-      <c r="G67" s="249"/>
-      <c r="H67" s="249"/>
-      <c r="I67" s="249"/>
-      <c r="J67" s="249"/>
+      <c r="F67" s="229"/>
+      <c r="G67" s="229"/>
+      <c r="H67" s="229"/>
+      <c r="I67" s="229"/>
+      <c r="J67" s="229"/>
       <c r="K67" s="103" t="s">
         <v>59</v>
       </c>
@@ -15619,16 +15912,26 @@
         <v>63</v>
       </c>
       <c r="D68" s="106"/>
-      <c r="E68" s="197"/>
-      <c r="F68" s="197"/>
-      <c r="G68" s="197"/>
-      <c r="H68" s="197"/>
-      <c r="I68" s="197"/>
-      <c r="J68" s="197"/>
-      <c r="K68" s="107"/>
-      <c r="L68" s="107"/>
-      <c r="M68" s="107"/>
-      <c r="N68" s="108"/>
+      <c r="E68" s="188" t="s">
+        <v>194</v>
+      </c>
+      <c r="F68" s="188"/>
+      <c r="G68" s="188"/>
+      <c r="H68" s="188"/>
+      <c r="I68" s="188"/>
+      <c r="J68" s="188"/>
+      <c r="K68" s="107">
+        <v>2</v>
+      </c>
+      <c r="L68" s="107" t="s">
+        <v>197</v>
+      </c>
+      <c r="M68" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="N68" s="108">
+        <v>3.75</v>
+      </c>
       <c r="O68" s="57"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.3">
@@ -15637,16 +15940,26 @@
         <v>64</v>
       </c>
       <c r="D69" s="106"/>
-      <c r="E69" s="197"/>
-      <c r="F69" s="197"/>
-      <c r="G69" s="197"/>
-      <c r="H69" s="197"/>
-      <c r="I69" s="197"/>
-      <c r="J69" s="197"/>
-      <c r="K69" s="107"/>
-      <c r="L69" s="107"/>
-      <c r="M69" s="107"/>
-      <c r="N69" s="108"/>
+      <c r="E69" s="188" t="s">
+        <v>195</v>
+      </c>
+      <c r="F69" s="188"/>
+      <c r="G69" s="188"/>
+      <c r="H69" s="188"/>
+      <c r="I69" s="188"/>
+      <c r="J69" s="188"/>
+      <c r="K69" s="107">
+        <v>1.2</v>
+      </c>
+      <c r="L69" s="276" t="s">
+        <v>200</v>
+      </c>
+      <c r="M69" s="276" t="s">
+        <v>201</v>
+      </c>
+      <c r="N69" s="108">
+        <v>6.5</v>
+      </c>
       <c r="O69" s="57"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.3">
@@ -15655,16 +15968,26 @@
         <v>65</v>
       </c>
       <c r="D70" s="106"/>
-      <c r="E70" s="197"/>
-      <c r="F70" s="197"/>
-      <c r="G70" s="197"/>
-      <c r="H70" s="197"/>
-      <c r="I70" s="197"/>
-      <c r="J70" s="197"/>
-      <c r="K70" s="107"/>
-      <c r="L70" s="107"/>
-      <c r="M70" s="107"/>
-      <c r="N70" s="108"/>
+      <c r="E70" s="188" t="s">
+        <v>196</v>
+      </c>
+      <c r="F70" s="188"/>
+      <c r="G70" s="188"/>
+      <c r="H70" s="188"/>
+      <c r="I70" s="188"/>
+      <c r="J70" s="188"/>
+      <c r="K70" s="107">
+        <v>3.2</v>
+      </c>
+      <c r="L70" s="277">
+        <v>44200</v>
+      </c>
+      <c r="M70" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="N70" s="108" t="s">
+        <v>199</v>
+      </c>
       <c r="O70" s="57"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.3">
@@ -15673,12 +15996,12 @@
         <v>66</v>
       </c>
       <c r="D71" s="106"/>
-      <c r="E71" s="197"/>
-      <c r="F71" s="197"/>
-      <c r="G71" s="197"/>
-      <c r="H71" s="197"/>
-      <c r="I71" s="197"/>
-      <c r="J71" s="197"/>
+      <c r="E71" s="188"/>
+      <c r="F71" s="188"/>
+      <c r="G71" s="188"/>
+      <c r="H71" s="188"/>
+      <c r="I71" s="188"/>
+      <c r="J71" s="188"/>
       <c r="K71" s="107"/>
       <c r="L71" s="107"/>
       <c r="M71" s="107"/>
@@ -15691,12 +16014,12 @@
         <v>67</v>
       </c>
       <c r="D72" s="110"/>
-      <c r="E72" s="254"/>
-      <c r="F72" s="254"/>
-      <c r="G72" s="254"/>
-      <c r="H72" s="254"/>
-      <c r="I72" s="254"/>
-      <c r="J72" s="254"/>
+      <c r="E72" s="203"/>
+      <c r="F72" s="203"/>
+      <c r="G72" s="203"/>
+      <c r="H72" s="203"/>
+      <c r="I72" s="203"/>
+      <c r="J72" s="203"/>
       <c r="K72" s="111"/>
       <c r="L72" s="111"/>
       <c r="M72" s="111"/>
@@ -15705,20 +16028,20 @@
     </row>
     <row r="73" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="57"/>
-      <c r="C73" s="242" t="s">
+      <c r="C73" s="204" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="243"/>
-      <c r="E73" s="243"/>
-      <c r="F73" s="243"/>
-      <c r="G73" s="243"/>
-      <c r="H73" s="243"/>
-      <c r="I73" s="243"/>
-      <c r="J73" s="243"/>
-      <c r="K73" s="243"/>
-      <c r="L73" s="243"/>
-      <c r="M73" s="243"/>
-      <c r="N73" s="244"/>
+      <c r="D73" s="205"/>
+      <c r="E73" s="205"/>
+      <c r="F73" s="205"/>
+      <c r="G73" s="205"/>
+      <c r="H73" s="205"/>
+      <c r="I73" s="205"/>
+      <c r="J73" s="205"/>
+      <c r="K73" s="205"/>
+      <c r="L73" s="205"/>
+      <c r="M73" s="205"/>
+      <c r="N73" s="206"/>
       <c r="O73" s="57"/>
     </row>
     <row r="74" spans="2:15" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -15727,16 +16050,18 @@
         <v>69</v>
       </c>
       <c r="D74" s="77"/>
-      <c r="E74" s="189"/>
-      <c r="F74" s="189"/>
-      <c r="G74" s="189"/>
-      <c r="H74" s="189"/>
-      <c r="I74" s="189"/>
-      <c r="J74" s="189"/>
-      <c r="K74" s="189"/>
-      <c r="L74" s="189"/>
-      <c r="M74" s="189"/>
-      <c r="N74" s="190"/>
+      <c r="E74" s="201" t="s">
+        <v>203</v>
+      </c>
+      <c r="F74" s="201"/>
+      <c r="G74" s="201"/>
+      <c r="H74" s="201"/>
+      <c r="I74" s="201"/>
+      <c r="J74" s="201"/>
+      <c r="K74" s="201"/>
+      <c r="L74" s="201"/>
+      <c r="M74" s="201"/>
+      <c r="N74" s="202"/>
       <c r="O74" s="57"/>
     </row>
     <row r="75" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15745,16 +16070,18 @@
         <v>70</v>
       </c>
       <c r="D75" s="77"/>
-      <c r="E75" s="189"/>
-      <c r="F75" s="189"/>
-      <c r="G75" s="189"/>
-      <c r="H75" s="189"/>
-      <c r="I75" s="189"/>
-      <c r="J75" s="189"/>
-      <c r="K75" s="189"/>
-      <c r="L75" s="189"/>
-      <c r="M75" s="189"/>
-      <c r="N75" s="190"/>
+      <c r="E75" s="201" t="s">
+        <v>196</v>
+      </c>
+      <c r="F75" s="201"/>
+      <c r="G75" s="201"/>
+      <c r="H75" s="201"/>
+      <c r="I75" s="201"/>
+      <c r="J75" s="201"/>
+      <c r="K75" s="201"/>
+      <c r="L75" s="201"/>
+      <c r="M75" s="201"/>
+      <c r="N75" s="202"/>
       <c r="O75" s="57"/>
     </row>
     <row r="76" spans="2:15" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -15763,16 +16090,18 @@
         <v>71</v>
       </c>
       <c r="D76" s="77"/>
-      <c r="E76" s="189"/>
-      <c r="F76" s="189"/>
-      <c r="G76" s="189"/>
-      <c r="H76" s="189"/>
-      <c r="I76" s="189"/>
-      <c r="J76" s="189"/>
-      <c r="K76" s="189"/>
-      <c r="L76" s="189"/>
-      <c r="M76" s="189"/>
-      <c r="N76" s="190"/>
+      <c r="E76" s="201" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76" s="201"/>
+      <c r="G76" s="201"/>
+      <c r="H76" s="201"/>
+      <c r="I76" s="201"/>
+      <c r="J76" s="201"/>
+      <c r="K76" s="201"/>
+      <c r="L76" s="201"/>
+      <c r="M76" s="201"/>
+      <c r="N76" s="202"/>
       <c r="O76" s="57"/>
     </row>
     <row r="77" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15781,16 +16110,18 @@
         <v>72</v>
       </c>
       <c r="D77" s="77"/>
-      <c r="E77" s="191"/>
-      <c r="F77" s="192"/>
-      <c r="G77" s="192"/>
-      <c r="H77" s="192"/>
-      <c r="I77" s="192"/>
-      <c r="J77" s="192"/>
-      <c r="K77" s="192"/>
-      <c r="L77" s="192"/>
-      <c r="M77" s="192"/>
-      <c r="N77" s="193"/>
+      <c r="E77" s="242" t="s">
+        <v>205</v>
+      </c>
+      <c r="F77" s="243"/>
+      <c r="G77" s="243"/>
+      <c r="H77" s="243"/>
+      <c r="I77" s="243"/>
+      <c r="J77" s="243"/>
+      <c r="K77" s="243"/>
+      <c r="L77" s="243"/>
+      <c r="M77" s="243"/>
+      <c r="N77" s="244"/>
       <c r="O77" s="57"/>
     </row>
     <row r="78" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15799,16 +16130,18 @@
         <v>73</v>
       </c>
       <c r="D78" s="77"/>
-      <c r="E78" s="191"/>
-      <c r="F78" s="192"/>
-      <c r="G78" s="192"/>
-      <c r="H78" s="192"/>
-      <c r="I78" s="192"/>
-      <c r="J78" s="192"/>
-      <c r="K78" s="192"/>
-      <c r="L78" s="192"/>
-      <c r="M78" s="192"/>
-      <c r="N78" s="193"/>
+      <c r="E78" s="242">
+        <v>9073903136</v>
+      </c>
+      <c r="F78" s="243"/>
+      <c r="G78" s="243"/>
+      <c r="H78" s="243"/>
+      <c r="I78" s="243"/>
+      <c r="J78" s="243"/>
+      <c r="K78" s="243"/>
+      <c r="L78" s="243"/>
+      <c r="M78" s="243"/>
+      <c r="N78" s="244"/>
       <c r="O78" s="57"/>
     </row>
     <row r="79" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15817,16 +16150,18 @@
         <v>74</v>
       </c>
       <c r="D79" s="77"/>
-      <c r="E79" s="189"/>
-      <c r="F79" s="189"/>
-      <c r="G79" s="189"/>
-      <c r="H79" s="189"/>
-      <c r="I79" s="189"/>
-      <c r="J79" s="189"/>
-      <c r="K79" s="189"/>
-      <c r="L79" s="189"/>
-      <c r="M79" s="189"/>
-      <c r="N79" s="190"/>
+      <c r="E79" s="201" t="s">
+        <v>206</v>
+      </c>
+      <c r="F79" s="201"/>
+      <c r="G79" s="201"/>
+      <c r="H79" s="201"/>
+      <c r="I79" s="201"/>
+      <c r="J79" s="201"/>
+      <c r="K79" s="201"/>
+      <c r="L79" s="201"/>
+      <c r="M79" s="201"/>
+      <c r="N79" s="202"/>
       <c r="O79" s="57"/>
     </row>
     <row r="80" spans="2:15" ht="2.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -15851,16 +16186,18 @@
         <v>75</v>
       </c>
       <c r="D81" s="77"/>
-      <c r="E81" s="189"/>
-      <c r="F81" s="189"/>
-      <c r="G81" s="189"/>
-      <c r="H81" s="189"/>
-      <c r="I81" s="189"/>
-      <c r="J81" s="189"/>
-      <c r="K81" s="189"/>
-      <c r="L81" s="189"/>
-      <c r="M81" s="189"/>
-      <c r="N81" s="190"/>
+      <c r="E81" s="201" t="s">
+        <v>207</v>
+      </c>
+      <c r="F81" s="201"/>
+      <c r="G81" s="201"/>
+      <c r="H81" s="201"/>
+      <c r="I81" s="201"/>
+      <c r="J81" s="201"/>
+      <c r="K81" s="201"/>
+      <c r="L81" s="201"/>
+      <c r="M81" s="201"/>
+      <c r="N81" s="202"/>
       <c r="O81" s="57"/>
     </row>
     <row r="82" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15869,16 +16206,18 @@
         <v>70</v>
       </c>
       <c r="D82" s="77"/>
-      <c r="E82" s="189"/>
-      <c r="F82" s="189"/>
-      <c r="G82" s="189"/>
-      <c r="H82" s="189"/>
-      <c r="I82" s="189"/>
-      <c r="J82" s="189"/>
-      <c r="K82" s="189"/>
-      <c r="L82" s="189"/>
-      <c r="M82" s="189"/>
-      <c r="N82" s="190"/>
+      <c r="E82" s="201" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" s="201"/>
+      <c r="G82" s="201"/>
+      <c r="H82" s="201"/>
+      <c r="I82" s="201"/>
+      <c r="J82" s="201"/>
+      <c r="K82" s="201"/>
+      <c r="L82" s="201"/>
+      <c r="M82" s="201"/>
+      <c r="N82" s="202"/>
       <c r="O82" s="57"/>
     </row>
     <row r="83" spans="2:15" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -15887,16 +16226,18 @@
         <v>71</v>
       </c>
       <c r="D83" s="77"/>
-      <c r="E83" s="189"/>
-      <c r="F83" s="189"/>
-      <c r="G83" s="189"/>
-      <c r="H83" s="189"/>
-      <c r="I83" s="189"/>
-      <c r="J83" s="189"/>
-      <c r="K83" s="189"/>
-      <c r="L83" s="189"/>
-      <c r="M83" s="189"/>
-      <c r="N83" s="190"/>
+      <c r="E83" s="201" t="s">
+        <v>209</v>
+      </c>
+      <c r="F83" s="201"/>
+      <c r="G83" s="201"/>
+      <c r="H83" s="201"/>
+      <c r="I83" s="201"/>
+      <c r="J83" s="201"/>
+      <c r="K83" s="201"/>
+      <c r="L83" s="201"/>
+      <c r="M83" s="201"/>
+      <c r="N83" s="202"/>
       <c r="O83" s="57"/>
     </row>
     <row r="84" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15905,16 +16246,18 @@
         <v>72</v>
       </c>
       <c r="D84" s="77"/>
-      <c r="E84" s="189"/>
-      <c r="F84" s="189"/>
-      <c r="G84" s="189"/>
-      <c r="H84" s="189"/>
-      <c r="I84" s="189"/>
-      <c r="J84" s="189"/>
-      <c r="K84" s="189"/>
-      <c r="L84" s="189"/>
-      <c r="M84" s="189"/>
-      <c r="N84" s="190"/>
+      <c r="E84" s="201" t="s">
+        <v>210</v>
+      </c>
+      <c r="F84" s="201"/>
+      <c r="G84" s="201"/>
+      <c r="H84" s="201"/>
+      <c r="I84" s="201"/>
+      <c r="J84" s="201"/>
+      <c r="K84" s="201"/>
+      <c r="L84" s="201"/>
+      <c r="M84" s="201"/>
+      <c r="N84" s="202"/>
       <c r="O84" s="57"/>
     </row>
     <row r="85" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15923,16 +16266,18 @@
         <v>73</v>
       </c>
       <c r="D85" s="77"/>
-      <c r="E85" s="189"/>
-      <c r="F85" s="189"/>
-      <c r="G85" s="189"/>
-      <c r="H85" s="189"/>
-      <c r="I85" s="189"/>
-      <c r="J85" s="189"/>
-      <c r="K85" s="189"/>
-      <c r="L85" s="189"/>
-      <c r="M85" s="189"/>
-      <c r="N85" s="190"/>
+      <c r="E85" s="201">
+        <v>9590191999</v>
+      </c>
+      <c r="F85" s="201"/>
+      <c r="G85" s="201"/>
+      <c r="H85" s="201"/>
+      <c r="I85" s="201"/>
+      <c r="J85" s="201"/>
+      <c r="K85" s="201"/>
+      <c r="L85" s="201"/>
+      <c r="M85" s="201"/>
+      <c r="N85" s="202"/>
       <c r="O85" s="57"/>
     </row>
     <row r="86" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15941,16 +16286,18 @@
         <v>74</v>
       </c>
       <c r="D86" s="77"/>
-      <c r="E86" s="189"/>
-      <c r="F86" s="189"/>
-      <c r="G86" s="189"/>
-      <c r="H86" s="189"/>
-      <c r="I86" s="189"/>
-      <c r="J86" s="189"/>
-      <c r="K86" s="189"/>
-      <c r="L86" s="189"/>
-      <c r="M86" s="189"/>
-      <c r="N86" s="190"/>
+      <c r="E86" s="201" t="s">
+        <v>208</v>
+      </c>
+      <c r="F86" s="201"/>
+      <c r="G86" s="201"/>
+      <c r="H86" s="201"/>
+      <c r="I86" s="201"/>
+      <c r="J86" s="201"/>
+      <c r="K86" s="201"/>
+      <c r="L86" s="201"/>
+      <c r="M86" s="201"/>
+      <c r="N86" s="202"/>
       <c r="O86" s="57"/>
     </row>
     <row r="87" spans="2:15" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15972,21 +16319,23 @@
     <row r="88" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B88" s="57"/>
       <c r="C88" s="121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D88" s="122"/>
-      <c r="E88" s="250"/>
-      <c r="F88" s="250"/>
-      <c r="G88" s="250"/>
-      <c r="H88" s="250"/>
-      <c r="I88" s="250"/>
-      <c r="J88" s="250"/>
-      <c r="K88" s="251" t="s">
-        <v>116</v>
+      <c r="E88" s="197" t="s">
+        <v>211</v>
       </c>
-      <c r="L88" s="252"/>
-      <c r="M88" s="252"/>
-      <c r="N88" s="253"/>
+      <c r="F88" s="197"/>
+      <c r="G88" s="197"/>
+      <c r="H88" s="197"/>
+      <c r="I88" s="197"/>
+      <c r="J88" s="197"/>
+      <c r="K88" s="198" t="s">
+        <v>212</v>
+      </c>
+      <c r="L88" s="199"/>
+      <c r="M88" s="199"/>
+      <c r="N88" s="200"/>
       <c r="O88" s="57"/>
     </row>
     <row r="89" spans="2:15" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -16011,6 +16360,80 @@
     <protectedRange sqref="C9:N88" name="Range1"/>
   </protectedRanges>
   <mergeCells count="90">
+    <mergeCell ref="Q3:R6"/>
+    <mergeCell ref="E76:N76"/>
+    <mergeCell ref="E79:N79"/>
+    <mergeCell ref="E77:N77"/>
+    <mergeCell ref="E78:N78"/>
+    <mergeCell ref="E65:N65"/>
+    <mergeCell ref="E74:N74"/>
+    <mergeCell ref="E75:N75"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="E64:N64"/>
+    <mergeCell ref="E62:N62"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="C56:N56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E48:N48"/>
+    <mergeCell ref="E49:N49"/>
+    <mergeCell ref="E50:N50"/>
+    <mergeCell ref="E52:N52"/>
+    <mergeCell ref="E53:N53"/>
+    <mergeCell ref="E39:N39"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="E44:N44"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="E35:N35"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="C3:N6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="C63:N63"/>
+    <mergeCell ref="C66:N66"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="E46:N46"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="E36:N36"/>
+    <mergeCell ref="E37:N37"/>
+    <mergeCell ref="E88:J88"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="E82:N82"/>
+    <mergeCell ref="E83:N83"/>
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="C73:N73"/>
+    <mergeCell ref="E84:N84"/>
+    <mergeCell ref="E86:N86"/>
+    <mergeCell ref="E85:N85"/>
+    <mergeCell ref="E81:N81"/>
     <mergeCell ref="E71:J71"/>
     <mergeCell ref="E13:N13"/>
     <mergeCell ref="E14:N14"/>
@@ -16027,81 +16450,8 @@
     <mergeCell ref="E17:N17"/>
     <mergeCell ref="E18:N18"/>
     <mergeCell ref="E20:N20"/>
-    <mergeCell ref="E88:J88"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="E82:N82"/>
-    <mergeCell ref="E83:N83"/>
-    <mergeCell ref="E72:J72"/>
-    <mergeCell ref="C73:N73"/>
-    <mergeCell ref="E84:N84"/>
-    <mergeCell ref="E86:N86"/>
-    <mergeCell ref="E85:N85"/>
-    <mergeCell ref="E81:N81"/>
-    <mergeCell ref="C3:N6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="E10:N10"/>
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="C63:N63"/>
-    <mergeCell ref="C66:N66"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="E46:N46"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="E36:N36"/>
-    <mergeCell ref="E37:N37"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E16:N16"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="E35:N35"/>
-    <mergeCell ref="C28:N28"/>
-    <mergeCell ref="C38:N38"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="E39:N39"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="E44:N44"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="C56:N56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E48:N48"/>
-    <mergeCell ref="E49:N49"/>
-    <mergeCell ref="E50:N50"/>
-    <mergeCell ref="E52:N52"/>
-    <mergeCell ref="E53:N53"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="Q3:R6"/>
-    <mergeCell ref="E76:N76"/>
-    <mergeCell ref="E79:N79"/>
-    <mergeCell ref="E77:N77"/>
-    <mergeCell ref="E78:N78"/>
-    <mergeCell ref="E65:N65"/>
-    <mergeCell ref="E74:N74"/>
-    <mergeCell ref="E75:N75"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="E64:N64"/>
-    <mergeCell ref="E62:N62"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:K59"/>
   </mergeCells>
+  <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
@@ -16286,95 +16636,95 @@
     </row>
     <row r="3" spans="2:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
-      <c r="C3" s="266" t="s">
+      <c r="C3" s="259" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="268"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="260"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="261"/>
       <c r="I3" s="11"/>
       <c r="K3" s="139"/>
       <c r="L3" s="124"/>
     </row>
     <row r="4" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
-      <c r="C4" s="269" t="s">
+      <c r="C4" s="262" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
-      <c r="F4" s="255">
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="258" t="str">
         <f>'Documentation Checklist'!$D$5</f>
-        <v>0</v>
+        <v>Swapnil Changle</v>
       </c>
-      <c r="G4" s="255"/>
-      <c r="H4" s="255"/>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
       <c r="I4" s="11"/>
       <c r="K4" s="124"/>
       <c r="L4" s="124"/>
     </row>
     <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
-      <c r="C5" s="269" t="s">
+      <c r="C5" s="262" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="255" t="s">
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="258" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="255"/>
-      <c r="H5" s="255"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
       <c r="I5" s="11"/>
       <c r="K5" s="124"/>
       <c r="L5" s="124"/>
     </row>
     <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
-      <c r="C6" s="263" t="s">
+      <c r="C6" s="255" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="264"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="255">
+      <c r="D6" s="256"/>
+      <c r="E6" s="257"/>
+      <c r="F6" s="258" t="str">
         <f>'Employment Form'!$E$13</f>
-        <v>0</v>
+        <v>O+</v>
       </c>
-      <c r="G6" s="255"/>
-      <c r="H6" s="255"/>
+      <c r="G6" s="258"/>
+      <c r="H6" s="258"/>
       <c r="I6" s="11"/>
       <c r="K6" s="124"/>
       <c r="L6" s="124"/>
     </row>
     <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
-      <c r="C7" s="257" t="s">
+      <c r="C7" s="264" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="258"/>
-      <c r="E7" s="259"/>
-      <c r="F7" s="260">
+      <c r="D7" s="265"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="267" t="str">
         <f>'Employment Form'!$E$11</f>
-        <v>36872</v>
+        <v>22/03/1995</v>
       </c>
-      <c r="G7" s="261"/>
-      <c r="H7" s="262"/>
+      <c r="G7" s="268"/>
+      <c r="H7" s="269"/>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="263" t="s">
+      <c r="C8" s="255" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="264"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="255" t="s">
+      <c r="D8" s="256"/>
+      <c r="E8" s="257"/>
+      <c r="F8" s="258" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="255"/>
-      <c r="H8" s="255"/>
+      <c r="G8" s="258"/>
+      <c r="H8" s="258"/>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16384,12 +16734,12 @@
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="255">
+      <c r="F9" s="258">
         <f>'Employment Form'!$E$41</f>
-        <v>808362922</v>
+        <v>9945551901</v>
       </c>
-      <c r="G9" s="255"/>
-      <c r="H9" s="255"/>
+      <c r="G9" s="258"/>
+      <c r="H9" s="258"/>
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16399,12 +16749,12 @@
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="255">
+      <c r="F10" s="258" t="str">
         <f>'Employment Form'!$E$40</f>
-        <v>0</v>
+        <v>Brother</v>
       </c>
-      <c r="G10" s="255"/>
-      <c r="H10" s="255"/>
+      <c r="G10" s="258"/>
+      <c r="H10" s="258"/>
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16414,12 +16764,12 @@
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="255" t="str">
+      <c r="F11" s="258" t="str">
         <f>'Employment Form'!$E$39</f>
-        <v>Vijay Sharma</v>
+        <v>Harshal Khanwilkar</v>
       </c>
-      <c r="G11" s="255"/>
-      <c r="H11" s="255"/>
+      <c r="G11" s="258"/>
+      <c r="H11" s="258"/>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="2:12" ht="2.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16441,33 +16791,26 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="256" t="s">
+      <c r="C14" s="263" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="256"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="256"/>
-      <c r="H14" s="256"/>
+      <c r="D14" s="263"/>
+      <c r="E14" s="263"/>
+      <c r="F14" s="263"/>
+      <c r="G14" s="263"/>
+      <c r="H14" s="263"/>
     </row>
     <row r="15" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="256"/>
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="256"/>
+      <c r="C15" s="263"/>
+      <c r="D15" s="263"/>
+      <c r="E15" s="263"/>
+      <c r="F15" s="263"/>
+      <c r="G15" s="263"/>
+      <c r="H15" s="263"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0"/>
   <mergeCells count="15">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="C14:H15"/>
@@ -16476,6 +16819,13 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16490,8 +16840,8 @@
   </sheetPr>
   <dimension ref="A1:IV106"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="78" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView zoomScale="78" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18246,7 +18596,7 @@
         <v>91</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>92</v>
@@ -18255,7 +18605,7 @@
         <v>93</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>94</v>
@@ -18547,47 +18897,91 @@
       <c r="IV2" s="270"/>
     </row>
     <row r="3" spans="1:256" s="21" customFormat="1" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="132"/>
+      <c r="A3" s="132">
+        <v>1</v>
+      </c>
       <c r="B3" s="30">
         <f>'Employment Form'!$E$54</f>
-        <v>0</v>
+        <v>101260620347</v>
       </c>
       <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="32">
-        <f>'Documentation Checklist'!$D$8</f>
-        <v>0</v>
+      <c r="D3" s="134" t="s">
+        <v>213</v>
       </c>
-      <c r="K3" s="135"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="137"/>
+      <c r="E3" s="134" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="135" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="135" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="123" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="136" t="s">
+        <v>215</v>
+      </c>
+      <c r="J3" s="278" t="str">
+        <f>'Documentation Checklist'!$D$9</f>
+        <v>27/06/2024</v>
+      </c>
+      <c r="K3" s="135" t="s">
+        <v>216</v>
+      </c>
+      <c r="L3" s="31">
+        <v>8871643958</v>
+      </c>
+      <c r="M3" s="279" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="137">
+        <v>9542</v>
+      </c>
       <c r="O3" s="138">
         <v>0.12</v>
       </c>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="32">
+      <c r="P3" s="136" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q3" s="135" t="s">
+        <v>218</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="U3" s="36">
+        <v>486902038353</v>
+      </c>
+      <c r="V3" s="134" t="s">
+        <v>162</v>
+      </c>
+      <c r="W3" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="X3" s="134" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y3" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z3" s="134" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA3" s="32" t="str">
         <f>'Employment Form'!$E$32</f>
-        <v>0</v>
+        <v>25/09/13</v>
       </c>
-      <c r="AB3" s="37">
+      <c r="AB3" s="37" t="str">
         <f>'Employment Form'!$E$33</f>
-        <v>0</v>
+        <v>24/09/23</v>
       </c>
       <c r="AC3" s="270"/>
       <c r="AD3" s="270"/>
@@ -45394,7 +45788,7 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="AB3 AA3 Y3 W3 U3 M3 L3 J3 H3 B3" name="Range1"/>
+    <protectedRange sqref="AA3:AB3 Y3 W3 U3 L3:M3 J3 H3 B3" name="Range1"/>
   </protectedRanges>
   <mergeCells count="3">
     <mergeCell ref="AC1:IV1048576"/>
@@ -45419,10 +45813,829 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Kindly mention your Mosuer basic Monthly salary ( Refer to your offer letter )" sqref="N3" xr:uid="{CB318179-B4C6-4170-8092-3F2F8568393E}"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{3372DE0C-2105-430F-BE10-0C7510BE228A}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=_xmlsignatures/sig1.xml><?xml version="1.0" encoding="utf-8"?>
+<Signature xmlns="http://www.w3.org/2000/09/xmldsig#" Id="idPackageSignature">
+  <SignedInfo>
+    <CanonicalizationMethod Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+    <SignatureMethod Algorithm="http://www.w3.org/2001/04/xmldsig-more#rsa-sha256"/>
+    <Reference Type="http://www.w3.org/2000/09/xmldsig#Object" URI="#idPackageObject">
+      <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+      <DigestValue>iHQAhNjzwxa37qMi8Nwu2JKReqFO5YdHxSwI5q1QFuI=</DigestValue>
+    </Reference>
+    <Reference Type="http://www.w3.org/2000/09/xmldsig#Object" URI="#idOfficeObject">
+      <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+      <DigestValue>abobmzjOKXqgIyNgpfPGoec6djZhLbwf8CSLZ4gW7LE=</DigestValue>
+    </Reference>
+    <Reference Type="http://uri.etsi.org/01903#SignedProperties" URI="#idSignedProperties">
+      <Transforms>
+        <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+      </Transforms>
+      <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+      <DigestValue>cBqkdL/hh11/9Vvc5P4oFEV83I5DY0rfiBiXkrS6ua0=</DigestValue>
+    </Reference>
+    <Reference Type="http://www.w3.org/2000/09/xmldsig#Object" URI="#idValidSigLnImg">
+      <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+      <DigestValue>2PF0IdiiCdek/WIJj8FUR0swJK5Z2DvYKdkPcFyExnk=</DigestValue>
+    </Reference>
+    <Reference Type="http://www.w3.org/2000/09/xmldsig#Object" URI="#idInvalidSigLnImg">
+      <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+      <DigestValue>4RAxfvWH//5wVmIeoxunxYDMj/MhHQBuvv3koXr0pHI=</DigestValue>
+    </Reference>
+  </SignedInfo>
+  <SignatureValue>W+rz3lY1ZwglgD74jCvabwsrq6A54KbME773an9PZtnhEeQFLDGpgqODT/ueMzASmlgsVKI/645D
+e/oXXojDDkZ4zXoZcQBLQE0E8168smdiqN1z8LLfy8MmIpUYlyGbeVHgkVUw5lhUEFjLIxj2sBvv
+4F9OdQiekUUBdUp4oit58AacfpzdiyS0xPlAF44tiGo4EHtD9+ABoYMjx+00Hzep345V/H1JpxOD
+aAE36trsnGFQj9qPEYs/73OZ38h0oaipWeq6PnNqfkrvuFoeGnmYNWwN0u6BTZdqU+wslf96TJ61
+/w2ipWpfDGeocsUE/lKeNiUunFEkflmA5Mt0yw==</SignatureValue>
+  <KeyInfo>
+    <X509Data>
+      <X509Certificate>MIID8jCCAtqgAwIBAgIQtygw9vaSTrRAvCOn9yTOPzANBgkqhkiG9w0BAQsFADB4MXYwEQYKCZImiZPyLGQBGRYDbmV0MBUGCgmSJomT8ixkARkWB3dpbmRvd3MwHQYDVQQDExZNUy1Pcmdhbml6YXRpb24tQWNjZXNzMCsGA1UECxMkODJkYmFjYTQtM2U4MS00NmNhLTljNzMtMDk1MGMxZWFjYTk3MB4XDTIyMDIxMDA3NTgzMVoXDTMyMDIxMDA4MjgzMVowLzEtMCsGA1UEAxMkNzI4MDZlZGQtOGJmNC00MzFhLTgyY2YtZmE2MmU3YTA1MmFlMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEApdGeTfnV208szNLctEmthcZdSAM58NZ3rqHKVl2YBa8/7hEpY1oaqStLbFGJNWSuRGEtPdniiLOurDcS3ZyPRrrodRcptqlPRY7OYjwvHYJ5IqpLJq6Fi+vfRgw4rswLUdfBSXwVdHOzoZvlsU4RCMn+l2IvmOnwCfBCQcZLJ5OMaxOGvM4sWwW5HrfiqMk2xugzBg7qa7pKASB5KjxKBaN47VMqNfBD5khClj5UR3wb6aOHo6GF5SK+MEcs7CxNnkOC5qsLT2bkkAdoVEjjkGsqPuw4748z47eK+CPu98hFXHF/kCSFuub7KtZmXzmky74i2Rx4rVjDaoPfjtv8cwIDAQABo4HAMIG9MAwGA1UdEwEB/wQCMAAwFgYDVR0lAQH/BAwwCgYIKwYBBQUHAwIwIgYLKoZIhvcUAQWCHAIEEwSBEN1ugHL0ixpDgs/6YuegUq4wIgYLKoZIhvcUAQWCHAMEEwSBEFT8QvjHkc1GmKju80tfyKgwIgYLKoZIhvcUAQWCHAUEEwSBEDWipDrittVIkZV/zwW0WbAwFAYLKoZIhvcUAQWCHAgEBQSBAkVVMBMGCyqGSIb3FAEFghwHBAQEgQEwMA0GCSqGSIb3DQEBCwUAA4IBAQATvUMt5e6avX4uMw6td3N5O6QtQUPK3Jf2wiY/gB8x43TcTT6nq6PSPyUA3A7lsEABoYPL73zf7jPfxhv3CU3UXXpMaptVPn38wBi56CTcKP9bzxY7UtFRcARE2NbS4MYuJg3NpeRJESqTTQaNaSgUvU3fQY1H3p7Abh18qO8m8XA1WMwPi1Q/GklQnJ/0ecyUEYG5wxlim9Zo7N0mCwOFo6mIl/jyPDqiTBhytRgXMZ5tqB7f8w0dnKXjDiKPZTMBSQxMGkIa1uqmwGPHdmPgUTjKXaZHO5jEpwcmAQp/KgNENwQJdnkb/5nZql1OblOmCvJQBzFrIhjaOWSwJ9Jm</X509Certificate>
+    </X509Data>
+  </KeyInfo>
+  <Object Id="idPackageObject">
+    <Manifest>
+      <Reference URI="/_rels/.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId1"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>2f3AFpmV4xMG5w1iTrxxA0J9QIy47+YsQamqbXmHTzc=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/_rels/workbook.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId9"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId8"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId3"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId7"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId2"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId1"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId6"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId5"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId10"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId4"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>lzLbaIzpG443ZAmlR8oaCgxFoLmp2QKXFIw9ML8wpds=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/calcChain.xml?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.calcChain+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>1mcVi572KyxM1Ao+D/ORgGrJs009rdX3JZIGQ91aLvc=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/comments1.xml?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.comments+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>2eaXiCHVbG1VWuEavqDz8GlQOOek45DJIyXxYUKg5NE=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp1.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>h1NsTAgYYOdq52Nqbmxrm0o8RyglRd4XTAEGorq//4U=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp10.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>h1NsTAgYYOdq52Nqbmxrm0o8RyglRd4XTAEGorq//4U=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp11.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp12.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp13.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>h1NsTAgYYOdq52Nqbmxrm0o8RyglRd4XTAEGorq//4U=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp14.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp15.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp16.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>h1NsTAgYYOdq52Nqbmxrm0o8RyglRd4XTAEGorq//4U=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp17.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp18.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp19.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>h1NsTAgYYOdq52Nqbmxrm0o8RyglRd4XTAEGorq//4U=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp2.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp20.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp21.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp22.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>h1NsTAgYYOdq52Nqbmxrm0o8RyglRd4XTAEGorq//4U=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp23.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp24.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp25.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>h1NsTAgYYOdq52Nqbmxrm0o8RyglRd4XTAEGorq//4U=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp26.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp27.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp28.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>h1NsTAgYYOdq52Nqbmxrm0o8RyglRd4XTAEGorq//4U=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp29.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp3.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp30.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp31.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp32.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp33.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp34.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp35.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp36.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp37.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp38.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp39.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp4.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>h1NsTAgYYOdq52Nqbmxrm0o8RyglRd4XTAEGorq//4U=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp40.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp41.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp42.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp43.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp44.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp45.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp46.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp47.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp48.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp49.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp5.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp50.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp51.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp52.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp53.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp54.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>h1NsTAgYYOdq52Nqbmxrm0o8RyglRd4XTAEGorq//4U=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp55.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp56.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp57.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp58.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp59.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>h1NsTAgYYOdq52Nqbmxrm0o8RyglRd4XTAEGorq//4U=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp6.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp60.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp61.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp62.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp63.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp64.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp65.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp66.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp67.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp68.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp69.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp7.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>h1NsTAgYYOdq52Nqbmxrm0o8RyglRd4XTAEGorq//4U=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp70.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp71.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp72.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp73.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp74.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp75.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp76.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp77.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp78.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp79.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>h1NsTAgYYOdq52Nqbmxrm0o8RyglRd4XTAEGorq//4U=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp8.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp80.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp81.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>h1NsTAgYYOdq52Nqbmxrm0o8RyglRd4XTAEGorq//4U=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp82.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp83.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp84.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>h1NsTAgYYOdq52Nqbmxrm0o8RyglRd4XTAEGorq//4U=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/ctrlProps/ctrlProp9.xml?ContentType=application/vnd.ms-excel.controlproperties+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>PugJUys2DfYnCojV9fVG04D9ziSHTg/4D5fzUSJr/eI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/drawings/_rels/drawing1.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId2"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId1"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>01svRRJA2axzdS+fy/IlEYiTVnIey6+t1/s6t+FVZ0k=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/drawings/_rels/drawing2.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId1"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>8j3pe7mg3Uo1mW+UclCsYddhSA0wJ4miKmFAFXMAroY=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/drawings/_rels/drawing3.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId1"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>uWX52h7olg+PFY/GkFTDFdyBbrOZlOU2iSM2S8keCUM=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/drawings/_rels/drawing4.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId1"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>uWX52h7olg+PFY/GkFTDFdyBbrOZlOU2iSM2S8keCUM=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/drawings/_rels/drawing5.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId1"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>uWX52h7olg+PFY/GkFTDFdyBbrOZlOU2iSM2S8keCUM=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/drawings/_rels/vmlDrawing2.vml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId1"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>rZlRfGZnw17KFUlOrAHS9vgQGJds3OOnwZpUniCcoDg=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/drawings/drawing1.xml?ContentType=application/vnd.openxmlformats-officedocument.drawing+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>OYpyNSPJxFsg3kWJT0AMXYkJDYNAjILsyC3jBlbZGZQ=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/drawings/drawing2.xml?ContentType=application/vnd.openxmlformats-officedocument.drawing+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>ny+6wutvwW50BWF/6/5g7zopIyW8arfgytf2bVycxQA=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/drawings/drawing3.xml?ContentType=application/vnd.openxmlformats-officedocument.drawing+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>fybeni8/+pn/jd0AOmCkTsrqo7b94ZPt23UDPWigTQU=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/drawings/drawing4.xml?ContentType=application/vnd.openxmlformats-officedocument.drawing+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>dsVd+SdOl/ik6FLxTLCxysd+UebVeJYRAqS+FQ9fbdw=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/drawings/drawing5.xml?ContentType=application/vnd.openxmlformats-officedocument.drawing+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>3DpepNcojwCwhpg7jlAE5os1f10aaF8YWR5HO0Bbnw8=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/drawings/vmlDrawing1.vml?ContentType=application/vnd.openxmlformats-officedocument.vmlDrawing">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>fbhuZKAX1y2lfdGyIOqqJ4KQ4QoQ7Hry/0/U3onLodc=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/drawings/vmlDrawing2.vml?ContentType=application/vnd.openxmlformats-officedocument.vmlDrawing">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>HYbZu3Ulfx+KbVd8Af05FYwoPwMP5Bo+q5ryzR9lEIM=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/drawings/vmlDrawing3.vml?ContentType=application/vnd.openxmlformats-officedocument.vmlDrawing">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>XcnXQnF8h37axk6xAluN8xYSg9lPFlEaPliAdPokZJ8=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/media/image1.png?ContentType=image/png">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>xv+SPkzXNDFigsbfWOXDCmPvOzru312rFT3KUItmtsw=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/media/image2.png?ContentType=image/png">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>sAsjd417enYAKUUYvNKU3ZYC1J3Pw9w9d0G8b/krN8s=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/media/image3.png?ContentType=image/png">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>rwi5mPBeN87DoYWyXQEk1ddLUt2KgU7e1hje+rIDn6Y=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/media/image4.emf?ContentType=image/x-emf">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>YrIdQ89owNkLnrNAwM0VgeqFpWQ6n4FIlxmUPShM1os=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/printerSettings/printerSettings1.bin?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.printerSettings">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>J4QIpeXtsudjneLMX0uh6q6jVXM5hi1HJR+Uht9C+x8=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/printerSettings/printerSettings2.bin?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.printerSettings">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>9yrN/cYWesF/CCYn0xhzfv+ql96XBnSYbkiHYhSOpVM=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/printerSettings/printerSettings3.bin?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.printerSettings">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>lvreHr8cIutqzJ9Ftdc6rftfSnS5CZ+9oKpHc3gnfCw=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/printerSettings/printerSettings4.bin?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.printerSettings">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>J4QIpeXtsudjneLMX0uh6q6jVXM5hi1HJR+Uht9C+x8=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/printerSettings/printerSettings5.bin?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.printerSettings">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>lvreHr8cIutqzJ9Ftdc6rftfSnS5CZ+9oKpHc3gnfCw=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/sharedStrings.xml?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.sharedStrings+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>8PhNOFx7VI2ObaFqh6PWK02AlaTYGx7LyBDKGi0Y5sg=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/styles.xml?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.styles+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>wNo+jSA7wUXmLD6w9IxTFMjOmS1ue1HAkgeAzmEgxvc=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/theme/theme1.xml?ContentType=application/vnd.openxmlformats-officedocument.theme+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>YNeH5J+J9RxutazRnaWBrYU5Xm5oQzBJ7Lrr3bNNcJw=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/workbook.xml?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.sheet.main+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>bCyhEclldrO3BgtMbpqrH6qmCY86saVyUp0pkWmX7rw=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/worksheets/_rels/sheet1.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId1"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId2"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>AkNhP713P2yRa4Dh2ARGFlwE9QoRTO7fyLFTfcPffHI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/worksheets/_rels/sheet2.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId26"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId21"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId42"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId47"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId63"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId68"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId16"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId11"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId32"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId37"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId53"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId58"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId74"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId79"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId5"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId61"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId19"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId14"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId22"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId27"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId30"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId35"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId43"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId48"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId56"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId64"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId69"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId77"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId8"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId51"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId72"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId80"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId3"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId12"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId17"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId25"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId33"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId38"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId46"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId59"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId67"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId20"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId41"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId54"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId62"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId70"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId75"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId1"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId6"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId15"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId23"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId28"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId36"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId49"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId57"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId10"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId31"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId44"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId52"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId60"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId65"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId73"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId78"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId81"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId4"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId9"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId13"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId18"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId39"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId34"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId50"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId55"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId76"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId7"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId71"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId2"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId29"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId24"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId40"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId45"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId66"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>GzE9ECc0kgXvUZ6/4ucsPQBtFyvMt+4DN/j8QYLj8n0=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/worksheets/_rels/sheet4.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId5"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId4"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId9"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId8"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId3"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId7"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId2"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId1"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId6"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>un6mUQG2kXalHRk2qsOxD0sqMtRg2PFD438G44uyWJI=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/worksheets/_rels/sheet5.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId1"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId2"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>Tawd0AR3WKIFqlhccubY3AMVoPIhyN3+vwBhGLrXAaA=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/worksheets/_rels/sheet6.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId1"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId5"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId4"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId3"/>
+            <mdssi:RelationshipReference xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" SourceId="rId2"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>kpGF691VVyXwAhnjBGsIfHQ+XfrfKwsaAYyWetsgJPs=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/worksheets/sheet1.xml?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.worksheet+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>DRc0KeXSRq5nlmEsazM88/xnqabKYyCnfgSOqHJALbY=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/worksheets/sheet2.xml?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.worksheet+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>z4CsQGLIXcgc+DC0rcMu3Mfp1eeP/p01Vo6IQ1i83mY=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/worksheets/sheet3.xml?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.worksheet+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>WuC81yuz06KN+zSDJ+pNWG/QZpEb0TB4V4S9ixHlZx0=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/worksheets/sheet4.xml?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.worksheet+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>55FP2eEmgLYjK76kAuDVqGP17VFwuU3RKVjYTBqASiA=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/worksheets/sheet5.xml?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.worksheet+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>CZE/glMUE1CYNT0LFe82QHZiuMSMjMPEpceGxRxcdOg=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/worksheets/sheet6.xml?ContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.worksheet+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+        <DigestValue>xKLAEA6aAyOzeEdZpWtR47f4R1ytLqjBeRDuYMoeQ/A=</DigestValue>
+      </Reference>
+    </Manifest>
+    <SignatureProperties>
+      <SignatureProperty Id="idSignatureTime" Target="#idPackageSignature">
+        <mdssi:SignatureTime xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature">
+          <mdssi:Format>YYYY-MM-DDThh:mm:ssTZD</mdssi:Format>
+          <mdssi:Value>2024-06-20T15:28:34Z</mdssi:Value>
+        </mdssi:SignatureTime>
+      </SignatureProperty>
+    </SignatureProperties>
+  </Object>
+  <Object Id="idOfficeObject">
+    <SignatureProperties>
+      <SignatureProperty Id="idOfficeV1Details" Target="#idPackageSignature">
+        <SignatureInfoV1 xmlns="http://schemas.microsoft.com/office/2006/digsig">
+          <SetupID>{32828E06-D6D2-4C6F-AF4C-537742FFE7E2}</SetupID>
+          <SignatureText/>
+          <SignatureImage>AQAAAGwAAAAAAAAAAAAAAKAAAAB/AAAAAAAAAAAAAAAeCgAADQgAACBFTUYAAAEAALIAAAwAAAABAAAAAAAAAAAAAAAAAAAAgAcAADgEAAA1AQAArgAAAAAAAAAAAAAAAAAAAAi3BACwpwIARgAAACwAAAAgAAAARU1GKwFAAQAcAAAAEAAAAAIQwNsBAAAAkAAAAJAAAABGAAAAJA4AABgOAABFTUYrIkAEAAwAAAAAAAAAHkAJAAwAAAAAAAAAJEABAAwAAAAAAAAAMEACABAAAAAEAAAAAACAPyFABwAMAAAAAAAAAAhAAAVwDQAAZA0AAAIQwNsBAAAAAAAAAAAAAAAAAAAAAAAAAAEAAAD/2P/gABBKRklGAAEBAQCQAJAAAP/bAEMACgcHCQcGCgkICQsLCgwPGRAPDg4PHhYXEhkkICYlIyAjIigtOTAoKjYrIiMyRDI2Oz1AQEAmMEZLRT5KOT9APf/bAEMBCwsLDw0PHRAQHT0pIyk9PT09PT09PT09PT09PT09PT09PT09PT09PT09PT09PT09PT09PT09PT09PT09PT09Pf/AABEIAIAAoQMBIgACEQEDEQH/xAAfAAABBQEBAQEBAQAAAAAAAAAAAQIDBAUGBwgJCgv/xAC1EAACAQMDAgQDBQUEBAAAAX0BAgMABBEFEiExQQYTUWEHInEUMoGRoQgjQrHBFVLR8CQzYnKCCQoWFxgZGiUmJygpKjQ1Njc4OTpDREVGR0hJSlNUVVZXWFlaY2RlZmdoaWpzdHV2d3h5eoOEhYaHiImKkpOUlZaXmJmaoqOkpaanqKmqsrO0tba3uLm6wsPExcbHyMnK0tPU1dbX2Nna4eLj5OXm5+jp6vHy8/T19vf4+fr/xAAfAQADAQEBAQEBAQEBAAAAAAAAAQIDBAUGBwgJCgv/xAC1EQACAQIEBAMEBwUEBAABAncAAQIDEQQFITEGEkFRB2FxEyIygQgUQpGhscEJIzNS8BVictEKFiQ04SXxFxgZGiYnKCkqNTY3ODk6Q0RFRkdISUpTVFVWV1hZWmNkZWZnaGlqc3R1dnd4eXqCg4SFhoeIiYqSk5SVlpeYmZqio6Slpqeoqaqys7S1tre4ubrCw8TFxsfIycrS09TV1tfY2dri4+Tl5ufo6ery8/T19vf4+fr/2gAMAwEAAhEDEQA/AOxayt/+eUP4IKabC3H/ACxj45yVFWAoVup/Wjb83T9KyArixtz0gQn2QVPHp8ZIP2ePb/ujNWY0PGOD71Nu2DJP40wKxs7cdYIh/wABFQtHajpDH/37FLPKZWxnaM9PWoGX1wP0pAO8u3ZuIY/+/YpRbwH/AJYxf98ikUBR3pjTKv8AEM0ASmG3/wCeEWP9wU0pbLn9zF+KVWe8Tn5/0zULXXB5HP6UrjsWX+zj/lhHj/cFQOIT/wAsIx/wEVXM7t34pPNYjHJPrmi47EpWA/8ALGMfRRTdsJJ/dx/98D/Cot2SetIcnjkD2NIBzxxgg+VHj02ipEigIz5MYH+6KrEgH+L8KeCR0PHvRcCx5EB/5ZJn/dFBhh6eTH/3wKjErEds+tO2kgbtxPqKBCm3h/55R/8AfIqM20Ct/qo+fYUjSxxuqjJZugpxffjKnii47C/ZoP8AnhF+X/1qKdu+tFMRsq2T/ED9KkTr0IpqsFHrmlMgHQgGmIm38cGqV1dryM8Us0x2EZA9TVBwr+pobAlEiY+XGPYUGVQM4/E1AY8dBio5Ccdam47Ek91kEKfyqkwLHOfqDTjntRux14oGRAnv27Uwy9QGH0NTFMjnbk0og3ckDH0pAQAlu3NOGR6ZHep1t+eF/WnLakk5I9sUWHcr7jnkmkyQOvWrP2Yg5yD+NILds5xmiwrkIx+NOHp/OpGt5CcnH5UeTPjPQCmAioScnt6VIASO+PrUZV0U9R+HFCfKCQc0AG1fQ/WkJx0596QEltoznNXLWzLndIBt9OlCAp4b0FFbXkr6LRTsK4hlIPLU0yZ+9+HFQsSPSoWwe2ce9FwJXcZ+8fpio93Oc81AWxx0x6GgSAds0rjsWGfA6Vk6/ezWOkTSQf8AHw+IoR/tsdq/zz+FaO/J75PtWPqLvc+J9JtApKQh7uTjgYG1c/ixpx1YmSeH5rqW1mt9QYPd2knlSPjG/gMpx/ukVplADz+grNtyYfF99Fxi5tYpvxUsh/TbWq2c/wCzRLcEIsa9gPyp6xjv09MUgweuaXcPWgCQIB0Ipdoxz1qPOaRmzTAnUgelLVYdakDY7ikBKdvGB9e9A2k54+pFRgnAwacWx1NMRMu3uR+VNkMIUny1Jqu0vpTS7Hk0DJomAzhAPpipWcYJPSqgk54NHmE+4pASed9aKZkelFAFVpfRsU0n/apjckbjx6U4HPT9akodu4xR3pOfalU/7JP50CHo31/CsyyzN4w1FySRDbQxjn1Lsf6VqIuT0/8ArVlaMwbxBrzjtNEmfpGP8aqOzEx8pA8bW/8AtafID+Eif41sHn1rH/1njcYH+q04kn/ekH/xBrXbNNgAYdM0elNOB2FNzknBFICQtim785weaaARyTx70/d7UAAOfpTlI75pm4Y54x61WvL6C0iaSaZIox1ZzgD8aQFxplRTziq7XeThTj61z66vfas+3RLQzRd7u4ykI+ndvwH41Zj8N+cFfVrua8fvGDshH/AB1/4ETTt3A1YrgSltkisVOCB2qUk45B/CooYI7aIRQRpHGvRVUAD8KeSuOnNIYgGO5+tSIpByDTAoZhxx781MBjnOaEA/J9aKj3N70UxFMDHYUoU9waany9RtqTIOeRUlCgL/AHfmp4Prn8aYBj3oDDpmgCUAn0rH0B8a5r8DDlblJPwaNf8ACtdCD0z+Vc1JfR6L4r1iW6dUhmtI7hSzYLbBtIA7mrjrclmlpTG58RazdYGxDFaof91Szfq9azBjnnAHpWd4cspLXRIPOP7+fNxMc9Xc7j+WcfhWhPNHbRtLcTJFGvV3YKB+JoerATAByTn2NH0IzWS/iO3mkMelxTanIOv2VQUX6ucL+tNS017VW3XEi6RbH/lnHtlmP1b7q/hk0crC5oXd7a2MW+8uYYE7F3Cg/nWaviSG740m0u9RboGiiKxj6u2AKvWnhvSbGTzhaLNcd57g+a598t0/CptR1ux01M3t5DAoHCu3J+g6mnZBczvsmvX6/wClXFvpkR5KW482XHpuPyj8Aalt/DelwyrNLC15cLz5t3IZW/I8D8BVceILzUONG0e7uVPSeceRER6gtyfyqQaJrd9g6jq0doh6w2Cc/wDfxufyFPX0EadzfwWkYe5ljhjHQswUfrWSfFmnzMy2K3V+44ItbdpP1xj9auWnhPRrSbzntvtU/wDz2u3MzH/vrj8hWsGCrtQBVHQAYAqdBmHaX+pXd4inRLiC2b701xKilR/uAk1rbAKkMgz1qNnGOhJpOwaiEAcKOtNbLDGz8aGfYMnI9qQDcAc8/WkMXyx/tUUuD/e/SigCpjvk/iKVQOM/nipSqt3GKQoeg/SpGG4YA7fSlUewNHlN0IH4VKsYXnH60wFCjBJ4A79K8+1iC88Zatbm0jiMUSvLbxyDh4wcbmPXDsMAegJrrPE7lrGGyEnlJdybJ5M4KQhS0h/JcfjT9AWCx0+bVrto7RLvaUEpCCKBRiJeenHP1Y1tD3VchmBYy21rOF068Gh3o/1+n3wYwE9yuSO/TB/CuhsdCs52W5vrldVuRyJJCDGn+4g+Vfr196Zc67FrK+Vpejy6uO0rxhIB/wADfj8s0lp4a1N4jHcX1vplux3NbaVEEyfeQ85+gFN/cI0L3VtM0SIC7ube1QDKoSAT9FHJ/CqCa5qOqD/iSaRcSxnpcXX7iL6jPzMPoK1NN8N6TpBL2llGJjyZpMySE+u45NaMs21cd6nQZzn/AAjuqX3Osa48anrBp6+Uv/fZyx/Srth4d0fSWD2lhEJRz50g8yQn13Nk1e8zNNLe5pcwWJjKW+9nNQs2en600nHf8BTCxz1471NxjmYKOMGkDE8YBqMsCe35U7GRyPypDEOM9RmmtzxzgU/Z2p3lZ67evegCDZI/Hb1pwjKjaSRirDHYp2n8qi5Y9KYDNp/vNRUmPaigREDk845p44pigk4A/pVG/wBdtbCcWiCS6vWGVtrdN8n1PYD3OKSVxs0wv0FUL/W7DTHEdxODO33YIwXlb6KOarrput6wAdQuRpVsf+WFq26Y/wC9J0X/AID+daum6Np+jq32G2SJ2+9Jyzv9WPJqrJbk3OV1PRdZ8V6jby+RJpdkI2jZp2VnZSQT+7HQnAHJ6fr0Nt4U0yGVZ7tZNRuV6S3reZt/3V+6PwFa+73pN49efrxVc2lkFiQuAABwB0Apu8Y5JqIyg9Dn6VE8pAz/ADqLjJmnKg81VaTJyTUTSbz3x3NNLNzg8Clcdicv8uMdaQt8vNQAnOf5U85UZyee1AWFD4ycmkYn1X8qVVGM4P4044J4JHtQA2MZbdxUwAPQfrUYO3rinbgTjp9KAJFT34pcYGFpm8AgbhSllGMUxCMMdxg0mSMdKQnuaUHPSgB9FN49aKQAo/Cm2VhbWAf7NEEMjFnbqWJOeSeT1qUYJ54zTgRjrmmgH7sfWm7uevNNzz3/ABprOOhOPrQA8uPWmmQUzPbFNZgP4aQA8h64P1qBjnHJz71Iw5HOPpTdiZ5PP1oGQklTyc/QUoI4x1qXylz3+lPWFAOhosBEq56mnlO/p3p+wLkAc+9NYADAxQFxAWxgk8UDdy2TSE9eOfWgu2MZNAA7EnFGD69aRf8AeNOGOnIPuKAGEYOAPzp6lsGjaV56/jUZfHbn60gJkO4c0889M4qqsgBOQamR91MCTA/yKKOP7wopiP/ZAAAACEABCCQAAAAYAAAAAhDA2wEAAAADAAAAAAAAAAAAAAAAAAAAG0AAAEAAAAA0AAAAAQAAAAIAAAAAAAC/AAAAvwAAIUMAAABDAwAAAAAAALMAAACz//8gQwAAALMAAACz////QiEAAAAIAAAAYgAAAAwAAAABAAAAFQAAAAwAAAAEAAAAFQAAAAwAAAAEAAAAUQAAAHiiAAAAAAAAAAAAAKAAAAB/AAAAAAAAAAAAAAAAAAAAAAAAAKEAAACAAAAAUAAAACgAAAB4AAAAAKIAAAAAAAAgAMwAoQAAAIAAAAAoAAAAoQAAAIAAAAABABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA01r0XvRa9F7TWtRa1Fr1XrNW1FrUWvVe1Fr1XtVa9V71XvVe9V71XtRa9V7UWvVe9V71XtRa1FqzVrNWs1KzVtRa1FrTWtRa01bUWtNa9F7TWtRa01rUWrNW01ayVtNWs1bTWrNa01qyVrNWslazWrJWs1aSVpJWkVKSVpJWslbUWtRas1azWrNWtFq0WtRetFrUWtRa1V7UWtRe1FrUXvVe9F7TWtNas1bTWtNa1FqzVtNWslazVrJSs1ayVrNWslazVrJWs1qyVrNaslayVrJWs1qyVrNWklayVrJWs1aSUpJWklayVpJWs1ayVrNa01rUWrNWs1aSVrNWslbTWrJW01qzWtNas1rTWrJWs1qSVrJWkVKSUnFSkVKRUpJSklKSUnFSkVJxUpJSkVKSUpFSklaSUrJWslazWrNa1FqzVgAA9FrUWvVe9Fr0XtRa9V71XvVe1Fr1XvVe9l71XvZe9V71XtRa9V7UWvVe1Fr1XvVe9V7UWtRa1FrUWtRa9VrUWvRa01rUWtNa1FrTWvRa1FrUWtNa1FrTVtNas1bTVrJW1F7TWtRes1qzWrJWs1qzWtRes1rUWrNa01qzWtRa01rUWrNW1FqzWtRas1bUWrNa1Fq0WtRe1FrUXtRa1F7UWvVe01rUWtNW1FrTWvRe1Fr0WtNa1FrTVtNas1bTWrNW01qyVrNWklazVrJWs1qyVrNaslazVpJWslaSVrNWklayVpJWs1ayVrNWslazWrNWslaSUrJWklKyVrJW01qzWtRe01r0XtRa1F7TWtNas1azWrJWslaSVrJWkVKyVpJSklZxUpFScVKRUpFSklJxUpJWklKyVrJWs1qzWtRa01rVXgAA01r0WtRa9F7UWvVe9V4WY/Ve9V71XvZe9V72XtVa9V7UWvVa1FrUWtRa9V7UWvVe1FrUWtRa1FrUWvVe1Fr1XtNa1FrTVtNa01bUWtNW1FrTVtNas1bTVrJWs1ayUrNWs1rUWrNa01qzVrNas1bTWrNa01qzVtNas1rTWrNa01qzVrRas1bUWrNa1FqzVrNas1rUWrNa1FrUWtRetFrUWtRa1FqzVtNa01rUWtNW01rTWtRa01bTWrNW01qyVrNWs1azVpJSklaSVrNWklayVpJWs1aSVrJWklayVpJSslaSVrNWklazVrJWs1qyVrNaklKyVpJWs1azVtNas1rUWrNa01qzVtNaslazVpJWslaRUpJWkVKSVpFSklJxUpFScVKRUnBOcVJxUpJWkVKSUpJSslaSVrNWslbTWrNa01rUWgAA9F7UWvRe9Fr1XvVeFWP1XhZf9V4WX/VeFmP1XvZe9V4WY/Ve9V71XvVe9V71XvVa9V71XvVe9Vr1XvVa9V7UWvRa1FrUWtNa9FrTWvRa01r0WtRa1FrTWtRa01bTWrNW01qzWtNas1rTWrNa1FrTWtNas1rTWrNa1FrTWtRas1rUWtRa1FrUWtRe1FrUWrNa1F7UWtVe1Fr1XtRe9V7UXvRe1Fr0WtNa9FrTWtNaslb0WtNa1FrTVtNas1azVrJW01qyVrNWslazWrNWs1aSVrNaslazWrJWs1qyVrNWklazWrNWs1qzVtNas1rTWrNa1FrTWtRe01rUXtNa1FqzWtNaslazWrJWs1qyVrJWklayVpJSslaSVrJWkVKSUnFSslaSUpJWklKzVrJWs1qyVrNWslazWrNW01qzWtRa01r1XgAA9Fr0XtRa9F7UWvVe9F71XtRa9V71WvZe9V72XvVe9l71XvVe9V71XtRa9V7UWvVe9V71XvVe9V7UWtRa1FrUWtRa1FrUWvRa01r0WtNa9FrUWvRa1Fr0WtNa1FrTWtRaslazWrNWs1qSVrJWslazWrJWs1qzWtRas1rTWrNa01qzWtNas1azWrJWs1qzWtRas1rUWtRa1F7UWtRe1FrUXtNa1FrTWtRe01rUWrNWs1azVtNas1rTWrNWs1ayVrJWslazVrJW01qzWtNaslaSVpJWslayVrNaklayVpJWslaSUrJWklazVpJWs1ayVrNaslazWrNa01qzVrNaklayVrJWs1ayVrNaslazWrNW01qyVrNWslbTWrJWs1ayVrJWklayVpJSslayVrNas1rTWrJWs1ayVrNas1bTWrNa1FqzWgAAFV/0XvVe9Fr1XvRa9V7UWvVe1Fr1XvVe9l71XhZj9V71XtRa9V7UWvVe9V71XvVe9V71WvVe9V71XtRa9V7UWvRe1Fr0XvRa9F7UWvRe1Fr1XvRa9V70WvRe1Fr0XtRa1F7TWtRes1qzVpJSslaSVrNWslazWrJWs1qyVrNaslazWrJWs1aSUpJWklKzWrNWs1ayVrNas1rUWrNa1FqzWtNas1bTWtNa9F7UWtRe01rTWtNa1FrTWtRas1bTWrJWs1qzVtNa01rUXrNas1qSVrNWslazWrNWs1qyVrNWklaSVpFSslaSVrJWklazVpJWs1ayVrNas1rTWrNWs1qyVrJWklayVrJWs1qzVtNa01qzWrJW01qzVtNaslbTWrJWs1aSVrJWklazWrNW01qzWtNas1rTWrNa1FqzWtRe01rUWgAA9F70XtNa9FrUWvVe1FrUWtRa9V7VWvVe9V72XvVe9V7VWvVe1Fr1XtRa9V71XvVe1Fr1XvVa9V71XvVe1FrUWtRa9FrUWvRe1Fr0XtNa1FrTWvRa01rUWtNa1FrTVtRas1rUWrNas1qSVrJWklKyVpJSklaRUpFScVKSUpFSklaSUpJWcVKSUnFSklKSUpJWcVKSUpJSklaSVrNWklazVpJSslaSUrNWs1bUWrNa01qyVrNas1bTWrNa01qyVrNWs1qzWrJWs1azVrNaslazVrJWs1qzVtNas1rTWrJWslaSUpJWklKyVpJWs1aSVrNWklazVrJWs1qzVtNas1bTWpJSslaRUrJWklayVrJWs1qSVrJWklKyVpJWslaSVrJWklayVpFSklaSVrNaslazVrNa01qzWtNas1rUWrNa01rUWgAA9V70WvRa01r1XvRe9V7UWhZf9V4WX/VeFmP1XvZe9V4WY/VeFl/1XvVe9V71XvVeFmP1XhZj9V4WX/Ve9V7UWtRa1Fr0WtRa9F7UWvRa01rUWtNa1FrTVtRa01bTWtNWs1qzVtNas1bTWrNa01rTWrNaslayVpFSklaSUrJWklaSVpJSklaSUrNWklKSVpFSklJxUpJSklKzVpJWs1aSVrNWslayVrJW01qzVtNaslayVrJWs1azVtNas1azVpJW1F6zWrNWklKzVrJWs1qzVtRe1Fr0XtRe9V7UXtRes1qzWrNWs1qzVtNas1rUWrNas1qyVrNaslazWrNWs1qzVtNas1azWrJW01qzVtNa01rTWrJWs1qyVrNaslbTWrNWs1qSVrJWklazWrNWs1qyVtRe01rUWtNa1F7TWtRa01rUXgAA01r0WtRa9FrUWtRa1Fr0WtRaN2PUVjdn1Vr1XtRaFmP1XvVe9V71XtRa9V71XvVe9Vr1XtRa1FrUWvVa9Vr1XtRa1FrTWvRa01rUWtNa1FrTVtRa01rUWtNW01rTVtNas1bTWtNa9F7TWtNaslayVrJWs1ayVrJWkVKSUpJSslaSUpJWkVKSVnFSklKRUpJWcU6RUnFSkVJxTpFSklKyVpJSslaSVrNWklazVrJWs1qzVrNas1rUXtRa1F6zVrJWs1qzWrJWs1qzVtNas1azWrJWs1qzVtRa01rUWrNas1qzVrNaslayVpJSslaSVrNaklazWrNa01qSVrJWslbTWrNa01qyVrJWklKyVrJWs1ayVrNWslbTWrNa01qzWtNaklKyVrJWs1qzVtNas1rUWrNW01rTWtRe1FrUXtRa1F7UWgAA1FrTWvRa1Fr0XtRa9V70WtRa9V7UVhZjFmM3Z/Ze9V4WY/VeFmP1XvVe9V4WX/Ve9V71XvVe9Vr1XvVa9V71XvVe9Fr1XvRa9F7UWvRe1Fr0WtRa9FrUWtRa01rUWtNa01qzWtNas1qzWrJWs1aSVpJWklazVpJWslaSUrNWslazVpJWslaRUpFScU5xUnBOklKRUpJWklKSUpFSslaSVrNWklazWrJWs1qzVtNas1rUWrNa01qzWtRa01rTWrNW01qyVrNWslazWrNa01qyVrNWslazWrNa1FqzWtNaslbTWrNWs1qSVrJWklazWrJWs1qzVtRas1qzWrJW01qzWrNaslazVpJWslayVtNas1azWrJWs1qzVtNa01rTWrNWslaSVrNas1rUWtNa1F7TWtNas1rUXtNa1F7TWtRe01rUWgAAs1bTWtNW1FrUWvVe1Fr1XhZjN2f1XvVek1LVWtRaFmP1XhZf9V71XvVe9V71XvVe9V71XvVe9V71XvVe9V71XvVe9V70XvVe9F71XvRa9F7UWvRe1Fr0WtRa9FrTWtRas1rTWrJWslaSVrJWklayVpFSslaSVrJWklayVpJWslayVrNaklaSVpFSkVJwTpFSkVKSVpFSslaRUpJWkVKSVpJWslaSVrNaslbTWrNa01rTWtNaslazWrNa01qzWrNaslayVpJSslayVrNaslazVpJWs1aSVrNas1bTWrJWslazVrNaklayVpJSslaSUrJWslazWrNWs1qyVrNaslazWrJWslaSUpJWkVKyVpJWslaSVrJWklKyVrJW01qyVrJWklayVrJWs1qzWtRa01rUWtNa1FqzWtNas1rTWrNa01rUWgAA1FrTWtRa01r1XtRa9V70WtRa1FoXYxZjFl8WYxZj9l4WX/VeFmP1XhZj9V4WX/Ve9V71XhZf9V4WY/Ve9V71XhZj9V4VX/VeFV/1XvVe9F71XvRe9V70WvVe9Fr0XvRa9F7UWtRas1rTWrNW01qzVrNas1rTWrNas1qSVrJWklKyVpJSslaRUrJWklayVpJWslaSVrNWslayVpJWslaRUrJWklayVrJWs1qzWtNas1rUXrNas1qyVrNas1qzWrNas1ayVrNWslbTWrNa01qzVrNaslazVrJW01qzWrNaslbTWrNWs1qSVrNWklayVpJWs1qzVrNaslazWrJWs1qyVtNas1qzWpJWslaSUpJWkVKyVpJWslayVtNas1azWrJWs1ayVrNas1rUWtNa1F7TWvVe1F7UXtNa1F7TWtRe01r1XgAA01bUWtNa1FrTWtRa1FrUWjdn1Fb2XvZe9V43Z/Ve9V71XvVe9V4WY/VeFmP1XvVe1Fr1XvVe9V71XvVe9V71XvVe9V70XvVe9F71XvRe9V70XvVe9F71XvRa9F70WvRe01rUXtRa1F7TWtNas1rTWrJWs1qzWrNaklaSVpFSklZwTnFOcE6RUnFOkVKRUrJWkVKyVrJWslaSUpJWkVKyVpFSklaSVrJWklayVrJWs1qyVrNas1qzWrJWs1qyVrNakVKyVpJWs1qyVrNWslazWrJWslaSVrJWklazWrJWs1azVrNaslazVpJWslaSVrJWklayVpJWslaSVrJWklayVrNWs1qyVrJWklKyVpFSklaSUrJWklayVrJWs1qyVrJWklazVrJW01qzWtRa01rUXtRe9F7UWtRas1rTWtNa1FqzWgAA9FrTWvRa1FrUWtRa9FrUWvVeUEoXY/Ve1FrUWvVeFmMWY/VeFmMWYxZjFl8WYxZf9V71XhZf9V71XvVeFl/1XhVf9V4VY/VeFV/0XhVf9F4VX/VeFV/1XvVe9F4VX/Re9F7UXvRe1F70XtNa1FqzWrJWklazWrJWslaSUrJWklaSUpFSklKRUpJSkVKyVpJSklaSUrNWslayVpJSslayVpJWkVKyVpJWslaSVrNaslazWrJW01qzWrNaklazWrJWklaSVrNas1azWrJWs1qyVrNaklayVpJSslayVrNaslbUWrNa01qzWrNaslazVpJWs1aSVrJWklazVrJWs1aSVrJWslazVrJWs1qyVrNaslazWrJWs1qyVtNas1rTWrJWs1qzVtNa01rUWtNa1F7TWvRe1FrUXtNa01qzWtRa01rUWgAA01bUWtNW1FrUWtRa1FrUWooxBiEwRtRaFmMXY/ZeN2P2XhZj9V4WX/VeFmP1XhZj9V4WX/Ve9V71XvVe9V4VY/VeFV/0XvVe9F71XvRe9V70XhVf9F71XvRe9V70WvVe1F70XtRa1F7TWtRas1rUWpJWs1aSVrJWklKSVpJSslayVrJWklKyVpJSslaSUrJWkVKSVpFSklaRUpJWklKyVpJWklaSVpJWklaSVpJWklaSVrNaslayWpJWklaSVrNaklazWrNa01qzVrNaslazWrNas1qSVrJWklazWrNW01rTWtRas1rTWrNWs1qSVrJWslazVpJWslayVrNaslayVpFSklaRUrJWslazVrJWslayVrNaslbTWtNa1FqzWtNas1rTWrNa01qzWtNas1bTWtNa1FqzWtRas1rTWrNW01rUWgAA01qzWtNa01r0XtRa9V7UWrNWoxQGIWktk1IXYxdj9V4XYxZfFmP1XhZjFl8XYxZjNmMWXxVf9V4VX/VeFmMVYxVjFV8VY/VeFWP1XhVf9V4VY/Ve9V71XvVe9V71XvReFmP1XvVe01rUXtRa9F70XtRe1FrUWrNWs1aSVrJWslayVpJWslaSUrJWklayVpJWklaRUpJWkVKSVpFSslayVrNaklazWpJWs1qSVrJWklazWrNas1qSVpJWklazWrNa01rUWvRe1F70XtNa1FrTWvRe01rTWrNW1FrTWvRe1FrUXtRa1F7TWtRas1azWpJW1FqzVrNWslbTWrNa01qyVrJWklKyVpJWs1aSVrJWklLTWrNW01rTWtRe1FrUXtNa1FrTWtRa01rUWtNa1FqzVtRe1Fr0XtRa9V7UWtRe01rUWgAAslrTWrJWs1qyVtNa1Fr0XtRaklJIKQAEAACsNdVaF2MXYzhjF18XYxdjOGcWX/Va9V42YzZjNmP0WvReFF82Y/ReFWP1XhVj9V4VY/VeFWPUWvVe1V71XtVe9l7VWvVes1bTVrNW1FrTWvRe9F71XtRa9F7UWvRe01rTVrJWslaRUpFWkVayWrJas1qSVpFWklaSVpFSslayVrNaklaSVnFSklaSVrJaklazWpJWs1qzWtNes1rTWpJWklaSVrNaslazWrNa1F7TWtNas1azWrNa01qyVrNWklazWrNa1FqzWtNas1azWrJWs1aSVrJWs1azWrJWs1aSVrNas1rUWrNWs1azVrNWklKyUrJW01azVtRa01rUWrNWs1azVtRas1rUWtRa1FqzWtNas1azVrNWs1azVtRatFrUWtRa9F6zVgAAslaRVrJaslbTWtNa9V71XvVe1FrUWg9CxRgAAIMQjDEYY/deOGM4Yxdf1FYWX3lrFl/1WvRa9Fo2YzVfFV/TWhZjFWMWYxVjFmMVYxZjFWMXZxZjFmP1XvZi9l4XYxdj9V70WvVe9Fr0XtRa9F7UWtRa01r0XtRa9FrTWtNas1ayVpFWklaRVrJWklayWpJWs1qSVrJWklazWrJaslqRVrJaklazWpJWslqSVrJWklazWrNa1F6zWrNaklayVpJWklaSVrNas1rTWrNa1FqzWrNas1bTWrNW01qzWtNas1rUWtNa1FqzWtNas1bTWrNW1F6zWtNas1azWrNW1FrTWtVe1Fr1WtRa1FqzVtRa1FrUWtRa9V7UWtRas1bUWtRa1FrUWtRa1FrUWtRW1FqzVtRas1bUWtRa1FrUWvVe1FrUWgAAslayWpJWslaSVrNas1azWvVetFq0VhZj1VruPaUUAAAAAIst1lpZZzdjOGM3YxZfWGdXZxZfFV8VXzZjFV8WYxVfFmP1YhZjFWMWY/ViFmMWYxZj9V72YvVe9mL2YhZjFV8VY/Ve9V70XvRe1Fr0WtNa1FrTWvRa01rUWrNW01qyVrJakVaRVnFSklaSVrNaslqyWpFSklaSVrJaklaSVpJWslaSVpJWklaSVpFSklaSVrNas1rTWrNas1qRUpJWkVKyVpJWs1qzVtNas1azWrJWs1qzVtNa01rUWrNa01qzWtNas1bTWrNa01qzVtNas1rTWrNWs1qzVtNas1rUWtRe9V7UWvVa1FrUWtRa9V7UWvVe1Fr1WtRa1FrUVtRas1bUWrNW1FrUVtRas1bUWrNW1FqzVtRa1FrUWtRa1FrUWgAA016yWrNaslazWpJWs1aSVpJS9l43Z9Ra1VrVWrRWMEYHISAAIABIJbRSOGNYZzhn1Vr1WhZfFl9XZzZjNmMWXxZjFmMXYxZjF2cWYxdjFmP2YvZeF2MWYzdnFmMWY/VeFmMVXxVj9V4VY/VeFV/1XvVe9F71XtRa9FrTWtNas1bTWrNa01qSVrJWklazWtNa01qyVpJWkVKyVpJWklaRUpJWkVKSVpJWslaSVrNaslazWrNa01qzWtNas1qzWpJW01qzWtNas1rUWrNa01qzVtRe1FrUXtNa1F7TWtRas1qzWrNWs1qzVtNas1rTWrNa1FqzWtNas1rUXtRa9F70XvVe1Fr1XtRa1FrUWvVe1Fr1XvVe9V71XvVe1Fr1WtRa1FrUWtRa1FrUWtRa1FrUWtRa1FrUWtRa1FrUWtRa1Fr1XgAAkVayVpJWslqyVrNas1rUWvVi1FpyTnJOs1b2XvVe1VaTUjBGByEAAAAASSlxStVaWGc4ZxZfFl/2XhZj9l72XvZeFmP2XhZj9l4WY/ZeFmP1XhZjFmM3ZxdjN2MWXxZj9V4VX/VeFWP1XhVf9V4WY/Re9V70WvVe1FrUWtNW01qzVtNa01rTWpJWslayVtNaslayVpFWklaRUpJWkVKSVpFSklaRUpJWkVKyVpJWs1qyVrNaklayVpJWs1qyVrNas1bTWrNa01qzWtNas1rTWtRe1F7TWtNaslazWrNW01qSVrNWslazWrNW01qzWtRa01rUWtNa1FqzWtRa01rUXrNa1FrUWtRas1bUWtRa9VrUWvVe9V71XtRa1FrUWvVes1bUWtRW1FqzVtRa1FrUWtRa1FrUWtRa1FbUWtRa1FrUWgAAslqyWrNaslrTWrNa01qzWpJSs1b2XhZj9l60VrNWklLVWvVaF2OSTiglAABBCCchck7VWllnWWs4Z/ZeF2MXYxdjFmMXYxdjF2MXYxdjFmM3ZxZjF2MWXxZjFl83YxZjFmMVYxZjFV8WY/VeFWP1XvVe9F71XvVe9V70XvVe9V7TWrNa1F6zWrNaklayWpJWs1qyVrNaklayVpJWslaSVrNaslazWpJWslaSVrNaslazWpJWslaSVrJWklazWrJWslaSVrNaslazWrNa1FrTWvRe01rTWrJWslaSVrNas1bTWrNW01rTWtRa01r0XtRa9V7UXvRe1FrUXrNa01qzVtRa1Fr1XtRa9VrUWvVe9Vr1XvVe9V71XvVe1Fr1XvVe1FrUWtRa1FrUWtRa1FrUWtRa1Fr1WtRa1FrUWvVa1FrUWgAAslrTWrJas1qyVrNaklayVrJW1FrUWtRa1FoWX/Ze9V7VWtVas1bUWtVaklIoJQAAIATmHM05tFYXXzhnF2MXYxdjF2MXXxdjF2MXYxdfF2MXYxdj9V71XvVeFV8VXxZjFmMWYxVjFmP1XhVj9V71XvVe9V70XvVe9V71XvVe9WLUWtRes1rTWrNWs1qSVpJWslazWrJWs1qyVrNaklazVrNWs1qSVpJWklKyVpJWs1ayVrJWklKyVrJWs1qyVrNWkVKSVpFSslaSVrNaslazWrNa01qyVrNWslazVrJWs1azVtNas1bTWtNa1F7TWtRe1Fr0XtNa1F7TWtNas1azWtRa9V7UWvVe1Fr1XtRa9V7UWvVa1Fr1WtRa1FrUWvVe1FrUWtRW1FqzVtRas1bUWtRa1FrUWtRa1FrUWtRa1FrUWgAAslaSVrJaslbTWrNa01qzWtRes1azVtRa9V6zVrNW1Fr1WtRa9V71XvVetFbVWvVaai2kFAAAYgytNdZaWWs4ZzhnF2M4YxdjOGcYYxhjF2MYYxdjN2cXYzdnNmM2YxVjNmMWYxZjFmMWYxZjFmMVYzZjFmMWY/VeFWP1XvVe9V4WY9Re1FqzWtRa01qzWpJWs1qzWtRa01rUXrNa01qzWrNaslayVpJWs1azVtNas1rTWrNWs1qzWtRe1FrUWrNWs1qyVrNWklazVrJWs1ayVtNas1rUWtNa1F7TWtRas1rTWrNW01qzWtRa01rUWtNa01qzWtRa01r0XtRa1F7UWtVe1Fr1XvVe9V71WvVe9V7UWtRa9V7UWvVe1Fr1XvVa9V7UWtRa1FrUWtRa1FrUWtRa1FrUWtRa9V7UWvVe1Fr0WgAAklayWrJWs1qSVrJWslbTWrNW01qzWtRas1bTWrNW1FrUWtRa1FrUWtRW1FrUVtVa9l60Vs05pRQAACEESimTThdjWmv2Xllr9145Z/deOWf2XhdjF2M3Y/Ve9V4VXzZj9V4WYxZjFmP1XvVe9V4WY/VeFmP1XhZj9V71XvVe9V70XvVe1Fr0XtRa1FqzWtNas1azWrNWs1qyVrNWklazVrNW01rTWtNaslazVrNW01qzVtNas1rTWrNWs1ayVrJWklayVpJWs1ayVrNWklaSVrJWs1ayVrNWklayVpJSslaRUpJWklazWrNW01qzWtNas1bTWrNa1FrTWtRe1F70XtRa1FrUWvVe9V71XvVa9V7UWvVe1Fr1XtRa9V71XvVe1FbUWtRa9V7UVtRWs1bUWrNW1FrUWtRas1bUVrNW1FrUWgAAs1qyWtNas1qzWrJW01rTWtRa01rUWtNa1FrTVtRa01r0WtRa9V7UWvVe1Vr1XvVatFbVWvZetFYwQkkpgxAAAAchzTlZa1lnGGP4XjlnGGNaaxhj9172XjhnN2c2Y/RaN2MWYzdnFmMWY/VeFmP1XhZj9V4WYxZfFmP1XhZj9V4VY/Ve9V70XvVe1Fr0XtNa1FqzVtRas1rUWrNW01qzVtNas1rUWtNa01qyVtNas1rTWrNa1FrTWtNas1bTWrJWs1aSVrNWslazWrJWs1aSUtNas1bTWrNWs1qyVrNaslayVpJWs1qzWtRa01rUXtRa1F7TWvRe1F70XtRe9WL0XvVe1Fr1XvVe9V71XhZf9V71XvVe9V71XvVe9Vr1XvVe9V71XhZf9V71XtRa1FrUWtRa1Fr1XtRa1FrUWtRa1Fr1XgAAklazWrJWs1qyVrNas1bTWrNW01qzVtNa01bTWrNW01rTVtRa01rUWtRa9V7UWvVe1VrVWtVaF2MXY7VaD0KLMUEIQQRiCEkpSim1UhljGGPXWhhjGGM4YxZfFmMWYzdnFmM3YxZjF2MWYxdj9l4WX/ZeFmP2XhZjFmMWY/ZeFmP1XhVj9F71XvVe9V7UWtRas1rUWrNW1FqzWtRas1bTWrJW01qzVtNas1azVrJWs1qzVtNas1bTWrNa01qyVrNWslazVpJWs1ayVrNaklayVrNa01qzWtNas1azWrJWs1qSVrNWslazWrNa1FrTWtRes1rUWrNa1FrTWtRe01rUWtRe9V7UWvVe9Vr1XvVe9V71XvVe1Fr1XtRa9V7UWvVa9V71XvVa9V7UWtRa1Fr1WtRa1FrUWtRa1FbUWrNW1FrUWgAAs1qSVrNaslazWrJa01qzWtNa01rTWtNa1FrTWtNa01rUWtNW1FrTWtRa1Fr0WtRa9VrUVrRWs1bVWvVeFmP2XvVazTnmGAAAQggBAJRSOWdba1prWms5ZzhnF2MXYxZfN2cXYxdjFmM3ZzdnN2cWYzdjFmM3ZxdjN2c3YzdnF2MWY/VeFWP1XhZj9V71XtRa1F7UWtRa01rUWtRa1FrTWtRa01rUWtNa1FrTWtNas1bTWrNa1FrTWtRa01rTWrNW01qzVrNas1bUWtNa01qzVtNas1azWrJWs1qyVrJWklazVpJWslayVrNas1rUWtNa1F7TWtRe01rUXtNa1F7TWvVe1Fr1XtRa9V71XvVe9V4WX/Ve9V71XvVe1Fr1WtRa9V71WvVa1FrUWtRa1FrUWtRa1FrUWtRW1FqzVtRa01b1XgAAklayWpJWslqyVrNas1bTWrJW01qyVtNaslbTWtNW01qzWtNa01rTWrNW01qzWtRas1bUWtRa1FqzVrNWs1bUWtRWOGe0VlFGhAwiBAAA6Bx0TvdaOWNaaxhjF18WXzdnN2c3ZxZjF2MWYzdjF2M3ZxZfFmMWYzdnFmM3ZxZjN2f1XhZf9V4WX/VeFl/1XvVe1FrUWtRW1FqzVtRa1FbUWtNW1FrTWvRa01rUWtNW01qzVtNa01bUWtNW01rTVtNas1azWrJWs1qzVtNas1rTWpJSklaSUpJWkVKSUpFSklKSVrJWklayVpJWs1qzWtRa1F70XtRe9F7UXvRe1F70XtRa1FrUWtRa1FrUWtRa9V7UWvVe9Vr1XtRa9VrUWtRa1FrUWtRW1FqzVtRas1bUWrNW1FrUVtRas1bUVrNW1FrUWgAA016zWrNas1rTWrNa1FrTWtNas1bTWtNa01rTWvRa01r0XtNa9F7UWtRa01rUWtNa9F7TWtRa01r0XvReFWP1XvVekk44Y+YYQQTGGAEAZAwBAKYQrjW1UlpremtZaxdjWGs4Z1hrN2cXYxZjN2MXYxZjFmMXYxZjF2MWYxdjFmMWYxZfFmMWYxZjFmMWY/Ve9V7UWvVa1FrUWtRW1FrUWvRa1Fr0XvRa9V70WvRa01bUWtNa9FrUWvRa01rUWtNWs1qyVrNWslazWrNa01qzWtNas1rTWrNWs1qyVrNaslbTWrJWs1qyVrNWs1bUXtRe9F7UXvRe1F70XtRa9F7UWtRa1FrUWtRa1FrUWvVe1Fr1XtRa9V71XvVe1Fr1XtRa9V7UWtRa1FrUWtRa1FrUWtRa1Fr1XtRa1FrUWvVe1Fr1XgAAs1rTWrJWs1qzWtNaslazWrJW01qyVtNa0lbTWtJW01rTWtNas1rTWtNa1FrTWtNaslazVrJW1Fr0XvReslayUvReFV8WX+05AADONccY6BivNegcAAABAOccMUb3XnprFl83ZzhnOGcXYxdjFmM3ZxZjF2MWYxdjFmMXY/ZeFmMWYxZjFmMWYxZjN2cWYxZj9V71XtRa1FrUVtRa1FbUWtRa1FrTWvRe9Fr0XtNW01bTWtRa01rUWtNa1FqzVtNWs1azWpJWs1azVtNas1rTWtNa1F7TWtRas1rTWrNW01qzVrNaklaSVpJWs1qzWtRes1rTWrNW01qzWtNas1rTWrNW1FrUVtRa1FrUWtRa1FrUVtRa1Fr1XvVa9V7UWvVa1FrUWtRW1FrUWvVe1FrUWtRa1FrUWvVa1FrUWtRa9V7UWgAA1F6zWrNaslbTWrNas1qyVtNaslbTWtNa01rTWtNa01rTWrNW01qzVtNa01rUWtNa9F7UWtRas1bTWtNa9F70XvVe9V7UVrRSpBStMc85IgS2VtdalVKMLUIIAACCDCgl1loXX1lrWWs5axdjOGc4ZzhnN2c4ZzdjN2c3YzdnFmM3ZzdjN2c3Z1hnN2c3ZxZjFmP1XvVe1Fr1WtRa1FrUWvRa01r0WtRa9V70WtRas1b0WtRa9F7UWvRe01rTWrNW9F7TWtNas1rUXtRa9F7UWtNas1azWrJWs1qyVrNWklbTWrJWslaRUrJWslbTWtNa1FrTWtRa01rUXtNa1F7TWtRa1FrUXtRa9V7UWvVe1FrUWtNa1V70WvVi9V71XvVa1V7UWtRa1Fr1XtRa1FqzVtRa1FrVXtRa1V7UWvVe1Fr1XgAAcVKRUpFSklaRVpJWkVaSVpJWslaSVrJWklayWrJW01qzWtNas1rTWrJa01qzWtRes1rTWtNa1F6zWtNas1rTWvVe1Fr1XrRWjDEIIbZahRAJIVtrOWfWWtVacUrEFCAEAADHGPA9+F5aa3trOWc4YzhnFl/2XjdnN2cWYxVfN2cWYzhnN2cXYxZfN2c4ZzhnF2M3YxZfFl/1WvVa1Vr1XtRa1F7UWvRe1Fr0XtRe9V7UWvRe1Fr0XtRa1F7UWvRe1Fr0WtNa1FqzWtRa01r0XtNa01qzVtNa01rUWrNWs1ayVrNWslazVpJWs1ayVrNas1rTWtNa1F7TWtRe1FrUXtRa1F7UWtRa01rUWtRa9F70XvRe1Fr1XtRe1FrUWvRe1FrUXtRa9V7UWtVe1FrUWrNa1Fq0WtRa1FrUXtRe9V7UWgAAslaSVrJaslazWrJWs1qyVtNaslqzWrJWslaSVrJaslbUXtNa1F6zWrNaslrTWrNa1F7TWvRe1F70XtNe1F7TWtRa1Fr2XtVeUkqEENZazz0BADJGGGNZazhjFl8WY9VWrTXIGCIEAQDnHBBCGWOcc1lnemt6bzdjN2NYZ3hrNmNYZzdnWGc3ZzdnFl/1XtRaN2cXYzdjFl8WX/Va9l71WvVe1Fr1XvRe9V70XvVe9F71XtRa9V7UXvRe1Fr0XtRa9V70XvVe9Fr0XtNa1FrTWvRa01rUWtNa1FrTWtRa01azWrJWs1qyVrNaslazWrNW1F7TWtRe1FrUXtNa1FqzWvRe1FrUXtNa1F7TWvRe1F71YtRe9V71YhVj9F4VYxVjFmP1XvVi9V71XtRa1FqzVtRas1rUWtRa1FrUWvVe1FrUXgAAslqzWrJWslqyVrNaslazWrJaslqSVrJWkVaSVpFSkVayVrNaklayVpJWslaSVrJWslrTWrNa01qzWtNaslqzWrNW9mLUWtVetFYAAM85+F7HGAkl1lo4Z/Ze9VpYZxZf1lrWWlJKSylCCAAAQgjmGJRSF2M4Zxdj9l45ZzhnF2M3YxZj9l43YzhnWGtZa3lvF2M3ZxdjF2MWXxZf1Vr1WtRa9V7UWvVe1F71XtRe9V70XvVe1Fr1XtRa9V7UWvRe9Fr1XvRe9V70WvRe01bTWtNa9FrTWtNas1bTWtNW1FqzWtNas1bTWrNa01qzWtNas1rTWrNa01qzWtNas1azWtNa1F7TWtRa01rUXtNa1F7UXtRe01r1XvRe9V70XhVj9mIWY/Ve9V7VXtVes1qzVrNW1FqzVrNas1bUWrNa1Fq0WgAA01qyWrJaklayWrJWslqyWrJWklayVpFWslaRVrJWkVaRVpFSkVaRUpJWklayVpJWs1qyWrNas1rTWrNa01qzWtReFmPUWrRa9l4hCOccGWNzTiIIc073Xjhn9VoWX9Vaem84Y/Ze1lrVVhBCKCFBBCAApBTOOdVWWmtaa1pnOWc4ZzhnOGc3ZzhnF2MXY/VeOGc3YzhnN2M4ZxZj9l71WvVe9V71XvVe9WL1XvVe9V4VY/Ve9WL1XvVi9V71XvRe9F7UWvRe9Fr1XvRe9F7UWvRa1Fr0WtNW01qzVtRa1FrUXtNa1FqzWtRas1rUWrNas1qzVtNas1rUXtRa1F7UWtRe01rUXtNa1F7TWtRe01r0XtNa1FrUWvRe01rUWtRaFmP1XvVi9V71YvVe1F60WtRas1rUWrNa1Fq0WtRatFrUXgAAslayWpFWklaRUpJWkVayVpFSkVaRUpJWkVKRVpFSkVZwUpFScVKSVpFSklaSVrJWslqzWrNa01qzWtNe01rUXrNa9V60WtVe9l5rLUIIUkrXWoUUKSEXYxdf9l4WX1hns1b1XhdjOGcXY/Ze1Va1VmstpRQAAAEAphSuNXVOGWMYY1lrWWsXY/ZeOGc5ZzhnF2M4ZzhnOGcYYxdj914WX/Ve9V71XvVe9V71XvVe9V71XvVe9V71XtRa9V7UWvVe1FrUWtRa1FrUWtRa1Fr1XtNW1FrUWtRaslazVrNW9FqzVtNas1azWrJWs1qyVrNaslazWrNa1FrTWtRe1FrUXrNa01qzWtRas1rTWrNa01qzWrNas1bUWrNas1qzVtNa1F71XtRe9V7UXvVe1FrUWrRa1FqzWtRas1bUWrNa1FrUWgAAs1qyVrJaklayVpFWslaRVrJWkVayVpFWklaRUpFWcVKyVpJWslqSVrJWklaSVpFSs1qyVrNaslrTWrNa1F7TWtNa1FrVXvZi9l5yToQQxxj4XjFGAQBzTvZa9loXX/VaWGc3YzdjF2M4ZzdjF2P2Wvde9161VowxZAwBAGQM6BxSStVWOWdZa3premtZa/ZeOGc4Z1lrOWc5ZxhjOGMXYxZj9V4WY/VeFmP1XhZj9V71XvVa9V71WvVe1Fr1XtRa9V70XvVe1FrUWtRa9F7UWtRa1Fr0WtRa1FqzVtRa1Fr0XtRa1F7TWtRas1rUWtNa1F7UWvRe1FrUXtNa1FqzWtNas1rUWtNa1FqzWtNas1rUXrNa1FrUWvRe01rUXtRe9V7VXvVe9V71XtRe1V60WvVe1FrVXtRa1Fq0WtRe1FrUXgAAklayVpFWklaRVpFWcVKRUpFSklaRVpJWkVKRVnBSkVKSVrJWklayVpJWklZxUpFSkVKSVpFSklaSVrJWslazWrNa1F6zWhZjtFb2XmstIQTvPRhjYwwpJfdeems4YxdfF2MWY/ZeF2MXYzhj9173XvZe1la1VhljGGNTSgkhQwgAAEIICCExRvZeWWs5ZzlnOGc5ZzhnWWc4ZzhnF2MYYxZfFmP2XhZf9l4WX/VeFl/1WvVe9Vr1XvVa9V7VWvVe9V71XtRa9F7UWvRa1FrUWtRa9FrUWtRa1Fr0WtRa1FrUXvRe01rUWtNa1FqzWtRa01rUXtNa1FqzWtNaslazVrJWs1qzVtNas1rTWrJWs1rTWtNas1bUWtNa01qzVtRa1F71XtRa9V71XvVi1F7UXtRa1V7UWtRas1rUWrNa1FrUWgAAslaRVrJWkVaSVpFSkVJwTpFWkVKSVpFWslaSVrJWkVaRVpFSklaRUpJWkVKSVnFSklaRVpJWkVayVrJW01qzWtRe1FqzVvVetFYXY9ZaYwyEENZaEEIAAPdaGGPWWjhjOGc5Z1lr9lpRSosxKCHmGIQQQQjnHHJOWmsYY/Za917NOaUUAAAgAMUUSSlRShhjWWs5Z1lrOWdZazhnOGcYYxdjFmMXYxZfF2MWXxZj9l4WYxZfFmP2XhZj9l4WX/Ve9VrUWvVe9V4VY/Ve9V70XvVe9Fr0XtRa9V71XvVe1FrUXrNa01qzVrNas1azWrJW1FqzWtNas1rUWrNa01qzVrNas1rTWrNa1FqzWtNaslbUXrNas1qzWrNaklaSVpJW1F7UWtVe9V4WYxZjFmP1YvVe1FrUXtRa1Fq0WtRas1rUWgAAkVKRVpFSklaRUpFWcFKRUnBOkVKRUrJWkVKRVnFSkVZxUpJWklaSVpFSkVaRUpJWkVKSVpJWslaSVrNaslbTWrNa01rTWvVe1VrVWpRSc04AAK011lohBGsp1lb3XjljOmdzTowxhBAiBIQMYwwIISklzTUwRpJOtFYWYxZf1VrVWhdjtFasNWMMAAAAAEEI5hwxRllnem84Z1lrWWtZaxdjN2cXYxdj9l72XvZeFl/2XhdjF2P2XtVa9l72XvZe9l4WY/Ve9V71WvVe9V4WX9Ra9V7UWvVe1FrUWtRa9FqzWtNas1rUWrNa01qzVrNas1bTWrNa01qzWtRe1F71XrNas1qyVrNWklazVrJWs1qzWtNaslazWrNa01qzWrNas1bUWtRa9V7UXvVe1F71XvVe9V7UWtRas1rUWrNa1FqzWgAAcFJwTpFScVKRUnFSkVJxUnFScFKRVnFSkVJwUpFWkVKRUpFSklaRUpFWcVKSVpFSslaSVrNaslazWrJWs1qyVrNaslazVtNa9V71XvZe1VYHISEEtVZsLUMI1lbXWrZWrjVlDCMEZAwqJZRSWmfWWhhjFl8WX/Ve9VrUVhZjWGc4Y/de9l72XhdjtFasNYMQQggAACEESim1Vllrem84Z1lrOGc4ZzdjF2MXYxdjF2MXY/ZeF2MXYxdj9l72XtVa9l71XvVe9V71XvVeFl/1XvVa1Fr1XtRa9V71WvVe9V71XtRe9V7UXtRe01rUWrNa1F7TWtRe01rUXtRa9F7UXtRe01rUXrNa01qzWtRe01rUWrNWs1qyVrNas1bTWrJW1FqzVtRas1rUWtRa9V7UXvVe1FrUWrNa1FrUWtRetFrUWgAAcFKRUnBSkVaRUpFWcVKRVnFSkVZxUpFScFKRVpFWslqRVrJWklaSVpFSklaRVrJWklayVpJWslaSVrJWklayVtNa01qyVrNW1Fb1WtVa1VpSSiIExhhSSiIESyWVUq4xZQyGEG0t+F4ZY9da914YYxdfF2P1XhZfNmNXZxVf01rUVvZe9l72WtVaF1/2XvZeck6MMaQQIQQAAEEIaim0VllrOGcXYzhjOWdZazhnOGc4Zxdf1Vr2XvZeF1/2Xhdj1Vr1XvVa9V71XvZe9V72XtVa9V7UWvVe1Vr1XtRa9V71XvVi1F70XtRa1FqzVrNa01rUWrNa01qzWtRas1rUWtRa1F7TWtRa01rUXrNa1FqzWtNaklayVrJWs1qyVrNWs1azVpJSklaSUrNWs1bUWrNa1FqzVrNas1rUWtRa1FqzVgAAslaSVrJWkVayVpFWkVaRUpFWkVKSVpFSklaRVrJaslqzWrJWs1qSVrJWklazWrJaslaSVpJWklayVpJWslaSVvRe01rTWrNW1FrUWtVa1Va1VowxAQCNMWwtAgCNLQEAIwRUSvle+V4aY1NK7z2tNdVW1VoWY/Ve9FrTWhVfFmM3YxdjF1/VWtVa9l4XYxdj1Vr2Xhdjck6MMcUYQQgAAKQUizHVWllrWWsXXxdjOGc4ZzhjOGcXYzhjF2MXY/Za9l71XhZjFl8XYxZjFmMWXxZj9l4WX/Ve9V7UWtVa1Fr1YvRe9V7UXvRe01rTWrNW1FqzWtNas1rUWrNa01qzWtRe01rUXtNa1F7TWtNas1r0XtNa01qzVtNas1rTWrNas1qTVpJWklKSVpJSs1azVrRas1a0WrNa1FrUWtRe1FrUWgAAcFKRUnBSkVJwTnBScE5xUk9OcFJxUpFWcVKRUpFSklaRUpJWklayVpFSklaRVrJWcVKSVpFSklaSVrJWslazVrJWslayVtNa01bUWtRa1Vq1VrVWSiUBAMcUQwQjBGQI8D06Z/helVLOOSEEAAAhBEIIrDXVWjhn9l4WX/Va9Vr2XvZe1VoWXxdjN2PVWrRW1Vr2XtVatFbVWtVaMEZJKSEEAAAAAIQQizGUUhdjWWcXX1prWWcXX9ZaOGM5Zzhn9V4WYxZfF2MWYxZjFmMWY/ZeFmP1XvVe1VrVWtRa1FrUWvRe1F70XtRa1F7TWtRas1bTWrNa1FrTWtRe01rUXrNW01qzWtNas1rTWrNWs1rTWtRas1rTWrJWs1qzVtNaklKSVpJSklaSUpJWklKSVpJSs1azVrRas1azWrNWs1qzVgAAcFJwTnFScE5xUnBSkVJxUnBScFKRVpFWklaRUpFWkVKyVpJWs1qyVrJaklayVpJWklaSVrJWslazWrJa01qzWrJaslbTWtNa1FqzVtRatFYXY/dedE7HGCMEIwQDAPE9OWP3XjFGpRQAAAchlFK0UuccIACEEDBCOGf2XvZaOWf2XvZeF2P1WtVa1Fo3Y1hrFmP1XvZe1Fr1WtVaFl/2XtVaUUZrLWMMIAAAAKQUKCFzTvZaWmtZZzhnGGMXX9VWF2MWYzdjFmMXYxZjFmMWXxZf9V4WX/Ve9l71XvVe9V71XtRe9V70XvVe9F71YvRe1F7UWvRe9F71XvRe9WL0XtRe01rUXtNa1FqzWtRas1rTWrNa1FqzWrNaklazWrJWs1aSVrNas1azVpJWklaSUpJSklKzWrNWs1qSVrNWklazVgAAcFKRUnBOcVJwUpFScVKRVnBSkVKRUpFWkVKRVpFSkVaRVrJaslazWrJWs1qSVrJWkVaSVpFWslaSVrJaklayVrJa01qyVtNaslazVpJSs1KTUrVW1la3VoYQAgAjAEwpzTViDCAApBQoJVFG9lr3XvdelE4IIQAAhBBTSvhelFL2XhZfFl83YxZjFmP1WvVa9l71XvVaFmMWX9VatFbVWtVa9lrWWrRWMEJqKYMMAAAAAGIISSVySvZeOWdZZ5tvN2c3ZxdjF2MWYxZj9l4WY/Ve9l71XvZe9V72XtVa9V7UWvRe1Fr0XtRe9V7UXvRe1Fr0XtRe9V70XvVe1FrUXtNa1FqzWtNas1bTWrNa01qyVtNas1rTWrJWslaSUrJWs1azWrNWtFqzVrNWklKSUnFSklazVrNas1azVpJWs1aSVgAAslaRUpFWcFKRUnBSkVJxUpFScVKRUnBOcFJwTpFSkVKRVpFWs1qyVrNaklaSVpFSklaRVpJWkVKSVpFWklaRUrJWslayVrJWslazVtRa1Fr2XrRW+F4yRgIAAgBECAAAQQRBCGkpL0YWXzdjtFb2WtVW1Vb2XnNKCSEAAGQMjTGsMQ5CtFYWXxdj9Vr2XhZjFl/2Xhdj9l4XYxZfF2P2Xhdj9lr2WvZaF1/2WrRWckqLLaQQIAAAAGIIxRjuOfZaWmtZazlrGGM4ZxdjF2MXYxdj9l4WY/Ve9l71XvVe1Fr0XtRa1F7UWvRe1FrUXtRa9F7UXvRe1F70XtRa1F6zWtRe01rTWrJWs1qzVtNas1rTWtNa9F7UWtRaslazVrJW1F7UWtRas1rUWrNWs1aSVpJSklbUWtRa1F6zWtRas1rUXgAAklaSVpFSklZxUnFScE5xUnFScVJwTpFScVKRVnFSkVKRUpJWklayVpJWslaSVrJacVKRUnFSkVJxUpFSkVKSVpFSklaRVrJWsVbTWtNa1Fq0VtVatlboHAAAKSUIIQAAzTm0VvZe9VqzVtRa9VrUWtVa1VrVWvZetVYwRgglYgwAACAAYwxqLVJKF2MXX9Va9l72WtZaGGMXY/Ze1Vb2WtRW9l72XtVatFbVWrRWk1K0VtRWcUqrMaQUIAQAACAAxhjwPddaGWP3XhhjGGP3XtVa9l4WXxZf1FrUWvRaFmOzVvVeFWMVX9Nas1azWvVe1FrUWtRa9V7UXvVe1FrTWrNWs1qzWrNaslazWrJWs1qzWrNaslqzWrJWs1qyWtNa01rUWrNas1qSVpJScVKRUnFSklaSVrNWklazVrNW01qzVgAAkVJxUpFWcVKRUnFSklaRUrJWkVKSVpFWslaSVrJWklayWpJWslqSVrJWklayVpJWklaRUpJWkVKSVpFSslaSVpFSkVKRVpFSsVaxVtNas1a0VrVWUkqFEOcc1lpRSiAESSkWY9Va9Vr1XvVe9V70XvVe01bUWtRaFmP2XvZetFa1Vu89CCFBCEEI5hjvPbRStFYXYzln1Va1VvdeOGf2WvZe1FrUWtRa9l71XvZe9VrUVrNSs1a0VtRWcUqrMcYYAQABACIEphStNXNOGGM4Z1lrF2P2XvZeN2M3YxZj9FoWY9Ra01bUWhZjNmcWY9Ra1FrTVtRa01bUWtRa9V71XtRe1FrUXtNa1FqzWtRe01rTWrNW01qyVrJaslayWrJWs1qzVtNas1azVpJSklJxUrJWslbUWtNa1FqzWtRe01rTWgAAUE5wTlBOcVJxUpJWkVKSVpJWslaRUpJWklazWpJWslaSVrJWklayVpJWklaRUpJWklayVpFSklaSVrJWklayVpJSslaRVrJWsVbSWrJW01qzVvZerTUBAOgcGGO0ViglYgwWY5JS1FrUWvVes1b1XvVe9V60VrRWtFbVWtVa1lrVWhdf9lpyTmstpBQAAAAAAACDEM05914XY7RSk1IXY/Ze9l71Xhdj1VqTUpJS1Vr2XvVas1a0VvVaF2PVWpNStFasNYMQAAAAACEEpRRqLZNS9l44Zzhn1lrVWtVaN2MWYzdnFmMWY9Ra1Fr1WhZj9V71XtRa1FrUWtRa1Fr1XtRa9V7UWtRa1FrUWtRa1FqzWtNas1bTWrJWslaRUpJWklKyVrJWs1qzVrNWkVKRUpJSs1azVtNas1rTWrNWs1qzWgAAcFJwTnFScVKSVpFWslaSVrJWklaSVpFWslaSVrJWkVayWpJWslaSVrJWklayVpJWslqSVrJWklayWrJWs1qyVtRas1rTWtJa01rSWtNa1Fr2XvZeKiUAACklck6TUlBGIAQwRtRa1FrUVtRas1bUWtRa1Fr1WtRa1Vq0VtVatFa0VrRW1Vq0VrRWckowRu49SSmDEAAAYgzNORdjWWv2XhdjtFaTUtRWF2MXYxdj9V60VtVa9l7UVrRWs1bVWvVa1Vq0VtRak1LuPcUYIAQAACAAYwyLMXNOGGM5Zxhj9lr2XtRa1FrUWjdjN2MXY/VeFl/1XvZe9V4WX/Ve9VrUVvVe9V71XtRa9V7UWvVe1FrUXtRa9F7UWvRe01rTWrJWs1qzVtNas1rUWrNas1qyVpJWklazWrNa01qyVrNWslbUWgAAcE5xUnFSkVJxUpFWkVKSVpFWklaRUpJWkVKSVpFSklZxUpJWkVKSVpFWslaSVrJakVKSVpJWslaSVrJWklayVpJWs1ayVrJasVayVrJW01rVWtVapRRCCBBC1VaTUrNSQQgHIfZe9V6TUtRas1bUWrNWs1azVrRWtFbVWtVa9l7VWtRWs1LUVtVa9Vq0VpNS1FqTUqw1gxAAAGIMai1RStVaOGc5Zzhn1lrVWtVa1VrVWvZe1VrVWrVW1Vq0VpNSslKyVrJW01qzVpJSUEowRgchpRQgBAAAQggpJRFC1lpZazhnFmP2XtVa9l72XhZj1VrVWrRW1VrVWvZe1VrVWtVa9V7VWvVa1FrVWtRa9VrUVtRa1Fr1XtRa9FrTWtNas1bTWrNWs1qyVrNas1bTWpJSs1azVtNas1azWrJWs1qSVgAAkVZxUpJWkVKSVpFSklaRUrJaklayVpJWslaSVrJWkVaRVpFSklaSVrJWklazWrJWklaSVrJWklayWpJWslqSVrNWslazWrJW0lqyVtNas1a0VtVahBBCCHNO9lrVWrNSKCUgBNRa1VqzVrNW1FqzVvRe01bUVrNWtFazVrRWklKzVpJSs1KSUrNWs1LUVrNW1FqSUpJScU6rNYIQQARhCEkpD0L2Xhdf9l72Whdf9l44Z/de1lq0UrRW1Vr2XvVa9FrTWtNaslb0WvRe9FqSUtVak1IQQiklhBABAEMIZAzGGIsxs1Y3ZzhnFmP2XvZeOGcWY/Ze1Vr2XvVe9l7VWvZe9Vr2XtVa9VrVWvVe1VrUWtRa9VrUWvVa1Fr0WtRa1FqzWtNaslazVrJW01qzWrNWslazWrNWs1aSVrNWslazVgAAcE5xUnBOkVJxUpJWkVKSVpJWslaRUpJWklayVpFSklaRUpJWkVKSVpFWslaSVrJWkVKSVpJWslaSVrJWklaSVpNWs1ayVrJaslbTWrJW01qTUvZeYwxjDFJKtFazUrNWD0IAAM051FqzVtRaklKzVrNW01rTWvVe1Vr1XrRW1FrUWvVe1FrUWrNWs1azVtRas1b1XrNWklKzVvVaL0ZpLUEIQghiDCklMUYXYxhj916TUvZeF2MXY9Za1Vq1WtVaslLTWtNa01ayUtNW01bUVrRWtFa0UtVatFYxRiklhBAgBAAAAABiDEkpUUr2Xllr9l4WYxdjF2P2XvZe1Vr2XvZa9l7VWvVa1Vr1WtVa9VrUVtVa1FbUWtRW1FqzVtNWs1bTWrJWs1qyVrNas1bTWpJWs1aSVpJWkVKSVpJSslazWgAAcE5QTnFScFKSVpJWslaSVrJaklaSVpFWslaSVpJWkVKyVpJWklaRVrJWklayVpJWslaSVrJaslazWrJWslqSVrNWk1azVrJW0lqyVtNas1bVWtVaQgiEENZa1VrUWrNStFZBCCgl1VoWY9Vas1bUWvVe9F70WrNW1Fa0VtVa9V7UWrNWs1azVtNas1bTVrNW1FqSUrNW01rUWrJSs1azVnJOjDGlGAAAAARBCCgl7j32XvdiOGcXYxdj9l7WXrRW9V7UWtRa1Fr1WtRa1FqzVtRWs1a0VrNStFa0VrRWtFaTUu49ByFBCCAEIASkFOYcMEZyTvZeF2MXY/Ze9l72Xhdf9l72XvZa9l71WvZe9Vr2XvVa9VrUVtRa1FbUWrNW01qzWtRa01rUXtRa1F7TWtRa01rTWrJWs1ayVrNas1rUWgAAcVKRVpFSklZxUpFWcVKRVpJWslaSVrJaklayVpJWslaSVrJWkVKSVpFSklaSVrNaslazWrJWs1qSVrJWklayVpNWs1ayVtNaslbTWrNa1Fq0VrRWIASlFJNS9l7VWtRak1JqLUEI1FrVWtRW1FrTWtNa01qzVtRa1Fr1WtRWs1azVtNaslazVpJSslaSVrJWslayVpJSslaSUrJWsla0WpNStVq0VnJOjDXmHCEIAAQgBGIMByEwRtZeOGf3YtZe1Vr2XvZe1Vq0VtVa1FbUWrNW1FaSUpJSkU7TVtNW1FaTUtVatFaTUg9Cai2kFGIMAAAAAEEIKCXuPZNS9l44Z/ZeF2P2XvZa1VoWX/Ze1VrUVtVa1FbUWtRW1FrUVtRas1bTWrNa01qyVrNas1rUXrNW01rTWtRe01rUWtNa1FqzWgAAklaRUpJWkVaSVpFSklaRVpJWkVKSVpFWklaRUpJWkVayVpJWslaRVpJWklayWrJWklaSVrJWklayWrJWs1qyVrRas1bUWrNa01rTWtRa1FrUWnNSIATGGLVW9Vr1WtRa1VrNOUEIUUr2XrRW9V7UWvRe01rUWtNa9VrUWtRas1bTWrNW01qzWtNas1bTWrNW01qzVtNas1bTWrNW1Fq0WrRWtFbVWtVatFqTUnJOUUrGHKQUYxAgBCAIpBjuPdZaOWcYY/detVbWWvde9lqSTrNWs1bUWtNa9F70WtNakVKTUpNS1Vq0VrRWk1KTUnFOzTkoJYMQIAQAAAAAQQhiDCglrDVyTtRW9l71WvZe9Vr1WtRa9VrUWtVa1FbUWtRa01rTWtRes1qzWrJW01rTWtNas1azWrJWs1qyVtNas1rTWgAAcVKRVnFSkVJxUpFWcVKRVnFSkVJxUpFScVKRVnFSkVaRUpJWkVKSVpJWslaRUpJWkVKSVpFSslaSVrNaslazWrNWtFqzVrNaslbTWrNW1Fq0VlFKAAAoJbRW9VrUVvVa1VpRSgAAizH2XtRa1Fr0WtRa01qyVtNWs1bUWrNWs1azVtNas1bUWtNa01qyVrNWs1bTWrNW01qzWtNas1azWtVe1VqTVrRWtFrVWrRWs1b2XrRaUUrMOQYhYhAgBCEIhRSuNbZWGGPWWtZa1Vr2XrNS9V70XvRaslKyVtJW9F7UWtRak1KzVpNSs1aTUpNSs1azVpNSklIvRosxxRiCEAAAIAAAAAAAAADlGA9CN2fUWtRa1FbUWtRW1FrTVtRa01rUWrNa01qyVrNWslazWrJWs1aSUpJSkVKSVpJWs1azVgAAkVJxUpFScVKRVnFSkVJxUpFScVKRVpFSklaRVpJWklaSVpJWslqyVtNaslayVpFWs1qyVrNaslazWrJas1qzVrRWk1azVrJW01qyVrNas1bUWg9CAACLMfZe1VrUWvVa1lq1VkIIxRgXY7RW1FrUWtRas1azVrJW01rTVtRas1bUWtNa1FrTWtRas1rTWrJW01qzVtNas1bTWrNWs1ayVrRak1KTVpNW1FrUWrRaklLUWpNWtFrVXvZiklLNOSglZBAiBEMI5xwQQtVaF1/VWvZetFazUrJS9Fr0XtNakVLUWrNWs1azVrRWtFbUWrNW9V7UWrRWk1KzVpNStFazVtRaUEqsNQYdoxTEGMw5s1bUWtRa1FrUWtRa01rUWtNa9F7UWtRes1rTWrNWs1qyVrNaslazVpJWslaSVrJWklbUXgAAcFKRUnFSkVJxUpFScVKSVnFSkVJxUpJWkVKSVpFWklaRUrJWslbTWrNas1qSVrJWklazWrJWs1qyVrNaslazWpNWs1aSVrNWslayVrJWs1a0Vu49AADuPdVa1VrUVvVetVb3XsUYYgz2XtRa1FrUWrNW01ayUrJWslKzVrJWs1azVrNaslazVpJWs1qzWtRaklazVrNWs1qzVrNWklayVnJSklaTVrRatFrUWrRa1FqzVrNWklKzVpNWs1qTVpNWUUrOOQghhBAAACEEKSVyTtVaF2MXYxZj1Fq0VtRW9V6zVrNWs1bUWtRa9V71XvVek1LUVtRa9V7UWtRatFa0VpJSs1KzVtRas1aSUpJS1FqzVtNas1rTWrNa01rTWtRa01rUXtNa1FqzWtNas1azWrJWs1qzWtRas1qzWpJWslazVgAAklaRUpJWkVaSVpFWslaSVpFScVKRVpFSklaRUpJWkVKyVpJWs1qyWrNaslazWrJWklaSVrJWslazWrJW01qzWrRatFa0WrNW01qyVtNas1bVWs45IAAwRvZe1Vr0WvVa1l73XowxIQTVWtVa9V7UWvRa01rUWrNWs1aSUrJWklKzVpJWslaSUrNWs1bUXtRes1qzVtRas1rTWrNWs1qzVtRa01rUWrNWklZxUpJSklKzVrNW1FqzVrNas1rUXtRa1Vq0UtVa1VpRRgchQQgAAIMMSSlyThdjGGPVWvZe9l4WY/Ve9V7UWrNWklKzVrNW1FrUWtRaklKzUpJSs1aSUtRaklazVrNW1F7UWtRa01rTWrNW01qzWtNas1rTWtNa1F7TWtRa01rUXtNa01qzVtNa01r0XtRe9F6zWrNaklayVgAAcVKRUnFSkVKRUpJWkVKSVnFSkVJxUpFScVKRUnFSkVKRVpJWkVKRVpFSklaRVrJWklayVpJWslayVrNaslazWrRWtFqzVrNaslbTWrJWs1rUWs45AABSSrRW1VrUVtRa1lrWXhBGAABRSvVe9V7UWtRa9FrTWtNas1azVpJSslazVrNWklKTVpJWs1qzVtRas1a0WrNWs1qzVrRas1bTWrNWs1qzVrNaslazVrJWs1qzVrNaklaSVpJW01qzVpJW9V6zVnFOs1bUWrRWMELNOcUYYwwAAGMMCSHwQZVSGGPUWvVe9V71XtRa1FrUWvVeslbTWrNW1FrUWvVe1FrUWrNas1qSUpFSklKzWrNas1ayVrNaslayWrJW01qyVrNaslazVpJWs1qzWtRas1azVrNa1FqzWtRas1qzWpJWklaSUgAAcVJwTnFScFKRUnFSkVJxUpJWkVKSVpFSklaRUpJWkVKSVpFSkVJwTnFScVKSVpFW016zWtNas1rTWrJWs1qSVrRas1azWrJW01qyVrNas1bVWs05IQRSSrRW1Fr0WrNW9l61VpNSAAAvRtRa9l6zVtRa01r0WtRa9FrUWtRa01rUWrRa1FqzVrNas1azVpJS1FqzVrNas1azWrNW1Fq0WrJWslazWrNa1FqzVrNWkVKyVtNa1F6yVpJWklKzWrNWklLTWvRas1bTVtRa1VqTUrVWUkrOOeccQggAAIUUKSWTUtRWFl/1XvVes1bUWtRa9V7UWtRaklKzVrNW01aSUrNa1FrUXpJWs1qzWrNakVKzWrJWs1qyVrNaslqzWrJaslaSVrJWslbUWtNa01qyVtRas1rTWrJWs1qSVpJWkVKzVgAAkVKSVpFSkVJwTnFScE6RUnFSkVJxUpJWcVKSVpFSklaRUpJWkVKyVpFSklaRUrJWkVKyVpJWs1ayVrNas1rTWrNWs1aSVrJW0lr0XtNa1Fq0VhBCAADNOdVa1VqzUtNWtFa0VtVaIASLMfVeFmO0VtRa1FrUWtRa01bUWrNW1FqzVtRas1bUWrNWs1azVrNWklKSUpJSs1KSVrNWs1azVrNW1FrUWtRas1qzVpJWklKzVtNas1bUWrNW01qzVtRa01rTWrJWs1azVrNWklKSUpJSklKSTpNSUUrMOcUYIAQAAOYcD0LVWvZe9l7UWtRa1FrUVrNW1FrUWtRas1ayVtNas1qSUrJWklazWrJWslaSVrJWklayVpFSklaSUrJWkVKyVrJWs1qyVrNas1rUWrNW01qzWtRe01rUWtRa1Fq0WgAAklaRUrJWkVaRVnFSkVKRUnFScVKRVpFSklaSVrJaslayVpJWslaSVrJWklayVpJWkVJwTpFScVKRUnFSkVKRUrNWslazWrJW0lqyVtRa1FrVWjBGAACsNdVa1FrUVtNW1Vq0VtVaQAhpLdVaFmPUWvVa1Fr1WtRa1FrUVtRa01bUWtRa1FrUWtRas1bUWrNW1FqzVrNWs1bUWrNW1FqzVrNWs1bUWtRa1FrUVtRas1bUWrNW1FqzVtRas1bUWrNWs1ayVrNWs1bTWtNW01qzVtRaslKSUnFOkU5QSi9G7T0nJUEIAATmHDBG1Fr1XtRa1FbUWvVe1FqzVpJSs1bTWrJWslbTWtNa1F7TWtNaslazVpJWs1aSVrJWklayVpJWs1ayVtNaslazVrJW01qzWtRa1FrUXtRa1V7UWtRe1FrUWgAAcVKSVpFSklaRUpFWcVKRVnFSkVJxUpFWkVKSVpFWklaRUrJWkVKSVpFSslaRUpJWklKyVpFSslaRUrJWkVKSVpFSslayVrJWsVayVrNW1VrVWlJKAACMMbRW1FrTVvRa1Fr1XrRWgxDlHPVe1VrVWtRa1FrUVtRas1bUWrNW01bUVtRas1bUWrNW1FqzVrNWs1bUWrNWs1azVtRas1bUVrNWs1azVrNWs1bUWrNW1FqzVtRWs1azVrNW1FazVrNWklKyVrJS01bTVtRa01rTWrNW01ayVrJWslKyVrJWs1ZRSjBGKCUAAAAAxRgPQvVes1a0VrNW1FrUVtRas1KyVrJWs1aSVpJWkVKSVpJSs1aSVrNWklazVrJWs1aSUpJWkVKyVpJSslaSVrNas1rUXtRa1F7UWtRe1FrUWrNa1FqzVgAAklaRUpJWkVKSVpFSklaSVrJWklayVpFWklaRUpJWcVKSVpFSklaRUpJWkVKSVpFSklaRUpJWkVKyVpJSslaRUrJWslayWrJWslayVtNa1Fr2XnJOQghqLdVa1FrUWtNa1Vr2XrRW5hyjFNVa1VrVWtVa1FrUWtRW1FqzVtNas1bUWtRW1FqzVtRas1bUVrNW1FqzVrNWs1bUVrNWs1azVtRas1azVrNWs1azVtRas1bUWrNW1FqzVtRas1bUWrNW1FrTVtNa01bUWtNa1FrTVtRa01r0WtNa01aSUpFScU6SUlFKcU4vRkkpIAQAAIIQL0ZxTrRWtFazVpJStFb1WtRe01qzWpJWs1ayVrNas1qzWrNW01qzWtNas1azVpJWs1qyVrJWklayVrJW01rUWtRe1FrUXtRa1F7UWtRa1FrUWgAAcVKRUnFScVJQTnFSkVKyVpJWklaRVpJWkVKRVnFSkVKRUpFSkVKSUpFSkVKRUpJSkVKSVpFSslaSVrJWslazWrJWslaRUrJWsVbTWrNWtFrVWpNSYwxKKdVa1FrTVtRatFb2XrRWai1BCPVetFb1XtRW1FrUVtRas1bUVrNW01azVtRas1bUWrNW1FqzVtRas1azVrNSs1azUrNWs1KzVrNWs1aSUrNWklKzVrNW1FazVtRa1FbUWrNW1FrUVtRas1bUWtNa1FrTVtNas1bTWvRa1FqyVrJWkVKSUpFSklJQSrNScU4vQu49DkJIKWIMAADEGA9C9V71XtRWk1KzVpFSklKSUrNWs1azWpJSkVKyVrNas1rUWrNas1qyVrJW01rTWrNas1aRUpJWklazWrNWs1qzVtRas1rUWtRa1FqzVgAAslaRUpJWcVJxUnBOkVaSVpJWkVKSVpJWklaSVrJWklayVpJSslaSVrJWklKyVpJWslayVrNas1bTWtNa1F7TWtNaslayVrFW0lrSWtNas1bVWpRShBApJfZe1Fr0WtNW1Vr1XtVaizFBCNVa1FrVWtVa1FrUWtRa1FqzVtRas1bUWtRa1FrUWtRa1FrUWtRa1FqzVtRWs1bUVrNW1FqzVrNWklKzVpJSs1azVtRa1FrUWtRa9VrUWtRa1Fr1WtRa1FrTVvRa01rUWtNW1FrTWvRe01azVrJW01azVtNWslKRUi9GcU6zVtRaUEpQSnJOrDXEGCAEIARJKTBGk1JxTtRaslazWpJWslaSVrJWklazWrNW01qzWtNas1azWrJWs1qyVrNaslayVrJW01qzWrNas1bTWrNa1FrUWtVe1FrUWgAAkVayVpFSkVZxUnFScE5xUnFSklaRUpJWkVayVpJWslaSUrJWkVKyVpJSslaRUrJWcU6RUnFOkVKRUpJWkVKSVpJWslaRUrFWsVayVrJWs1a0VrVWYwwHIdVa1FrUWvRa1FrVWrRWrDUAANVa1FbVWtRa1VrUWtRa01bUWrNW01qzVtRas1bUWrNW1FqzVtRa1FbUWrNWs1azVtRas1azVpJSs1aSUrNWs1bUVrNW1FrUWtRa1FbUWtRa1FrUVtRas1bTWtNW1FrTVtNas1bUWrNW01azVtRa1FrUWpJSkVKRUrNWkU5PRi9GklKSUnFOL0ZxTg9CJyUAAAAA5hwPQlBKkVKyVtNas1rTWtNa9V6yVrNaklazVpJWs1aSVrJWkVKRVpFSslaSUrJWslbTWrNW01qzVrNas1rUWtRa1F7UWgAAslaSVrNaklaSVnFScVJQTrJWklayVpJWslaSVpJWkVKyVpJWslaSUrJWklayVpJSs1ayVrJWslazVrJWslayVpJWslayVrFWsVaRUrNWs1bVWrVWhBDGGNVa1Fb1XvRa9l7UWtRaizEgBLRW9VrUWvVe1Vr1WtRa1FrUWtRa01azVrNWs1azVrNWs1azVrNW1FqzVrNWs1bUWtRW1FqzVtRa1FbUWrNW1FqzVtRWs1bUWtRa1FrUWtRa1FrUWtNa1FrTWvRa01rTWrNW01rTVtRa01rTWrNW1FrTVtRa01bTWrJWs1azVrNWkU5xTnFOklJxTnFOcU5xTs05ByFACKIURykvSrNW1FqSVpJWklKzWrJWslaSVrJWklayVpJWs1qyVrNaklaSVnFSkVJxUtRe1FrUWrNa1FrUWtRe1Fr1XgAAcVKRUnFSkVJwUnFScE5xUnFSkVZxUpFWcVKRUnFSkVKRUpJWkVKSUpFSklKRUpJWklKyVpFSslaRUpJWklKyVnFSklKRUrFWsVayVrNW1Fq0VrRWCCGlFJNS1Fr1XtNa1Vq0VrRWzTkAALNWs1bUWtRa1FrUWtRa1FrUWtRa1FqzVrNWs1azVrNSs1azVtRas1bUWtRa1FqzVtRa1FbUWrNW1FqzVtRas1azVrNWs1azUrNWklKzVpJSs1azVtNaslKzVrNW01rTVtNa01bTWrNW01rTVtRa01bTWtNW1FqzVtNWslayVpJSklJxTnFOcU5xTnFKcU5QSnFOUUpyTi9KzD2qNQ5GcVKzVrJWs1azVtNas1rTWrNa01qzVtNaklKyVrJWs1qyVrJWklayVrJWs1qzVtRatFrUWtRa1FrUWgAAklaRUpJWkVaSVpFSklaRUrJWklayVpJWklaRUpJWkVayVpFSslaRUpJWkVKyVpJSslaSVrJWklayVpJSslayVrJWklKyVrFWsVaxVrNWk1bVWrVWSiljDNVa1FYWX9Na9V60VtVazTkAALNW1FrUWtRa1FrUWtRa1FrTWtRa1FrUWrNW1FqzVtRas1bUWtRa1FrUWvVa1FrUWrNW1FrUWtRa1FrUWtRW1FqzVtRas1bUVrNWs1azVtRWs1bUWrNWs1azVtNa01bUWtNa1FrTWtNas1bTWtNW1FrTVtRa01rUWtNW01qyVtNaslayVpJSklJxTnJOcU5yTnJOk1KSUpJWT0pPSnFOs1qzVrNas1bTWrNW01qzVrNaklayVpJWs1ayVrNWslayVrJWs1ayVtNas1bUWtNa1F7UWtRe1Fr1XgAAklayVpJWslaSVrJWkVaSVpJWslaSVrJWklayVpFWklaRUpJWkVKSVpFSklaRUpJWklayVpFSklaRUrJWkVKyVpJSslaRUrJWkVKyVpJSs1a0VtVaay0hBLRWtFbUWtNa1FrVWtVazTkAALNWtFbVWtRW1FqzVtRa1FbUWrNW1FrUWtRas1bUWtRW1FrUWtRas1bUWtRa1FqzVtRas1bUWtRa1FqzVtRas1bUWrNWs1azVtRWs1bUVrNW1FqzVrNWs1bTWrJW01azVtNa01bUWrNW01qzVtNa01bUWtNa1FrTWtRa01bTWtNa1FqzVrNWkVKSUnFOklKSTpNSklKzUrJWklaSUtNas1qzVpJSs1ayVrNWklayVpJWslaRUpJWslayVpJWslaSUrJWslazWrNW01qzVtNas1rUWrNa1FrUWgAAs1qyVrNaklayWpJWslaSVrJaklayVpJWslaSVrJWklayVpJWslaSVrJWklayVpJSslaSVrJWklKyVpJWslaSVrJWklayVrJW0lrSWtRatFrVWrVWzjkAAJNSs1b0WtRa1VrVWvZerDUgBLNW1VrVWvVe1Fr1WtRa9VrUWtRa1FrUWtRa1FrUWvVa1Fr1WtRa1FrUWtRa1FrUWtRW1FrUWtRa1FrUWtRa1FrUWtRas1bUWtRW1FrUVtRa1FrUWrNW1FrTVtNas1bTWtNW1FrTWtRa01rUWtRa9F70WvVe9F70XtRa9F7UWvVe9Fr0WtNW1FqzVrNWklKyVpJSklKRUpJWkVKyVrNWs1qSVpJWklazVrJWs1ayVtNas1rTWrNW01qyVrNaslazWrJWs1qzVtNas1azWrNW1FqzWtRas1r1XgAAslazWrJWslaRUpJWkVKRVpFSklaRUpJWkVKRVpFSklaRUrJWklayVpJWslaSUrJWklKyVpFSslaRUpJWklKyVpFSslaSVrJWslbTWrNa1Fq0VrVaEEIAAFFK1FrUWhVftFb1XvVeizEgBLRW1Fr1XtRa1VrUWtRa1FrUWtNa1FqzVtRa1FrUWtRa1FrUWtRas1bUWtRa1FqzVtRa1FbUWtRW1FrUWtRas1bUWtRW1FqzVtRas1bUWrNW1FqzVrNWs1bTWrNW01qzVtNa01rUWtNW1FrTWvRa1Fr0XvRa9V7UWvRe1Fr1XtRa9F7TWtNa01rUWtNW01aSUpJSkVKRUnFScVJxTpJSkVKSVpJSslaSVrNWslazWrNW01qzWtNakVKyVpJWs1ayVrJWklayVpJWs1aSVrNWklazVrNW1FrUWgAA01qyWrNaslayVpFWklaRUpJWkVKSVpFSklaRUpJWkVKyVpJWs1ayVrNWslayVpJWslaSVrJWklayVpJSslayVrNWslayWrJWslayVtNas1a0VpRSUkoAAO49s1b0WvRa1Vr1XvZeai1hDLRW1VrVWtVa1FrUWtRa1FrUVtRa01bUWtRW1FrUWtRa1FrUWtRa1FrUWvVa1FrUWrNW1FrUWtRa1Fr1WtRa1FrUWtRa1FrUWtRW1FrUVtRa1FbUWrNW1FrTWtRa01rUWtNW1FrTWtNa01bUWtNa9FrUWvRe1Fr1XtRa9V70WvVe1Fr0XtNa9FrTWtRa01bTWrJW01ayVtNaklaSVpJSs1ayVtNas1bTWrNa01qzWtNaslazWrJWkVKRUrJWslayVpJWslaSUrNWklazVpJWs1azVtRa1FrUXgAAs1qzWrJWs1qyVrNaklayVpJWslaRVpJWkVaSVpFSklaRUrJWklazVrJWslaSUpJWklayVpFSklaRUrJWkVKyVpJWslayVrJWsVayVrJWs1a0VrRWc05CCGot1FazVtNW1Fr2XtVaSSlhDNVa1FrUWtRa1VrUVtRas1bUWrNW01azVtRa1FbUWtRa1FrUVtRas1bUWtRa1FqzVtRas1bUWtRa1FrUWtRa1FrUWtRa1FrUWtRas1bUWtRW1FqzVtRas1bUWtNW1FrTWtRas1bTWtNW01qzVtNa01rUWtNa1FrUWvVa1Fr1XvVe9V7UWvRa01rUWtNa01rTWvNa01rTWtNa01qzVrNWslbTWrNa01qzWtNas1azWrNWs1aSVrJWkVKRVpFSslaSVrJWklayVpJWs1aSUrNWs1bUWrRa1FrUWgAA01qzWtNas1rUWtNa1FrTWrNaslazVrJWs1ayVrJWklayVrJWs1qyVrNaslayVpJSslqSVrJWklKyVpJWslaSVrJWslayWrJW01rTWtRa1Fr2XtVa1lqEEGot1Vr1WtRa9Vr2XtVaKCWCENVa1Vq0VvVe1Fr0XtRa9FrUWtRa01rUWtRa1FrUWvVe1FrUWtRa1FrUWtRa1FrUWtRW1FrUWvVa1FrUWtRa9V7UWvVa1Fr1XtRa1FrUVtRa1Fr1XtRa1FrTWtRa01r0WtNa1FqzVvRa1FrUWtNa9F7UWvRa1Fr1WtRa9Vr1WhZj9V4WX/Re9V70WvRe9Fr1XvRa9F7TWtNa1FrUXtNa1FrTWtRe1FrUWtNa1FrTWtRa01rUWrNWs1qyVrJWklazVrJW01qzWrNas1azVrJW1FrUWvVe1V71XgAA9F71XvRe9F7UWtRe01rUWrNW01qyVtNas1rUWtNa01qyVrJWkVKRVpFWklaRVpFWkVKRVpFSklaRVpJWkVayVrJWs1qyVrJakVKyVrJW1F7UWtVatFYoIaQU917VWrVW1VbVWtVaBh2kFNRa1FrUWrNW1FrTWvRe01rTWrNWs1qzVtRas1bUWrNW1FrUWtRas1azVrNW1FazVrNWs1bUVrRW1FrUVtRa1FrUWtRa1Vq0VtRatFbUWrRW1Fq0VtRas1bUWrNW1FqzVtRa1FrUWrNW1FrUVtRas1bUWrNW1Fq0VtVa1Vr1XtRa9VrVWvVe9Vr1XvVa9V7UWtRa01bUWrNW1FqzVtRas1bUVrNW1FqzWtRa1FrUWtRa1FqzWtRaslazVrJWs1azVrNWs1bUWpJWs1azVtRatFrUWrRa1FrUVgAAFWP1XhVj9F71XvRa9F70WvRe01rUWtNa9FrUWvRa01rUXrJaslqyVrJaslayWpFWslaRVrJWkVaSVpFWslaRVrJWkVayVpFWsVaRUrJWs1ayVtRa1VpJKSAED0LWVtZa9lrVWvZepBQHIdRa9V70WtRa01rUXtNa1FqzWtNas1bUWrNW1FrUVtRa1FbUWtRa1FrUVtRa1FrUWtRW1FrUWtRa1FrVWtRa1VrUWvVe1FrUWtRa1VrUWtRa1FbUWtRW1FrUVtRa1FrUWtRa1FrUWvVe1Fr1XtRa9V7UWvVe1FrVWtRa9V71XvVe1Vr1XvVe9l71XvZe9V71XtVa9V7VWtRa1FrVWtRa1Fq0VtRatFbUWtRW1VrUWtVa1FrUWrRW1FqzVtRas1bUWrNW1FrUWtRas1bUWtRW1FrUVtRa1FbUWgAA9F71XvRa9F70WvRe1Fr0WtRa1FqzVtNa01bTWrJWs1ayVrJaklaSVpJWslaSVpJWklayVpJWklaRVpJWkVKRVpJWslayVrJWsVayVrJWs1qRUvVe1FbtPQAASim1Vvde1lrVWtVaQQhqLdRa01r0XtNa1FqzVrNaslazWrNW01qzVtRas1bUWtRW1FrUWtRa1FrUWtRa1FrUWtRa1FrUWtRa1FrUVtRa1FrVWtRa1VrUWtRa1FbUWtRW1Fq0VtRa1FbUWrNW1FqzVtRa1FbUWtRa9V7UWvVe1Fr1XtRa9V7UWvVe1Vr1XtVa9VrUWvVe9V72XvVa9V71WvVe1Vr1XtRa1VrUWtRa1FbUWrNW1FazVtRas1bUWrRW1FqzVtRW1FrUWrNW1FqzVtRa1FbUWtRW1FqzVtRWs1bUWrNW1FbUWgAA9V70XvRe1Fr0XtRa9FrTWvRa01rUWtNW1FrTVtNWslayVpJWslaSVrJaslazWrJWs1qyVrNaslazWrJWs1qSVtNa01rTWtNa01rTWtNa01rTVtRatFZyTmIMByHWWrVW1lq0VrRWAAAOQtRW1FrTWvRe01rTWrJWs1qzVtNa01rUWtRa1FrUWvVe1Fr1XtRa9V7UWvVa1Fr1XtRa9VrUWvVa1FrVWtRa9VrUWvVa1Fr1XtRa1VrUWtVa1FrUWtRW1FrUWtRa1FbUWtRa1FrUWvVe1Fr1XtRa9V7UWvVe1Fr1XvVa9V71WvVe1Vr1WtVa9l71XvZe9V72XvVe9l71XvVe9Vr1XtRa9VrUWtRatFbUWrRW1Fq0VtRa1FbUWrRW9V7UWtRa1FrUWtRa1FrUWvVa1FrUWrNW1FqzVtRa1Fr1XgAA1Fr1XtRa9F7UWtRa1FrUWtRa9F7UWvRe1FrUWtRa9F6yVrNaslqzWrJWs1qyVrNaklayWrJWs1qyVtNas1rTWrJWs1qyVtNaslbTWrJWs1ayVtNWklLUVsUYpBSUUtZWtVbVWjBGAABRStRWs1bUWtNa01qyVrNWklazVrNW1FqzWtRa1FrUWtRa1FrUWvVe1FrUWtRa1FrUWtRa1FrUWtRa1VrUWtVa1FrVWtRa1VrUWtVa1FrVWtRW1Fq0VtRas1bUWrNW1FqzVtRa1FrUWtRa1FrUWtRa1FrUWtRa9V7UVvVa1Vr1XtRa1FrUWvVa1Vr1XvVa9V71WvVe9Vr1XvVa9V7VWvVe1FrVWtRa1Fq0VtRatFbUWrRW1Fq0VtRa1FrUWtRa1FqzVtRa1FrUWtRa1FqzVtRas1bUWtRa9VrUWgAA9V71XhVf9V71XvRe9V70XtRa1Fr1XtRa1FrUWvRa1FrTWrNa1F6zWrNaklayVpJWs1qyVtNas1rTWtNa1F7TXtNas1rTWrJa01rTWtNaslbTWtNa1FrVWostQQhSShdj9lr2Xqw1YgzUWtRa9V7TWvRe01rTWrNWs1qzVtNa01rUWrNW1FrUWtRa1FrUWtRa1FrUWvVa1FrUWtRa9VrUWvVe1Fr1XtRa9VrUWvVa1Fr1XtVa9V7UWtVa1FrVWtRa1FrUVtRa1FrUWtRa1FrUWvVe1Fr1XvVa9V71WvVe9V7VWtRa9V71WvVe1Fr1XvVa9V71WvZe9V72XvVe9l71XvZe9V72XvVe9V7VWvVe1Vr1XtRa9VrUWtVa1FrVWtRa9VrUWvVa1FrUWtRa9V7UWvVa1Fr1WtRa9VrUWvVe9Vr1XgAA9V71XvVe9V71XvVe9F71XrNW1FrTVtRas1azVrJWs1qSVrNas1azWpJWslaRUrJWslazWrJWs1qzVtNas1rTWtRe1F6zVtNa01rTWtNa01rTWtRa9VrUWjBGQQjOORhj1VoXY+Yc5hz1WtRa9FrTVtNa1FrTWtNas1rTWrNWs1qzWtRas1bUWrNW1FqzVtRW1FrUWtRa1FrUWtRa1FrUWtRa9V7UWtVa1FrVWtRa1FrVWvVe1FrVWtRa1Fq0VtRa1FbUWrNW1FqzVtRa1FbUWtRa9V7UWvVe9V71XvVe9V7UWvVe9Vr1XvVa9V7VWvVe9V72XvVe9l71XvZe9Vr1XvVe9l71XvVe9V71XtVa9V71XvVe1VrVWtRa1VrUWtVa1Fr1WtRa1FrUWvVe1Fr1XtRa9V7UWvVe1Fr1XtRa1FrUWgAAFV/1XvVe9V71XvVe9V70XvRe1Fr1XtRa1FqzVrNWs1ayVrJW01qzWtRas1rUWtNas1qzVrNaslbTWrNWs1qzVvVe1FrTWrJW01rTWtNa01r0WrNW9V6zVvZeYgyMMbVW1loYY4QQKCUWX9RW9V6yVtRa01r0XtRa9F7TWtNas1bVXtRa1FrUWtRa1FrUWrNW9V7UWvVe1Fr1XtRa9V7UWvVe1Vr1XtRa9V7UWtVa1Fr2XvVe9V7VWvVe1FrUWtRa1FrUWtRa1FbUWtRa1FrUWvVe1Fr1XvVa9V71XvVe9V71XvVeFl/1XhZf9V4WX/ZeFmMWXxZj9l4WY/ZeFl/1XhZf9V72XvVeFl/1XvZe9V4WY/Ze9l71WvVe1Vr1XtVa9V7UWvVe1Fr1XvVe9V71XvVe9V4WX/Ve9V71WvVa1FrUWgAA9V4WY/Ve9V7UWvVe1Fr1XvVeFmMWYxZj9Vr1XvVa9V70XvRe1FrUWrNW01rTWtRas1bTWrNW01qzVtNas1bUWtRa1F7TWtRes1rTWrJWs1rTVvVes1azUvVeizFBBHJO1Vr3XgAAMEbUWrJS9V7UWtNa01rTWtNas1azWrNW01qzVtRWs1bUWtRa1FrUWvVe1Fr1XtRa9V7UWvVe1Fr1XtRa9VrUWvVe1Fr1XtVa9V71XvVe9V71XtVa9V7VWvVe1Fr1WtRa9V7UWvVe1Fr1XvVe9V71XvVe9V71XvVe9V7VWvVa1Vr1XvVeFl/1XhZf1Fr1WvVeFl/1XvVe1Vr1WvVe9l71XhZf9V72XvVeFmP1XvVe9Vr1XtVa9V7UWtRas1bUWtRW1FrUWvVe9V71XvVe9V71XhZj9V71XtRa1FqzVgAAFmMWYxZj9V4WY/VeFmP1XvVe9V4WX/Ve9V7UWvVe9V70XtRa1F7UWtRas1bUWrNW1FrTWtRa01rUWtNa1FrUWtRe1FrUXtNa1FqzVtNaslbUWrNW9Vq0VtRWD0JBCM05k1IPQkEIUUoXY9Ra9V6zVtRe01rTWrNWs1qSVrNWslbUWrNW1FrUVtRa1Fr1WtRa1FrUWvVa1Fr1XtRa9V7UWvZe9V4WX/VeFl/1XhZj9V72XvVe9l71XvZe9V72XvVe9V71XvVe9V71XvVeFmP1XhZf9V4WY/VeFl/1XhZj9V4WYxZfFmP1XvVe1Vr1XtVa9VrUWvVe9V72XvVeFmMWXxZj9l4WYxZfFmMWXxdjFmMWYxZfFmMWXxZj9V71XtRa9V71XvVe9V4WYxZfFmP1XhZj9V4WYxZjFmP1XvVe1FrUWgAAFmMXYxZfFmP2XhZj9l4WY/Ve9l71XvZe9l4WY/VeFl/0XvVe9F71XvRe9V7UWtRa01rUWtNa1FrUWtRa01rUWtRa1FqzWtRas1rTWrJWs1bTVnFO1FrUWnJO1FaDDOYYUUpJKaQUcUrVWvVa01bTWtNa1FqzWtNas1azWrJWs1a0WtRa1FbUWtRa1FrUWtRa1FbUWtRa9V71WvVe1Fr1XvVeFl/1XvZe9V4WX/Ve9l7VWvVe9V72XvVe9l71WvVe9V71XvVe9V71XhZf9V4WX/Ve9V71XvVe9V71XvVe9V71WhZf9l4WX/Va9V71WhZf9V4WX/Ve9V71XhZjFmM3YxZjF2MWYxdjF2M3ZxdjN2cWYxdjFmMWYxZjFl/UWtRas1bUVrNW1FrUWvVa1FrUWvVeFmP1XhZj9V4WY/Ve9V7UWgAAF2MWYxZjFmMXYxZjF2MWYxdj9l4WX/ZeN2cXYzdjFmMWYxVjFmP1YhZj9V71XvRe1FrUWtRe1Fr0XtRa1FrTWvVe1FrVXtRa1F7TWtNas1bUWnBO9FrTVpJS9VpJKSAEiy2DEIsxck6zVtRa01rTWtNa01rTWrNa1FrTWtRe1FrUXtRa1FrUWtRa1FrUWtRa9VrUWvVa1Fr1XvVe9V71XvZe9V71XvVe9l71XvVe9Vr1XvVe9l71XhZj9l72XvVe9V71XvVe9V4WX/VeFmP1XhZj9V4WX/VeFmP1XhZf9V71XvZeF2MWXxZf9V4WYxZjN2MWYxZj9l4WYxZfFmMWYxdjFmMXYxZjN2c3ZzdnN2c3ZxZjN2cXYzdnFmP2XtRa1FrUWtRa1FoWXxZfFmP1XjdnFmMWY/VeFmMWYxZj9V71XgAA9l4WY/ZeFmP2XhZjFmMWY/Ze9l71XvZe9l4WYxZfFmP1XvVe1Fr1WtRa1FrUWvVes1bUWtRa1FrUWtRa1FrUWtRa1V7UXvRe1FrUWtNa1FqzVpJSs1azUrNWs1YvQiAEIABBBDFG1VqTUvVeslKzVpJSslaSVrJWklazWrNW01qzVrNWs1bUWrNW1FazVtRas1bUWrNWs1azVtRa1Fr1XtRa9VrUWvVe1Fr1WtRa9VrUWvVe9V72XvVe9l71XvVe1Fr1XvVe9V71XvVe9V4WY/Ve9V71XvVe9V71XvVe9V4WXzdjN2MXY/Ve9Vr1WhZf9V72XvVe9l71XvVe9Vr1XvVe9l71XhZj9l4WYxZjF2MXYzdnN2c4ZzdnN2cWYxZj9V71XvVeFl/1XhZjFmMWYxZjFmP1XhZj9V4WYxZjFmP1WgAAF2MWYxdjFmMWYxZjN2MWYzdjFmMXYxZjF2MWYxdjFmMWY/Ve9V7UWtRa1Fr1XtRa1FrUWtRa1FrUWtRa9VrUWvVe1V71XvRe9V7UXvRe1FrTWtNa01aSUvVeck7VWuYYgwwoIdVa1VqzUtRas1bTWtNaslbTWrJWs1ayVrNaslbUWrNW1FrUVtRa1FbUWtRa1FqzVtRas1bUVtRW9V71WvVa1Fr1XtVa9V7VWvVe9Vr1XtVa9V71XvZe9V71XvVa9V71XhZj9V4WYxZfFmMWYxZf9V4WY/VeFl/1XhZj9V4WYxZjN2MWYxZf9V4WXxZf9l71XhZjFl8WYxZfFmMWXxZj9l4WYxZjF2MWYzdnF2NYazdnWGs4Z1hrOGdYZzdnFmP1XvVe9V4WY/VeFmP1XjdnFmMWYxZjFmMWYxZjFmP1XgAAF2M3ZxdjN2cXYzdnF2M3ZzdnOGcXYzdnFmMXYxZjF2P1XhZj9V71XtRa9V7UWvVe1Fr1WtRW1FqzVtRa1Fr1XtVe9V7UXvVe1F70XtNa1F6zVvRes1azUtVak1LVWg4+zTmTUrRWs1aSUtRWklL0XrNW01qyVrNWklazVpJWslazVrNWs1azVrNW1FqzVtRas1bUWrNW1FrUVtRas1bUWtRW1FrUWtVa1Fr1XtRa9V7UWvVe1Fr1WtRa9VrUWtVa9Vr1XvVe9V71XhZj9V4WY/Ve9V71XvVe9V71XvVe9V7UWvVe1Vr1XvVeFl/1XhZj9l4WX/Ve9l71XhZjFl8WYxZjFmMWYxZjFmM3YxZjF2MWYxZj9l4WY/ZeFmP1XvZe9V4WY/VeFmMWYzdnFmM3YxZjN2MWYxZjFmMWY/VeFl/1XgAAWGs4Z1hrN2c4ZzhnOGc3ZzdnN2c4ZxdjF2P2XhZjFl8WY/VeFmP1XhZj9V71XtRaFl/1XvVa01rUWtRa9V71XvVe1F71XtRe9V7UXvRe01rTWvRe1FqzVtRas1bUWrRWk1I4Y3JOklL1WtRWklKzVrJWklKyVpFSslaSVrJWklaSUpFOklKSUrJWklKzVpJSs1ayVtNas1bUWrNWs1aSUtRas1bUWtRa9VrUWvVe1Fr1XvVa9V7UWvVa1Fr1WtRa9V7UWvVe9V71XvVeFmP1XhZj9V4WX/VeFmP1XhZf9V4WY/Ve9V71WvVe9V71XtRaFmP1XvVe1FrUWtRa9V71XhZj9V72YvVeFmP1XhZj9V71XtRa1FqzVtRas1a0WrNWs1ayUrNW01b1XvVeFmMWXzdnFmMWZxZjF2cWYxZj9V4WYwAAFmM3ZzdnOGcXYzdnN2NYZzdjN2cXYzdjFl8WYxZjN2MXYxdjFl8WYxZjFmPUWtRW01bUWtNW9FrUWvRa1Fr0XvRe9V70XvRe1F70XtNa9F6yWtNas1bTWrJWslaSVrJWklKSVpJSslaSUrJWklKyVpJWslaSUpJWcVKRUnFOcVKRUpJWklKSVnFSkVKRUrJWklKyVrNW1FqzWtNas1azWrNWs1qzVtRas1bUWtRa9F6zVtRa1FrUWrRa1FrUWvVes1bUWtNW1FrTVtRa01bUWrNW1FrUWvRa1Fr0XtRa9V7UWvVe9F71XtRa9F7UWtRa1Fr1XvReFWP1XvVe1FrUWtRa1FrUWvRe1FrTWpJSklJxTpFScVKyVpJWs1aSVpJWslaRUnFOkVJxUpJSslbUXtRa9V71YjZnFmc3ZxZjFmcWYwAAN2c3Z1hrOGc4ZzdjOGc3Z1hrN2dYZzdnOGc3Z1hnN2dYZzdjN2cWYzdjFmMWY/Ve9FrUWvRa1Fr0WtNa9FrTWvRe1F70XtRe9F7TWvRe017TWtNa01rTWtNaslayWrJWslaSUrJWklayVpJSslaSVpJWklKSVpJSklaRUpJWkVKyVrJW01qyVrJWklKyVrJWklaSUrNWslbTWrJW01qyVtRas1bUWrNa1FrTWvRe1Fr0XtRa9F7UWvRe1Fr1XtRe9V70WvVe9F71XtRa9F7UWtRas1bUWtRa1FrTWtRa01rUWtNa1F7TWtRas1rUWrNa01qzWtRa1Fr0XtRe1F6zVtNaslayVpJSklaSUpJWkVKSVpJSslayVrNaslayVpFSslZxUpFScU6RUnFSslazWrNWs1r1XhZjN2c3Z1hrN2s4ZwAAN2dYazhnWGc3ZzhnN2M3ZzhnWGs4Z1hrWGdYazdnWGc3ZzdnFmMXYxZjF2MWXxZj9Fr1XtRa9FrUWtRa01bTWtNa1F7TWtRa01rUXtNa1FrTWtNas1rTWrNWs1qSVrJWklKyVpFSklaRUpJWcVKSUnFSklJxUpJSkVKSVpFSklaRUrJWklayVpJWslaRUrJWkVKyVpFSslayVrNaslazWpJWs1aSUpJWklazVpJWs1bUWtRas1azWtRa1F7UWtRa1FrUWtNW1FqzVtNas1azVrNWs1ayVrNWslazVpJSs1ayVrNaslazWrJWs1qyVrNWkVKSVpFSslayVrNaklayVpJWslaRUpJSkVKSVpFSklKSVrJWklKyVrJWs1aRUpFSkVKRUnBOkVJxUpFScVKyVpJSs1azWvVe9WIWZxZjN2c3ZwAAWGs4Z1hrWGdYa1hnWGs4Z1hrWGdYa1hrWWtYZ1hnN2c3ZzdnN2cXYzdjFl8WYxVfFmP1XhVf9F71XvRa9F7UWvRe1FrUXtNa1F7TWtRa01rUWtNa01qzWtNaslayVpJWslaSVrJWklKSVpFSklJxUpJWkVKSVpFSslaSVrJWklaRUnFSklKRUrJWkVKRUnFSslaRUpJWkVKyVpJWs1ayVrJWklKSVpJSklaSUrJWklKzVpJSklKSUtNa1FrUWrNWs1ayVrNWklKzVpJSslaSUrNWklKyVpJSslaSUrJWklKyVpJSklaRUpJWklKSVpJSkVJxUnFScU6RUnFSklJxUpJWklKyVrJW01qyVpJWcU6zVpJWslaSVrNaslayVpFSslaRUpJSkVKyVpFSklKSUrJWklazVrNW1F71XhZjFmM3ZwAAN2M3ZzdnWGtYZ1hrWGtZazhnWGtYZ1hrOGdYZzdnN2cXYzhnOGdYZxdjFmP1XvVe9V71XvVe9V7UWvRa1Fr0XtNa9F7TWtRas1rTWrNW01qzVtNas1bTWrJWslaSUrJWklKSVpJSklZxUpFScVKRUpFSklaSUpJWkVKSVpJSslZwTnFScVKRUpFSkVJxTnFScU6RUnBOcVJwTpFSkVKSVpJWslaSVrJWklKyVpJWs1ZxUnFSUE5xUpFSs1aSVpJWkVKSUpFSklKRUpJWklKyVpFSkVKRUpJSkVKSUpJSslZxTnFScE5xTlBOcU5wTnFScU5xUnBOcU5QTnBOcE5xUnBOkVKRUpJWklKSUnFOcE5xUpFScVKSVpJSslaSVrJWkVKRUpFSslaRUpFScVKSVnFOcVJxTpJSk1b1XhZjN2sWYwAAN2c3Y1hnOGdZa1lreW9Ya3lrWGt5b1hrWWtYZ1hrOGdYa1hneWtZa1hrN2MWY/Ve9V70WvVe1Fr0WtNa1FrTVvRe01r0XtNa01qzWtNas1bTWrNa01qzWtNaslayVpJWslaSVrJWklKSVpFSklaRUrJWklayVpJWslaSUrJWklayVpFSslaSUrJWkVKSVnFSklaRUpJSkVKRUpFSklaRUpJWkVKSVpJSklaSUrJWklaSVpFSkVJxUpJSkVKSVnFSklKRUpJSkVKSUpFSslayVpJScVKSUpFSklKRUrJWslayVpFSklZxUpFScVKSUnFSklKRUpJWcVJxUnBOkVJxUrJWkVKSUnFSklKRUpJWkVKRUnFSkVKRUrJWslazWrJWklaRUpJWklayVpFSklKRUrNWklKSVpJSs1a0WvZiFmM3ZwAAN2M3ZzdjWGdYa3lrWGtYa1hrWWtYZ1hrWGtZa1hrWWtYa1lrWGdZa1hrWGsWYxZj9Vr1XtRa1FrTVtNWslKzVrNW01qzVtNas1bTWrNW01rTWtRa01rTWrNWs1qyVrJWklKSVpFSklaSUpJWkVKSVpJSslaSUrJWklayVpJSslaSVpJWcVKRUpFSklJxTnFSkVKSVnFSkVJxUpFScU6RUlBOcFJQTnBScE5xUnFSkVKRUpJWcVKRUnFSkVJwUpFScU6RUnBOcU5wTpFScVKSUpFSkVJwTnFScU6RUpFSklazVrNWklKSUpFSklJxUpJSkVKyVpJWslaRUpJSkVKSVpJWklaRUpJSklKzVpJWs1ZxUpFScU6SUpJWs1qyVrNakVKRUpFSslaSUpJScVKSVrNWs1aSUpJWklKzVpJWs1b1XgAAWGs3ZzhnN2dZa1hrWWs4Z1hrWGdYazhnWWtYa3lveWt6b1lrWGtYZ3lrWGtYZxZjFmP1XvVe1FrUWrNWs1ayUrNWslazVrJW01rTWtRa01r0XtRa9F7TWtRa01rTWrJWslaSVrJWklayVpJWslaSVrJWklayVpJWs1ayVrNWslayVpFScVJwTpFScE5xTlBOcVJwTnFOUE5wTlBKUE5PSnFScE5wUnBOcVJxUpFScVKRUnFSkVJxUpFScVKRUpFSslaRUpFScU6RUpFSklKRUrJWkVKRUnBOkVJxTpFSkVKzWpJWklZxUpFScU6RUnFOslayVrNas1azWrJWs1qzWpFSkVKyVrJW1FqzWrNaklaSVpFSklKSUrNWs1bTWrNWs1aRUrJWslazWpJWslayVpJScVKSVpJSs1aSVpNWklL1XgAAN2c4ZzdnN2c3YzhnOGdYa1hnWGtYZ1hrWGdYa1hreWs4Z1hrWGdZa1hnWWtYa1hrFl8WX/Va9VrUVtRas1azVpJSs1azVtRa1Fr0XtRa9F7TWtRa9Fr1XtRa1FqzVrNWklaSVpFSklaRUpJWklKSVpJWklZxUpFSkVKSVpFSklKRUpFScE5xTnBOkVJxUpFSUE5QTi9GL0ouRk9KT0pQSlBOcE5QTnBScE5xUnFSklZxUnFScE5xUnFSkVJwUnFScVKRUnFOkVJwTnFScE6RUnBOkVJxUpFScE5wTnBOcVJxTnFScE5xUnBOcVJxUpJSkVKSVpFSkVJxUpFSkVKSVpJWklaSUrNWs1bTWrNas1qSUrNWs1bTWrNa01qzVtNakVKyVrJWs1qyVrJWklaSVnFOklKSUrJWklKSVpJSklKSUgAAFmMWXxdjFmMXYxdjN2c3ZzhnN2dYZzhnWGtYZ3lrWWtZa1lreWtZa3lrWWt5a1lrN2cWYxZj9V71XtRa1FqzVtRa1Fr0XtRa9V7UWvRa1FrUWtRa9V7UWvVe1Fr0WtRa1FqzWrNaslayVpJSklaRUpJSkVKSVpJSslaSVrJWklKRUnFOkVJxUpFSkVKRUnFOcE5QTnBOUE5wTnBOcVJwTnBOUE5wUnBOcVJwUpFScVKSVnFSkVJxUpFSkVKSVnFSkVJxTpFScE5xUnBOkVJxTnFScVKSVpFSkVJwTpFScVKRUnFSkVJxUpFScVKSUpFSklJxUpJSkVKSUpFSslaSVrNaklazVrJWs1qzVrNaklazVrJW01qzWtRas1rUWrNaslaRUrJWklKyVpJSslaSVrNWklazVpJSklaSUpJWklKzVgAAFl8XYxZjN2M3YzhnN2dYZxdjN2cXYzdnN2dYa1hnWWtZa3prWWt6a1lreWtZa1lrWGc4ZxZjFmP1XvZe1Fr1WvVeFV/1XhVf9V71XvRa9V70WvVe1Fr0WtRa9V7UWvVe9F70XrNas1qyVrJWkVKRUnFOklKRUrJWklaSVpFSklJwTnFOcE6RUpFSkVJwTnBOcE5xTnBOcVJxUpFScE5wTk9KUE5PTnBOUE5wUlBOcFJxUpFScE5wUnBSkVJwUpFScFJxUnBOcFJwTnFScE5xUnBOkVJwUpFScFJwUnBOcVJxTpFScVKRUnFSklJxUpFScVKRUnFOkVKRUpJWklKyVpJWklaRUpJWklazVpJWslaSVrJWklayVpJWs1ayVrNWslayVpFSkVKRUpJWklKyVrNWs1aSUpJScVKSUnFSklKSUgAAOGc3Z1hrWGdZa1hrWWtYa1hrOGdYZzhnWWtYa3lrWWt6b3prem9Za3pvWWt5a1lrem9Ya1hnF2M3YxZjFmP1XhZjFV8WY/VeFmMVXxZjFV8WYxVfFmP1XhVf9V71XvRaFWP0XvRe01rUWrNas1aSUpJWklazVpJWklJxTpFScVJxTnBOcVJxTpFSkVKRUnFOkVJxUpFScE6RUnBOcE5PSnBOT05wUnBOcVJwUnBSUE5wUnBOcFJwTnFScFJxUnBOkVJwUpFScFKRUnFSkVaRUnFScFKRUnBSkVJwUnFScE6RUnFSklKRUpJWklKSUnFSslaSUpJWkVKSVpFSklKRUpJScVKSUpFSslayVrNas1azVrJWslaSVrNWslazWrJW01qyVrNWslazVrJWs1qyVrNas1azVpJSklaSUpJSklKSUgAAN2M3ZzdnWGc3ZzhnN2c4ZzhnWGtYZ1hrWGdYa1hreWtZa3prWWt6b1lrWWtZa1lreWt5azhnOGcXYxdjFl8WY/VeFV/1XhVf9V71XvVeFl8VXxZjFmMWYxZfFl/1XvVe9V71XtRe9F7TWtNaslayVpFSklaSUpFSUE5wTnBOkVJwTnFOcE5xUnBOcVJxUpJScVJxUnBOcE5QSnBOT0pQTk9OcFJwUnBScFJwUlBOcFJPTlBOcFJxUnBScFJQTnBScE5wUnBOcFJwTpBScFKRVm9OcFJwTnBScE5wUnBOcFJwTpFScVKSVpFSklJxUpFSkVKSUpFSklZxUpFScVKRUnFOkVJxUpJSkVKSVpJWs1qyVrNaslazWrJWs1qzVtNaklayVrJWs1qyVrNWslazVpJSklaSUrNWklKSVpJSklJxUgAAOGc3ZzhnN2c3ZzdjN2c3Y1hrWGdYa1hnWGtYZ1lrWGt6b1prem96a3pvWWt6b1lrem9Za3lrWGdYZzdjN2MWXzZjFmM2YxZjFmMVXxZjFV8WX/VeFmMWYzdjFmM2YxVjNmcVYxVj9V71XtNa01qSVrJWkVKSUnFOcU5wTpJSklKRUnFSkVJxTnFScE6SVpJWkVJwTnFScE5xUnFOkVJwUnFScFKRVnBScVJwUnBScFJwUnBSkVaRVpFWcFKRVnBScFJwUpBScFJwUnBSkVJwUnBScE5wUnBSkVJwUpFScE6RUnFSklKRUpJSkVKSVpFSkVJxUpJSkVKSVpJSslaSUpJWklKyVpFSklJxUpJWklazVpJWs1ayVrNWslazWrJWklaRUrJWslazVpJWslaSUpJSklKzVrJWs1aSVrNWklKSVgAAOGdYZzdnN2c3Z1hnN2dYZzdnWGc3Z1hnOGdYa1hnWWtZa3pvWmt6b3prem95a3pveW96b1hrWWtYZzhnFmMWY/VeFmMWXxZjFmMWYxVfFmP1XhZf9V4WXxVfFmMWXxZjFmMWZ/ViFWP1XvVes1qzWpJWklZxUnFScU6RUnFSkVJxTpFSkVKRUnFOkVJxUpJScVKRUnBOkVKRUpJWkVKRUnBScVJwUnBScFJwUlBOcFJwUnBScFKRVnBScVJwUpFWcFKRVnBScFJwUpFScFKRUnBScFJwTnBScFKRVnBScVJxUpFScU5xUnFOkVJxUpFScU6RUnFSklKRUpJWkVKSVpJSslaSUpJScVKRUnFSklaSUrJWklKyVpJWslaRUpJWkVKRUpFSkVKRUpJScVKRUpJSklaSUpJWklKzVpJSklaSUgAAWGs4Z1hnN2dYZ1hnWWtYa1hnN2dYZzhnWWtYa3lvWWt6b3pve296b5tzem+ab3pvmm96b3pveWt5b1hnN2cWX9Ra1Fr1XvVeFmMVXxZf9V43YxZfFl/1WvVe9V4WX/VeFmcWYxZjFmM2ZxVj9WLUXtRas1ayVpJSslaSUpFScE6RUpFSslaSUpJWkVKRUpFSklKRUpJWklayVpJWkVJwTpFWcVJxUnBScFJwUnFScFKRVnBScVJQTnBScFKRVpJWslqSVrJWkVayVpFWklaRVpFWcVKRUnFSslaRVpJWcVKRUnFScVJwTpFScVKSUpFSklaRUpJWkVKyVpFSklJxUpJWklKSVpFSklKRUrJWslazWrNW01rTWtRe01qzWrJWslaRUpFScVKRUpFSklaRUrNaklayVpFSklaSVrNWklaSVgAAOGdYZzdnN2cXYzdnN2c4ZzhnWGc3ZzhnN2c4ZzhnWGtZa3lrWWt5a1lreWt5a5pvWWt6b3pvmm95a1lrOGc4ZzdjN2MWYxdj9V71XvVeN2c3YzdnFmMXY/Ve9l71WvVeFmMWYxZjN2MWYxZjFmMWY9Ra9VrUWtRas1azVrNW1FaRUpJScVKSUpFSklKRUpFSkVKSUnFSklKRUpJScVJxUnFSkVJxUpJWkVaSVpFWklZxUpFWcVKSVpFSklaSVrJakVKRUnFSkVKRUrJWklayVpFSklaRUrJWkVKSVpFWslZxUpFScVKRUnBOkVJxUpFScVKRUpFSslaRUpFScVKRUnFOkVKRUrJSklKyUpJSslKyVtNa01rUWtNa1FrTWtRekVKyVpFWUE4NRg5GcE7TWpJWslaSVrJWklazWrJWs1qyVgAAN2cXYzdjFmMXYxZjN2MXYzhnN2M3ZxdjN2cXYzhnN2dYZ1hneWtZa3lveWubc5pzem96b5pvem96b1lreWtYazhnFmMXYxZjN2MWYzdjN2MWYxZfF2MWYzdjFmM3ZxdjFmMWXxdjFmMXYxZjF2MWXxZj9l4WX/Ve9V7VWvVe1FrUWrNas1qyVrJWklKSUnFSslayVrNaslayVpJSslaSVpJWcVKSVpJWklaSVpJWklayVpJWklaRVpJWklayWpJWklZxUpFScVKSUpFSklaRUrNWklayVpJWklaSUrJWklKSUpFSkVJwTnBOcE5wTnBOkVKRUpJWkVKyVpFSslaSUrJWklKyVpJSslayUrNWslbTWrNW01qzVrNWslKzVrJWklayVrJacFJPSi5KcFKRVpFWkVKRVpFWklaRVrJWklazVgAAWGdYazdnWGc3Z1hrOGdYazdnN2cXYzdjF2M3ZzdjN2c3YzhnOGdZa1lrem95a5pvem+ab3lrem95a3pvWWt5bzdnF2P1XhdjN2M3ZxZjN2MWYxdjFl8WYxZjF2MWXxZjFl8WYxZfFmMWYxdjFl8WYxZjF2MWXxZj9l4WX/Ve9V70XvRe1FrUXtRa9F7TWtRaslbTWrNa01qyVrJWklazWpFSklZxUpJWkVKSVpFSklaSVpJWcVJxUnFSkVJxUpFSkVKSUnFOkVKRUpJWkVKSUpFSklJxUpFScVKRUnFSklKRUpFScU5xUnBOcU5QTnBOkVKSUpFSkVKRUpJWkVKyVpFSslKRUpJSkVKyVpJSslayVtNWslayVpJSslKSUrJWslazWrJaslZxUnBOUE6RUnFSkVJxUpFSkVKSVpFSklayVgAAWGc3ZzhnN2M4ZzdnWGc3Z1hnN2c4ZzdjOGc3ZzhnN2dYZ1hnWWtZa3lrWWtZa1lrem96b3pveW96b3pvmm95b1lrN2c3YxZjN2cWYxdjF2M3YxZjFmMWXxZj9l4WX/VeN2MWYzdjF2M3ZzdjN2cXYxdjFmMXYxZjF2MWXxZf9V4WY/Vi9WL1XhZjFWMVY/Ve01qzWtRas1rTWrNWs1qyVrJWklaSVpFSklaRUpJWklaSVpJWklaRUpJWkVKSVnFSs1aSVpJWkVKyVpJWslaSUpJScVKRUnFSklKRUrJWklayVpFSklaRUrJWklKyVpJSs1aSVpJWkVKSUpFSkVKRUpJSkVKSUpJSslaSUrJSkVKyVrJW01azVtNa01bUWtNa1FrTWtRes1rTWrJWslaRUrJWklayVpJWslqSVrJaslbUWgAAF2M3YxZjN2MWYzdnN2c4ZxdjN2cWYzdjFmM3YxdjN2c4Z1lrWWtZa1hnWGc4Z1hrWWt5a3lrem96b3pveW96b3lrWWs3Zzdn9l71XvVeF2P1XvZe9V4WX/VeFl/2XhZj9l4WYxZjN2MWYzdjF2M3Z/ZeFmMWXxZjFl8WY/Ve9V4VYxZj9V71XtRe9F7UWtRa1FrUWrNW1FrTWtRas1azVpJWklaSVpJWcVKSVpJSklZxUpJWklazWrNas1qSVpJWklayVpFSklaSUrJWklayVpJWslaSUpJWkVKSVpJSslaRUpJSkVKSVpFSklaSUrJWkVKSVpFSkVJwTpFScVKRUnFOklKSUrNWslKyVpFSklJxTpJSslbTWtNW01qzVtNas1rTWrNa01qzWtNaslqzWrJWs1qzWrNaslayWrJW01qzVgAAN2c3YzdnN2M3ZzdnWGtYZzhnN2M3ZxdjN2c3YzhnN2c4ZzhnWWtYa1lrWGd5a1lrWWtZa3pvem+ac3pvmm95b5pzeW95bzhnFmPVWvZeFmMXYxZjF2MWYxZj9l4WY/ZeFl/1XhZjFmMXYxZjN2MWYxdjFmM3YxZjF2MWYxdjFmMWYxVjFmP1XhVj9V71XtReFmPUXtRa1Fr1YvVe9V6zVtRas1qzWrNWs1qSVrNaklaSVpJWs1qzWtRas1qzWpJWs1aSUpJWklKSVpJSslaSUrNWklayVpJSklJxUpFScE6SVpFSkVJxUpFScE6RUnFOkVJxUpFSkVKSVpFSslayVrJWslbTWtNa1FqzVtNWslKRUpJSs1azVrNWslKyVpJSs1qSVrJWklazWrNa01qzWtNas1rUXrNas1qSVrNas1bTWgAA9V4WX/Ve9l71XhZjFmM3YzdnN2cXYzdnF2M3ZzdjOGcXYzhnN2dYZzhnWWtZa3lveWt5b3lrem95b5pvem+ac3pvem9Ya1lrN2cWY/VeFmMXYzdnFmMWY/Ve9V7VWvVa9Vr2XvVeFl8WXxdjFmMXYxZjF2MWYxZjFmMXYxZjN2MWYxZj9WIWYxZjNmcWYxZjFWP1YtRa9V71XhZj9F7UWtRa1F7UWtRas1rUWrNWs1qSVrNWslazWrNWs1aSVpJWklayVpFSklaSUrJWkVKSUpFSklaRUpJWcVKRUlBOcE5xUpFScU5xUnBOcVJwTnFScU6RUnFSklaSVrJWklayVrNW01qzVtNa01bTWrNW01qyUrNWslayVpJSklKRTpJSkVKSVpFSklaSUrNWslazWrNW1FqzWrNaklaSVpFSslazVgAAN2c3YzdnF2M4ZzdnWGtYZzdnFmMXYxZjF2MWYzdjF2NYZzhnWGs4Z1hrWGt5b3lvmnN6b3pveW+ab3pvm3Obc5pzeWt5a3lreW84Zzdj9l4WX/VeFl/1XhZf9l4WX/Ve9l71XhZjFl83YxdjN2cXYzdnFmMXYxZjF2MWYzdnF2NYazdnN2cWYzZnFmMWY/VeFmP1XhVj9V4WY/Ve9V70XvVi9V71YvVe9V7UXtRes1r1YtRe1F7UWtRa01rUWtNa01qyVrJWklazVrJWs1aSVpJWklKzVrJW01qyVrJWklKSUpFSklJxUpJWklKyVpJWklaSUrJWslazWrJWs1aSVvRe01rTWrNW01rTVtRa01r0XtRa1FqyVrNWslKzVrNWslaSUrJWklazVrJWs1qzVtRa01rUXrNaslaRUpJWklLUWgAAFmM3YxZjN2MWYzdjFmM3YzdjWGc3ZzdnF2M4ZxZj9l4WYxdjFmM3ZzdjWGtYa3lvOGdZa3lrem95b5pvem+ac3lveW95a3lrWGtYazhnWGcWYzdjFmMXYxZfFmMWXxZj9V4WX/VeFmP2XhdjF2M3ZxZfFmMWYzdjFmM3YxdjN2cWYxZjFmM3ZxZjFmMWYxZjFmMWYxZfFmP1XvVe9Vr1XtRe9V7VXvVe1FrUWrNa1FrUWtRa1FrUWrNWs1qzVrNWklayVpJWs1aSVrJWklazVpJWslaSUrJWklazVrJWs1aSVrNWs1azVpJSklKRUpJScVKSVrJW01qzWrNaslazVrNW01azVtNWslbTWtNW1FrTWtRa01bTWrNW01rTVtRas1bUWrNa1FqzVtNas1bTWrNWs1qzVrNWklKSUpJSs1azVgAAWWtYa1hrOGdYZzdnOGc3Z1hnOGdYZzdjOGdYZ1hrN2c3ZxdjN2cXYzdnF2M4ZzdnOGdYZ3pvem+ac3pvmm95b5pzeW+ab3lvem95a3lveWs3ZxdjN2cWYxdjFmMXYxZjFmP2XhZj9l4WYxZfN2MXYzhnN2dYZzdnWGc4Z1hrWGc3ZzdnN2c3ZzdnN2M3ZxZjFmP1XhZj9V4WY/VeFmP1XvVi9V71YvVe9V7UWtRe1FrVXtRa9V7UWtRa1FrUWtRa1FqzWtRas1rTWrNW01qzWrJWklKSVpJSslaSVrNWklazWrNa1F6zWrNaklazVpJWs1ayVtRa1FrUXtRa1F7UWtRa01rUWtNa1FrTWvRe1Fr0WtNa1FrTVtNa01bUWtNa9F7UWvVe1Fr0XtRa9F7UWvVe1F71XtRa1FqzVtRa1FrUVgAAWGdYazdnOGc3ZzdnF2M3YzdjN2cWYxZjFl83ZzdjN2MXYzdjF2MXYxZjF2P2XhZfFl83YxdjOGc4Z1hnOGdYZ1hrWWtYZ1lrWGt5a1hrWWs3Z1hnN2c3ZzdjN2cWYxdjFmMXYxZfFmMWXxdjFmM3YxZjN2MWYzdjF2M3ZxdjN2c3YzdnFmM3YxZjN2MWYzdjN2c3ZxdjN2c3YzdnF2M3Z/Ve9l7VXvVe1FrVXtRa1FqzVrRas1a0WrNWtFqzVrNas1azWrJWs1ayVrNaslazVtNa1FqzWtNa01rUXtNa1FqSUrNWklazVpJSklJxTpFSkVKSVpJSs1azVtRas1rUWrNW01qzVtNa01bTWrNW01rTVtNas1bTVrJW01ayVtNWs1rUWrNW01qzVtNas1bTWrNW1FqzVrNWklKzVpJWs1bUWgAAWGc3Z1hnN2dYZzdnWGc3Z1hrOGc4ZzdjN2c3YzdnF2M4ZzhnWGc4Z1lrOGdYZzhnWGs4ZzdnFmM3YzdnWWt5b3lvWWt5b1lreW95a3lveWuab3lvem95a3lvWWtZa1hrWWtYa1hrOGdYazhnWGtYZzhnN2c3ZzdnWGc3Z1hnN2dZa1hnWGs3Z1hnN2dYazhnWWs4Z1hnN2dYZzdnN2cWYzhnN2c3ZxZjF2MWYxZjFmP1XvVe9V7VWvVe1Vr1XtRa1F7TWtRe01r0XtRe9F7UXtNas1azWrJW01qzWtNas1bUWrNa01qzVrNWklazVpJW1FqzWtRas1rUXtRe9V70XvRe9Fr1XvRe9V70XvRe1Fr1XvRa9F7UWvRe1Fr0XtRa9F7UWvRe1Fr0XtRa1FrUWtRa01rUWrNW01qzVtNas1azUgAA9l4WYxZfFmP2XhZjFl8WYxZjN2MXYzdnFmMWY/ZeFmP2XhdjF2M3YxdjN2MXYzdjN2c4ZxdjFmP2XjdjOGd5b1hrWWtYa3lrWGtZa1hrWWtYZ1hrOGdYazdnOGc3ZzdnN2M3ZxdjN2MWYxdjFmM3YxZjN2MXYzdnF2M3ZzdjN2c3ZzhnN2M3ZxdjN2c3YzhnN2M3ZxdjN2MWYzdjFmMWYxdjN2cWYxZj9l4WYxZfFmP1XhZf9V71XtVa9VrUWtRe1FrUXtRa1F7TWtRe01rUXtRa1F7TWtRa01rUXtRa1F6zVrNak1aSVnFSklKSUrNas1rUWrNa1FqzWtRa1Fr0XtNa1FrUWvRe1FrUWtNa1FrTVtNa01bTWrNW01qzVtNas1bUWrNW1FqzVtRas1bUWrNW1FqzVrNWs1azVrNW1FrUWgAAWGc3ZzhnN2M3ZxZjN2MWYxZf9l4XYzdjN2cWYxdjFmMXYxZjN2MXYxdjF2MXYxZjN2c3YzhnOGc4ZzhnWWtYa3pveWt6b3lreW9Za3lvWWt5a1hreWtYa1lrWGdZa1hrWGtYZ1hrN2c4ZzdnWGc3Z1hnN2dYazhnWGc3Z1hrOGdZa1hrWWtYZ1hrWGdYa1hrWWtYa1lrWGt5b3lreW9Za1hrN2dYZzdnN2c3YzdnN2c3ZxdjN2cWYxZj9V72XvVeFmP1YhVj9V71XtRa1F7TWtNas1azWrJWs1qzVtNaslbVXtRa1FqzVrNWklbUWtRa9V7UWvVe1FrUXtRa9V7UXtRe01r0XtRa9FrTWvRa01r0XtRa9F70WvRe1Fr0XtRa1FrUWtRa1FrUWtRa1FrUWtRas1azVrNW1FazVtRas1bUWgAAN2M3ZxdjN2MWYxdj9l4WY/Va9V71WhZj9V71XvVaFmMWXxdj9l4WX/ZeFl/2XhZf9l4XYxdjOGc3YzhnF2M3Z1hnWGtYZ1hrWGdYazhnWGtYa1lrWGtZa1hrWWtYa1lrWGtZazhnWGc3Z1hnN2dYazdjN2c3YzdnN2M3ZzdjN2c4Z1hrOGdYazhnWGs3Z1hnF2M3ZxZjN2c3Z1hrN2c4ZzdnOGc3ZzhnN2c4ZxdjN2cWYxdj9l4WY/Ze9l71XvVe9V71YvRe9V7UXtRe01rUWvViFWP0XvVe9V71YvRe9V7UWtRetFrUWrNWs1qzVtRatFrUWrRa1FrUWtRe1FrUWtRa1FrTVtNa01bTWtNW01rUWvRe9Fr0XvRa9F7UWvRa1FrUWtRW1FrUVtRas1bUWrNWs1aSUpJSklKzVrNWs1azVgAAUEpQRlBKUEZQSlBGUEpQRnFKUEZQSlBGUEYvQjBGUEpRSjBGUEYwRlBGMEZRSlBKck5xSnJOUUpyTnFKkk6STpJSkk6SUnJOklKSTpJSkk6SUnJOklJyTpJSkk6SUpJOklKSTpJOcU5yTnFOkk5xTpJOcU6STnFOkk5xTpJOcU5yTnJOkk5yTpJSck5yTnFKk1JyTpJOck6SUpJOklJyTnJOcU5yTnJOklJxTnFOUUpyTlFKcU5RSnFOUEpRSlBKT0ovSk9KL0pPSi9KUEovSlBOL0ovSi5GT0ovSi9KLkYvSi9GUEovRi9KL0YvRg9GD0YOQi9GD0YvSi9GL0ovRlBKL0ZPRi5GL0YuRi9GLkYvRi5GT0YvRk9GLkYuRg5CL0YvRi9GL0YvRi9GL0YOQi9GDkIOQu09DkIOQi9GDkIOQgAATAAAAGQAAAAAAAAAAAAAAKAAAAB/AAAAAAAAAAAAAAChAAAAgAAAACkAqgAAAAAAAAAAAAAAgD8AAAAAAAAAAAAAgD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACIAAAAMAAAA/////0YAAAAcAAAAEAAAAEVNRisCQAAADAAAAAAAAAAOAAAAFAAAAAAAAAAQAAAAFAAAAA==</SignatureImage>
+          <SignatureComments>I approve the information provided is complete and true to my knowledge.</SignatureComments>
+          <WindowsVersion>10.0</WindowsVersion>
+          <OfficeVersion>16.0.17628/26</OfficeVersion>
+          <ApplicationVersion>16.0.17628</ApplicationVersion>
+          <Monitors>1</Monitors>
+          <HorizontalResolution>1920</HorizontalResolution>
+          <VerticalResolution>1080</VerticalResolution>
+          <ColorDepth>32</ColorDepth>
+          <SignatureProviderId>{00000000-0000-0000-0000-000000000000}</SignatureProviderId>
+          <SignatureProviderUrl/>
+          <SignatureProviderDetails>9</SignatureProviderDetails>
+          <SignatureType>2</SignatureType>
+        </SignatureInfoV1>
+        <SignatureInfoV2 xmlns="http://schemas.microsoft.com/office/2006/digsig">
+          <Address1>House 14</Address1>
+          <Address2>Ashraya Layout</Address2>
+        </SignatureInfoV2>
+      </SignatureProperty>
+    </SignatureProperties>
+  </Object>
+  <Object>
+    <xd:QualifyingProperties xmlns:xd="http://uri.etsi.org/01903/v1.3.2#" Target="#idPackageSignature">
+      <xd:SignedProperties Id="idSignedProperties">
+        <xd:SignedSignatureProperties>
+          <xd:SigningTime>2024-06-20T15:28:34Z</xd:SigningTime>
+          <xd:SigningCertificate>
+            <xd:Cert>
+              <xd:CertDigest>
+                <DigestMethod Algorithm="http://www.w3.org/2001/04/xmlenc#sha256"/>
+                <DigestValue>JVmBippaxFElI/YHWyBjZCzLhjHVGWQNvyYr4wrqsDY=</DigestValue>
+              </xd:CertDigest>
+              <xd:IssuerSerial>
+                <X509IssuerName>DC=net + DC=windows + CN=MS-Organization-Access + OU=82dbaca4-3e81-46ca-9c73-0950c1eaca97</X509IssuerName>
+                <X509SerialNumber>243457408225080138891124171748556459583</X509SerialNumber>
+              </xd:IssuerSerial>
+            </xd:Cert>
+          </xd:SigningCertificate>
+          <xd:SignaturePolicyIdentifier>
+            <xd:SignaturePolicyImplied/>
+          </xd:SignaturePolicyIdentifier>
+          <xd:SignatureProductionPlace>
+            <xd:City>Bangalore</xd:City>
+            <xd:StateOrProvince>KA</xd:StateOrProvince>
+            <xd:PostalCode>560048</xd:PostalCode>
+            <xd:CountryName>India</xd:CountryName>
+          </xd:SignatureProductionPlace>
+          <xd:SignerRole>
+            <xd:ClaimedRoles>
+              <xd:ClaimedRole>Mr</xd:ClaimedRole>
+            </xd:ClaimedRoles>
+          </xd:SignerRole>
+        </xd:SignedSignatureProperties>
+        <xd:SignedDataObjectProperties>
+          <xd:CommitmentTypeIndication>
+            <xd:CommitmentTypeId>
+              <xd:Identifier>http://uri.etsi.org/01903/v1.2.2#ProofOfApproval</xd:Identifier>
+              <xd:Description>Approved this document</xd:Description>
+            </xd:CommitmentTypeId>
+            <xd:AllSignedDataObjects/>
+            <xd:CommitmentTypeQualifiers>
+              <xd:CommitmentTypeQualifier>I approve the information provided is complete and true to my knowledge.</xd:CommitmentTypeQualifier>
+            </xd:CommitmentTypeQualifiers>
+          </xd:CommitmentTypeIndication>
+        </xd:SignedDataObjectProperties>
+      </xd:SignedProperties>
+    </xd:QualifyingProperties>
+  </Object>
+  <Object Id="idValidSigLnImg">AQAAAGwAAAAAAAAAAAAAAJoBAAC/AAAAAAAAAAAAAADXGQAAFgwAACBFTUYAAAEA1LsAAMsAAAAFAAAAAAAAAAAAAAAAAAAAgAcAADgEAAA1AQAArgAAAAAAAAAAAAAAAAAAAAi3BACwpwIACgAAABAAAAAAAAAAAAAAAEsAAAAQAAAAAAAAAAUAAAAeAAAAGAAAAAAAAAAAAAAAmwEAAMAAAAAnAAAAGAAAAAEAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAEAAABMAAAAZAAAAAAAAAAAAAAAmgEAAL8AAAAAAAAAAAAAAJsBAADAAAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAABAAAAJwAAABgAAAABAAAAAAAAAP///wAAAAAAJQAAAAwAAAABAAAATAAAAGQAAAAAAAAAAAAAAH8BAAC/AAAAAAAAAAAAAACAAQAAwAAAACEA8AAAAAAAAAAAAAAAgD8AAAAAAAAAAAAAgD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACUAAAAMAAAAAAAAgCgAAAAMAAAAAQAAACcAAAAYAAAAAQAAAAAAAADw8PAAAAAAACUAAAAMAAAAAQAAAEwAAABkAAAAAAAAAAAAAACaAQAAvwAAAAAAAAAAAAAAmwEAAMAAAAAhAPAAAAAAAAAAAAAAAIA/AAAAAAAAAAAAAIA/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAAAAIAoAAAADAAAAAEAAAAnAAAAGAAAAAEAAAAAAAAA8PDwAAAAAAAlAAAADAAAAAEAAABMAAAAZAAAAAAAAAAAAAAAmgEAAL8AAAAAAAAAAAAAAJsBAADAAAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAABAAAAJwAAABgAAAABAAAAAAAAAPDw8AAAAAAAJQAAAAwAAAABAAAATAAAAGQAAAAAAAAAAAAAAJoBAAC/AAAAAAAAAAAAAACbAQAAwAAAACEA8AAAAAAAAAAAAAAAgD8AAAAAAAAAAAAAgD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACUAAAAMAAAAAAAAgCgAAAAMAAAAAQAAACcAAAAYAAAAAQAAAAAAAADw8PAAAAAAACUAAAAMAAAAAQAAAEwAAABkAAAAAAAAAAAAAACaAQAAvwAAAAAAAAAAAAAAmwEAAMAAAAAhAPAAAAAAAAAAAAAAAIA/AAAAAAAAAAAAAIA/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAAAAIAoAAAADAAAAAEAAAAnAAAAGAAAAAEAAAAAAAAA////AAAAAAAlAAAADAAAAAEAAABMAAAAZAAAAAAAAAAAAAAAmgEAAL8AAAAAAAAAAAAAAJsBAADAAAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAABAAAAJwAAABgAAAABAAAAAAAAAP///wAAAAAAJQAAAAwAAAABAAAATAAAAGQAAAAAAAAAAAAAAJoBAAC/AAAAAAAAAAAAAACbAQAAwAAAACEA8AAAAAAAAAAAAAAAgD8AAAAAAAAAAAAAgD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACUAAAAMAAAAAAAAgCgAAAAMAAAAAQAAACcAAAAYAAAAAQAAAAAAAAD///8AAAAAACUAAAAMAAAAAQAAAEwAAABkAAAAAAAAAAUAAAB/AQAAHAAAAAAAAAAFAAAAgAEAABgAAAAhAPAAAAAAAAAAAAAAAIA/AAAAAAAAAAAAAIA/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAAAAIAoAAAADAAAAAEAAAAnAAAAGAAAAAEAAAAAAAAA////AAAAAAAlAAAADAAAAAEAAABMAAAAZAAAAB4BAAAGAAAAagEAABoAAAAeAQAABgAAAE0AAAAVAAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAABAAAAUgAAAHABAAABAAAA8P///wAAAAAAAAAAAAAAAJABAAAAAAABAAAAAHMAZQBnAG8AZQAgAHUAaQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZHYACAAAAAAlAAAADAAAAAEAAAAYAAAADAAAAAAAAAASAAAADAAAAAEAAAAeAAAAGAAAAB4BAAAGAAAAawEAABsAAAAlAAAADAAAAAEAAABUAAAAhAAAAB8BAAAGAAAAaQEAABoAAAABAAAAAMCAQY7jgEEfAQAABgAAAAkAAABMAAAAAAAAAAAAAAAAAAAA//////////9gAAAANgAvADIAMAAvADIAMAAyADQAbjoJAAAABgAAAAkAAAAJAAAABgAAAAkAAAAJAAAACQAAAAkAAABLAAAAQAAAADAAAAAFAAAAIAAAAAEAAAABAAAAEAAAAAAAAAAAAAAAmwEAAMAAAAAAAAAAAAAAAJsBAADAAAAAUgAAAHABAAACAAAAFAAAAAkAAAAAAAAAAAAAALwCAAAAAAAAAQICIlMAeQBzAHQAZQBtAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZHYACAAAAAAlAAAADAAAAAIAAAAnAAAAGAAAAAMAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAMAAABMAAAAZAAAAAAAAAAAAAAA//////////8AAAAAIgAAAAAAAABJAAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAADAAAAJwAAABgAAAADAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAADAAAATAAAAGQAAAAAAAAAAAAAAP//////////AAAAACIAAACAAQAAAAAAACEA8AAAAAAAAAAAAAAAgD8AAAAAAAAAAAAAgD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACUAAAAMAAAAAAAAgCgAAAAMAAAAAwAAACcAAAAYAAAAAwAAAAAAAAAAAAAAAAAAACUAAAAMAAAAAwAAAEwAAABkAAAAAAAAAAAAAAD//////////4ABAAAiAAAAAAAAAEkAAAAhAPAAAAAAAAAAAAAAAIA/AAAAAAAAAAAAAIA/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAAAAIAoAAAADAAAAAMAAAAnAAAAGAAAAAMAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAMAAABMAAAAZAAAAAAAAABrAAAAfwEAAGwAAAAAAAAAawAAAIABAAACAAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAADAAAAJwAAABgAAAADAAAAAAAAAP///wAAAAAAJQAAAAwAAAADAAAATAAAAGQAAAAAAAAAIgAAAH8BAABqAAAAAAAAACIAAACAAQAASQAAACEA8AAAAAAAAAAAAAAAgD8AAAAAAAAAAAAAgD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACUAAAAMAAAAAAAAgCgAAAAMAAAAAwAAACcAAAAYAAAAAwAAAAAAAAD///8AAAAAACUAAAAMAAAAAwAAAEwAAABkAAAADgAAAEcAAAAkAAAAagAAAA4AAABHAAAAFwAAACQAAAAhAPAAAAAAAAAAAAAAAIA/AAAAAAAAAAAAAIA/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAAAAIAoAAAADAAAAAMAAABSAAAAcAEAAAMAAADg////AAAAAAAAAAAAAAAAkAEAAAAAAAEAAAAAYQByAGkAYQBsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkdgAIAAAAACUAAAAMAAAAAwAAABgAAAAMAAAAAAAAABIAAAAMAAAAAQAAABYAAAAMAAAACAAAAFQAAABUAAAADwAAAEcAAAAjAAAAagAAAAEAAAAAwIBBjuOAQQ8AAABrAAAAAQAAAEwAAAAEAAAADgAAAEcAAAAlAAAAawAAAFAAAABYAAogFQAAABYAAAAMAAAAAAAAACUAAAAMAAAAAgAAACcAAAAYAAAABAAAAAAAAAD///8AAAAAACUAAAAMAAAABAAAAEwAAABkAAAAOgAAACcAAABxAQAAagAAADoAAAAnAAAAOAEAAEQAAAAhAPAAAAAAAAAAAAAAAIA/AAAAAAAAAAAAAIA/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAAAAIAoAAAADAAAAAQAAAAnAAAAGAAAAAQAAAAAAAAA////AAAAAAAlAAAADAAAAAQAAABMAAAAZAAAADoAAAAnAAAAcQEAAGUAAAA6AAAAJwAAADgBAAA/AAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAAEAAAAJwAAABgAAAAEAAAAAAAAAP///wAAAAAAJQAAAAwAAAAEAAAATAAAAGQAAAA6AAAAJwAAAHEBAABlAAAAOgAAACcAAAA4AQAAPwAAACEA8AAAAAAAAAAAAAAAgD8AAAAAAAAAAAAAgD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACUAAAAMAAAAAAAAgCgAAAAMAAAABAAAACEAAAAIAAAAYgAAAAwAAAABAAAASwAAABAAAAAAAAAABQAAACEAAAAIAAAAHgAAABgAAAAAAAAAAAAAAJsBAADAAAAAHAAAAAgAAAAhAAAACAAAACEAAAAIAAAAcwAAAAwAAAAAAAAAHAAAAAgAAAAlAAAADAAAAAAAAIAlAAAADAAAAAcAAIAlAAAADAAAAA4AAIAZAAAADAAAAP///wAYAAAADAAAAAAAAAASAAAADAAAAAIAAAATAAAADAAAAAEAAAAUAAAADAAAAA0AAAAVAAAADAAAAAEAAAAWAAAADAAAAAAAAAANAAAAEAAAAAAAAAAAAAAAOgAAAAwAAAAKAAAAGwAAABAAAAAAAAAAAAAAACMAAAAgAAAAiSf4PgAAAAAAAAAApSX4PgAAaEIAABxCJAAAACQAAACJJ/g+AAAAAAAAAAClJfg+AABoQgAAHEIEAAAAcwAAAAwAAAAAAAAADQAAABAAAAA6AAAAJwAAAFIAAABwAQAABAAAABAAAAAHAAAAAAAAAAAAAAC8AgAAAAAAAAcCAiJTAHkAcwB0AGUAbQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGR2AAgAAAAAJQAAAAwAAAAEAAAARgAAACgAAAAcAAAAR0RJQwIAAAAAAAAAAAAAAKEAAACAAAAAAAAAACEAAAAIAAAAYgAAAAwAAAABAAAAFQAAAAwAAAAEAAAAFQAAAAwAAAAEAAAAUQAAADifAAA7AAAAKAAAAIcAAABkAAAAAQAAAAEAAAAAAAAAAAAAAKAAAAB/AAAAUAAAACgAAAB4AAAAwJ4AAAAAAAAgAMwAnwAAAH8AAAAoAAAAoAAAAH8AAAABABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA01r0WtRa9F7UWtRa9Fr1XtRa9V7VWvVe9Vr1XtVa9V7UWtRa1Fr1WtRa9V71WvVe1FrUWtRa1FqzVtRa1FrUWtRa1FrTVtNas1bTWtNa9FrTVtNa01bTWrJWs1ayVrNWs1rUWtNa01qyVrNWslazWrNa01qzWrNaslazWrNa01qzVrNas1a0WrNWs1qzVtRas1bUWrRa1Fq0WtRa1FrUWtRa1FqzVtNas1bUWtNa1FrTWtRa01bTWrNW01azVtNWs1azVpJWslaSVrNWklayVpJWslaSVrJWklKyVpJWslaSUrJWklayVpJWs1ayVrNaklKSVpFSklaSUrJWslbTWtNa1FrTWtRe01rTWrNWs1qyVrJWklayVpFSklaRUpJWcVKRUnFOcVJxTpFScVKRUpFSklaSUrNWslazWrNa1FrUWtRa9F70WvVe9F4WYxVjFl/1XhZj9l4WX/Ve9l71XvVe1Fr1XtRa9V7UWvVe9V71WtRa9V7UWvVe9Vr1XvVe1FrTWtRa01rUWtNa9FrTWtRa01bUWtNW01ayVtNWslbUWtNa1F7TWtNas1bTWtNa01qzWtRas1rUWrNa1FrTWrRas1bUWtRa1FqzWtRas1bUWrRa1F7UWtRe1FrUXtRa1F7TWtRa01rUWtNa1FrTVvRa01r0WtNa01qzVtNas1bTWrJWs1aSVrJWslazWrJWs1ayVrNWslayVpJWs1aSVrNWslazWrNWs1qzVtNas1qyVpJWs1ayVtNas1rUXtNa01rTWtNas1rTWrJWs1ayVrJWkVKyVpJSklaRUpJWkVKSUnFSkVJxUpJSkVKSVpFSslaSVrNWslazWrNa1FrTWtNa9FrUWvRe1Fr1XvVeFWP1XvVe9V72XvVe9l71XvVe9V71XvVe9V7UWvVe1Fr1XvVe9V7UWvVe1Fr1XtRa9FrUWtRa01bUWtNa1FrTWtRa01rUWtNW01rTVtNas1bTVrJW01qzVrNas1azWrNa1FqyVrNas1bTWrNa01qzWtNas1rUWrNa1Fq0WtRas1rUWtRa1F7UWtRe1Fr1XtRa1F7UWvRa01rUWtNa1FqyVrJW01rUWrNW01qzVrNWslKyVrJWs1aSVrJWslazWpJWslayVrNWklazVrJWs1aSVrJWslazWrJWs1qzVtNas1bTWrNa01qzWtRa01rUWrNa01qyVrNWslayVrJWslaSUrJWkVKSVpFSslaRUpJWcVKRUpJSklZxUpJWklazVrJWs1aSVrNWklazWrNW01qzWtNa9V70XvRe9Fr1XvVe9V71XvVe9V71XvVeFmP1XvZe9V4WY/Ve9V71XvVe9V71XvVeFl/1XvVe9V71XtRa1FrUWvRe1Fr0XtRa9F7UWvRa1Fr1XvRa9F7UWvRe1Fr0WtNa01qzWtNas1azWrJWs1qzVtNas1rTWtNa1F7TWtRas1rUXrNa01qzVrNas1rUWtNa1FrUWtRe1Fr1XtRe9V7UWvRe1FrUXtRa9F7TWtNaslbUWtNa1FqzWtNas1azVrJWs1qzVrNas1rUXrNas1qSUrNaslazWrJWs1qyVrJWklazVpJWs1ayVrNaslazWrNW01qzWtNas1rUWrNWs1aSVrNaslazWrJW01qzWtNas1qzWrJW01qzVtNaslazVrJWs1aSVrJWklazWrNa01qzWrNas1azWrNW1FrTWtRa01r0XvRe1Fr0XtRa9V7UWvRe1Fr1WtVa9V71XvZe9V72XtRa9VrUWvVe1Fr1XvVe9V7UWvVe9Vr1XtRa9V7UWtRa1Fr0WtRa9F7UWvRa1Fr0WtRa9F7UWvRe1Fr0WtRa9FqzWtRas1qzWpJWklaSUrJWklayVpJWs1aSVrNWslazVrJWs1aSUpJWkVKSVpJWs1qSVrNWs1azWrNW01qzWtRaslazVrNW01rTWtRa01rTWrNW01rTWtRas1bTWrJWs1ayVrNas1bTWrNa01qyVrJWklayVrJWs1qyVrJWklaSVpFSklKRUpJWkVKSVpJWslaSVrJWslazWrJWs1qyVrNWklKyVpJWslayVrNas1rTWrJWs1ayVrNaslazVrJWs1aSVpJWklKyVpJWs1qzVrNas1azWrNW01qzWtNas1rUWhVf9Fr0XtRa9V70WvVe1Fr1XvVa9l71XvZe9V72XvVe9V7UWvVe9Vr1XvVeFl/1XvVe9V71XvVe9V71WvVe1FrUWtRa9F70WvRe1Fr0XtRa9FrUWvRe1Fr0WtNa9FrTWtRa01rUWrNas1aSVrNWslayVpJSklaRUpJSkVKSVpJSslaSUpJWklKSUpJSslaSVpJSklKyVpJWs1aSVrNWslayVpJWs1azVtNa01rUWtNas1qzVtNa01rUWrNW01qyVtNas1azWrNW01qzVtNaslazWrNW1FrTWtRas1qzWrJWslaSUrJWklazVrJWs1qyVrNWslazWrNa01qzWtRas1qyVpJWslaSVrJWslbTWrNaslayVrJWslayVrJWs1ayVrNWklayVpJWs1ayVtNas1bUWrNa1FrTWtRa01rUXtNa9Fr0XtNa1FrUWvVe1FrUWvVe9V71XvZe9V72XtVa9V72XhZj9V71XvVe9V7UWvVe9V71XvVe9V71XvVe1FrUWtNW1FrTWvRa1Fr0WtNa01rTVtNas1bTWrNW01qzVtNaslazWrJWs1qyVrNas1bUWrJWslaRUpJSkVKSVpFSslZxUpJSklKSVpJSklZxUpJScU6SUnFSklKSUrJWklKSVpJWslaSUrJWslbTWrJWs1aSUrJWslazVrJWs1aSVrJW01qzWpJWklaSVrNWslazWtNa1F7UWvRe1F7UXrNa01qyVrNaslazWrNW01qzWtNaslazVpJWs1ayVrNaslazWrJWs1qyVrJWslazWrJW01qyVrNaslayVrJWs1ayVrNaklayVpJSslayVrNaslazVrNa1FqzWtNas1rUWrNa01r0XtRa9F7UWvVe1Fr0XtRa9V4WY9RaF2P2XvVe1VoWYxZj9V71XvVe9V71XvVe9V71XvVe9V7UWvVe1Fr1XvVe9V7UWvRa1Fr0WtRa1FrTWvRa01rUWtNa1FrTWtRa01bUWtNa1F7UXvRe01qzWpJWs1qzVrNaklaSVpJSslaSVrJWklaSVpFSklaRUpJWkVKSUpFSklJxUpJSkVKyVpJWs1aSVrNWslazWrNWs1qzVtRas1rTWtNa9F7UWtNaklbUXrNas1qyVtNa01rTWrNWs1qzVtNa01r0XtRa01qyVtRas1qzWpJWslaSVrNWslazWrNa01qzWrNaslazWrNa1F7TWtNaslayVrJWs1ayVtNaslazWrNW1FrTWtNas1qzVrJWs1qzVtRa01rUWtNa1FrTWtRe1Fr0XtRe9F7UWtNW1FrTWvRa1Fr0WtRa9V6zVvVes1YWY/ZeN2fVWvZe9V71XvVe9V71WvVe9V71XvVe9V7UWvVe1Fr1XvVe9V7UWvRe1Fr0XtRa9FrUWvRa01rUWtNa1FrTVtRa01bUWrNWs1qzVtNaslazVpJWslaRUpJWklayVpFSklaSVrNWklayVpJSklJxTnFScE5xTnFSklKRUpJWcVKSUpJSslaSVrJWklazVrJWs1qzVtNas1rTWrNW01qzWtNas1azWrJWs1aSVrNWslazWrJWs1aSVrJWslbTWrNa01qyVrJWs1azWpJWslaSUrJWklazVrJWs1qzWtNaslazVrJW01qyVrJWklayVpFSslayVrNaslayVrJWs1qzVtNas1azWpJSslayVrNas1rTWtNa1FqzVtNas1rUWrNa1FqzWtRa01rTVtRa1Fr0XtRa9V71XhZjN2MWY/Ves1bUWvVeFmMWX/VeFmP1XhZj9V4WX/Ve9V71XhZf9V71XvVeFl/1XvVe9F4VX/Re9V70XvVe9F70XtRa9F7UWvRe1Fr0XtRa1FqzWtNaslazVpJWs1ayVpJWklazWrJWs1aSVrNWslbTWrJWs1aSVpJWcVKRUnFSklaRUrJWklayVpFSslaSVrJWklazWrJWs1qzWtRes1rUXrNa01qzWtNas1rTWrNas1qSVrNWslazWrNW01qzVrNWslazWrNW01qzWrNaslbTWrNWs1qSVrJWklazVrJWs1qzVtNas1qzWrJW01qzWrNaslayVpJWslaSVrNWslayVpJWslayVtNas1rTWrJWslaSVrNas1rUWtNa1F7UWtRe01rUXtNa1FqzWtRa01rTVtNa01bUWtRa9F7UWvVes1bUWhZjF2P1Xhdj9V4WY/Ve9V71XhZj9V4WY/Ve9V71XvVe9V71XvVe9V71XvVe9V4VX/Re9V70XvVe9Fr1XvRa9V7UWvRe1Fr0XtRa9F7TWtRes1qzWrNWs1qyVrNaslbTWrNWs1qyVrJWkVKSVpFSklaRUpJSkVKyVpFSslaRUrJWklayVpJWslaRUpJWklayVpJWslayVrNaslazWrNa01qyVrNaslazWrJWs1qSVrJWklazVrNW01qzVrNaslazVpJWs1azVtNaslazVrNWs1qSVrJWklayVpJSslayVrNaslazVrJWs1aSVrNWs1rTWrJWslaRUpJWkVKSUpJWslaRUrJWslazWrJWslaSVrNWslazWrNa1FrTWtRa1F70XtNa1FqzWtRas1rUWvRa01r0WtNa9FrUWvRa1FpYZ7NWFmP1XhZjN2cWY9VaFmP1XhZjFl8WYxZfFmP1XvVe9V71XvVeFmP1XvVe9F4VY/VeFV/0XhVf9F71XvReFV/1XvVe9F71XvRe9V70WvRe1F70XtRa1F7TWtNas1qzWrNa01qzVrNaklaSVpFSkVJwTpFScU6RUpFSslaSUrJWklazVrJWslaSVrJWklKSVpJWslaSVrNaslazWrJWs1qzWtNas1rTWrNas1qyVrJWklazVrJWs1qzVrNas1azWrJWslaSVrNas1azWrJW01qzWrNaslazVpJWslaSVrNaslazVpJWs1ayVrNWklbTWrNa01qyVrJWklayVpFSslaSVrJWslbTWrNas1qyVrNaslazWrNa1F7TWtRe01r1YtRe9F7TWtRe01rUXtNa01rUWtNa1FrTWtRa1FrUWvVecU4WY/ZetFbUWtRaFmP1XhZf9V4WY/VeFmP1XhZj9V71XvVe9V71XvVe9V71XvVe9V70XvVe9F71XvRe9V70XvVe9F71XvRa9V70XvVe01rUXtRa9F7TWtRas1rTWpFSslaSVrJWklKSVpJSslZxUpFScVKRUnFSkVKRUpJWkVKSVpJWslaRUpJWkVKyVpFSklaRUpJWklayVpJWslaSVrNas1qzWrJWslaSVrJWkVKSVrJWs1qSVrJWklazVpJWslaRUpJWklKyVrJWs1azWtNas1azWrJWslaSVrJWklayVpJSslaSVrNWklayVpJWslaSVrJWslayVrJWs1ayVrJWslazWrJW01qyVrNaslazWrNW01qzWtNas1rUWtNa1F7TWtRas1bTWrNa01rUWtNa1FrTWtRa1Fr0XtRaqzXlHFFK1Fo3YxZjFmMXYxZj9V4WY/VeFmMWXxZjFmMWY/VeFmP1XvVe9V4WYxVfFWP1XhVj9V4VX/ReFV/1XhVf9V4VX/VeFV/0XhVf9F71XtRe9F7UWtRe01rUXtNas1ayVrNaslayVpJSslayVrNWslayVpJWslaSVrJWslaSVpFSslaSVpJWkVKyVrJWslaSVrJaklayVpJWslqSVrNaslqzWrJWslaSVrNas1qyVrNW1FrTWtNaslazWrNW01qzVrNWklazVrNW01qzWtRe01rUXrNa01qyVrNaslazWrJWs1ayVrNas1azWrJWklaRUrJWslazVrJWs1qyVtNaslbTWrNa1FrTWtRas1rTWrNa1FrTWtRas1rUWrNa1F7TWtRe01rUWrNa1FqzWrNW01qzVtNa01r0XtRa9F6SUqQU5RxqLXJON2f2XvVe9l4WY/Ve9l71XhZjFl8WYxZfFmP1XvVe9V4VX/VeFmP1XhVj9V4VX/VeFV/0XvVe9F71XvRe9V70XvVe9Vr1XvVi9WLUXtRa01rUWtRa9F7TWtRas1qzVpJWslaSUrJWklKyVpFSklaRVrJWklayVpFSklaRUpJSkVKSVpJWs1qSVrJaklaSVpJWslaSVpJWslqzWpJWklZxUpJWklazWrNa1F7UWvRe01rUWrNa1FrUWtRas1azWrNa1FrTWtRe01rUXrNa01qzWrNaklayVrNas1qSVrNWs1bTWrJWs1aSUrJWklKyVpJWslaRUpJWs1bTWrJW01rTWtRes1rTWrNa1FqzWtNas1rTWrNWs1rUWtRe1Fr0XtRa1F6zWtRa016zWtNaslbTWtNa1F7UWvVeklJpLQAAIASsNfZeF2M4YxhjGGMXXzdjN2MXY/VaFmMWYzZnFWMVX/RaFV8VYxVj9WIVY/VeFWP1YhVj9V71XtVe9V71XvZi9V72XtVa01qzVtNa01r0XvRa9V70XvRe9Fr0XtRa9F7TVrNWklayVpFWklayVtNes1qyWpFSslqRVpJWklbTWrJaslqRUpJWklayVpJWs1qyWrNaslbTXtNa1F6zWrNaklazWrJW01qzWtRa01rUXtNa01qzVtRes1qzWrJWs1qzVtNa01rUWrNa01qzVrNaslazVpJW01qzWrNaslazWrNa1FrTWtRas1bTWrJWs1aSUrNWs1bUWtRa1FrTWtRas1bUWtNW1FrUWtRa1FrUWtNWtFqzVtRas1bUWtNW1F7UWvVe1FqRVpFWkVayWrJW017UXvVe1FrVWrRWD0KkFAAAYgysNfdeF18XXzhn9l7VVvVaeWsVX/Va9FoVXxVfNWP0WvNa9V4VY/ViFWP1XhVj9WIWYxZjFmP1XvZe1V72YvZiF2fUWvRe9Fr0XtRa9FrUWvRa01bUWtNa9FrTWtNas1azWpFSkVaRUpFWkVayVpFWslayVrJWkVayVrJWslqSVpJWklaSVpJWslqSVpJWklaSVpJWs1qzWtNeklaSVpJWklaRUrJWslbTWrNW01qzWtNaslazWrJWs1qyVrNas1bTWrNa01qzWtNas1azWrNWs1qzWtNas1azWrJWs1qzWtRa1FrUWtRa1FqzVtRW1Fb1WtRW1FrUWtRas1bUWrNW1FqzVtRa1FrUWrNW1FqzVrNWs1bUVrNW1FrUVtRa1Fr0WrJaslayWrJWs1qyVtRas1r2YrNW1Vr2YvZe7j3FGAAAAABqLfdeWWc4ZzhjOGcWX1hrN2M3YxVfNmMVXzZjFWMWYxVjFmMWYxZjFWMWYxZjFmMWYxZj9l4WY/ZeF2MWYxZjFV8VY/Ve9V70WvRe1FrUWtNa9F7UWvRa01rUWrNas1qyVrJWkVKSVpFSs1qzWtNaslayVpJWslqyVrJakVayVpJWslaSVrJWklayVpJWslayVtRe01rTWrJWslaSVpJWklazWrNW01qzWtNas1qzWrNW1FrTWtRe01rUWrNa01qzWtRas1rTWrNa1FqzWtRas1rUWrNa01qzWtRe1Fr1XvVe9V7UWtRa1Fr1XvVe9V7UWvVe1FrUWtRa1FrUWtRa1FbUWtRa1FrUWtRa1FbUWtRW1FrUWtRa1Fr1WtRaslqyWrJWslaSVrJWklKzVnFO9mIXY9VatFb2XpNSMEbmHCAEAABJJZNOOGM3Y1hn1Fb1WvVaNmM2YzdjFl8WXxZjFmP2YhZjFmMWY/ZiFmP1XvZi9mIXZxZjF2P1XvVe9V4VY/VeFV/1XhVf9F71XvRa9F7UWvRa01rTWrJWs1azWtNaslayVpFSklayVtNeslqyWpFSklaRUpJWkVKSVpFSklaRUpJWklayVpJWslayVrNas1rTWrNas1qSVrJWs1bTWrNW01qzWtNas1azWtNa1F7TWtRa01rUWrNa01qyVrNaslazWrNW01qzVtNas1rTWrNW01qzWtRe1Fr0XtRa9V7UWtRa1FrUWtRa9V71WvVe9V71XtRa1FrUWtRas1bUWrNW1FrUVtRas1bUWtRa1FrUVtRa1FrUWtRW1FqyWpJWslqyVtNas1rUWtNaFmPUWpJScU7UWvZe9l60VrRWMEYoJQAAIARJKXJO1FZ5azdnF2P2XhdjFl8WY/VeF2MWYxdjFmMXYxZjF2MWYxZjFmM3ZzdnOGcXYxZj9V4WY/VeFmP1XhZj9V4WY/VeFV/1XvVe1Fr1XtRa1FqzWtNa01rUXrNas1qSVrNas1qzWrJWslaRUpJWkVaSVpFSslaSVpJWklayVpJWs1qyVtNas1qzWpJWs1qyVrNaslbUWrNa01qzWtRas1rTWrNa9V7UXtRes1rTWrNa01qzWrNaslazWrNW01qzWtRa01rUXtRa1F7TWtRe1FrUXtRa1FrUWvVa1FrUWtRa1FrUWvVe9V71XvVe9V7UWvVe1FrUWtRa1FrUWtRa1FrUWtRa9VrUWtRa1FrUWtRa1FrUWpJWslqyVrNaslazWrNW01pxUrNW1V4WY/Ve1FqTUpNStFb1XhZfkk4HIQAAIAQnIXFK1Vo4Z1lrF2MWX/ZeF2P2Xhdj9l4XY/ZeF2P2XhdjF2MXY/ZeFmP1XhZjFmM2Y/VeFmP1XhZj9V71XvVe9V7UWvVe9Fr1XtRa9V70WvVes1bTWrNa01qyVrJWklayVpJWslaSVrJWkVaSVpJWslaSVrJWklaSVpFSklaSVrJWslayVpFSklaRUrJWslazWpJSslaSVrNWslazWrNa01rUWtRas1azVpJSslaSVrNaslazWrNW01qzWtRa01rUXtRe9F7UWtRes1rTWrNW01q0WtRa1Fr1WtRa1FrUWvVe1Fr1XvVe9V7UWtRa1Fr1XtRa1FrUVtRas1bUWtRa1FrUWtRa1FrUWtRa1FrUWtRa016zWtNas1qzWrJWs1qyVrNW1Fr1XrRa1Vr1XhZj9V71XtRa1FrUVvVeck5IKQAAQQjmGO49tFIYYxhjOGMXYxhjF2MYYxdjGGMXYxhjF2MXYxZfFmP1XhVf9V4WYxZjNmMWYzZjFmMWY/VeFmP1XhVf9V4VX/Ve9V71XhVj9V70XtNa1FqzWtNaslazVpJWs1qyVtNas1qzWrJWs1qyVtNaslazVpJWslaSVrNaslazWpJWslaSVrNas1bTWrNWklaSUrJWklazVrJW01qzWtRas1rTWrNWs1qyVrNas1bTWrNa1FrTWtRe01r0XtRa9F7UXvRe1FrUXrNa01qzVtRe1Fr1XvVe9V7UWvVe9V7UWtRa9V7UWvVe1Fr1XvVe9V7UWtRa1FrUWtRW1FrUWtRa1Fr1WtRa1FrUWvVe1FqRVrJWklazWrJa01qzVtNa01qzVpNW1F7UWrNWk1LUWtRa1VrVWvVe1VrUVrRW9V5qLaQUAABjDKw11lo5ZzlnF2MYYxdjGGMXYxhjF2MYYxdjF2MXYzdjFmM2YxVjFmMWYxZjFWMWYxVjFmP1XhZjFmMWY/Ve9V71XvVe9Fr1XvVe9F6zWtNas1rTWrJWslayVtNas1rUWrNa01qzVrNaklayVpJSklaSVrNas1bTWrNWs1qyVtNa01rUXrNas1qSVrNWklayVpJWslaSVrJWs1bTWrNa01rTWtRas1rTWrJWs1qyVrNas1rTWrNa01qzVtNas1rUWtNa1F7TWtRa1Fr1WtRa9V7UWvVe1Fr1XtRW1FrUWtRa1FrUWtRa9V7UWvVe1FrUWrNW1FqzVtRa1FrUWtRa1FrUWtRa1FrUWrJaslazWrJWslqSVrNas1rUWtNa1FrTWtRa01bUWrNW9VrUWvVa1Fr1WtRa1VrUWhdjtFbOOaQUAAAhBGstc044Y1lrF19ZaxhjOWcYYxhjF2MXYzhnF2MWY/VeFmMWYxZjFmMWYxZfFmP1XhZjFmMWYxZfFmP1XhZj9V71XvVeFWP1XvVe1Fr1XtRa1FqzVtNas1bTWrNW01qzVrNWklbTWtNa1FrTWtNas1bTWtNa01rTWtRa01rUWrNWs1ayVrNWslazVrJWs1qzVrNWklKzWrJWs1qyVrNWklayVpJWklaSVrNWs1bUWtNa1FqzWtNas1rUWtNa9F7UXvRe9F71XtRa9V71XhZf9V71XvVe9V71WvVe1Fr1XvVe9V71XtRa1Fr1XtRa1FqzVtRas1bUWtRa9VrUWtRas1bUWtNaklazWrJas1qSVrNas1bUWrNW01qzWtNas1bTWrNW1FrUWtRa1Fr1WtRa9VrVWvVes1LVWtVatFYPQkkpYwwAAOcczTk5Z1lr914YYxljGWNaaxhj1lr2XhdjWGcWY/RaFmMWYxZjFmP1XhZj9V4WX/VeFl/1XhZj9V4WX/Ve9V71XvVe9F71XtRa9F7UWtRas1bTWrNW01qzVrNas1azVrJW01rTWtNaslazVrJW01qzVtNas1rTWrNWs1qyVrNWklayVpJWs1ayVrNWklaSVrJWs1qyVrNaklayVpJWslaSUrJWslbTWrNa1FrTWtRe01rUWtNa9F7UWvRe1F71XtRa9V7UWvVe9V71XvVe9V7UWvVe1Fr1XtRa9V71WvVe1Fr1XvVe9V7UWtRa1FrUWtRa1FrUWtRa1FbUWtRa1FqzWrJa01qzWrNaslrTWtNa01rTWtRa01rUWtNW1FrTWtRa01r0WtRa9V7UWvVe9V71XtVa9l4XYxhjtFYwRosxYgggBGMMSSlqKZRSOWcYY/heF185ZzhjF2MWXzdnN2c3ZxZjN2cXYzdnFmMXY/ZeFmMWXxdjFmMXYxZjF2MWYxZj9V4VY/Ve9WL0XvVe1FrUWtNa1FrTWtRas1rUWtNa01qzVtRa01rTWrJW01qzVtNas1bUWtNa1FqzWtNas1azWrJWs1qyVrNas1azWrJW1FqzWtRas1rTWrNW01qzVrNWslazWrNa1FrTWtRe1FrUWtNa1F7TWtRe1Fr0XtRa9V71WvVe9V71XvVeFmP1XvVe9V71XvVe9V7UWvVe1Fr1XvVe9V71XvVe1Fr1XtRa1FrUWvVe1FrUWtRW1FrUWpJWslqSVrJWslazWrJW01qzVtNas1bTWtNW01qzVtNas1bTWrNW01rTWtRa1FrUWtRa1FqzVrRW1Fr2XvZe9l7UVs05xRgAACEEIQB0TjpnOmdbazpnOWcXYxdjFl8WYxdjN2MWYxdjF2M3ZxZjF2MWYxdjFmM3YxdjN2cWYzdj9V4VY/Ve9V71XvVi1F70XtNa1FqzWtRas1rUWrNa1FqzVtNas1rTWrNa01qzVrNas1bTWrNW01rTWtNas1bTWrNWs1qyVrNas1rTWrNWs1qyVrNaslazVpJWslaSUrJWklayVpJSslayVrNas1rTWtNa1FqzWtRa01rUWrNa1FrUWvVe1FrUWtRa9V71XvVe9V71XvVa9V7UWvVa1FrUWtRa9V7UWtRas1bUWtRW1FqzVtRas1bUWrNW1FazVtRas1qyVrJaslazWrNa01qzWtNas1rTWtNa01rTWtNa01rUWtNa1FrTWtRa01rUWtNa1FrUWvVe1FrUWrNW1FrUWvVaN2PUVjBGpBAiBAEA6ByVUtdaWmdaZzlnF18XYzdjWGc3ZzdnFmM3ZxdjN2cXYxdjFmM3ZxdjN2c3YzdnF2MWY/VeFmP1XhZj9V71XvVe9VrUWtRa1FbUWtRa1FrUWvRa1Fr0WtRa9F7UWtRa01bTWtNW1FrTWvRa01rUWrNa01qzVrNas1bTWtNa01qzWrJWklayVpJSklaRUpJWkVKzWrJWslaSVrNWs1bTWtNa9WL0XvVe1F71XtRe9F7UXvVe1FrUWtRa9VrUWvVe9V71XvVe9V71XvVe1Fr1WtRa9V7UWtRas1bUWtRa1FrUWtRa1FrUWtRa1FqzVtRa01qzWrNaslazWrJa01qzWtNaslbTWrJW01qyVtNa01rTWtNa1FrTWtRa01rTWtNa1FrUWtRas1rUWtNa9F71XvVe9FqSThdj5hwhBMcYAABkDAEAphStMbVWWWd7b1hnF2M3Z1hnN2c3ZxZjFmMWYzdj9l4WYxZjF2MWYxZjFmMWY/VeFmP1XhZjFl8WY/VeFl/UWtRa1FrUWrNW1FrUVtRa1FrUWtRa9F7UWvRe01rTWrNW01rTWtRa01rUWtNW01qyVrJWklazVrJWs1qzVrNas1azWrNWs1qyVrNWklazVrJWs1aSVrJWklazWtNa1F7UWtRe1Fr0XtNa1F7UWvRes1rUWtRW1FrUVtRa1Fr1XtRa9VrUWvVe1Fr1XtRa1FrUWtRa1FbUWtRW1FrUWtRas1bUWtRa1FrUWtRa1Fr0XtRes1rTWrNa01qzWtNas1bTWrJW01rTWtNa01rzWtNa1FrTWtRa01rUWtNa1F7TWtNaslbTWtNa9V7UXtNaklIVXxVfN2PNOSAArTXoHOgYzznoGAEAAAAIHTBCF2N5axdjN2dYazhnN2cWYxdjF2MXYxZjN2cXYxdjFmMXYxZjN2cWYzdjFmM3ZxZjN2cWYxZf9V71XtRa1FrUWtRa1Fr0WtNa9F70WvVe9Fr0WrNW1FrTWvRe1Fr0WtNa1FrTVtNas1azWrJW01qzWtRe01rUXtNa1F7TWtRas1rUWrNa01qzVrNWklazVrNW1F7UXtNas1rUWrNa1FqzWtRa01rUWtRW1FrUWvVa1Fr1XtRa1FrUWvVe9V71XvVe9V7UWvVe1FrUWtRa9V7UWvVa1FrUWtRa9V7UWvVe1Fr1XvRes1qzWpJWslqyVrNaslayVrJW01qyVtNa0lrTWtJa01qyVrNaslbTWrNa01qzWtNa01rUXrNa01qyVtNa01r1XvRaFV+zUrRWhBCtNc45QwSVUtdalU6MLUEEAABiCEgl1VYXYzhnWWs4ZzhjF2M4ZxdjN2cXYzdnF2M3ZxZjFmMWYzdnFmM3ZzdnN2c3Yzdn9V4WX9Ra1FrUWtRa1FrUWtRa1FrTWvRa9Fr0XtNWs1bTWvRa01r0WtNa1FqzVrNa01rTWrNW01rTWvRe1Fr0XrNW01qyVrNWslazVpJWslayVrNWkVKSUpFSs1azVtRas1rTWrNa01qzWtRas1rUWrNW1FrUWtRa1Fr0XtRa1FqzVtRa1Fr1XvVe9V7UXvVe1FrUWrNa1FrUWvVes1qzVrNa1FrUWtRa1FrUWtRa9V6RVpFSklaRVrJWklayVpFWs1qyVrJaslayWrJW01rTWtRe01rTWrNa01rTWtRe01rTXtNa1F7TWtRe01rTWrNaFmPUWvZetFatNQgh11qFEColW2s6Z9VW9l5xSsQUIAABAMcYEUL3XntvW2taaxhjWWsWXxZjN2NYaxZjFmM2YzdjN2dYZxZjN2M3Z1hrN2c4ZzdjF2P1XvZe9Vr1XtRa9F7UWvRe1Fr1XvRe9V70XvVe9F71XtRa9V7UWvRe1Fr1XtRa1F7TWtRa01r0XtRa9F7TWtNa01b0XtRa01qyVrNas1azWrJWs1qzVrNas1bUWtNa1F7UWvRe1F70XtRa9V7UWtRe01rUXtRa9F7UXvVi9F71XvRe9V7UWtRe1Fr1XtRa9V7UWvVe1F7UXrRa1F7UWtRa1FrVXtRa9V7VXpFWslaSVrJaslayWrJWslqyWrNaslayVpFWslaSVrJW01rTXrNas1qyVrNaslazWrNa1F7TWtRe01rUXtNa1FqzVtVa1V7WXjFGhRC1Vu89AAAySvdeWWsXYxZfFV/VWo0x6BwBAAEAxxgRQhhjnHM4Z3pvWWs3ZxZfWGdXZzdjN2c4ZzdnOGcXYxZj1VrUWhdjN2MWYxZj9V71XtVa9V7UWvRe1Fr1XtRa9V7UXvVe1Fr0XtRa9F7UWtRe1FrUXvRa9F70WvRe01rUWtNW01rTWtRa01bTWtNW1FrTVtNaslazVrJWs1aSVrNWslazWrNa1FrTWtRes1rTWrNa01rUWtRe01rUWrNa1FrUWvRe1F70XtRe9WL1XvVe9F4VY/Ve9WL1XvVe1F7UXrNas1qzVtRas1rUWrNa1FrUWtVe01qyWtNaslqzWrJa01qzWtNaslayWpJWslaRVrJWkVazWrJWs1qyVrJaklazWrJW01qzWtNe01rTXrNa01qzWrNa9V71XtVe1VoAAPA9+F7nHAkh9144Zxdf1Vp5axZf9lrWVnNOSyljCAAAYwzmGLRSF19ZZxdfF2M4Z1lrF2M4ZxZfF2M3Y1lrWGd5b3lvOGcXYzhnF2MXY/Ze9l71WvVe1F71XvRe9V70XvVe9V71XvRe9V70XvVe1F71XtRe9V70XhVf9V71XtRa9FrTVvRa1Fr0WtNa01rTVtRa1FrUWrNa1FqzWtNas1rUWtNa1FqzWtRe01rUWrNa1FqzWtRe1FrUXtNa1F7TWvRe1Fr0XtRa9F71XvVi9F71YhVjFmP1YhZj9V71XtRa1FqzVtRas1rUWrNa1Fq0WtRe1FqyWrJaklayVpJWslqSVrJakVayVpFSklaRUpJWkVKSVnFSkVJxUpFWkVKSVpJWslayVrNaslazWrJa01qyWtNa1FoWY7RW1VrWWkIIxxgZY1NKQghTSvdeGGP2WhZf9Vp5azhn9lr2WrRWMEIHIUEIAAClFK011lo5Z1prOWc5ZxdjOGc4ZzhnF2M3Y/Ze9l4XYzhnF2M4ZxdjF2P2XvVe9V71XvRe9V70XvVe9F71XvVe9V70XvVe9F71XtRe9V7UWvRa1Fr0XvRa9F7UWvRa01r0WtNa01qyVtNW01b0WtNa1FqzWtNas1rTWrNa01qyVrNas1bTWtNa1F7TWtRe01rUWrNa01qzWtRas1rUWtNa01qzWtRe01rTWrNa1F71XvVi1V71XvVe9V7UWtRas1rUWrNWtFqzVtRas1rUWrNaslayVpFWslaRVrJWklayVpFWklaRVrJWkVaSVpFSkVJxUpFWkVKyVpJWslaSVtNas1rTWrNa1F7TWtRe01rUXvVe1FrVWhdjay1DCDJG+F6FECkl9144Y/ZaF183Y9Ra9Vo3YzdnN2P2XtVatFaMMaUQAQAAAMYYrjWVUhhjOGdZa3pvF2MXYzhnWWsXYzhnOGc5ZzhnOWcXYxdj9l4WY/VeFl/1XhZj9V4WX/VeFl/1XvVe9V71XvVe9V70WvVe1Fr0WtRa9F7UWvVe9F7UWtRa1FqzVtNWs1bUWtRa1FqzWtNas1bTWrNWs1qzVtNas1rUWtNa1F7UWvRe1FrUWtNa1FrTWtRe01rUWrNa1F6zWtNa01rUXrNa01qzWvVi9V71XtVe9WL1XtVe1FrUXtRa1Fq0WtRa1FrUWtRaslayWpJWslaRUpJWkVKSVpFWklaRVpJWkVKRUnBSkVKRVpJWklayVpFWklaRUpJWklayWrJWs1qyVtNas1rUXrJW1FrUWhZj1lpzTmMM5xzXWjFGAACTTtVW9l72WvZaN2c3YxZfN2M3YzhnF1/2XtZaGF+VUo0xQwgBAEQI6BxRStVaOGNZa1lrem84Z/deGGM4ZzhnWWc4ZzhnF2MXY/ZeFmP1XhZj9V71XvVeFl/VWvVe1Vr1XtRa9VrUWvVe9F71XtRa1FqzVtRa1Fr0XtNa1FrUWtRas1bTWtNW1FrTWtRe01rUWrNa01qzWtNa01rUXtNa1F6zWtNas1rTWrNWs1qzWtNas1rTWrNW01qzWtNas1rUXtNa1FrTWvRe1F71XtRe9V7UXvVe1FrUWtRa1F7UWtRas1rUWrRa1FqyWpJWslqSVrJWkVKRVpFSklaRVrJWklaSVpFSkVZxUrJWklayWpJWslaRVpJWkVKSVpFSklaRVrJWklazWrNa1FrUWtRa9mK0VtZajDEhBPA9GGOEDCklGF9aa1lnF183YxZfFmMWXzdjF2MXY/Ze9161VtZaGWMZY1NKKiVCCAAAQQgpJTFGF2M5Z1lrOWc5ZzhnWWs5Z1lnOGc4ZxdjF2MWXxdjFl8WY/ZeFmP2XvZe9V72XvVe9l71WvZe9Vr1XvRe9V70WvVe1Fr1XtRa9V7UWvRe1Fr0XtRa9F7UWvVe1F70XtRa1F7TWtRe01rUXtRa1F7TWtRas1rTWrNWs1qzVtRa01rUWrNa01qzVtRes1rUWtRa1F6zWtRa1Fr1XtRe9V71XvVi9V71XtRe9V7UWtVe1FrUWrRa1FrUWpFSklaRUpJWkVKRUnBOcFJwUpFSkVKSVpFWslaRUpJWcVKRUnFSklaRUpJWcVKRUpFSklaRUpJWklazWrJW01rTWvReslb1XpNSF2O1VmMMYwzXWu89AADWVhhj1lY4YxdjWWc4Z/ZeMUaMMQgh5hxjDEII5hhzTllnGGPVWhdfrDWlFAAAIASkFEopMEY4YzhnWWc4Z1lnOGc5ZxhjOGcWXxZj9l4WY/ZeFmP1XhZf9l4WY/VeFl/1XhZf9V72XtRa9FrUWvVe9V71XvRa9V70XvVe1Fr0XvRe9V7UWtRas1rTWrNWs1qyVrNaslazVrNa01qzVtNas1rTWrJWs1qyVrNas1bTWrNa01qyVrNW01rTWrJWs1qyVpJWkVKyVrRa1FrUWvVe9V4WY/ViFmPUWtRe1FrUWrNa1FqzVtRaklaRVpJWkVayVpFSkVJwUpFSkVKSVpFWslaRUpFWkVKSVpFWslaSVpJWkVKSVpFWklaSVrJWklazWrJas1qzVtRe01rUWtRa9l7VWrRWc04AAK0191oBAIwttlYYXxljW2tzSo0xhAxDCGQMhAwIIUopzTVRRnJO1VoWYxZj1Fb2XhdjtVaMMYQQAAAgACEEByExRlprem9Za1lnems5ZzhnN2M4ZxdjF2P2XhZf9l4WYxdjN2f2XvZe9l4WY/VeFmMWXxZj9V71XvVeFl/1XvVe9Vr1XtRa9V7UWvVe1FrUWtNa1FrTWtRas1rTWrNW1FqzWtNas1rUXtRe9V70XtRas1qzWrJWs1ayVrNas1bUXrNas1qzVtRa01rTWrJW1Fq0WtRe1F71XvVe9V7UXhZj9V7UXrRa1F7UWtRas1ZQTnBScE6RUnBSkVJwUpFScE5xUnBSkVJwTnFScVKRVnFSkVKRUpJWcVKRUnFSklaSVrJWklayWpJWslqyVrNaslayVrJW1FrUWvVe1VrVWuccIQSUUmwtIgTXWtZW11aOMWUMIgRkDAkhlVI5Z9ZaF18XX/Ve9l7UVtRaFV9Yaxdj917WWvZe9160VosxgxBBCAAAIABqKbRWWmtZazhnOGdYZzhnN2cXYxdjF2MXY/ZeFl/2XhdjF18WX9Va1Vr1XvVe9V71XtRa9V71XvVe1FrUWtRa9V7UWvVe1Fr1XtRe9F7UXtRe01rTWrNas1rTWtRas1rUWrNa1F7UWvRe01rUWrNa01qzVtNas1rUWrNas1qyVrNWslazWrJWs1azVrNas1bUWrNa1FrUWvVe1FrUWrNWtFqzVtRatFrUWpFScFKRVpFSklaRUpJWkVKRVpFSkVaRUpFSkVKyVrJWslaSVrJaklaSVpFSslayVrJaklazWrJWslaSVrJaslbTXrNWs1qzVtRa1Fr2XtVac04hBOcYUkZDCColtlaOMWUMZhCOMfheOme2VhhjGGMXYxZfFmMVXzZnV2c2Y9NW1Vr2Xhdf1lr2XvZeF2P2XpNSizGlFCAEAABBCGsttFZ6azhnOGM3Y1lrWWtZazhjWWf2XvZe9l4XY/ZeF2MXY/Ve9Vr2XvVeFl/1XhZj9V71XtVa9V71WvVe1Vr1XvVa9WL0XvVi9F70XtNa01qzWtRe01rUXtNa1FrTWtRe01r0XtRa9F7UWtRe01rUXtNa1FqzWrNaslazWrNW01qzVtRas1azVpJWs1azVtRa1FrUWrNa1FqzWtRa1FrVXtRakVayVpFWklaRUpFWcVKRUnFSkVaRUpFWkVKSVpJWslqSVrNaklayVpJWslaSVrNakVKSVpFSklaRVpJWkVayVtNa01qyVrNas1bUWtRW1VqUUowxAACNMUwpAgBsLQIAIwRUTtha+V4ZY3NKzznNNbRW9lr2XhVf1FrUWvRaFmMWYxdj9l7VWrVW9l73XhdjtFYXX/Zeck6LMcUYIQQAAIMQrDG0VlprOGcXX/deOGcXYzhnF2MXYxdfF2P2XvZe9Vr2XvVeFmMWXxZj9l4WY/VeFl/1XvVe1VrVWtRa1Fr0XvVe1F70XtNa1FqzVrNas1rTWrNW01qzWtNas1bTWrNa1FqzWtRa01rUWrNWs1rTWtRas1azWrJWs1qzVtNak1azVpJSklJyUpJWklazVrNWs1qzVrRas1rUWrRa1FqRVpFSkVJwUpFScFJxUnBScFJwUpFWkVKRVpFSkVaRVrJWklayVpJWslaRVrJWklaSVpFWklaSVrJaslazWrJWs1qyVtNas1bUWtRa9VrVWtZatVZLKQEA6BhDBEQIRAgRQjpn+F6VUu89IQQAACAAYwysNfZeN2MXY/ZeFl/UWhdj9l72XvZeOGc3Y/Zes1L2XvZe9lq0VvZa1VowRkkpQQgAACAAgwysMZRSOGM5ZzhjWmtaaxdf9144Y1lnOGMWYxZfFmMWYzdnFmMXYxZjFmMWXxZj9V71XtVa1VrUWvVe1F70XtRe9F7UXtRe01rUWtNa1FrTWtRe1FrUXtRa1FrTWtRas1rUWrNa01qzVtRe01rUWrNa01qzVtNas1qzVpJWs1aSUrNWklKSVpJSs1azVrNas1bUWrNatFqzVlBOcFJwTnBScE5wUnBSkVJPTnBScVKSVpFSkVZxUpFWkVKyVpJWslqSVpJWklayVpFSklaSVrJWklazWrNa01qyVtJaslbTWrNW1FqzVrRW9l73XnNK6BwCACMEAgARPhhjGF8QQsUUAAAIIXNOtFbGGCAEYwwwRhhj9l7VVlln9VoWX/Ze9V60VtRaFmNZa/Ze9l7VWtVa1Fr1WvVeFl/VVlFGaimDDAAAAACEECklckr2WllnWWcYYzhj9l7VWhZfFmMWYxdjFl8WY/ZeFmP1XvVe9V71XvVa9V7VWvVe1Fr0XtRe9V7UXvRe1F71XtNa1F7UWvRe1F70XtRe9V6zWtNas1rTWrNa01qzWtNas1bTWrNa01qyVrJWklazVpJSs1aTVrNWklaTVpJSklJxUpJWk1azWpNWs1aSUrNWkVJwUpFScFKRUnFSklaRVpFScVKSVpFWkVaRUpJWkVayVrJW01qzWrNaslazWrJWslaSVrJWklayWrJWs1qyVtNa0lrTWrNa01ayUrNWk1K0VpRS11q3VqYUAgAkBEspzjlhCEAEpBRJKTFG9172Xhhjc04pIQAAhRBTShljlFIXX/ZeF2MXYzdjFl/2XtVaFmP1WhZfFmMXY9Ra1VrVWvZa9lr2XrRSMUZqKaQQAAAgAEIIailSShdfOGN6a3tvOGc3ZzdnF2MXYxZjF2MWY/Ze9V72XvVe9l71XvZe9V70XtRe9V70XvVe9F71YvRe9F7UXvVe9F71YvRe9V7UXtRe01rUWrNa01qzWtRa01qzWrNa1F7TWrNaklazVpJWs1qzVtRas1q0WrNWs1aSUpJSklK0WrNatFqzVrNWs1aRUpFWcFJxUnBScVJwUpFScFKRUnBOcFJQTnBScFKRUnFSklaSVrNaklayVpFSkVaRUpJWkVKSVpFSklaRUpFWkVayVpFSslayVrNWs1bUWtVatVbXXjJGAQACACMEAQAgBGEISCkvRvVeN2eTUvZetFbVWtZac04IIQEAQwitNYsxD0KzUhZj9l71XvVaF2P2XhZf9l4WX/ZeFmP2XhZf9l72WtVW9lr2WvZalFJySmoppBAAAAAAQQjGGM019l5Za1lrOGc4ZxdjF2MXYxdj9l4WY/Ve9l71XvVe1Fr1WtRa1F7TWtRe1Fr0XtNa1FrUWvRe1Fr0XtRa1F6zWtNa01rUWrNWs1ayVrNas1bTWrJW1FrUWtRes1qzWpJWslazWtRas1rUWrNWs1qSVpJWcVKzVrNW1Fq0WtRas1bTWrJaklaSVpFSklZxUnFScE6RVnFScVJxUpJWkVKSVnFSslaSVrJWklayWrJWslqyVpJWkVKRUnFSkVaRUpJWkVayVpFWslaxVtJa0lrUWtRa1Vq1VtZa5xwBACklKSUAAO49s1YWY9Ra1FrUWvVe1Fb1XtVa1Vr2XtZaMEYpJUIIIAAAAIMQailzThdjGGPVWhdj1lr2XhdjOGf2XtZa1VrVWvZeFl/UVtVa1VrVWpNS1VrUVnJOizHEFCAEIAAAAOcc7z34XhljGGMYYxhj9l72XvZeF2P2XvVe1Fr1XvVe1Fr1XhZj9V7UXrNW1FrUWvVe1Fr0XtRa9V70XtRes1bUWrNas1qzWtNas1qzWrNa016zWtNaslrTWrJa01qyWvRe1FrUWrNWs1aSUpJScVKSVpJWs1ayVrNaslazWrNacFJxUnFSkVJxUpFScVKRUpFSklaRUpJWkVayVpJWklaSVrJWklayVpJWklaSVrJWkVKSVpFSkVZxUpJWkVayVnFOkVKRUrFWkFKxVrJWs1aTUtVaMkalFMcY1lpRRkAEKCUXY9Ra9V7UWvVe1Fr1XtRa1FqzVtRa9l4WY9VatVa0Ug8+5xxCCCEE5hzuObRWlFIXYxhj1Vq0UhdfGGP2XvVa1Vq0VtVa9Vr2XvVa9VqzVrNWk1LUVrNWcUqKMeYYAAABAAEAphSNMXRO9145ZzhnF2P2WvZeFmM3ZxVf9VoWX9Ras1bUWvVeN2f1XtRa01bUWrNW1FqzVtRa1Fr1XtNa1FqzWtRas1rTWrNa01qyVrNaslayWpJWslaSVrJWslazWrNWs1qSVpJWcVJxUpJSs1azWtRas1rTWrNa1FpwTlBOcVJxUpFSkVKyVpJWslqSVrJWklazWrJWs1qSVrNaklazWpJWslaSVrJWklayVpJWslaSVrJWklazWrJWslaSVrJWsVbSWrFW01qzWrRW9l7OOQAACCEYY9VaKCViDPZes1bUWvVa9V7UWvVe9V7UWtVatFbUWtRa9l7WWvZe9l73XnJOizGEECAAAAAAAGMM7j32Xhhjk1K0VhdjFl/1WhZfFmP1WpJSs1LVWhZj1VrUVrRW9l4WX/Zek1K1VqwxpBAAAAAAIATGGGoptFb2XllrOGf2XrVW9l4XYzdjN2M3ZxZf1FrUWvVeFmP1XvVe9V7UWtRa1Fr1XvVe9V7UWvVe1FrUXtRa9F7UWtNas1rUWrNa01qyVrJWklKyVpJW01qzWtNaslayVpFSslayVtNa01rTWrNa01qzWlBOcE5QTnFScVKSVpFSklaSVpJWkVKSVpJWslaRVpJWklayVpFWklaSVrJWkVKSVpJWslaSVrJWklayVpJWslazVtNaslbSWtJa0lrTWtRa1Vr3XiklAAAIIXNOck5RSgAAMEa0VtRas1b1WrJS1FqzVtRa1FrVWtRa1Fq0VrRWk1K0VrRWtFaTUnJOD0LuPSglgxAAAGIMrDUXYzhn9l72XrRWck7UWvZeN2P2XvZetFb1WtVa1FqTUrRWtFb2XtRW1FazVrNSzTnFGCAEAAAAAIMQay1zThhjOWcYY/Ze1VrUWrRW9V4WYzdnFl/1XvVe9V71WvVe9V71XtRa1FrVWvVe1FrUWtRa9VrUWvRa01rUWtRa9FrTWtNaslazVrJWs1qzVtNas1rTWrJWslaRUrJWslazWrNWs1aSVrNWkVJxUpFScVKSVpFSklaRUrJWklaSVpFSslaSVpJWkVKSVpFWklaSVrJWklayWrJWslaSVrJWklayWrJWslqSVrNas1azWrJW0lqyVtNas1b1XtVaxhhCCDFGtVa0UpNSYgwHIRdj1VqzVtRa1FrTWtRas1azVrNW1VrVWvZe9l72XtRWtFa0VvZe9VrUVpJO9VqTUsw1gxAgAGEMii1QRvZeOGNZaxdj9l7VWvZa1Vr2XvZe9l7VVtVa1Vq1VpJS01ayVtNW01bUWpJSUUovQiglpBQhBAAAYwwpJTJG1lp6bzdnF2P1XvZe9l4WY/Ze9l7VWtVa1Fr2XvVe9V7UWvZe9Vr1XtVa9V7VWvVe1FrUWtRa9V70WvVe1FrUWtNW1FrTWtNas1bTWrNa01qzWrNWs1bTWrNa01qzVrNaslZxUpFScVKRVnFSkVaRUpJWklaSVpFSklaRVrJWkVaSVnFSkVKRUpJWkVayVpJWs1qRUpJWklayVpJWslaSVrJWklazVrJWslaxVrJWslazWpNS1lqEEGMMUkr2XrRWs1IHISAEtFbVWpJS1FqzVrNW1FrUWrNWs1azUrNWk1KTUpNSk1KSUpNSklKzVrNWtFazVpJSck5xTosxgxAgBGEMKCUPQtVaF2PWWvZe9l72XhdjF2PVWrRWlFLVWtZa9V7TVvNa0lbSVtNW9V7UVpJStFaTUu89SiljDAEEIgSEEKUYizGTUjdnN2cWY/Ve9l4XYxZj1Vr1XtVa9l7VWvVe1Vr1XtVa9VrUWtVa1Vr1WrRW1FrUWvRa1FrUWtNW1FqzWtNaslazVpJWs1azVtNaklazVrJWs1qSVrJWklazVnFScFKRUnFSklaRUrJWklazWpJWslaSVrJWklayVpFWklaRUpJWklayVpJWslqyVpJWklayWrJWs1qSVrJaklazVrNW01qyVtJaslbTWtNas1b2XoQQQghSSpRS1FazVg9CAADuPdRa1FqzVrNWs1bTWtNW9Fr1WvVe1VrVWrRW9V71XvVe1FrUWrNW1FrUWtRa1FrUWpJS1FbUWlBKaS1iDEEIgxApJVFK9144Z/ZetFbWWjhnF2P2XtVa1lrVWrNW01r0XtNWs1azVtRa1FbUVrRWtVbVWrVWEEJKKYQQQQgAACAEYgxJKVBKF2NZa/Ze9l4XYxdjF2P1XvZe9l72XvZa9l71WvZe1Vr2XvVa9VrUWvVa1FrUWtRW1FrTVtNas1rTWrNWs1qzVtRa01qzVrJWs1qSVpJWkVKyVrJWT05wTlBOcVJxUpJWkVayVpJWklaRUpJWkVaSVpFSkVKRUpJWkVKSVpFWklaRUpJWkVayVpJWslqyVrNaklayVpJWs1aSVrJWslbSWrJW01rUWtZaIQSlFLVW1Vq0VrNWtFZCCAch1Vr1XvVes1b0XvRa9F7UWtNas1bUVtRa9V6zVrNWslazVrNW01azVrNWs1ayVpJS1FqzVrNWklLUWlFKrDWkFAAEAABCCAgh7j3VWhdjF2MXY/Ze9l7VWtRa9Fr0WtNW1FrUWtRas1a0VrNWtFazUrRWk1K0VrRWtFZyTu49ByFBCAAAIASDEAchD0KTUtVaF2MXY/Ze9l4XY/Ze9l71WvZe1Vr2XtVa9l71WvVa1FbUWtRW1FazVtNWs1bTWrNa1FrTWtRe01rUWrNa01qzVrNWklayVrJW01qSVpFSklaRUpJWkVKSVpFSs1qyVrNaslazWrJWslqSVrNaklaSVpFSklaSVrNaslrTWrNas1qyVrNaslayVpJWtFqzVrNaslbTWtJa01q0WtVatFYhBKUUtFb2XvVe1Fa0VmotQQi0VvVetFb1WrNW9F7TWtRa01r1XtRa1FqzVtRas1rTWrJWs1ayVrNWslazWrJWslaSVrNWslbTWrNWtFa1WtVaUk6tOcYcQQgAAEEIYgwoJRBG92I4Zxdj1Vr2XvZe9l7VWtVa1VrVWrRW1FrTVrNWkU6yUtNW1FqzVrRWtFbVWpNSMEZqLcUYYgwgBAAAYgwHIe49k1L2XhdjF2MXYxdj1Vr2XhZfFl/UVvVa1Fr1WtRW9VrUVtRa01bUWtNa1FqzWtNas1bUWtRa1FrTWtRe01rUXtRa1F7TWpFSklaRUpJWkVKSVpFSklaRUpJWkVKSVpFSklaRUpJWkVaSVpFSklaRUpJWklayVpFSklaRVrJWklayVrJWs1qzVrRas1bTWrJW01rTWtRatFaTUgAA5hyUUvVe1FrUWrRWzTkgBFFK9V7UWtRa1FrUWtRas1bUWtRa1Fq0VrNWs1azVrNW01qzVrNaslazVrNWs1qzVtNaslbTWrNW1FqTVrRatFrVWrRWk1JRTlFKxRikFGIMIAgABMUYzT32XhhjGGPWWrVW1VoXX9VaklKTUtNW01bUWtRa9F7TVpJSklKzVrRW1Fq0VpNSck5yTqw1KCViDCAEAAAgBEEIgxAoJc01UUrVWtVa9l7VWvVa1FbUWtRW1VrUVtRa1FbUWrNW01qzWtNaslazVrNW1FqyVrNaslazVpJWs1azVrNaklaRUpJWkVKSVpFSklaRUpFScVKRVnFSkVaRUpJWkVKSVpFSslaSVrJWklayVpJWklaRVrJWklayWrJWs1qzWrRas1bTWrNa01rTWtNa1Fq0VjFKAAAoJdVa1VrVWtVa1lpRSiEEizEWY7RW9VrUWvRe01bTWrNW1FrUWtRas1bTWrNW1FrTWtRa01rTWrNW01qzWtRa01rUWrNa01qzVvVetFq0WrRW1VrUWtVak1b2YrRWcU6sOQclYgxBCCEEpRSuNdZaGGP3XtZa9l72WrRW9FoVY9RaslaxUvNa9F7UWrRWtFaTUrNWk1K0VpNStFaTUrRWklIwRoox5hyCECAEAAAgAAAAIADFGC9GN2fVWtRa9VrUWtRa1Fr0WtRa1FrTWtRes1qzWrJWs1qzWrNaslayVpJSklaSUrNWslZxUpFScFKRUnFSkVJxUpFScVKRUnFSkVKRUpJWkVKSVpFSklaSVrNaslazWpFWklayVrNaklazWrJWs1qyVrNak1azVpJWslayVrJWslazVrRWEEIAAIsx1VrVWtNW9V61WrVWQQjmHPZe1FqzVtRas1bTVpJSslazVtRas1bTWrNa01qzWtNas1bTWrJWs1ayVrNaslbTWrNWs1aSVrNWs1aTVpJSs1a0VtRas1aTUrNWs1azVvVe9V6SUqw5KCVjDCIEIgToHO891lr2XtVa1VrUVpJSslbTWvReslaRUrNWtFaTUrNWs1bUVrNWtFbVWtRas1azVpNSs1aTUrRWtFZRSosxBiGCEMUYrDXTVtRa1FrUVtRa01rUWtNW1FrTWtRe01rTWrNWs1qyVrNWslazVpJWslaSUrJWklKyVpFScVKRUnFSklaRUpJWkVKRVpFSklaRUpJWklayVpJWslaSVrNas1rTXrNas1qSVrNaslqzWrJWs1qyWrNas1q0VpNWs1ayVrJWslazVrNW1VruPQAA7j32XtVa1Fr1WtZa917GHGIM9l7UWtVa01rUWrNWs1ayUrNWslazVrNW1FqzWrNaslazWrNW1FrTWrNas1azWrNW01qzVrNWklaSVpJSs1azVtVe1FrVXtRa1FqzVrNWkla0WrNWtFqTUnJOzjkIIWMMAAAgBEkpck72XhdfN2P2XvVatFbUWvVa1FqzVtRa1Fb1XvVe9l71XrRWs1b1WtRa9V7UWtRas1azVpNStFrUWrRaklKTVtRa1FrTWtRa01bUWtNa1FrTWvRe1FrUXtNa1FqzWtNaslbTWrNa1FrTWtRas1qzVpJWcVKRUpFSklaRUpJWkVaSVnBSkVJxUpFScVKRUpFSklaRVrJWklazWrJWs1qyVrJakVKSVpJWslaSVrNaslqzWrNWtFqzVrNaslayVrJWs1q0Vs49AAAxRtVa1VrUWvVa1Vr3YosxIQi0VvVe1VrUWtRa1FqzVtNWslKyUpJSklKSVrJWklKSVpJSs1rTWvRes1azWrNWs1qzVrNas1azVrNa1FqzWrNWklKRUnFSklaSUrNWs1azWpNWs1q0WtRatFa0VrRW1VowRgchIAQAAGIMSSlSShdjF1/WWtVaF2P1XvVe1FrUWrNSs1aSUrNWs1bUWrNWs1aSUrNSklKSUrNWs1aSUrNatFrUWrNa01qyVtNas1bTWrJW01qzWtNas1rTWrNa1FqzWtNas1azWrNW1FrUWvRe01rTWrJWslaRUnFSklaRUpJWkVKyVpJWkVJxUpFWcVKRVnFSklaRUrJWkVaSVpFSklaRVrJWklayVpJWs1qyVrNaslbTWrNatFq0VtRas1rTWrJW01qzVtVazTkgBFJK1VrUWvRa1Fb2XtZaMUYAAHJO1VoWY9Ra9FrUWvRa01rTWrJWs1ayUrNak1azVpJWs1azVtRa1FrUWrNW1FqzVrRas1bUWrNas1qzVtRas1azWrJWs1qzWrNas1azVpJSs1azWtNaklIWY7NWklKzUtVas1IxRs05xhhCCCEEQwwpJfA9tlYYY/Ve9V4WY/Ve1FrTVvVe9V6zVrNW1FrUWvVe9V71XtNa1FqzVpJWcVKSVrNW1F6yVrNaslazWrJWs1qyVtNaslrTWrJWs1qzWtRa01rTWrNW01rTWtRe01rUWrNWs1aSVnBOcVJwTnFScFKRUnFSkVKRUpJWcVKRUnFSkVZxUpFSkVKRUnBOcFJwTpFScVKSVrNa01qyWrNaslazWpJWs1azVrRas1azVrJWslayVrNW1FrOOQAAck60VtVa1FazVtVatVZzTgAAD0LUWvVe1FqzVtNa01rUWtNa1FqzVtRas1rUWrNWs1aTVrNWklKTVrNWs1aTVrNWs1azWrNW1FqSUrJWs1bTWrNas1qSUpJSklLTWtNaslaRUrJWslazWpFO1FrUWrNWs1LVWrRWk1K0VnJOrTXnHCEEAQCEEEopklLUWvVeFl/UWtRas1bUWvVa9F6zVpJSklLTVrNWklKyVtRes1qzVpJWs1qyVpJWklayWpJWslqyVrNaslayWpJWslaSUrNWs1rUWrNWs1azWtNaslazVpJWslaSUpJSslaSVpJWcVKRUnBScVJxUpJWkVKSVpFSklaRVpJWkVayVpJWslaSUrJWklayVpJSslayVrJWslbTWrNa01qzWtRas1ayVrJW01rTWvRe1FrVWg9CAACtNfZe1VrTVrNW1Vq0VvZeAACsNfVeN2ezVvVe1Fr1WtRa1FrUWtRa01bUWtRW1FqzVtRas1azWrNWs1aSUpNWklKzVrNWtFqzVtRa01rUWtRa1FqzVrNWklLUWtNW1FqzVtRa01bUWrNW9FrTVtNWslbTWrNWs1aSUrNWklKSUpJSck7MOeUcIAQgBOYcMEbVWhdj9l7VWrRW9VqzVrNWs1b0XtRa01qyVtRes1qyVpJWs1qzVrNaklazWrJWslaSVrJWklayVpJWslayVrNaslbTWrNa1FrTWtRas1rUWtRa1F7UWtRe01pxUpJWkVKSVnFScVJxUpFScE5xUnFSkVaRUpJWklayVpFSslaSUrJWkVKyVpJSslZwTnFScE6RUnBOkVJxUpFSklayVrJWslqxVtJa01rVWtVaMEYAAK01tFbVWrNW1Fq0VtRa1FpBCEgp9V72XtRa1FrVWtRa1FqzVtRas1bUWtRW1FqzVtRas1azVrNWs1azVrNWs1KzVrNW1FqzVtRas1KzVrNW1FqzVtRas1bUVrNWs1azVtRWs1azVrNW01ayVrJWslKzVrNW01qzVrNWs1ayVnFOkU5wTnBKLkIOPgchQQgAAOYcD0LVWtVa1VqzVtVa9V7UWpJSklKyUtRaklKyVrNW1FrTWtNas1azVpJWslaSVrJWklKSVpJSslaSVrJWslazVpJWslayVtNas1rUWtRa1F7UWtRatFrUWpFSkVKyVpJWklaRUpJWkVKRUnFSklaRUpJWklayVpJWslaSUrJWklayVpJSslaSVrJWklayVpJWslaSUrJWklaSVrJW01qyVrJWsVbTWtRa9l5RSiEEizHVWtRa1FrUWtVa1VrUWoMQ5hzVWvVe1VrVWtRa1FrUWtRas1bUWrNW1FrUWtRa1FbUWrNW1FqzVtRas1bUWrNW1FrUVtRas1azVrNW1FqzVtRa1FbUWtRa1FqzVtRas1bUWrNW1FqzVrNWslKzVrNW1FrTWvRa01rTWrNW01ayVrNWslLTVrNWcU4vRkkpAAAAAMQYMEb1XrRWs1bUWtRa1FqzVrNWslKzWrJWs1aSVpJWkVKzVrJWs1ayVrNas1azWrJWs1aSVrJWkVayVrJWslayVtRa1F7UXtRa9V7UXtVe1FrUXtRacVKRVnFSkVJxUpFSkVKSVpJWklaRUpJWkVKRVnFSkVKRUpJSkVKRUpFSklKRUpFSkVKSUpFSklKRUpJWkVKSVpJSslayVrJWsVayVrNW1FrVWnNOIQRrLdVa1FrTVtRatFb2XrNW5hyDEPVetFbVWtRa1FqzVtRas1bUWrNWs1azVtRas1bUVrNW1FazVrNWs1bUVrNSs1azVrNWs1azVrNWs1azVrNWs1azVrNW1FazVtRas1bUVrNW1FqzVtNWs1bTWrNW01rTVtRas1bTWrNW1FrTWtNaslaSUnBOcU5yTnFOUUowRiglIAQAAIMQDkJxTrNW1FaSUpJSs1b1XtRa01qyVrJWklazVrJW01qSVrNaslbTWrNWs1qSVrJWslayVpJWslaSUrJWs1bUXtNa1FrTWtRa1FrUWrNa1FqSVpFSkVJwUnFScVKSVpJWslqSVrJWkVaSVpFSklZxUpJWkVKSVpFSklaRUpJWkVKyVpJSslaSVrNWslazWrJWs1qyVrJWsVbSWtJa01qzVvZek1JjDEop9l7UWvRa01bUWvZe1VpJKWIM9V7UWtVa1VrUWtRa1FbUWrNW01qzVtRa1FrUWtRW1FrUVtRas1bUWrNWs1azUrNWs1azVpJS1FazVrNWklKzVrNWs1azVtRa1FrUWtRa1FrUWtRa01rUWtNa9FrTWtRa01bTWrNWFV/UWtNWklKyVpJSslKRUnFOklKSUg5CD0IOQmktYQwgBMQYL0bVWhZjtFazVrNSklaSUrJWslbTWrNaslZxUtNas1rUWtNa1FqzWrNaslb0XtNa01qyVrJWklKyVrJW1FqzWtRas1rUWtRa1F7UWpFSklZxUnFSUE5wUnFSklZxUpFWkVKSVpFSklaSVrJWkVKSVpFSslaRUpJWkVKyVpJWslayVrNaslbTWtNa1FqyVrJWkVKyVrJW01qzVrRWtFa0VmMMKSXVWtRa1FrTWrRW9l60Vqs1IAT1XrRW1VrUWtRa1FrUWrNW1FqzVtNa1FbUWtRa1FrUVtRa1FrUWrNW1FazVrNWs1azVrNWs1aSUpJSklKzVpJSs1azVtRa1FrUWtRa1FrUWtRa1FrUWrNW01rTWtRa01bTWtNW1FrUWtNaslKyVrJW01ayVrJWcU5PSlBK01qzVnFKL0aSTqs1xBgAAEAIKCVQSpJSck6zVrNWklayVpJSklaSUpJWslazWrNW01qzVrNaslazVrJWslayVrJWklKyVrJW01qyVrNWs1azWrNW1FrUWtVeslaSVrJWkVKRUnBOkVJxUpJWkVKSVpJWslaSVrJaklayVpJWslaSVrJWklayVpJWkVJxUpFSkVKSVpFSslaSUrNWklayVrFWslayVtNas1bVWrRWhBDnHPZe1Fb1XtRa9V7VWtVaqzUgBNRa1VrVWvVa1Fr1WtRa1FrTVtRa01bUWrNW1FrUWtRa1FbUWtRa1FqzVtRas1bUWrNW1FqzVrNWs1KzVrNWs1azVtRa1FrUWtRa1FrUWtRa1FrUWtRa01bTVvRa01rUWtNW1FrTWtNas1bUWtRa9F7TWrNWkVKSUrJWklJPRk9KkVKzVnFOUEZRSjBGJyUgBAAAByEOQlBOcVLTWtNa01qzWtRe9F6zWrJWs1qyVrNWslazWrJWklKRUrJWklayVrJW01rTWtRas1rUWrNa1FrUWtVe1FqRVrJWklayVpFSkVJQTnBOklaSVpFSklaRUpJWkVKSVpFSslaRUpJWkVKyVpFSklaSVrJWklayVpJWslaSVrJWkVKyVpFWsVaRUrFWklK0WrRW1VpjDOYc1VbUWvRa9FrVWtVatFaLMQAAtFbUWtVa1Fr1WtRa1FrTWtRas1bUWrNWs1azUrNWs1azVrNWs1azVtRWs1azVrNW1FqzVrNWs1bUWrNW1FazVtRWs1azVtRW1FqzVtRa1FbUWrNW1FqzVtRa01rUWrNW01ayVtNa01bTWrNW01azVtNas1bTWrNWs1ayUtNWslKRUnBKcU5xTnFOUUpyTlFKzTnmHEEIghBHKQ5Gs1qzWrJWkVKSVpJWslaSUpJWklKSVpJSslayVrJaslayVpFSkVJwTnFS1FrUWrNa01qzWtRa1FrUWpJWkVKRVnFSkVJxUnFScE6SVpFSklaRUpJWkVKRVnFSslaSUpJWkVKSVpFSslaRUrJWklayVpJSslaSVrJWklaSVpFSslaxVtJaslbTWrRa1VqUViklpBS0VtRaFl/TVvVetFbUWs05IASzVtRa1Fr1WtRa1FrUWvRe1Fr0WtRa1FqzVrNWs1azVrNW1FqzVtRa1FrUWtRa1FrUVtRa1FrUWtRa1FqzVtRas1bUVrNWs1azUrNWklKzVrNW1FqzVrNWs1bTWtNW1FrTWtRa01bUWtNa1FrTWtRa01rUWtNa1FrTVtNWslazVpJSklJxTpJScU5xTlFKcU5RSnJOcU5QSsw9qzkNQpJSs1azWrJW1FqzWtRas1rUWrNa01qzVrJWslazWrJW01qyVrNWklazWrNW1FqzWtRe1FrUXtRakVKSVpFSklZxUpFWkVKRVpFSklaRVpJWkVKSVpFSklaRUpJWkVKSVpFSklKRUpJWklKyVpFSslaRUpJWklKyVpFSklaRUrFWkVKyVpJSs1a0VrVWKSWDELRW1Fr1XtRa1FrUWrRWzTkAALNWtFbVWrRW1FrUVtRas1bUWtNW1FqzVtRWs1bUVrNW1FqzVtRas1bUWtRa1FqzVtRa1FbUWtRW1FqzVtRas1azVrNWs1azVrNWklKzVrNW1FazVtNWslazVrNW01qzVtNa01bTWrNW01azVtNas1bTWtNW1FrTVtNaslbTVrJWs1aSUpJScU5xTnFOcU5xTnJOck6TUnFST0ouRnFSslazWpJWs1qyVrNas1azWpJWslaSUrJWklayVpJWslaSVrJWklazVrNWs1qzWtRatFrUWtRa1FqyVpJWslqSVrJWklayVpJWslqSVrNaklayVpJWslaSVrJWkVKyVpJSslaRUrJWklayVpJWslaSVrJWklKyVrJWslaSVrJWsVayVrFWs1azVtVatVaMMSEEtFazVvVe01bVWtVa9l7MOQAAs1bVWtVa1FrUWtRa1FrUWtRa1FrUWtRa1FrUWtRa1FrUWvVa1FrUWtRa9VrUWtRas1bUWtRa1FrUWtRa1FrUWrNW1FqzVtRas1bUWrNW1FrUVtRas1bUWrNW01rTVtNa01bUWtNa01qzVtRa01rUWtNa9FrUWvRa01rUWtNa9FrTWtNas1aSUpFSklKSUpJSklKzVpJSs1qSUrJW01rUWrJWslayVrNaslazWrJWs1aSVrJWklLTWrJWs1aSVrJWslazWrNa01qzWtRas1rUWtRa1F7UWrJWs1qSVrJWklayVpFSklaSVrJWklaSVpJWklaRUpJWkVKyVpFSslaSUrJWkVKSVpJWslaRUpJWkVKyVpFSslaRUrJWkVKyVrJW01qzVtRatFa1Wq01AACTUrRW1Fb0WtRa9V7VWqw1AAC0VrRW9V7UWtVa1FrUWtRa1FrTWtRa1FrUWtRW1FrUWtRa1FrUWrNW1FrUWtRas1bUWrNW1FrUWtRas1bUWrNW1FqzVtRas1bUWrNW1FrUVtRas1azVrNW01qzVtNWs1bTWtNW1FrTVtRa01bUWtRa9F7UWvRe1Fr0WtNa9FrUWvRe01rTWrNW01ayUrJSklKSUnFOklKRUpJSkVKzWrJWklaRUrJWklayVpJWs1ayVrNaslazWrJWslqyVrJWslazVrJWs1qzVrNas1azWrNW1FqzVtRa01qyWrNaklayVpFWklaRUrJWklaSVpFSklaRUpJWkVKyVpJWslayVrNWslayVpJSslaSVrJWklKyVpJWslaSVrJWklayVrJW0lrSWtRa1FrVWrVWEEIAAHJO1Fb1WvRe1Vr1XvZeizFBCLRW1VrVWvVe1Vr1WtRa9VrUWtRa1FrUWtRa1FrUWvVa1FrUWtRa1FrUWtRa1FrUWtRW1FrUWtRa1FrUWtRa1FrUWtRa1FrUWtRW1FrUVtRa1FrUVrJW1FrTWtNas1bTWtNa1FrTWtRa01r0WtRa9F70XvVe9F71XvRa9V7UWvVe9Fr0WtNW9F7UWtRas1azVpJSklKRTpJWcVKRUpFSslaSVrJWklazWrJWs1qzVtRas1rTWrNaslaSVrJWslbTWrJWs1aSVrNas1azVrJWs1qzVtRas1ayVrNaslayVpFWklaRUpFWkVKSVpFSklZxUpFScVKRVpFSslaSVrJWklayVpJSslaSUrJWkVKyVpFSklaSUrJWklayVrJWslaxVrJWsla0VrRWtFYxRgAAzTm0VtNW9FrUWvZe1VpqLUEI1FrUWtVa1FrUWtRa1FqzVtRas1bUWrNW1FrUVtRa1FrUWtRa1FqzVtRa1FrUWrNW1FrUVtRa1FrUWtRa1FrUVtRa1FrUWrNW1FqzVtRas1bUWrNWs1azVtNa01bTWrNW01rTVtRas1bTWtNW1FrTWtRa1Fr0WtRa9V7UWvVe1Fr0XtRa01rTWtRa01bTWrJWslayVrJWslayVpFSklaSVrNWslazWrNWs1qzVtNaslazVpJWslZxTpFSkVKyVpJWslaSUpJWklayVpJWs1aSVrNWs1bUWtNas1rTWrNas1qyVrNaslayVpJWslaSVrJWkVayVpJWslaSVrNaslazWrJWslaSVrJWklayVpJWslaSUrJWslazVrJWs1qyVrJWslbTWrNW1VqUUpRSQQiLMbNW1FbTVtVa9V71XkgpYgzUWtVa1Fr1WtRa1FrUWtRas1bUWrNW1FrUVtRa1Fr1WtRa1FrUWtRa1Fr1WtRa1FqzVtRa1FrUWtRa9VrUWtRa1Fr1WtRa9VrUWtRa1FrUWtRa1FrTWtRa01rUWtNa1FrTWtRa01rUWtNW1FrTWtRa01r0WtRa9V7UWvVe9V71XvVe9V7UWvRa01r0XtNa9FrTWvNa01rUXrNa01qzVrNas1rUWtNa1FqzWtRas1rTWrJWs1ayVpJWkVKyVpJWslaSVrNWslazVpJWs1ayVrNas1rUXtRas1bTWrNW01qzWtNas1rTWrJWslaSVrJWklayVpJSslaRUrJWklazVrJWslaSVpJWklayVpFSklaRVrJWkVayVpJWslayVrJaslbTWtNa1Fr1XtVa1VaEEEop9VrUVvVa1Vr2XtRaKCViDNVa1FrUVtRa9V7UWtRa1FrUWrNa1FqzVtRa1FrUWtRa9VrUWtRas1bUWtRa1FqzVtRas1bUWtRa1FrUWtRa1FrUWtRa1FrUWtRas1bUWtRa1FrUWtRas1bUWtNW1FrUWtRas1bTVtRa1FrTWtRa1Fr0WtRa1FrUWtVa1Fr1XvVeFl/1XvVe1Fr0XtRa9F70WvRe01r0WrNW1FrTWtRas1bUWrNa1FqzVtRas1rUWrNa1FqzVrNaslayVpJSslaSVrNWslbTWrJWs1aSVrNWs1bUWtRa9V4VY/Ve9V70XvVe1Fr0XtNa1FqzWtNas1bUWtRa1FqzVtNaslaSVpFSslaSVrJWkVKSVpFWklaRVrJWkVayVpFW01qyWtNaslayVrJW01rUWvVe1VrUWgchxRj3XvZatFb2WtVa1VrmHMQY1Fr1XtRa1FrTWvRe1Fr0XtNa01qzVtRa1FrUWtRa1FrUWtRa1FrUWrNW1FqzVtRas1bUWrNW1VrUWtRa1Fr1WtRa9VrUWtVa1FrUWtRW1FrUVtRas1bUWtNa1FrTVtRa1FrUWtRa1FrUWtRa01rUWtRa1FrUVtVa1Fr1XvVa9V71WvVe9V4WX/Ve9V70WvVe1FrUWtNa1FrUVtRas1bUWrNW1FqzVtRa1FrUXtRa1V7UWtRas1azWrNWs1azVtNas1bUWtRWs1azVtRa1FbUXtRa1FrUWvReFV/0XvVe9Fr0XtRa9F7UWtRa01bUWtNa1FrTWtNas1qzWpJWslqSVrJakVaSVpFWklaRVpJWkVKRVpFWklaRUrFWkVaxVpFSkVKyVrNaklLUWtRWSSkAABBCtVbWWtZa1VrWWsQUBh3UWtRa9F7TWtNa01rUWrNa01qzVtNas1azVrNW1FqzVtRa1FbUWrNW1FqzVtRas1bUWrNW1Fq0VtRa1FrUWtRa1FrUWtVatFbUWtRW1Fq0VtRatFbUWrNW1FqzVtRas1bUWtRa1FrUWvVa1Fr1XtRa9VrUWvVa1FbVWtVa9V7VWvVa1Vr1XvVa9V71WvVe1Fr1WtRa9Vq0VtRa1FbUWrNW1FqzVtRas1bUWtRW1FrUVtRatFbUWrNWs1azVtRWs1bUWtRW1FqzVtRWs1bUWrNW1FqzVtRaFV/0XhVf9F71XvRa9F7UWvRe01rUWtNW1FrTVtNaslbTWrJWslqSVrJWklayWpJWslqSVrJaklayVpFWslaRVrJWslbSWrJWslayVtNas1ayUtRa9VrtOQAASinWVvda9lrVVvZeQQiKMdRa9Fr0WvRe01rTWrNWs1qzVtNa01rUWrNW1FrUWtRa1Fr1WtRa1FrUWvVa1FrUWtRa9VrUWtVa1FrVWtRa1VrUWvVe1FrVWtRa1VrUWtRa1FbUWtRW1FrUVtRa1FrUWtRa1FrUWvVe1Fr1XvVa9V71WvVe9V71WtVa9l71XvVe1Vr1XvVa9l71XhZf9V72XvVa9l71XvVa1Fr1WtRa1FrUVtRatFbUWrRW1FrUWtRa1FbUWrRW1FrUWtRa1FrUWtRa1FrUWtRa1FrUWrNW1FqzVtRas1b0WvRe1Fr0WtRa9FrTWtRa01rUWtNW01qzVtNaslazVpFSklaRUpJWklayWpJWslayVrNaklayVpJWslqSVrJWslbTWrNa01rSWtNaslbTWrJW1FqzUpJOQggHIbVW1VbVVtVWk1IAAO491FqzVtRa1FrUWrJWslaSVrNas1bTWrNa1FrUVtRa1Fr1XtRa9V7UWtRa1FrUWtRa1FrUWtRa1FrVWtRa1FrUWtVa1FrVWtRa1VrUWtRa1FbUWrRW1FrUVtRas1bUWrNW1FrUVtRa1FrUWtRa1FrUWvVa1Fr1WtRa9V7VWvVe1Fr1WtRa9Vr1WvVe9Vr1XvVa9V71WvVe1Vr1XtRa1VrUWtRatFbUWrNW1FqzVtRatFbUWrNW1FrUWtRa1FbUWtRW1FrUVtRa1FrUWrNW1FazVtRas1bUWvVe9F71XtRa9V7UWvRa1Fr1XvRa9V7UWvVe1Fr0WtRa01qzWtNas1rTWrNas1qyWrNaslazWrJa01qzWtNas1rTWrJa01qyWtNa01rTWrJW01qzVrNStFbmHKQUlFK1VtZa1VYxRgAAck7UVtRa01r0XtNa01qyVrNas1bTWtNa1FrUWtRa1Fr1XtRa9V7UWvVa1FrUWtRa9VrUWtRa1Fr1XtRa9VrUWvVe1FrVWtRa9V7VWvVa1FrVWtRa1FrUVtRa1FrUWtRW1FrUWtRa1Fr1WtRa1FrUWvVe1Fr1XtRa9VrVWvVe1Vr1XtRa9VrUWvVe9V71XvVa9l71XvZe9V72XvVe9V7VWvVe1FrVWtRa1FrUWtRa1FbUWtRa1FrUWvVe1FrUWtRa1FrUWtRa1Fr1WtRa1FqzVtRa1Fr1WtRa9F71XvVe9V70WvVe9Fr1XtNa1FrUWvRa01rUWtRa1F6zVtNas1rTWrJWslaSVrJWklayWrJWs1qzWtNa01rUXrNa01qyVtNaslbTWrJWslazVtRatFbVWmotQQgxRhhj1Vr2XosxYgy0VtRa1FrUWtNa01qzVtNaslazWrNW01qzVtRas1bUWrNW1FrUVtRa1FrUWtRa1FrUWtRa1FrUWtRa1VrUWtVa1FrVWtRa1VrUWvVa1FrVWtRa1FrUVtRas1bUWrNW1FqzVtRa1FrUWtRa1FrUWvVe1Fr1XvVa9V7UVtVa1Vr1XtRa1VrUWvVe1Vr1XvVa9V71WvVe9Vr1XvVe9V71XvVe1Vr1WtRa9VrUWtVa1FrUWtRW1FrUWtVa1FrUWtRa1FrUWtRa1Fr1WtRa1FrUWtRa1FrUWtRa9V4VY/VeFWP1XvVe9V4VX/Ve1FrTWtRa01rTVrNW01azVrNWslbTWrNas1aSVrJWklazWrJW01qzWtNas1rUWtNa9F7TWtNa01rTWtNa9F7TWvRa1FoWX9RaUUpBBO89GGP2WhdjByHlHPZe1Fr1XtNW1FrTWtRe01rUWrNa01qzVtRa1FbUWtRW1FqzVtRas1bUWtRa9VrUWtRa1Fr1WtRa9V7VWvVe1Vr1WtRa9VrUWvVe9Vr1XtVa9VrUWtVa1FrUWtRW1FrUWtRa1FrUWtRa9V7UWvVe9V71XvVeFl/1XvVa1Vr2XvVe9V71WvZe9V4WX/VeFl/1XvZe9V4WX/VeFl/1XhZf9V72XvVe9V71XhZf9V71XtVa9VrUWvVe1Vr1XtRa9V7UWvVe1Fr1XvVe9V7UWvVe9V71XtRa9V7UWvVe9V70WvVe9F71XtRa9V7UWvRe1FrUWrNWs1ayUrNWklKzVrNW01qzWtNas1rUWrJWs1qyVrNWslazWrJWs1rUXtRes1azWrNW01rTWtNa01qzVtRatFbVWmIMiy3VVtVWOGODECgl9V7UWvRas1azWtRa01rUXtNa1FqzVrNW1FrUWtRW1FqzVtRas1bUWtRa9VrUWtRa1Fr1WtRa1FrUWvVe1FrVWtRa1VrUWtRa9Vr1XtRa9VrUWtRatFbUWtRW1FqzVtRas1bUWtRW1FrUWvVe1Fr1XvVa9V71XvVe1Fr1XvVe9l71XvZe9V4WX/ZeFmP1XhZf9V4WX/Ve9l71XvZe9V71XvVe9V71WvVe9l4WY/Ve9V7UWvVa1Fr1WtRa9V7UWvVe1Fr1XvVe9V71XvVe9V71XvVe9V7UWtRaFmMWYxZj9V71XvVe9V71WhZjFmMWY/Ve9V71WvVe9V71YvRe1F6zWtRa01rUWtRa1FrTWtRas1bUWrNa1FrTWvRe1FrUXtNa1FrTWtNaslbUWvVe1FqTUhZfizFCCHJK9l72XiAEMEb1XpJS9V7TWvRe01rUWrNa01qzWtNas1bUWrNW1FrUWvVa1Fr1XtRa9V71WvVe1Fr1XvVa9V71WvVe1Vr1XtVa9V71WvVe9VoWY/Ve9l71XvVe9V71XvVe9V7UWvVe1Fr1XvVa9V71WhZj9V4WX/VeFmP1XhZf9V71XvVa9V71WhZf9l4WY/Ve9V71WvZe9V4WY/Ve9V7VWhZj9l4WY/VeFmP2XhZj9l4WX/Ve9V71XvZe9VrVWtRW1FrUWtRa1Fr1XvVeFl/1XhZf9V4WYxZfFmP1XvVe1FYWYxZj9V4WY/Ve9V71XvVe1Fr1XvVe9V7UWvVe1Fr1XtRa1FrTWtRas1bTWrNW01qzWtRas1rUWrNW1FrTWtRa01rUWtRa1FqzVtNaslazVtNWs1bUWtRWs1YvQkEEzTlyThBCIARxSvZe1FrUWrNW01rTWrNWs1qSVrJWklayVrNWs1azVtRas1bUWtRa1FqzVtRa1FrUWtRa1FrUWtRa9V71XvVe9l71XvZe9V72XvVe9V71XvVe9Vr1XvVa9V71WvVe9V71XvVe9V71XvVe9V71XvVe9V71XvVe9V71XvZeFmP1XvZe1Vr1WtRa9VrUWtVa1Vr1XvVa9l71XhZj9V4WX/VeFmP1XhZjFl8WY/ZeFmP2XhZj9V71XtRa1Fr1WvVe9Vr1XvVeFmP1XhZj9V71XvVeFmP1XhZf1FrUWjdjFmMXYxZjFmMWXxdjFmMWY/VeFmP2XhZjFl8WY/Ve9V71XhVj9V71XtRe9F7UWtRa1Fr0XtRa1F7UWtRe1FrUXtRa1F7TWtRas1bTWrNW1FpxTvVe1FqSUrRWoxDmGFJKSSXFGFFK9V7UWtRa01r0XtNa1FrTWtNas1bTWrNW1FrUWtRa1FrUWtRa9V7UWtRa1Fr1XvVe9V71XvVe9VoWY/VeFmP2XhZj9V4WY/Ve9V71XhZf9V4WX/Ve9l71XvVe9V4WX/VeFmP1XhZj9V4WX/VeFmP1XhZf9V4WY/Ve9l71XhZj9l72XvVaFl/2XhZj9V4WX/VeFl8WXzdjN2MXYxZjN2cXYzdnN2M4ZzdnN2MWYzdjFmMXY/Ve9V7UWtRas1bUWtRW1FrUWvVe1FoWY/VeFmMWXxZjFl8WY/VeFmMWY/ZeFmMWXxZjFl8WYxZfFmP1XhZjFmM3ZxZjFmP1YhZj9V4VY/Ve9WL0XvVe01rUWtNa1FrUWtRa01rUWtRa1F7UWtRa01rUWrNW01rTVnFO1FrUVnJO9V4oJSAEaimDEGstkk6TUvRas1bTWrNW01qyVtNas1rUWtNa1FrUWtRa1FbUWtRa1FrUWtRa1FrUWtRa9VrUWvVe9V71XvVe9V7VWvVe9Vr1XtVa9V7UWvVe9V72XvVeFl/1XvVe9Vr1XvVa9V71XvVe9V71XvVe9V71XvVe9V71XvVe9V7VWhZfFl8WY/Ve9V71XhdjFmMWY/ZeFl/1XhZj9l4WYxZjFmMWYxdjF2M3ZxdjN2cWYxdjFmM3YxZjFmP1WtVa1FrUWtRa9Vr1XhZj9V4WYxZjFmP1XhZjFl8WY/VeFmMXYxZjFmP2XhZjFmMXYxZjFmP1XvZe9V4XYxZjFmP2XhZj9V71XtRa9VrUWvVe1FrUWtRa1FrUWvVa1FrUWtRa9V7UXvVe1F70XtRa1F7TWtRaklLUWpJS1FqzVjBGIAAhBCEEUUrUWrRW9V6zVrJWs1ayVrJWslazWrNW01qzWtRas1bUWrNW1FqzVtRas1bUWtRW1FqzVtRa1Fr1XvVe9V7VWvVe1Vr1XtVa9V7UWvVe9Vr2XvVeFmP1XvZe9Vr1XvVe9V71XhZj9V4WY/VeFmP1XhZf9V4WY/VeFl/1XjdjN2M3ZxZjFl/1WvVe9V4WY/ZeFl/1XhZf9V72XvVeFl/1XhZj9l4XYxZjF2MWYzhnN2c4ZzdnWGs3ZzdnFl8WX/Ve9V71XhZjFmM3YxZjN2cWYxZjFl8WYxZjFmMWYxZjFmMWYxZj9l4WYxZjF2MWYxZjFl8WYxZjFmMWYxZj9V71XtRa1FqzVtRa1Fr1WtRa1FrUWtRas1bUWtRa1FrVXvVe1F71XtRa9F7TWvRes1bTWrNWklLVWnJOtFbmHGIMKCW1VvVaklL0WrJW1FqyVrNWslayVpJWslaSVrNWs1bUVrNW1FqzVtRa1FbUWrNW1FqzVrNWs1bUWtRa9V7UWtVa1Fr1WtRa9VrVWvVe1Fr1WtVa9V71WvVe1Vr1XvVa9V71XhZf9V4WYxZfFmP1XvVe9V71XvVe9V71XvVe9V4WYxZjFmP1XvVe9V4WY/Va9l71XhZj9l4WY/ZeFmP1XhZj9l4WYxZfF2MWYzdjN2c4ZzdnWGc3Z1hnN2c3Z/Ve9V71XvVe9V4WY/VeFl8WYxZjFl8WYxZfFmMWYxZjOGcXYzhnF2M3ZxdjOGc3ZzhnN2c4ZzdnN2cWYxdjFmMWY/VeFmP1XvVe9Vr1XvVe9V7UWtRa1FrUWtRa9V71XvVe1V71XvRe9V7UXvRe1FrTWvRa1FqzUvVeklL2Xu497j2TTtVas1KzUrNWs1b0WtNas1bTWrJWs1ayVrNaslazVrNW1FqzVtRas1bUWtRa1FqzVtRa1FrUWtRa1FrUWtRa1Fr1WtRa9V7VWvVe9V71XtVa9V7VWvVe1Fr1XtVa9V71XhZf9V4WY/VeFmMWYxZf9V4WY/VeFl/1XhZj9V71XtVa9l71XhZf9l4WYxZfFmP2XhZj9V4WX/ZeF2MWYxdjFmM3YxZjN2MWYzdnF2M3ZxZjFmMWXxZjFl8WY/VeFmP1XhZjFmM3YxZjN2cWYzdnFmM3YxZjFmMWYxZj9V44Z1hrN2c4ZzdnOGc3ZzhnF2M4ZxdjN2f2XvZe9V4WY/VeFmP1XhZf9V71XtRa9V71XvVe1FrUWtRW1FrUWvVe1Fr1XtRa9F7UWvRe01rUWrJW9F7TVtNW01rUWrRW1FaSTjhnUUqSUtRa1FpxTrNWkVKyVpFSklKSUrJWklKyVnFOklJxTpJSklKyUpJSslaSUrNWs1bTWrNW01aSVrNSs1bUWrNW1FrUWvVa1Fr1XtVa9V7UWtRa1FrUWtRa1FrUWvVe1Fr1XvVe9V71XhZf9V71XvVe9V71XvVe9V71XvVe9V7UWvVe1Fr1XtRa1Fr1XvVe1FrUWrNW1FrUWvVe9V71XvVe9V71XhZf9V71XtRe1FqzVrNWs1bUVrNWs1aSUrNWslbUWtRaFV/1XhZjFmM3YxZjFmMWYxZj9V71XjdnN2dYZzdnOGc3YzhnN2dYZzdnN2cWYzdjFmM3YxZjOGcXYxZjFmM3YxZf9V6zVtRa1FrUWtRa9V70WvRe9FoVY/Re9WL0XvVe9F70XtNa01rTWtNas1bTWrJWs1aSUrNWklKzVpJSs1aSVrJWklazVpJWslaRUpJWcVKRUnFOklaSUrJWklKSUpFSklaSUrJWslbTWtNa1F7TWtNas1bUWrNW1FqzWtRa1Fr1XtRa1FrTWtRa1FrUXtRa9V71XtRa01rUWtNa1FrUWtRa01bUWtRa1FrUWvVe9Fr1XtRa9V70XvVe9F71XtRe9F7UWvVe9F71XvVeFmP1XvRes1r0XtRa9F7UWvRe01qzVpFSklKRUpJSklKzWrNWs1aSUrNakVKRUnFOklKRUrNa1Fr1XvVeFmMWYzdnN2c3ZxZjF2M4ZzdnWGc3YzdnN2M4ZzdnOGc3ZzhnN2M3ZzdnOGc3ZzdnFmMXYxZjFmP1XvVe01bUWtNa1FrTVtRa01rUWtRa9F7TXvRe01rUXtNa9F6zWtNas1rTWrJWslayVrJWklKSVpJSklaRUpJWklKSVpFSklaRUpJWcVKSUnFSklKRUrJWslayVpFSklaSVrJWkVKSVpJWs1qyVrNaslazVrNW01qzVtNas1bUWtRa1F7UWtRe1FrUXtRa1F7UWvRe1Fr1XtRa9V7UWvRa1FrUWrNW01qzVtRas1bUWrNW1FqzWtRa01rUWrNa01qzWtNas1bTWrNa1F7UWtRes1qzWrNWs1aSUpJWkVKSVpFSklKRUpJWklKyVpJWslaSUpJWkVKRUnBOcVJwTpFSklKzWpJWs1rUXhZjFmc3azdnWGtYZzhnWGtYZ1hnN2c4ZzdnWGtYZ1hrWGtYa1hnWGtYZ1hnN2c3ZxdjN2MWYzZjFmP1XvRa9V70WvRa01r0WtNa9F7TWvRe01rUXtNa9F7TWtRa01rUXtNa01qyVrNaslayVpJWslaSUpJWkVKSVpFSklKRUpJWklKSVpJSslaSVpJWklazWrJWslaSVrJWslayVpJSslayVrNWslbTWrNWs1aSVrNWklazVpJWs1qzVtRes1rUWrNa1F7UWvRe1Fr0WtRa1FrUWtRas1bUWrNWs1azVtNWs1azVrJWs1ayVrNas1bTWrNWs1qzVrNas1aSVpJSslaSVrNaslazWpJWs1aSVpJWkVKSVpJSslaSUrNWklazVrJWs1qyVrJWkVKyVnFSkVKRUpFScVKSVpJWs1azVtRe9V4WYxZjN2c3ZzdnWGc4Z1hrOGdYazdnWGc4Z1hrOGdYa1hnWGs3ZzdnF2M3ZxdjN2MWYxZj9V4WX/VeFV/1XvVe9Fr0XtRa9FrTWtRe01rUWtNa01qzWtNas1rTWrNa01qyVrNWklayVpJSslaRUpJWkVKSUnFSkVJxUpJScVKSUpJSslaSUrJWcE6RUnFSklKRUpFScU6RUpFSklKRUpFSkVKyVpJWslaRUpJWkVKSUpJSklaSUpJWklaSUnFOklKzVtRas1qzWrJWs1aSUrJSklKyUpJSklKSUrJWklKSUpJSslKSUpJWklKSVpFSklKRUpJWkVKSVnFOcVJwTnFScU6RUnFSkVKRUpJWklKzVrJWs1aRUnFSklayVpJSslaSVrNWklKSUpJSkVJxUpJWkVKRUnFSklaSUpJWklKzWtRa9V71YhZjWGc3Z1hnOGdZa1hrWWtYa1lrWGtZa1hrWGs4ZzhnN2M3ZzdnWGs4ZzdnFmMVX/VaFl/1XhVf9Fr1XvRa9F7UWvRe1F70XtNa1FrTWtNas1bTWtNa01qzVtNaslayVpJSslaSVrJWklKSVpFSklJxUrJWklKyVpJSslaSVrJWklaRUnFSkVKRUpJWkVKRUnBOkVJxUpFScE6RUpFSklaRUrNWslayVpJWs1ayVrNWslaSVnFOcU5xTrJWslazVpJSslaSUpJWkVKyVpJSslayVpJWkVKSUpFSklaSUrJWklaRUnFScVJwTnFScE5xUnFOkVJxUnFScE5xUnBOcVJxTpFScVKSVpJSslaSUpFSUE6SVpFSklKSUrNWslazVpJWslaRUpJWklayVpFSklKRUpJScVKRUpFSs1rVXhdnN2cXYzdnN2dYZ1hneWtYa1lrWGtZa1hrWWtYZ1hrOGdYZzdnWGtYa1lrOGc3Z/Ze9V7UWvVa1Fr0WtNW1FrTVtNa01rUWtNa1FqzVtNas1bTWrNW01qzVtNaslayVpJSslaSUpJWklKSVpFSklKRUpJSklKyVpJSslaSUpJWklKSVpFSklKRUpJWkVKSVpFSkVKRUpFScVKRUnFOkVKRUpJWkVKSUpFSklaRUpJWklKyVpFSkVJxTpFScVKSUnFSkVJxTpFScU6RUnFOklKSUrJWcU6RUnFOkVJxTpJSklKyVpFSklJxUpFScE5xUnFSkVJxUpJScVKRUnBOcU5xTpFSkVKSUnFSkVJxUpFScVKRUnFOcVJxTpJSklKzVrJWs1aRUpFSkVKyVpFSkVJxUpJSklKSVnFSklKSUtRa9V4WYzhnN2M4ZzhnWWtYa3lrWGt5a1hreWtYa1lrWGt5a1lreWtZa3lrWWt5a1hnN2cWX/Ve9Fr1XtRa1FqzVtNWslbTWrNW01qzWtNas1rUWtNa1FrTWtRe01rTWrNWs1qyVrJWklKyVpJWslaSUrJWklayVpJWslaSVrJWklazVpJWslaRUpJWkVKSVpFSkVJxTrJWkVKSVpFSkVJxUpFSkVJxUnBOcVJwTnFScVKRVpFSklaRUpJWcVKRUnFSkVJxUpFScU6RUnBOkVJxTpJSkVKSUpFSkVJxTpFSkVKyVpJS01qyVrNWklKSVpFSklaSUpJWklazVpJWklaRUrJWklayVpJSklaSUrJWslazWrJWklJxUpJSkVKyVrJW01qzVrJWkVKSVpJWslaRUpJWklazWrNWs1aSVrNWklazWrNWN2c4ZzdjOGdYZ1lrWGdYZzhnWGs3Z1hnWGdZa1hreW9Za1lrOGdYa1hrWWs3Zxdj9V71XtRa1FrTVtNWslKyUpJSslayVrNWs1bTWrNW01rUWvRe01rUWtNa01qyVrNWklKSVpJSklaSUrJWklKyVpJSklaSUrJWklayVpJWslaRUpFScE5wTnBOcVJQTnBOcE5xTlBOcE5QSlBOT0pQSlBOcE5QTnBOcE5xUnFSkVJwTnFScFJxUnBOcVJxUpFSkVKSUnFOcVJwTpFScVKSUpFSkVJwTnFOcE6RUnFOkVKSVrJWcVJxUnBOcVJwTnFSkVKyVrJWs1qyVrNWslazWnFOkVKRUrNWs1rTWrJWslaRUpJScVKSVpJWs1qyVrNaklaSVpFSslayVrJWklKzVnFOklJxUpJWklKTVpJSklJYazhnOGc3ZzhnOGdYa1hreWtYa1lrWGtZa1hreWtYa1lrWGdZa1hreWtYa1lrWGsXYxZf9V7UWvVa1FbTVrJSs1azVtRa1Fr1XvRa9V7UWvRa1Fr1XvVe9V7UWtNWslazVpJWklaRUrJWklayVpJSs1qSVpJScVKSVpJWklaRUrJWkVJxUnBOkVKRUpFScVJxTlBKT0ouRk9KT0pQSk9KcVJwTnFScE5xUnFSklaRUpFWcVJxUnBSkVaRUpFScE6SUpFSkVJxTpFScU6RUnFOcVJxUpFScVKRUnBOcVJwTpJScVJxUnFOkVJxUpJSkVKyVpJSklZxUpJSkVKSVpFSs1aSVrJWslbUWtNa01qzVrNWslbTWrNa1F7TWtNas1ayVrJWs1ayVtNaslayVpJSklKSUpJWklazVpJWklaSUvZeFmMWXxZjFl83YxdjN2c3YzdnN2dYZzdnWGtYa1lrWGdZa1lreWtZa1lrWGtZaxdjF2P2XvVe1Fr0WtNW1FbTVtRa1Fr0XtRa1FrUWtRa01bUWtRa9F7UWtRa1FrUWtNa01qyVrJWklKSVpFSkVJxUpFSkVKSVpJSslaSUpJWcU5xUnBOkVJxUpFScU5xUlBOcE5PSnBOUE5wTnBOcE5QTnBOUE5wTlBOcVJxUpFSkVKRUnBOcVJxUpFScVKRUnBOcVJwTnFScE5xTnBOcVJwTpFSkVKRUnBOcE5wTpFScU5xUnFOkVJxTpFScVKSUnFSkVJxUpFScVKSUpJSslaSVrJWklazVrJWs1qyVrJWklazVrNW01qzWtNas1rTWpFSklaRUpJWkVKSVpJSslaSUpJWklKSVnJSklKSUpJSF2MWYzdjF2M3ZzdnWGs4ZzdnN2M4ZzdnWGtYZ3lrWWt5b1lrem9Za3pvWWt5b1lrWWs3ZzdnFmMWY/Ve9V70WhZj9V4WY/VeFV/1XhVf9V71XvRa9V70WvVe9Fr1XvRe9V7UXtRes1qzWpJWslaRUpFSkVKyVpJWslaSUrJWklJxTnBOkVKRUpJSkVKRUnBOcVJwTnFScVKRUnFSkVJwTlBOT05wUnBOcFJwTnFScFKRVnBScVJwUnFScVKRVnFSkVJwUpFScFJxUnBSkVJxUnFScFKRVnFSkVJwTpFScVKRUnFSklKRUpJSkVKSVpFSklJxUpJSkVKSVpJSslaSVrJWklKyVpJWs1ayVrNaklayVpJWs1ayVrNWslazWrJWs1aSVrJWkVKSVpFSs1ayVtNas1azVpJSklJxUpJSklI3YzhnN2dYa1hnWWtYZ1hrN2dYZzdnWGdYZ1lrWGt5a1lrem9Za3pvWWt5a1lrWWtZa1lrN2c3YxZjFmP1XvVeFV8WY/VeFV/1XhZj9V4WYxVfFmP1XvVe9V71XvRa9V70XvRe01rUWrNas1qSVpJWkVKSVpJWklZxUnFScE6RUlBOcE5wTnFScVKRUnBOcVJxUpFScE5xTnBOcE5PSk9KT05QTk9OcFJwTnBSUE5wTlBOcFJQTnBScE5wUnBOcFJwUnFScE5xUnBSkVJwUpFScE5xUnBOcVJwUnFScE5wUnFOkVJxUpJSkVKSVnFSkVKRUpJWkVKSUnFSklJxUpFScVKRUnFSklKSUrNWslazWpJWslaSUrJWklazVpJWs1ayVrJWklayVpJWslaSVrNWs1azVpJSklJyUpJScVKSUlhnN2dYZzdnWGs4Z1hnN2dZa1hrWGtYZ1lrWGt5a1lrem9aa3pvWWt6b1lreWtZa3pvWWtYazdnN2cXYxdjFV8WY/VeFl/1XhZf9V4WX/VeFmMWYzZjFmM2YxZfFl/1XhVj9V71XtRe9F7TWrNaklayVpJWslZxUnFScE5xUnFSkVJwTnFScE6RUnFSkVKRUpJWcVJxTlBOcE5wTnBOT0pwUnBScFJwUnFScFJwUlBOUE5PTnBScFKRVnBScFJPTpFScFKQUnBSkVJwUpFWkVJwUnBOcFJwTpFScFJwUnBOkVJxUpJSkVKSVpJSklJxUpJWklKSVpFSklaRUpJScVKRUnFSklKRUpJWklazVrNW01qzVrNaslbTWrNa01qzWrNaslazWrJW01qyVrNaslayVpJWs1aSVrNWklaSVpJSN2M3ZzdjN2cXYzdnF2M3ZzhnWGs4Z1hrOGdYa1hnWWtZa3prWWt6b1lremtZa3lreWt5a1hrWGs3ZzdnFmMWYxZfFmMWXxZj9V4WX/VeFl/1XhZfFl82YxZjFmMWXxZjFmMWY/Ve9WLUXtRaslayVpFSklJxUnFSUE5xTnFSklZwTpFScU5xUnBOcVKRUrJWcU5xUnBOcE5wTnFScU5xUnBOcFJwUnBScFJwUnBScFJPTnBScFKRVnBScVJwUnBScE5wUnBOcFJwTnBScFKRUnBOcFJwTnBScFKQUnBOcFJwTpFScVKSUnFSkVJxUpFScE5xUnFSklKRUpJWklKSVpFSklaRUpJScVKRUpFSslaSVrJWklazVpJWslaSVrJWkVKRVpJWslaSVrJWkVKSVnFSklKSUrNWklazVpJSklZYazhnWGc3ZzhnN2dYa1hnWGc3Z1hrOGdYa1hnWWtYa3pvWmt6b3pvem96b3pveW96b3lreW9Za1hrN2c3ZxZfFmMWXzZjFmM2YxZjFmMWXxZf9V4WYxZfFmMWXzZjFmM3ZxZjFmcVYxVj9F7UXrNas1aSUpJScVKRUnFSklaRUpFSkVKSVpFSkVJxTpJSkVKRUnFSkVKRUpJWkVKSVpFSkVZwUpFWcFJwUnBScFJwUnBScFKRVnFSkVZwUpFWkVaRVnBSkVZwUpFScFKRVnBSkVJwUnBScFKRVpFSkVZwUpFScVKRUnFSkVJxUpJSkVKRUnFSklaSUpJWklKyVpJSslaSVrJWkVKRUnFSklaSVrJWklazVrJWs1aSVrJWklKSUpFSklaRUpJWkVKSVpFSklaSUrNWklazVpJWs1aSVjhnWGc3ZzdnN2dYa1hnWWs3ZzhnN2dYZ1hnWWtYa3lrWWt6b3prem96b3pvem96b3lvem9Za3lvWGtYaxZjFmOzVtRa1Fr1XvVeFl/1XhVfFmMWY/Ve9V71WvVe9V4WYxVjFmMVYxZjFmMWY/Re9F6zVrNWklKSUpJSklJxTnBOcE6RUpFSklaRUpFScU6RUnFSkVKRUrJWklayVnFOcFJxUpFWcFJwUlBOcFJQTnBScFJxUnBScFJPTnBScVKyVpJWslaRVpFWkVaRVpFSkVZxUpFScFKRUpFWklaRUpFScVKRUnBOcVJwTpFScVKRUnFSklKRUpJWkVKSUnFSkVKRUpJWkVKSUnFSkVKRUrNWslbTWrNW01qzWtNaslayVpFSkVJxUpFScVKRUnFSklKSVrJWkVKSUpJSklaSVrNWWGs4Z1hnN2c4ZzdnOGc3Z1hrWGdYZzdnWGc4Z1hrWGd6b3lrem9Za3lvWWt6b3pvem96b5pvem+ab1lrWGs3Z1hnN2M3YxZjFmP1XhZjN2NYZzdnN2cWYxZj9V71XvVaN2cWYzdnFmM3ZxZjFmMWY/Ve1FrUWtRW1FqzVtRWs1ayVpFSklKRUpJWklKSVnFSslaRUpJSkVKSVpFSkVJwTpFWcVKSVpJWslaSVpJWkVaSVpFSklaRUpJWklayWpJWslaRUpFWkVKyVpJWslaSUrJWklKSVpJSslaSVrJWklKSVpFSkVJxUpFSkVKRUpFSklaRUrJWkVKyVpFSkVJxUpJSkVKSVpJSslayUrJWklLTWtNW1FrTWtRe01rUXtNaslayVrJWT04uRg5GcFKzWrNaklayVpJWs1qyWrNaslYXYzdjFmMXYxZfFmMWYzdjN2M3ZxdjN2MWYzdjN2M3ZzhnWGtYa3lrWWt6b3pvm3N5a3pvem96b3lreWtYa1hrN2MXYxZfF2MWYxZjFmM3Z/ZeFmMWXxdjFmMXYxZjN2P2XhZjFl8XYxZfFmMWXxZj9l4WX/Ve9V7UWvVa1Fr1WtNa01qyVrJWklKSVnFScVKSUrJWslazVpJSklaRUpJWcVKRVpFSklaRUpJWkVaSVpJWklaRUpJWcVKSVpJWslZxUpFScU6RUnFSklKRUpJSklayVpJSklaRUpJWkVKSVnFSkVJwTnBSUE5wTk9OcE5wTpFSkVKRVpFSklaRUrJWkVKSUpFSslKSUrJWslKzVrJW01azVtNWslKyVrJSs1aRUrJaklZxUi5KLkpPTpJWcVKRVnFSkVaRUpJWkVaSVllrWGdYazhnWGs4Z1hrWGs4ZzdnN2c3YzdnN2M4ZzdnOGc4Z1lrWWt5b3lrmm96b5pzem+ab3pvem95a3pveW84ZxZjFmMXYzhnN2M3ZzdjF2MWYzdjFmMXYxZjN2MWYxZjFmM3YxZjN2MWYxdjFmM3YxZjN2MWYxZj9l4WX/Ve9V7UXvRe1F70XtRe9F7TWrNas1rUXtNas1qSVrNWs1aSVpFSklaRUpJWkVKyVpJWslaRUpJWcVKRUnFSklaRUpJWkVKSUpFSklaSUpJWkVKSVpFSklJxUpFScVKSVpJSklaRUpFScVJxUnBOcVJwTpJWkVKSVpFSklaRUrJWklayVpJSslKSUrJSklKzVrJW01azVtNWslayVpJSs1ayVrNWs1rTWrJWkVJQTnFScVKRUnFSklaRUpJWkVKyVpJSN2c4ZzdjN2c3YzdnN2c4ZzdnOGc3YzdnN2M3ZzdjOGc4Z1lrWGdZa1lrWWtYZ1lreWt6b3lrem95a3pveW96b1hnN2cWYxdjF2MXYxZfN2MWYxZj9l4WY/VeFl/1XvVeFmMXYxZjN2MXYzdnFmM3YxZfFmMWXxZjFl8WY/Ve9V71XvVi9F71YvViFWP1XvVis1bTWrNa01qzVrNaklazVpJWklZxUpFScVKSVpFSklaRUpJWkVKSVpFSklZxUpFSklaSVpFSklKSUrJWklKSVnFSkVJxTnFScVKSUpFSslaRUpJWkVKRUpFSklaRUpJWklayVpFSkVJxUpFScVKRUnFSklKRTpJSkVKyUpFSklKSUrJWslbTVrNW01qzVtRas1rTXrNa01qyVrJWkVKSVpFWslaSVrJWklayVpJWs1Y3ZzdjN2cXYzdnN2M4ZzdnOGc3YzdnFmM3ZxdjN2c3Y1lrWGt5a1lrWWtYZ1lrOGd5b1lrem96b5pzem96b3lvem9Ya1hnN2MWY/VeFl8WYxZf9V4WX/ZeFmMWXxZjFl8XYxZjN2MWYzdnN2M3ZxdjFmMWYxdjFmMXYxZfFmP1XjZnFWMVY/Ve9V70XtRe01r1XtRa01qzWvRe1FrUWpJWs1qSVpJWklKSVpJWklaSVpJWklazWrNa1FqzWrNaklazWpJWklaSUrJWklayVpJWs1aSVrJWklKSVpJSslaSVrJWkVKSVpFSslaSUrJWklayVpJSklaRUpFSkVKRUpFSklKRUrJWslbTVrJWslKRUpFSklLTVtNW1FrTWtNas1rUWrNa01qzWtNes1rTWrJas1qzWtNas1qzWrJWs1qzWhdjN2cXYzdnF2M3ZzdnWGs3YzdnF2M3YxZjN2c3YzdnN2M4ZzhnWWs4Z1lrWGt5a1hneWt5a3pvem96b3pvem96b3lvWGtYZ/Ze9Vr1WhZjFl8WYxZfFmP1XhZf9V4WX/Ve9l72XhZjFl8XYxZjF2MWXxZjFmMXYxZfFmMWXxZj9mIWY/Ve9WL1XvVe9F70XvVe9F7TWtRe9F71YtRa01qzVrNas1azWpJWs1aSVrNWcVKSVpJWs1qzWrNaklaSVpJWklaRUpJWkVKSVpFSklaSVrJWklKSVnFScVJwTnFOkVKRUnFSkVJwTnFScE5xUnFOkVJxUpFSkVKSVpFSslaSUrNWs1bUWtNW01ayVrJWcU6SUrJS01ayUrJWkVKSUrJWslaSVrJWklazWrNa01qyVtNas1rTWpJWslaSVrNaFl/1XhZf9l4WYxZfN2MXY1hnN2c4ZzdjN2c3YzhnN2c3ZzdnWGtYZ1hrWGt5b3lvem95a3pveW+ab3pvmnOab5pzeW95b1hrWGcWYxZjFl83ZxdjN2MWYxZj9V71XtVa9V71XhZjFl8XYxZjN2MWYzdjFmM3YxZjN2MWYzdnNmMWZxZjFmMWYzZnFmM3ZxZjFmP1XvVe9V4WY/Vi9WLUWtRe1Fr0XtRa1FqzWtRas1azVrJWs1qzVrNas1azVpJWs1aSVrJWklKyVpJWslaSUpJWklKyVpJSklJxUnFScE6SUnFSkVJxUnFScU6RUnFOkVJxUpJWklKyVpJWs1qyVtNa01bUWtNa1FrTVtRa01azVrJW01ayVrJWkVKyUpFSklaSUrJWklKyVrJW01qzWtNa01rUXrNaslaRUrJWslYXYzdnFmM3YzdjOGc3Z1hrFmMXYxZfFmMWXxdjFmM3YzdnOGc3Z1hnOGdZa1lrem96b5pveWt5b3lvmm+ab5tzeW95b1hreW9Za1hnFmMWX/Ve9l71XvZe9V4WX/Ve9l71WvZe9V4WYxZjN2MWYzdjFmMXYxZfFmMWXxdjFmM3YzdnN2cWYxZjFmMWY/Ve9V71XhVj9V71YvVe9WL0XvVe1F71XtRe9V7UXtRes1rUWtRe9V7UWtRas1rUWrNa1FqyVrNWklKyVpJWs1aSVpJWkVKSVpJWs1ayVrNWklKSVnFSkVJxUpFSkVKSVpFSklaRUpJWklKyVrJWs1aSVrJW01rUWrNWs1ayVtNa01bUWtNa1FqzVrNWklKyVrJS01aRUpJWklKyVpJWslayVrNas1rUWtNa01qSUpJSkVKyVjdnF2M3ZxdjN2cXYzdnF2NYZzhnWGc3YzhnN2c3Z/VeN2MXYzdjF2NYZ1hneWtZa1lrWWt6b3lvmnN6b5pzmm+ab3lveW9Za3lrWGtYazhnN2cXYzdjFmM3YxZjF2MWYxZj9l4WY/ZeF2MWYzdnN2MXYxZjF2MWYzdnN2M3ZzdjN2cWYzdnN2M3ZxZjFmMWYzdnFmMWY/VeFmP1XvVe1Fr1XvVe9V71XvVe1FrUWrNW9V7UWtRatFrUWrNWtFqzVrNWslazVrJWs1qyVrNWslazWpJWslaSVrNWslazWrJWs1qzVrNaslazVpJSklaSUpJWklazWrNa1FqzWrNaslbUWtNW01qzVtNa01bUWtNa9F7TWtRa01bTWtNW1FrTWtRa01rUWrNa1FqzWtRas1bTWrNW01qyVrJWklKyVrJWWGdYazhnWGc3ZzdnN2M3ZzdnWGc3ZzdnN2NYazhnN2cXYzdjF2M3YxdjN2MXYzdnN2NYa3lrmm96b3pveW96b3lvem95b3pveWt5b1lreW8WYzdjFmMXYxZfFmMWXxZj9V4WX/VeFl/1XhZjFmM3YzdjN2c3ZzhnN2dYZzhnWGsWYzdnN2M3ZxZjN2cWYzdn9V4WX/VeFl/1XhZf9V71XvVe9V71XvVe1FrUWtRa1FrUWtRa1FrUWrRa1Fq0WtRas1rTWrNa01qzVrNas1azWpJSklaRUpJWklKyVpJWslazVtNas1rUWrJWslaSUpJWklKzVrNW1FrUWtRe01rUWtNa1FrTVtRa01bUWtNa9FrTWtRa01bTWrNW01rTVtRa1FrUXtRa1F7UWtRa1FrUWtRa9F7UWtRas1azWrNW1FpYa1hnWGs4ZzhnN2M3ZzdjN2c3YzdnFl8XYzdjOGc3YzdnF2M4ZxdjF2MWXxdjFl8XYxdjOGc4Z1hnOGdZa1hnWWtYa3lrWGt5a1hreW9Za1hrN2dYZzdnN2cXYzdnF2M3YxZjF2MWYxdjFmM3ZzdjN2MWYzdnN2M3ZzdjOGc3ZzdnN2M3ZxdjN2MXYzdnF2M4ZzdjN2c3YzhnN2c4ZzdjFmP1XvZe1V71XtRa9V7UWtRas1bUWrRW1FqzVtRas1azWrJWs1qzVrNaslazWrNW1F7TWtRa01rUXtRa9F7UWrJWklazWrNWslaRUpJScVKSVpJSs1azVtNas1rUWtRa01qzVtRa01bUWtNW1FrTVtRa01bTWrNW01azVtNa01bUWtNa1FrTWtRas1bUWrNa1FqzWtRas1azVpJWs1azVjdnOGc3ZzhnN2c4ZzdnOGc4Z1hnN2M3ZxdjN2cXYzdjN2M4ZzhnWGc4Z1hnN2c4ZzhnOGcXYxdjFmM4Z1hneW9Ya3lrWGt5a1lreW9Za3lveW96b3lreW9Ya3lrWGdYa1hnWGs3Z1hnN2dYZzdnWGs3YzdnF2M3ZzdnOGc3ZzhnWGdYazdnOGc3ZzhnN2dYZ1hnWGc3ZzdnN2c3ZxdjF2M3ZzdnFmMWY/ZiFmP2YhZj1V71XtRa1V7UWtVe1FrUWrNa1FqzWtRa01rUXtRa9F6zVrNaklazVrJWs1qyVrNas1azWrNWs1aSUpJWklKzVrNW01qzVtRa01rUXtRa9V7UWvRe1Fr0XvRa9F7UWvRa1Fr0XtRa9FrUWvRa01r0WtRa1F7UWtRa1FrUWtNa1FrTWtRas1azWrNWs1azVtNaF2MWYxZjFl8XYxZjFmMWXzdnF2M3ZzdjN2cWYxZjFl8XYxZjN2MXYzhnN2M3ZxdjWGc3Zzdj9l4XYxdjWWt5a3lvWWt5a1hreW9Ya3lrWGtZa1hrWGs4Z1hrN2c4ZzdnWGc3ZzdnFmM3YxZjN2MXYzdnN2M3ZzdjN2c3ZzdnN2NYazdnOGc3YzdnN2M4ZzdnWGc3ZzdnF2M3ZzdjN2MWYzdnN2M3YxZjFmMWYxZjFmMWY/ZeFl/1XvVe1Vr1XtRa9V7UXvRe1Fr0XtRa1F7UWvVe1F7UXtNa9F7UXvRe1FrUWrNas1aSUpJSklKzVrNW1F7UWtRas1rUWtRa1F7UWtRe1Fr0XtRa9F7UWvRa01rUWtNa1FrTVtRa01bTWrNW1FrUWtRa1FbUWtRW1FqzVtRa1FbUWrNW1FqzVtRas1Y3ZzdnN2M3ZxZjF2MWYxZj9V4WXxZfN2cWYxZjFl8XYxZfF2MWYxdjFl8XYxZfF2MXYzdnN2M4ZzdjOGc4Z1hreWt5b3lreW9Ya3lrWGt5a1hrWWtYa1lrWGdYa1hnWGs4Z1hrN2c4ZzdjN2c3ZzhnN2c4ZzdnWGc3ZzhnN2dYZ1hnWGtYZ1hrOGdYazhnWGtYZ1hrWGdZa1hreW9Za3lrN2c4ZzdnN2cXYzdnF2M3ZxZjN2MWYxZj9V72XvVe9V71YhVj9V71YtRe1F7TWtRas1azWrJWs1ayVrNaslazVtRa1FqzVrNWklKzVrNW1FrUWtRe1FrUXtRa1F7UWvRe01rUWtNa9FrTWtRa01rUWtNa9FrUWvRe1Fr0WtNa1FrUWtRa1FrUWrNW1FrUVtRas1azVrNWs1azVtRWs1bUWjhnN2c3ZxdjN2MWYxdjFmP1XvVaFl8WXxZj9VoWXxZjF2MWXxdj9l4WX/ZeF2P2XhdjF2M4ZzhnOGc3YzhnN2dZa1hrWWtYa1hrWGdYa1hneWtYa3lrWGt5a1hreWtYa3lrWGtZa1hnWGs4Z1hrWGc4ZzdnOGc3ZzhnN2c4ZzdnWGtYZ1lrWGtYazhnWGs4ZzdnF2M3ZzdnWGc4Z1hrOGc4ZzdnWGs4ZzhnN2c4ZxdjN2cWYxdjFmMWY/Ve9l71XhZj9V4VY/Re9F7UWvRe1FoWY/ViFWP1XhVj9V4VY/Ve1V7UWtRetFq0WrNW1FrUWtRa1FrUXtRa1F7UWvVe1Fr0XtNa9FrTWtRa01bUWtNa9F70WvVe9F71XvRa9F7UWtRa1FrUWtRa1FrUWtRa1FqzVpJSs1aSUrNWs1bUVrNWMEZQSjBGUEowRlBKMEZQSlBKUEovRlBKL0YvRi9CUUowRlBGL0YwRjBGUEYwRlFKUUpyTlFKcUpRSnJOck6SUnJOklJxTpJOck6SUnJOklJxTpJOcU6STnJOklJxTpJSck6SUnFOcU5xSnJOcU5yTnFOck5xTnJOcU5yTnFOcU5xSnJOcU6STnFOck5RSnFOck6STnFOck5yTpJSck5yTnFOck5xTnJOcU5yTlFKUUpRSnFOUEpRSlBKUUowRlBKL0YvSi5GL0ovRk9KL0pPSi9KT0ouRi9GLkYvSi5GL0YPRi9KL0YvSi9GL0YOQi9GDkIORg5CL0YvRi9KL0YvRi9GT0YuRi5GLkIvRi5CL0YuQi9GLkYvRi5GL0YOQi5CL0YvRg5CL0YOQi9GDkIvRg5CDkLtPQ4+DkIvQg5CDkJGAAAAFAAAAAgAAABHRElDAwAAACIAAAAMAAAA/////yIAAAAMAAAA/////yUAAAAMAAAADQAAgCgAAAAMAAAABAAAACIAAAAMAAAA/////yIAAAAMAAAA/v///ycAAAAYAAAABAAAAAAAAAD///8AAAAAACUAAAAMAAAABAAAAEwAAABkAAAAAAAAAHIAAACaAQAAugAAAAAAAAByAAAAmwEAAEkAAAAhAPAAAAAAAAAAAAAAAIA/AAAAAAAAAAAAAIA/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAAAAIAoAAAADAAAAAQAAAAnAAAAGAAAAAQAAAAAAAAA////AAAAAAAlAAAADAAAAAQAAABMAAAAZAAAABUAAAByAAAAfwEAAIYAAAAVAAAAcgAAAGsBAAAVAAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAAEAAAAJQAAAAwAAAABAAAAGAAAAAwAAAAAAAAAEgAAAAwAAAABAAAAHgAAABgAAAAVAAAAcgAAAIABAACHAAAAJQAAAAwAAAABAAAAVAAAAKgAAAAWAAAAcgAAAIkAAACGAAAAAQAAAADAgEGO44BBFgAAAHIAAAAPAAAATAAAAAAAAAAAAAAAAAAAAP//////////bAAAAFMAdwBhAHAAbgBpAGwAIABDAGgAYQBuAGcAbABlAAAACQAAAAwAAAAIAAAACQAAAAkAAAAEAAAABAAAAAQAAAAKAAAACQAAAAgAAAAJAAAACQAAAAQAAAAIAAAASwAAAEAAAAAwAAAABQAAACAAAAABAAAAAQAAABAAAAAAAAAAAAAAAJsBAADAAAAAAAAAAAAAAACbAQAAwAAAACUAAAAMAAAAAgAAACcAAAAYAAAABAAAAAAAAAD///8AAAAAACUAAAAMAAAABAAAAEwAAABkAAAAFQAAAIwAAAB/AQAAoAAAABUAAACMAAAAawEAABUAAAAhAPAAAAAAAAAAAAAAAIA/AAAAAAAAAAAAAIA/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAAAAIAoAAAADAAAAAQAAAAlAAAADAAAAAEAAAAYAAAADAAAAAAAAAASAAAADAAAAAEAAAAeAAAAGAAAABUAAACMAAAAgAEAAKEAAAAlAAAADAAAAAEAAABUAAAAYAAAABYAAACMAAAAMwAAAKAAAAABAAAAAMCAQY7jgEEWAAAAjAAAAAMAAABMAAAAAAAAAAAAAAAAAAAA//////////9UAAAARABCAEEAAAALAAAACQAAAAoAAABLAAAAQAAAADAAAAAFAAAAIAAAAAEAAAABAAAAEAAAAAAAAAAAAAAAmwEAAMAAAAAAAAAAAAAAAJsBAADAAAAAJQAAAAwAAAACAAAAJwAAABgAAAAEAAAAAAAAAP///wAAAAAAJQAAAAwAAAAEAAAATAAAAGQAAAAVAAAApgAAAIUBAAC6AAAAFQAAAKYAAABxAQAAFQAAACEA8AAAAAAAAAAAAAAAgD8AAAAAAAAAAAAAgD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACUAAAAMAAAAAAAAgCgAAAAMAAAABAAAACUAAAAMAAAAAQAAABgAAAAMAAAAAAAAABIAAAAMAAAAAQAAABYAAAAMAAAAAAAAAFQAAABoAQAAFgAAAKYAAACEAQAAugAAAAEAAAAAwIBBjuOAQRYAAACmAAAALwAAAEwAAAAEAAAAFQAAAKYAAACGAQAAuwAAAKwAAABTAGkAZwBuAGUAZAAgAGIAeQA6ACAANwAyADgAMAA2AGUAZABkAC0AOABiAGYANAAtADQAMwAxAGEALQA4ADIAYwBmAC0AZgBhADYAMgBlADcAYQAwADUAMgBhAGUAAAAJAAAABAAAAAkAAAAJAAAACAAAAAkAAAAEAAAACQAAAAgAAAADAAAABAAAAAkAAAAJAAAACQAAAAkAAAAJAAAACAAAAAkAAAAJAAAABgAAAAkAAAAJAAAABQAAAAkAAAAGAAAACQAAAAkAAAAJAAAACAAAAAYAAAAJAAAACQAAAAcAAAAFAAAABgAAAAUAAAAIAAAACQAAAAkAAAAIAAAACQAAAAgAAAAJAAAACQAAAAkAAAAIAAAACAAAABYAAAAMAAAAAAAAACUAAAAMAAAAAgAAAA4AAAAUAAAAAAAAABAAAAAUAAAA</Object>
+  <Object Id="idInvalidSigLnImg">AQAAAGwAAAAAAAAAAAAAAJoBAAC/AAAAAAAAAAAAAADXGQAAFgwAACBFTUYAAAEA4MQAANIAAAAFAAAAAAAAAAAAAAAAAAAAgAcAADgEAAA1AQAArgAAAAAAAAAAAAAAAAAAAAi3BACwpwIACgAAABAAAAAAAAAAAAAAAEsAAAAQAAAAAAAAAAUAAAAeAAAAGAAAAAAAAAAAAAAAmwEAAMAAAAAnAAAAGAAAAAEAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAEAAABMAAAAZAAAAAAAAAAAAAAAmgEAAL8AAAAAAAAAAAAAAJsBAADAAAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAABAAAAJwAAABgAAAABAAAAAAAAAP///wAAAAAAJQAAAAwAAAABAAAATAAAAGQAAAAAAAAAAAAAAH8BAAC/AAAAAAAAAAAAAACAAQAAwAAAACEA8AAAAAAAAAAAAAAAgD8AAAAAAAAAAAAAgD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACUAAAAMAAAAAAAAgCgAAAAMAAAAAQAAACcAAAAYAAAAAQAAAAAAAADw8PAAAAAAACUAAAAMAAAAAQAAAEwAAABkAAAAAAAAAAAAAACaAQAAvwAAAAAAAAAAAAAAmwEAAMAAAAAhAPAAAAAAAAAAAAAAAIA/AAAAAAAAAAAAAIA/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAAAAIAoAAAADAAAAAEAAAAnAAAAGAAAAAEAAAAAAAAA8PDwAAAAAAAlAAAADAAAAAEAAABMAAAAZAAAAAAAAAAAAAAAmgEAAL8AAAAAAAAAAAAAAJsBAADAAAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAABAAAAJwAAABgAAAABAAAAAAAAAPDw8AAAAAAAJQAAAAwAAAABAAAATAAAAGQAAAAAAAAAAAAAAJoBAAC/AAAAAAAAAAAAAACbAQAAwAAAACEA8AAAAAAAAAAAAAAAgD8AAAAAAAAAAAAAgD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACUAAAAMAAAAAAAAgCgAAAAMAAAAAQAAACcAAAAYAAAAAQAAAAAAAADw8PAAAAAAACUAAAAMAAAAAQAAAEwAAABkAAAAAAAAAAAAAACaAQAAvwAAAAAAAAAAAAAAmwEAAMAAAAAhAPAAAAAAAAAAAAAAAIA/AAAAAAAAAAAAAIA/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAAAAIAoAAAADAAAAAEAAAAnAAAAGAAAAAEAAAAAAAAA////AAAAAAAlAAAADAAAAAEAAABMAAAAZAAAAAAAAAAAAAAAmgEAAL8AAAAAAAAAAAAAAJsBAADAAAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAABAAAAJwAAABgAAAABAAAAAAAAAP///wAAAAAAJQAAAAwAAAABAAAATAAAAGQAAAAAAAAAAAAAAJoBAAC/AAAAAAAAAAAAAACbAQAAwAAAACEA8AAAAAAAAAAAAAAAgD8AAAAAAAAAAAAAgD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACUAAAAMAAAAAAAAgCgAAAAMAAAAAQAAACcAAAAYAAAAAQAAAAAAAAD///8AAAAAACUAAAAMAAAAAQAAAEwAAABkAAAAAAAAAAUAAAB/AQAAHAAAAAAAAAAFAAAAgAEAABgAAAAhAPAAAAAAAAAAAAAAAIA/AAAAAAAAAAAAAIA/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAAAAIAoAAAADAAAAAEAAAAnAAAAGAAAAAEAAAAAAAAA////AAAAAAAlAAAADAAAAAEAAABMAAAAZAAAABUAAAAFAAAALAAAABwAAAAVAAAABQAAABgAAAAYAAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAABAAAAFQAAAAwAAAADAAAAcgAAADAIAAAXAAAABgAAACoAAAAZAAAAFwAAAAYAAAAUAAAAFAAAAAAA/wEAAAAAAAAAAAAAgD8AAAAAAAAAAAAAgD8AAAAAAAAAAP///wAAAAAAbAAAADQAAACgAAAAkAcAABQAAAAUAAAAKAAAABYAAAAWAAAAAQAgAAMAAACQBwAAAAAAAAAAAAAAAAAAAAAAAAAA/wAA/wAA/wAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAArLCzDCwsLMQAAAAAAAAAAAAAAAAAAAAAkJY+aHh93gAAAAAAAAAAAAAAAAAAAAAAAAAAAExNLUS0us8EAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAODo6/zg6Ov8hIiKXBgYGHAAAAAAAAAAACAghIzI0y9oeH3eAAAAAAAAAAAAAAAAAExNLUTU31uYTE0tRAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADg6Ov+HiIj/SUtL+Tk7O/QoKSm1Ojs7kQAAAAAICCEjMjTL2h4fd4AAAAAAExNLUTU31uYTE0tRAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA4Ojr/vb29//r6+v+RkpL/VFZW+rGysv+Ojo6RAAAAAAgIISMyNMvaJCWPmjU31uYTE0tRAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAODo6/729vf/6+vr/+vr6//r6+v/6+vr/8PDw9R4eHh8AAAAAFxdbYjs97f8kJY+aAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADg6Ov+9vb3/+vr6//r6+v/6+vr/8PDw9VRUVFYAAAAAExNLUTU31uYXF1tiMjTL2h4fd4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA4Ojr/vb29//r6+v/6+vr/8PDw9VRUVFYAAAAAExNLUTU31uYTE0tRAAAAAAgIISMyNMvaHh93gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAODo6/729vf/6+vr/8PDw9VRUVFYAAAAAExNLUTU31uYTE0tRAAAAAAAAAAAAAAAACAghIzI0y9oeH3eAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADg6Ov+9vb3/+vr6/8DBwfhPT092AAAAAB4fd4ATE0tRAAAAAAAAAAAAAAAAAAAAAAAAAAAICCEjJCWPmgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA4Ojr/cXJy/05QUP84Ojr/Q0VF/kxNTYIAAAAAAAAAAAYGBhwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAODo6/0RGRv+mp6f/5eXl//r6+v/Nzc33VFRUVkxNTYJAQUHOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGxwcfEBCQvzHyMj/+vr6//r6+v/6+vr/+vr6//Dw8PWgoaH5ODo6/w4PD0IAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADg6Ouimp6f/+vr6//r6+v/6+vr/+vr6//r6+v/6+vr/+vr6/25vb/woKSm1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA4PD0I4Ojr/5eXl//r6+v/6+vr/+vr6//r6+v/6+vr/+vr6//r6+v+xsrL/Oz099gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAASEhJRODo6//r6+v/6+vr/+vr6//r6+v/6+vr/+vr6//r6+v/6+vr/vb29/zg6Ov8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACwsLMTg6Ov/V1dX/+vr6//r6+v/6+vr/+vr6//r6+v/6+vr/+vr6/6anp/8+QEDuAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA7PT3rkZKS//r6+v/6+vr/+vr6//r6+v/6+vr/+vr6//r6+v9jZGT9JCYmpgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFRYWYDg6Ov+mp6f/+vr6//r6+v/6+vr/+vr6//r6+v97fX3/PT8/+QsLCzEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYGRluODo6/3t9ff+xsrL/vb29/6anp/9jZGT9PT8/+Q4PD0IAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABISElE5OjrHPkBA+Tg6Ov9CRETyLjAwsQsLCzEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAnAAAAGAAAAAEAAAAAAAAA////AAAAAAAlAAAADAAAAAEAAABMAAAAZAAAAEIAAAAGAAAAtgAAABoAAABCAAAABgAAAHUAAAAVAAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAABAAAAUgAAAHABAAABAAAA8P///wAAAAAAAAAAAAAAAJABAAAAAAABAAAAAHMAZQBnAG8AZQAgAHUAaQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZHYACAAAAAAlAAAADAAAAAEAAAAYAAAADAAAAP8AAAASAAAADAAAAAEAAAAeAAAAGAAAAEIAAAAGAAAAtwAAABsAAAAlAAAADAAAAAEAAABUAAAAtAAAAEMAAAAGAAAAtQAAABoAAAABAAAAAMCAQY7jgEFDAAAABgAAABEAAABMAAAAAAAAAAAAAAAAAAAA//////////9wAAAASQBuAHYAYQBsAGkAZAAgAHMAaQBnAG4AYQB0AHUAcgBlAAAABAAAAAkAAAAIAAAACAAAAAQAAAAEAAAACQAAAAQAAAAHAAAABAAAAAkAAAAJAAAACAAAAAUAAAAJAAAABgAAAAgAAABLAAAAQAAAADAAAAAFAAAAIAAAAAEAAAABAAAAEAAAAAAAAAAAAAAAmwEAAMAAAAAAAAAAAAAAAJsBAADAAAAAUgAAAHABAAACAAAAFAAAAAkAAAAAAAAAAAAAALwCAAAAAAAAAQICIlMAeQBzAHQAZQBtAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZHYACAAAAAAlAAAADAAAAAIAAAAnAAAAGAAAAAMAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAMAAABMAAAAZAAAAAAAAAAAAAAA//////////8AAAAAIgAAAAAAAABJAAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAADAAAAJwAAABgAAAADAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAADAAAATAAAAGQAAAAAAAAAAAAAAP//////////AAAAACIAAACAAQAAAAAAACEA8AAAAAAAAAAAAAAAgD8AAAAAAAAAAAAAgD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACUAAAAMAAAAAAAAgCgAAAAMAAAAAwAAACcAAAAYAAAAAwAAAAAAAAAAAAAAAAAAACUAAAAMAAAAAwAAAEwAAABkAAAAAAAAAAAAAAD//////////4ABAAAiAAAAAAAAAEkAAAAhAPAAAAAAAAAAAAAAAIA/AAAAAAAAAAAAAIA/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAAAAIAoAAAADAAAAAMAAAAnAAAAGAAAAAMAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAMAAABMAAAAZAAAAAAAAABrAAAAfwEAAGwAAAAAAAAAawAAAIABAAACAAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAADAAAAJwAAABgAAAADAAAAAAAAAP///wAAAAAAJQAAAAwAAAADAAAATAAAAGQAAAAAAAAAIgAAAH8BAABqAAAAAAAAACIAAACAAQAASQAAACEA8AAAAAAAAAAAAAAAgD8AAAAAAAAAAAAAgD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACUAAAAMAAAAAAAAgCgAAAAMAAAAAwAAACcAAAAYAAAAAwAAAAAAAAD///8AAAAAACUAAAAMAAAAAwAAAEwAAABkAAAADgAAAEcAAAAkAAAAagAAAA4AAABHAAAAFwAAACQAAAAhAPAAAAAAAAAAAAAAAIA/AAAAAAAAAAAAAIA/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAAAAIAoAAAADAAAAAMAAABSAAAAcAEAAAMAAADg////AAAAAAAAAAAAAAAAkAEAAAAAAAEAAAAAYQByAGkAYQBsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkdgAIAAAAACUAAAAMAAAAAwAAABgAAAAMAAAAAAAAABIAAAAMAAAAAQAAABYAAAAMAAAACAAAAFQAAABUAAAADwAAAEcAAAAjAAAAagAAAAEAAAAAwIBBjuOAQQ8AAABrAAAAAQAAAEwAAAAEAAAADgAAAEcAAAAlAAAAawAAAFAAAABYAAAAFQAAABYAAAAMAAAAAAAAACUAAAAMAAAAAgAAACcAAAAYAAAABAAAAAAAAAD///8AAAAAACUAAAAMAAAABAAAAEwAAABkAAAAOgAAACcAAABxAQAAagAAADoAAAAnAAAAOAEAAEQAAAAhAPAAAAAAAAAAAAAAAIA/AAAAAAAAAAAAAIA/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAAAAIAoAAAADAAAAAQAAAAnAAAAGAAAAAQAAAAAAAAA////AAAAAAAlAAAADAAAAAQAAABMAAAAZAAAADoAAAAnAAAAcQEAAGUAAAA6AAAAJwAAADgBAAA/AAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAAEAAAAJwAAABgAAAAEAAAAAAAAAP///wAAAAAAJQAAAAwAAAAEAAAATAAAAGQAAAA6AAAAJwAAAHEBAABlAAAAOgAAACcAAAA4AQAAPwAAACEA8AAAAAAAAAAAAAAAgD8AAAAAAAAAAAAAgD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACUAAAAMAAAAAAAAgCgAAAAMAAAABAAAACEAAAAIAAAAYgAAAAwAAAABAAAASwAAABAAAAAAAAAABQAAACEAAAAIAAAAHgAAABgAAAAAAAAAAAAAAJsBAADAAAAAHAAAAAgAAAAhAAAACAAAACEAAAAIAAAAcwAAAAwAAAAAAAAAHAAAAAgAAAAlAAAADAAAAAAAAIAlAAAADAAAAAcAAIAlAAAADAAAAA4AAIAZAAAADAAAAP///wAYAAAADAAAAAAAAAASAAAADAAAAAIAAAATAAAADAAAAAEAAAAUAAAADAAAAA0AAAAVAAAADAAAAAEAAAAWAAAADAAAAAAAAAANAAAAEAAAAAAAAAAAAAAAOgAAAAwAAAAKAAAAGwAAABAAAAAAAAAAAAAAACMAAAAgAAAAiSf4PgAAAAAAAAAApSX4PgAAaEIAABxCJAAAACQAAACJJ/g+AAAAAAAAAAClJfg+AABoQgAAHEIEAAAAcwAAAAwAAAAAAAAADQAAABAAAAA6AAAAJwAAAFIAAABwAQAABAAAABAAAAAHAAAAAAAAAAAAAAC8AgAAAAAAAAcCAiJTAHkAcwB0AGUAbQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGR2AAgAAAAAJQAAAAwAAAAEAAAARgAAACgAAAAcAAAAR0RJQwIAAAAAAAAAAAAAAKEAAACAAAAAAAAAACEAAAAIAAAAYgAAAAwAAAABAAAAFQAAAAwAAAAEAAAAFQAAAAwAAAAEAAAAUQAAADifAAA7AAAAKAAAAIcAAABkAAAAAQAAAAEAAAAAAAAAAAAAAKAAAAB/AAAAUAAAACgAAAB4AAAAwJ4AAAAAAAAgAMwAnwAAAH8AAAAoAAAAoAAAAH8AAAABABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA01r0WtRa9F7UWtRa9Fr1XtRa9V7VWvVe9Vr1XtVa9V7UWtRa1Fr1WtRa9V71WvVe1FrUWtRa1FqzVtRa1FrUWtRa1FrTVtNas1bTWtNa9FrTVtNa01bTWrJWs1ayVrNWs1rUWtNa01qyVrNWslazWrNa01qzWrNaslazWrNa01qzVrNas1a0WrNWs1qzVtRas1bUWrRa1Fq0WtRa1FrUWtRa1FqzVtNas1bUWtNa1FrTWtRa01bTWrNW01azVtNWs1azVpJWslaSVrNWklayVpJWslaSVrJWklKyVpJWslaSUrJWklayVpJWs1ayVrNaklKSVpFSklaSUrJWslbTWtNa1FrTWtRe01rTWrNWs1qyVrJWklayVpFSklaRUpJWcVKRUnFOcVJxTpFScVKRUpFSklaSUrNWslazWrNa1FrUWtRa9F70WvVe9F4WYxVjFl/1XhZj9l4WX/Ve9l71XvVe1Fr1XtRa9V7UWvVe9V71WtRa9V7UWvVe9Vr1XvVe1FrTWtRa01rUWtNa9FrTWtRa01bUWtNW01ayVtNWslbUWtNa1F7TWtNas1bTWtNa01qzWtRas1rUWrNa1FrTWrRas1bUWtRa1FqzWtRas1bUWrRa1F7UWtRe1FrUXtRa1F7TWtRa01rUWtNa1FrTVvRa01r0WtNa01qzVtNas1bTWrJWs1aSVrJWslazWrJWs1ayVrNWslayVpJWs1aSVrNWslazWrNWs1qzVtNas1qyVpJWs1ayVtNas1rUXtNa01rTWtNas1rTWrJWs1ayVrJWkVKyVpJSklaRUpJWkVKSUnFSkVJxUpJSkVKSVpFSslaSVrNWslazWrNa1FrTWtNa9FrUWvRe1Fr1XvVeFWP1XvVe9V72XvVe9l71XvVe9V71XvVe9V7UWvVe1Fr1XvVe9V7UWvVe1Fr1XtRa9FrUWtRa01bUWtNa1FrTWtRa01rUWtNW01rTVtNas1bTVrJW01qzVrNas1azWrNa1FqyVrNas1bTWrNa01qzWtNas1rUWrNa1Fq0WtRas1rUWtRa1F7UWtRe1Fr1XtRa1F7UWvRa01rUWtNa1FqyVrJW01rUWrNW01qzVrNWslKyVrJWs1aSVrJWslazWpJWslayVrNWklazVrJWs1aSVrJWslazWrJWs1qzVtNas1bTWrNa01qzWtRa01rUWrNa01qyVrNWslayVrJWslaSUrJWkVKSVpFSslaRUpJWcVKRUpJSklZxUpJWklazVrJWs1aSVrNWklazWrNW01qzWtNa9V70XvRe9Fr1XvVe9V71XvVe9V71XvVeFmP1XvZe9V4WY/Ve9V71XvVe9V71XvVeFl/1XvVe9V71XtRa1FrUWvRe1Fr0XtRa9F7UWvRa1Fr1XvRa9F7UWvRe1Fr0WtNa01qzWtNas1azWrJWs1qzVtNas1rTWtNa1F7TWtRas1rUXrNa01qzVrNas1rUWtNa1FrUWtRe1Fr1XtRe9V7UWvRe1FrUXtRa9F7TWtNaslbUWtNa1FqzWtNas1azVrJWs1qzVrNas1rUXrNas1qSUrNaslazWrJWs1qyVrJWklazVpJWs1ayVrNaslazWrNW01qzWtNas1rUWrNWs1aSVrNaslazWrJW01qzWtNas1qzWrJW01qzVtNaslazVrJWs1aSVrJWklazWrNa01qzWrNas1azWrNW1FrTWtRa01r0XvRe1Fr0XtRa9V7UWvRe1Fr1WtVa9V71XvZe9V72XtRa9VrUWvVe1Fr1XvVe9V7UWvVe9Vr1XtRa9V7UWtRa1Fr0WtRa9F7UWvRa1Fr0WtRa9F7UWvRe1Fr0WtRa9FqzWtRas1qzWpJWklaSUrJWklayVpJWs1aSVrNWslazVrJWs1aSUpJWkVKSVpJWs1qSVrNWs1azWrNW01qzWtRaslazVrNW01rTWtRa01rTWrNW01rTWtRas1bTWrJWs1ayVrNas1bTWrNa01qyVrJWklayVrJWs1qyVrJWklaSVpFSklKRUpJWkVKSVpJWslaSVrJWslazWrJWs1qyVrNWklKyVpJWslayVrNas1rTWrJWs1ayVrNaslazVrJWs1aSVpJWklKyVpJWs1qzVrNas1azWrNW01qzWtNas1rUWhVf9Fr0XtRa9V70WvVe1Fr1XvVa9l71XvZe9V72XvVe9V7UWvVe9Vr1XvVeFl/1XvVe9V71XvVe9V71WvVe1FrUWtRa9F70WvRe1Fr0XtRa9FrUWvRe1Fr0WtNa9FrTWtRa01rUWrNas1aSVrNWslayVpJSklaRUpJSkVKSVpJSslaSUpJWklKSUpJSslaSVpJSklKyVpJWs1aSVrNWslayVpJWs1azVtNa01rUWtNas1qzVtNa01rUWrNW01qyVtNas1azWrNW01qzVtNaslazWrNW1FrTWtRas1qzWrJWslaSUrJWklazVrJWs1qyVrNWslazWrNa01qzWtRas1qyVpJWslaSVrJWslbTWrNaslayVrJWslayVrJWs1ayVrNWklayVpJWs1ayVtNas1bUWrNa1FrTWtRa01rUXtNa9Fr0XtNa1FrUWvVe1FrUWvVe9V71XvZe9V72XtVa9V72XhZj9V71XvVe9V7UWvVe9V71XvVe9V71XvVe1FrUWtNW1FrTWvRa1Fr0WtNa01rTVtNas1bTWrNW01qzVtNaslazWrJWs1qyVrNas1bUWrJWslaRUpJSkVKSVpFSslZxUpJSklKSVpJSklZxUpJScU6SUnFSklKSUrJWklKSVpJWslaSUrJWslbTWrJWs1aSUrJWslazVrJWs1aSVrJW01qzWpJWklaSVrNWslazWtNa1F7UWvRe1F7UXrNa01qyVrNaslazWrNW01qzWtNaslazVpJWs1ayVrNaslazWrJWs1qyVrJWslazWrJW01qyVrNaslayVrJWs1ayVrNaklayVpJSslayVrNaslazVrNa1FqzWtNas1rUWrNa01r0XtRa9F7UWvVe1Fr0XtRa9V4WY9RaF2P2XvVe1VoWYxZj9V71XvVe9V71XvVe9V71XvVe9V7UWvVe1Fr1XvVe9V7UWvRa1Fr0WtRa1FrTWvRa01rUWtNa1FrTWtRa01bUWtNa1F7UXvRe01qzWpJWs1qzVrNaklaSVpJSslaSVrJWklaSVpFSklaRUpJWkVKSUpFSklJxUpJSkVKyVpJWs1aSVrNWslazWrNWs1qzVtRas1rTWtNa9F7UWtNaklbUXrNas1qyVtNa01rTWrNWs1qzVtNa01r0XtRa01qyVtRas1qzWpJWslaSVrNWslazWrNa01qzWrNaslazWrNa1F7TWtNaslayVrJWs1ayVtNaslazWrNW1FrTWtNas1qzVrJWs1qzVtRa01rUWtNa1FrTWtRe1Fr0XtRe9F7UWtNW1FrTWvRa1Fr0WtRa9V6zVvVes1YWY/ZeN2fVWvZe9V71XvVe9V71WvVe9V71XvVe9V7UWvVe1Fr1XvVe9V7UWvRe1Fr0XtRa9FrUWvRa01rUWtNa1FrTVtRa01bUWrNWs1qzVtNaslazVpJWslaRUpJWklayVpFSklaSVrNWklayVpJSklJxTnFScE5xTnFSklKRUpJWcVKSUpJSslaSVrJWklazVrJWs1qzVtNas1rTWrNW01qzWtNas1azWrJWs1aSVrNWslazWrJWs1aSVrJWslbTWrNa01qyVrJWs1azWpJWslaSUrJWklazVrJWs1qzWtNaslazVrJW01qyVrJWklayVpFSslayVrNaslayVrJWs1qzVtNas1azWpJSslayVrNas1rTWtNa1FqzVtNas1rUWrNa1FqzWtRa01rTVtRa1Fr0XtRa9V71XhZjN2MWY/Ves1bUWvVeFmMWX/VeFmP1XhZj9V4WX/Ve9V71XhZf9V71XvVeFl/1XvVe9F4VX/Re9V70XvVe9F70XtRa9F7UWvRe1Fr0XtRa1FqzWtNaslazVpJWs1ayVpJWklazWrJWs1aSVrNWslbTWrJWs1aSVpJWcVKRUnFSklaRUrJWklayVpFSslaSVrJWklazWrJWs1qzWtRes1rUXrNa01qzWtNas1rTWrNas1qSVrNWslazWrNW01qzVrNWslazWrNW01qzWrNaslbTWrNWs1qSVrJWklazVrJWs1qzVtNas1qzWrJW01qzWrNaslayVpJWslaSVrNWslayVpJWslayVtNas1rTWrJWslaSVrNas1rUWtNa1F7UWtRe01rUXtNa1FqzWtRa01rTVtNa01bUWtRa9F7UWvVes1bUWhZjF2P1Xhdj9V4WY/Ve9V71XhZj9V4WY/Ve9V71XvVe9V71XvVe9V71XvVe9V4VX/Re9V70XvVe9Fr1XvRa9V7UWvRe1Fr0XtRa9F7TWtRes1qzWrNWs1qyVrNaslbTWrNWs1qyVrJWkVKSVpFSklaRUpJSkVKyVpFSslaRUrJWklayVpJWslaRUpJWklayVpJWslayVrNaslazWrNa01qyVrNaslazWrJWs1qSVrJWklazVrNW01qzVrNaslazVpJWs1azVtNaslazVrNWs1qSVrJWklayVpJSslayVrNaslazVrJWs1aSVrNWs1rTWrJWslaRUpJWkVKSUpJWslaRUrJWslazWrJWslaSVrNWslazWrNa1FrTWtRa1F70XtNa1FqzWtRas1rUWvRa01r0WtNa9FrUWvRa1FpYZ7NWFmP1XhZjN2cWY9VaFmP1XhZjFl8WYxZfFmP1XvVe9V71XvVeFmP1XvVe9F4VY/VeFV/0XhVf9F71XvReFV/1XvVe9F71XvRe9V70WvRe1F70XtRa1F7TWtNas1qzWrNa01qzVrNaklaSVpFSkVJwTpFScU6RUpFSslaSUrJWklazVrJWslaSVrJWklKSVpJWslaSVrNaslazWrJWs1qzWtNas1rTWrNas1qyVrJWklazVrJWs1qzVrNas1azWrJWslaSVrNas1azWrJW01qzWrNaslazVpJWslaSVrNaslazVpJWs1ayVrNWklbTWrNa01qyVrJWklayVpFSslaSVrJWslbTWrNas1qyVrNaslazWrNa1F7TWtRe01r1YtRe9F7TWtRe01rUXtNa01rUWtNa1FrTWtRa1FrUWvVecU4WY/ZetFbUWtRaFmP1XhZf9V4WY/VeFmP1XhZj9V71XvVe9V71XvVe9V71XvVe9V70XvVe9F71XvRe9V70XvVe9F71XvRa9V70XvVe01rUXtRa9F7TWtRas1rTWpFSslaSVrJWklKSVpJSslZxUpFScVKRUnFSkVKRUpJWkVKSVpJWslaRUpJWkVKyVpFSklaRUpJWklayVpJWslaSVrNas1qzWrJWslaSVrJWkVKSVrJWs1qSVrJWklazVpJWslaRUpJWklKyVrJWs1azWtNas1azWrJWslaSVrJWklayVpJSslaSVrNWklayVpJWslaSVrJWslayVrJWs1ayVrJWslazWrJW01qyVrNaslazWrNW01qzWtNas1rUWtNa1F7TWtRas1bTWrNa01rUWtNa1FrTWtRa1Fr0XtRaqzXlHFFK1Fo3YxZjFmMXYxZj9V4WY/VeFmMWXxZjFmMWY/VeFmP1XvVe9V4WYxVfFWP1XhVj9V4VX/ReFV/1XhVf9V4VX/VeFV/0XhVf9F71XtRe9F7UWtRe01rUXtNas1ayVrNaslayVpJSslayVrNWslayVpJWslaSVrJWslaSVpFSslaSVpJWkVKyVrJWslaSVrJaklayVpJWslqSVrNaslqzWrJWslaSVrNas1qyVrNW1FrTWtNaslazWrNW01qzVrNWklazVrNW01qzWtRe01rUXrNa01qyVrNaslazWrJWs1ayVrNas1azWrJWklaRUrJWslazVrJWs1qyVtNaslbTWrNa1FrTWtRas1rTWrNa1FrTWtRas1rUWrNa1F7TWtRe01rUWrNa1FqzWrNW01qzVtNa01r0XtRa9F6SUqQU5RxqLXJON2f2XvVe9l4WY/Ve9l71XhZjFl8WYxZfFmP1XvVe9V4VX/VeFmP1XhVj9V4VX/VeFV/0XvVe9F71XvRe9V70XvVe9Vr1XvVi9WLUXtRa01rUWtRa9F7TWtRas1qzVpJWslaSUrJWklKyVpFSklaRVrJWklayVpFSklaRUpJSkVKSVpJWs1qSVrJaklaSVpJWslaSVpJWslqzWpJWklZxUpJWklazWrNa1F7UWvRe01rUWrNa1FrUWtRas1azWrNa1FrTWtRe01rUXrNa01qzWrNaklayVrNas1qSVrNWs1bTWrJWs1aSUrJWklKyVpJWslaRUpJWs1bTWrJW01rTWtRes1rTWrNa1FqzWtNas1rTWrNWs1rUWtRe1Fr0XtRa1F6zWtRa016zWtNaslbTWtNa1F7UWvVeklJpLQAAIASsNfZeF2M4YxhjGGMXXzdjN2MXY/VaFmMWYzZnFWMVX/RaFV8VYxVj9WIVY/VeFWP1YhVj9V71XtVe9V71XvZi9V72XtVa01qzVtNa01r0XvRa9V70XvRe9Fr0XtRa9F7TVrNWklayVpFWklayVtNes1qyWpFSslqRVpJWklbTWrJaslqRUpJWklayVpJWs1qyWrNaslbTXtNa1F6zWrNaklazWrJW01qzWtRa01rUXtNa01qzVtRes1qzWrJWs1qzVtNa01rUWrNa01qzVrNaslazVpJW01qzWrNaslazWrNa1FrTWtRas1bTWrJWs1aSUrNWs1bUWtRa1FrTWtRas1bUWtNW1FrUWtRa1FrUWtNWtFqzVtRas1bUWtNW1F7UWvVe1FqRVpFWkVayWrJW017UXvVe1FrVWrRWD0KkFAAAYgysNfdeF18XXzhn9l7VVvVaeWsVX/Va9FoVXxVfNWP0WvNa9V4VY/ViFWP1XhVj9WIWYxZjFmP1XvZe1V72YvZiF2fUWvRe9Fr0XtRa9FrUWvRa01bUWtNa9FrTWtNas1azWpFSkVaRUpFWkVayVpFWslayVrJWkVayVrJWslqSVpJWklaSVpJWslqSVpJWklaSVpJWs1qzWtNeklaSVpJWklaRUrJWslbTWrNW01qzWtNaslazWrJWs1qyVrNas1bTWrNa01qzWtNas1azWrNWs1qzWtNas1azWrJWs1qzWtRa1FrUWtRa1FqzVtRW1Fb1WtRW1FrUWtRas1bUWrNW1FqzVtRa1FrUWrNW1FqzVrNWs1bUVrNW1FrUVtRa1Fr0WrJaslayWrJWs1qyVtRas1r2YrNW1Vr2YvZe7j3FGAAAAABqLfdeWWc4ZzhjOGcWX1hrN2M3YxVfNmMVXzZjFWMWYxVjFmMWYxZjFWMWYxZjFmMWYxZj9l4WY/ZeF2MWYxZjFV8VY/Ve9V70WvRe1FrUWtNa9F7UWvRa01rUWrNas1qyVrJWkVKSVpFSs1qzWtNaslayVpJWslqyVrJakVayVpJWslaSVrJWklayVpJWslayVtRe01rTWrJWslaSVpJWklazWrNW01qzWtNas1qzWrNW1FrTWtRe01rUWrNa01qzWtRas1rTWrNa1FqzWtRas1rUWrNa01qzWtRe1Fr1XvVe9V7UWtRa1Fr1XvVe9V7UWvVe1FrUWtRa1FrUWtRa1FbUWtRa1FrUWtRa1FbUWtRW1FrUWtRa1Fr1WtRaslqyWrJWslaSVrJWklKzVnFO9mIXY9VatFb2XpNSMEbmHCAEAABJJZNOOGM3Y1hn1Fb1WvVaNmM2YzdjFl8WXxZjFmP2YhZjFmMWY/ZiFmP1XvZi9mIXZxZjF2P1XvVe9V4VY/VeFV/1XhVf9F71XvRa9F7UWvRa01rTWrJWs1azWtNaslayVpFSklayVtNeslqyWpFSklaRUpJWkVKSVpFSklaRUpJWklayVpJWslayVrNas1rTWrNas1qSVrJWs1bTWrNW01qzWtNas1azWtNa1F7TWtRa01rUWrNa01qyVrNaslazWrNW01qzVtNas1rTWrNW01qzWtRe1Fr0XtRa9V7UWtRa1FrUWtRa9V71WvVe9V71XtRa1FrUWtRas1bUWrNW1FrUVtRas1bUWtRa1FrUVtRa1FrUWtRW1FqyWpJWslqyVtNas1rUWtNaFmPUWpJScU7UWvZe9l60VrRWMEYoJQAAIARJKXJO1FZ5azdnF2P2XhdjFl8WY/VeF2MWYxdjFmMXYxZjF2MWYxZjFmM3ZzdnOGcXYxZj9V4WY/VeFmP1XhZj9V4WY/VeFV/1XvVe1Fr1XtRa1FqzWtNa01rUXrNas1qSVrNas1qzWrJWslaRUpJWkVaSVpFSslaSVpJWklayVpJWs1qyVtNas1qzWpJWs1qyVrNaslbUWrNa01qzWtRas1rTWrNa9V7UXtRes1rTWrNa01qzWrNaslazWrNW01qzWtRa01rUXtRa1F7TWtRe1FrUXtRa1FrUWvVa1FrUWtRa1FrUWvVe9V71XvVe9V7UWvVe1FrUWtRa1FrUWtRa1FrUWtRa9VrUWtRa1FrUWtRa1FrUWpJWslqyVrNaslazWrNW01pxUrNW1V4WY/Ve1FqTUpNStFb1XhZfkk4HIQAAIAQnIXFK1Vo4Z1lrF2MWX/ZeF2P2Xhdj9l4XY/ZeF2P2XhdjF2MXY/ZeFmP1XhZjFmM2Y/VeFmP1XhZj9V71XvVe9V7UWvVe9Fr1XtRa9V70WvVes1bTWrNa01qyVrJWklayVpJWslaSVrJWkVaSVpJWslaSVrJWklaSVpFSklaSVrJWslayVpFSklaRUrJWslazWpJSslaSVrNWslazWrNa01rUWtRas1azVpJSslaSVrNaslazWrNW01qzWtRa01rUXtRe9F7UWtRes1rTWrNW01q0WtRa1Fr1WtRa1FrUWvVe1Fr1XvVe9V7UWtRa1Fr1XtRa1FrUVtRas1bUWtRa1FrUWtRa1FrUWtRa1FrUWtRa016zWtNas1qzWrJWs1qyVrNW1Fr1XrRa1Vr1XhZj9V71XtRa1FrUVvVeck5IKQAAQQjmGO49tFIYYxhjOGMXYxhjF2MYYxdjGGMXYxhjF2MXYxZfFmP1XhVf9V4WYxZjNmMWYzZjFmMWY/VeFmP1XhVf9V4VX/Ve9V71XhVj9V70XtNa1FqzWtNaslazVpJWs1qyVtNas1qzWrJWs1qyVtNaslazVpJWslaSVrNaslazWpJWslaSVrNas1bTWrNWklaSUrJWklazVrJW01qzWtRas1rTWrNWs1qyVrNas1bTWrNa1FrTWtRe01r0XtRa9F7UXvRe1FrUXrNa01qzVtRe1Fr1XvVe9V7UWvVe9V7UWtRa9V7UWvVe1Fr1XvVe9V7UWtRa1FrUWtRW1FrUWtRa1Fr1WtRa1FrUWvVe1FqRVrJWklazWrJa01qzVtNa01qzVpNW1F7UWrNWk1LUWtRa1VrVWvVe1VrUVrRW9V5qLaQUAABjDKw11lo5ZzlnF2MYYxdjGGMXYxhjF2MYYxdjF2MXYzdjFmM2YxVjFmMWYxZjFWMWYxVjFmP1XhZjFmMWY/Ve9V71XvVe9Fr1XvVe9F6zWtNas1rTWrJWslayVtNas1rUWrNa01qzVrNaklayVpJSklaSVrNas1bTWrNWs1qyVtNa01rUXrNas1qSVrNWklayVpJWslaSVrJWs1bTWrNa01rTWtRas1rTWrJWs1qyVrNas1rTWrNa01qzVtNas1rUWtNa1F7TWtRa1Fr1WtRa9V7UWvVe1Fr1XtRW1FrUWtRa1FrUWtRa9V7UWvVe1FrUWrNW1FqzVtRa1FrUWtRa1FrUWtRa1FrUWrJaslazWrJWslqSVrNas1rUWtNa1FrTWtRa01bUWrNW9VrUWvVa1Fr1WtRa1VrUWhdjtFbOOaQUAAAhBGstc044Y1lrF19ZaxhjOWcYYxhjF2MXYzhnF2MWY/VeFmMWYxZjFmMWYxZfFmP1XhZjFmMWYxZfFmP1XhZj9V71XvVeFWP1XvVe1Fr1XtRa1FqzVtNas1bTWrNW01qzVrNWklbTWtNa1FrTWtNas1bTWtNa01rTWtRa01rUWrNWs1ayVrNWslazVrJWs1qzVrNWklKzWrJWs1qyVrNWklayVpJWklaSVrNWs1bUWtNa1FqzWtNas1rUWtNa9F7UXvRe9F71XtRa9V71XhZf9V71XvVe9V71WvVe1Fr1XvVe9V71XtRa1Fr1XtRa1FqzVtRas1bUWtRa9VrUWtRas1bUWtNaklazWrJas1qSVrNas1bUWrNW01qzWtNas1bTWrNW1FrUWtRa1Fr1WtRa9VrVWvVes1LVWtVatFYPQkkpYwwAAOcczTk5Z1lr914YYxljGWNaaxhj1lr2XhdjWGcWY/RaFmMWYxZjFmP1XhZj9V4WX/VeFl/1XhZj9V4WX/Ve9V71XvVe9F71XtRa9F7UWtRas1bTWrNW01qzVrNas1azVrJW01rTWtNaslazVrJW01qzVtNas1rTWrNWs1qyVrNWklayVpJWs1ayVrNWklaSVrJWs1qyVrNaklayVpJWslaSUrJWslbTWrNa1FrTWtRe01rUWtNa9F7UWvRe1F71XtRa9V7UWvVe9V71XvVe9V7UWvVe1Fr1XtRa9V71WvVe1Fr1XvVe9V7UWtRa1FrUWtRa1FrUWtRa1FbUWtRa1FqzWrJa01qzWrNaslrTWtNa01rTWtRa01rUWtNW1FrTWtRa01r0WtRa9V7UWvVe9V71XtVa9l4XYxhjtFYwRosxYgggBGMMSSlqKZRSOWcYY/heF185ZzhjF2MWXzdnN2c3ZxZjN2cXYzdnFmMXY/ZeFmMWXxdjFmMXYxZjF2MWYxZj9V4VY/Ve9WL0XvVe1FrUWtNa1FrTWtRas1rUWtNa01qzVtRa01rTWrJW01qzVtNas1bUWtNa1FqzWtNas1azWrJWs1qyVrNas1azWrJW1FqzWtRas1rTWrNW01qzVrNWslazWrNa1FrTWtRe1FrUWtNa1F7TWtRe1Fr0XtRa9V71WvVe9V71XvVeFmP1XvVe9V71XvVe9V7UWvVe1Fr1XvVe9V71XvVe1Fr1XtRa1FrUWvVe1FrUWtRW1FrUWpJWslqSVrJWslazWrJW01qzVtNas1bTWtNW01qzVtNas1bTWrNW01rTWtRa1FrUWtRa1FqzVrRW1Fr2XvZe9l7UVs05xRgAACEEIQB0TjpnOmdbazpnOWcXYxdjFl8WYxdjN2MWYxdjF2M3ZxZjF2MWYxdjFmM3YxdjN2cWYzdj9V4VY/Ve9V71XvVi1F70XtNa1FqzWtRas1rUWrNa1FqzVtNas1rTWrNa01qzVrNas1bTWrNW01rTWtNas1bTWrNWs1qyVrNas1rTWrNWs1qyVrNaslazVpJWslaSUrJWklayVpJSslayVrNas1rTWtNa1FqzWtRa01rUWrNa1FrUWvVe1FrUWtRa9V71XvVe9V71XvVa9V7UWvVa1FrUWtRa9V7UWtRas1bUWtRW1FqzVtRas1bUWrNW1FazVtRas1qyVrJaslazWrNa01qzWtNas1rTWtNa01rTWtNa01rUWtNa1FrTWtRa01rUWtNa1FrUWvVe1FrUWrNW1FrUWvVaN2PUVjBGpBAiBAEA6ByVUtdaWmdaZzlnF18XYzdjWGc3ZzdnFmM3ZxdjN2cXYxdjFmM3ZxdjN2c3YzdnF2MWY/VeFmP1XhZj9V71XvVe9VrUWtRa1FbUWtRa1FrUWvRa1Fr0WtRa9F7UWtRa01bTWtNW1FrTWvRa01rUWrNa01qzVrNas1bTWtNa01qzWrJWklayVpJSklaRUpJWkVKzWrJWslaSVrNWs1bTWtNa9WL0XvVe1F71XtRe9F7UXvVe1FrUWtRa9VrUWvVe9V71XvVe9V71XvVe1Fr1WtRa9V7UWtRas1bUWtRa1FrUWtRa1FrUWtRa1FqzVtRa01qzWrNaslazWrJa01qzWtNaslbTWrJW01qyVtNa01rTWtNa1FrTWtRa01rTWtNa1FrUWtRas1rUWtNa9F71XvVe9FqSThdj5hwhBMcYAABkDAEAphStMbVWWWd7b1hnF2M3Z1hnN2c3ZxZjFmMWYzdj9l4WYxZjF2MWYxZjFmMWY/VeFmP1XhZjFl8WY/VeFl/UWtRa1FrUWrNW1FrUVtRa1FrUWtRa9F7UWvRe01rTWrNW01rTWtRa01rUWtNW01qyVrJWklazVrJWs1qzVrNas1azWrNWs1qyVrNWklazVrJWs1aSVrJWklazWtNa1F7UWtRe1Fr0XtNa1F7UWvRes1rUWtRW1FrUVtRa1Fr1XtRa9VrUWvVe1Fr1XtRa1FrUWtRa1FbUWtRW1FrUWtRas1bUWtRa1FrUWtRa1Fr0XtRes1rTWrNa01qzWtNas1bTWrJW01rTWtNa01rzWtNa1FrTWtRa01rUWtNa1F7TWtNaslbTWtNa9V7UXtNaklIVXxVfN2PNOSAArTXoHOgYzznoGAEAAAAIHTBCF2N5axdjN2dYazhnN2cWYxdjF2MXYxZjN2cXYxdjFmMXYxZjN2cWYzdjFmM3ZxZjN2cWYxZf9V71XtRa1FrUWtRa1Fr0WtNa9F70WvVe9Fr0WrNW1FrTWvRe1Fr0WtNa1FrTVtNas1azWrJW01qzWtRe01rUXtNa1F7TWtRas1rUWrNa01qzVrNWklazVrNW1F7UXtNas1rUWrNa1FqzWtRa01rUWtRW1FrUWvVa1Fr1XtRa1FrUWvVe9V71XvVe9V7UWvVe1FrUWtRa9V7UWvVa1FrUWtRa9V7UWvVe1Fr1XvRes1qzWpJWslqyVrNaslayVrJW01qyVtNa0lrTWtJa01qyVrNaslbTWrNa01qzWtNa01rUXrNa01qyVtNa01r1XvRaFV+zUrRWhBCtNc45QwSVUtdalU6MLUEEAABiCEgl1VYXYzhnWWs4ZzhjF2M4ZxdjN2cXYzdnF2M3ZxZjFmMWYzdnFmM3ZzdnN2c3Yzdn9V4WX9Ra1FrUWtRa1FrUWtRa1FrTWvRa9Fr0XtNWs1bTWvRa01r0WtNa1FqzVrNa01rTWrNW01rTWvRe1Fr0XrNW01qyVrNWslazVpJWslayVrNWkVKSUpFSs1azVtRas1rTWrNa01qzWtRas1rUWrNW1FrUWtRa1Fr0XtRa1FqzVtRa1Fr1XvVe9V7UXvVe1FrUWrNa1FrUWvVes1qzVrNa1FrUWtRa1FrUWtRa9V6RVpFSklaRVrJWklayVpFWs1qyVrJaslayWrJW01rTWtRe01rTWrNa01rTWtRe01rTXtNa1F7TWtRe01rTWrNaFmPUWvZetFatNQgh11qFEColW2s6Z9VW9l5xSsQUIAABAMcYEUL3XntvW2taaxhjWWsWXxZjN2NYaxZjFmM2YzdjN2dYZxZjN2M3Z1hrN2c4ZzdjF2P1XvZe9Vr1XtRa9F7UWvRe1Fr1XvRe9V70XvVe9F71XtRa9V7UWvRe1Fr1XtRa1F7TWtRa01r0XtRa9F7TWtNa01b0XtRa01qyVrNas1azWrJWs1qzVrNas1bUWtNa1F7UWvRe1F70XtRa9V7UWtRe01rUXtRa9F7UXvVi9F71XvRe9V7UWtRe1Fr1XtRa9V7UWvVe1F7UXrRa1F7UWtRa1FrVXtRa9V7VXpFWslaSVrJaslayWrJWslqyWrNaslayVpFWslaSVrJW01rTXrNas1qyVrNaslazWrNa1F7TWtRe01rUXtNa1FqzVtVa1V7WXjFGhRC1Vu89AAAySvdeWWsXYxZfFV/VWo0x6BwBAAEAxxgRQhhjnHM4Z3pvWWs3ZxZfWGdXZzdjN2c4ZzdnOGcXYxZj1VrUWhdjN2MWYxZj9V71XtVa9V7UWvRe1Fr1XtRa9V7UXvVe1Fr0XtRa9F7UWtRe1FrUXvRa9F70WvRe01rUWtNW01rTWtRa01bTWtNW1FrTVtNaslazVrJWs1aSVrNWslazWrNa1FrTWtRes1rTWrNa01rUWtRe01rUWrNa1FrUWvRe1F70XtRe9WL1XvVe9F4VY/Ve9WL1XvVe1F7UXrNas1qzVtRas1rUWrNa1FrUWtVe01qyWtNaslqzWrJa01qzWtNaslayWpJWslaRVrJWkVazWrJWs1qyVrJaklazWrJW01qzWtNe01rTXrNa01qzWrNa9V71XtVe1VoAAPA9+F7nHAkh9144Zxdf1Vp5axZf9lrWVnNOSyljCAAAYwzmGLRSF19ZZxdfF2M4Z1lrF2M4ZxZfF2M3Y1lrWGd5b3lvOGcXYzhnF2MXY/Ze9l71WvVe1F71XvRe9V70XvVe9V71XvRe9V70XvVe1F71XtRe9V70XhVf9V71XtRa9FrTVvRa1Fr0WtNa01rTVtRa1FrUWrNa1FqzWtNas1rUWtNa1FqzWtRe01rUWrNa1FqzWtRe1FrUXtNa1F7TWvRe1Fr0XtRa9F71XvVi9F71YhVjFmP1YhZj9V71XtRa1FqzVtRas1rUWrNa1Fq0WtRe1FqyWrJaklayVpJWslqSVrJakVayVpFSklaRUpJWkVKSVnFSkVJxUpFWkVKSVpJWslayVrNaslazWrJa01qyWtNa1FoWY7RW1VrWWkIIxxgZY1NKQghTSvdeGGP2WhZf9Vp5azhn9lr2WrRWMEIHIUEIAAClFK011lo5Z1prOWc5ZxdjOGc4ZzhnF2M3Y/Ze9l4XYzhnF2M4ZxdjF2P2XvVe9V71XvRe9V70XvVe9F71XvVe9V70XvVe9F71XtRe9V7UWvRa1Fr0XvRa9F7UWvRa01r0WtNa01qyVtNW01b0WtNa1FqzWtNas1rTWrNa01qyVrNas1bTWtNa1F7TWtRe01rUWrNa01qzWtRas1rUWtNa01qzWtRe01rTWrNa1F71XvVi1V71XvVe9V7UWtRas1rUWrNWtFqzVtRas1rUWrNaslayVpFWslaRVrJWklayVpFWklaRVrJWkVaSVpFSkVJxUpFWkVKyVpJWslaSVtNas1rTWrNa1F7TWtRe01rUXvVe1FrVWhdjay1DCDJG+F6FECkl9144Y/ZaF183Y9Ra9Vo3YzdnN2P2XtVatFaMMaUQAQAAAMYYrjWVUhhjOGdZa3pvF2MXYzhnWWsXYzhnOGc5ZzhnOWcXYxdj9l4WY/VeFl/1XhZj9V4WX/VeFl/1XvVe9V71XvVe9V70WvVe1Fr0WtRa9F7UWvVe9F7UWtRa1FqzVtNWs1bUWtRa1FqzWtNas1bTWrNWs1qzVtNas1rUWtNa1F7UWvRe1FrUWtNa1FrTWtRe01rUWrNa1F6zWtNa01rUXrNa01qzWvVi9V71XtVe9WL1XtVe1FrUXtRa1Fq0WtRa1FrUWtRaslayWpJWslaRUpJWkVKSVpFWklaRVpJWkVKRUnBSkVKRVpJWklayVpFWklaRUpJWklayWrJWs1qyVtNas1rUXrJW1FrUWhZj1lpzTmMM5xzXWjFGAACTTtVW9l72WvZaN2c3YxZfN2M3YzhnF1/2XtZaGF+VUo0xQwgBAEQI6BxRStVaOGNZa1lrem84Z/deGGM4ZzhnWWc4ZzhnF2MXY/ZeFmP1XhZj9V71XvVeFl/VWvVe1Vr1XtRa9VrUWvVe9F71XtRa1FqzVtRa1Fr0XtNa1FrUWtRas1bTWtNW1FrTWtRe01rUWrNa01qzWtNa01rUXtNa1F6zWtNas1rTWrNWs1qzWtNas1rTWrNW01qzWtNas1rUXtNa1FrTWvRe1F71XtRe9V7UXvVe1FrUWtRa1F7UWtRas1rUWrRa1FqyWpJWslqSVrJWkVKRVpFSklaRVrJWklaSVpFSkVZxUrJWklayWpJWslaRVpJWkVKSVpFSklaRVrJWklazWrNa1FrUWtRa9mK0VtZajDEhBPA9GGOEDCklGF9aa1lnF183YxZfFmMWXzdjF2MXY/Ze9161VtZaGWMZY1NKKiVCCAAAQQgpJTFGF2M5Z1lrOWc5ZzhnWWs5Z1lnOGc4ZxdjF2MWXxdjFl8WY/ZeFmP2XvZe9V72XvVe9l71WvZe9Vr1XvRe9V70WvVe1Fr1XtRa9V7UWvRe1Fr0XtRa9F7UWvVe1F70XtRa1F7TWtRe01rUXtRa1F7TWtRas1rTWrNWs1qzVtRa01rUWrNa01qzVtRes1rUWtRa1F6zWtRa1Fr1XtRe9V71XvVi9V71XtRe9V7UWtVe1FrUWrRa1FrUWpFSklaRUpJWkVKRUnBOcFJwUpFSkVKSVpFWslaRUpJWcVKRUnFSklaRUpJWcVKRUpFSklaRUpJWklazWrJW01rTWvReslb1XpNSF2O1VmMMYwzXWu89AADWVhhj1lY4YxdjWWc4Z/ZeMUaMMQgh5hxjDEII5hhzTllnGGPVWhdfrDWlFAAAIASkFEopMEY4YzhnWWc4Z1lnOGc5ZxhjOGcWXxZj9l4WY/ZeFmP1XhZf9l4WY/VeFl/1XhZf9V72XtRa9FrUWvVe9V71XvRa9V70XvVe1Fr0XvRe9V7UWtRas1rTWrNWs1qyVrNaslazVrNa01qzVtNas1rTWrJWs1qyVrNas1bTWrNa01qyVrNW01rTWrJWs1qyVpJWkVKyVrRa1FrUWvVe9V4WY/ViFmPUWtRe1FrUWrNa1FqzVtRaklaRVpJWkVayVpFSkVJwUpFSkVKSVpFWslaRUpFWkVKSVpFWslaSVpJWkVKSVpFWklaSVrJWklazWrJas1qzVtRe01rUWtRa9l7VWrRWc04AAK0191oBAIwttlYYXxljW2tzSo0xhAxDCGQMhAwIIUopzTVRRnJO1VoWYxZj1Fb2XhdjtVaMMYQQAAAgACEEByExRlprem9Za1lnems5ZzhnN2M4ZxdjF2P2XhZf9l4WYxdjN2f2XvZe9l4WY/VeFmMWXxZj9V71XvVeFl/1XvVe9Vr1XtRa9V7UWvVe1FrUWtNa1FrTWtRas1rTWrNW1FqzWtNas1rUXtRe9V70XtRas1qzWrJWs1ayVrNas1bUXrNas1qzVtRa01rTWrJW1Fq0WtRe1F71XvVe9V7UXhZj9V7UXrRa1F7UWtRas1ZQTnBScE6RUnBSkVJwUpFScE5xUnBSkVJwTnFScVKRVnFSkVKRUpJWcVKRUnFSklaSVrJWklayWpJWslqyVrNaslayVrJW1FrUWvVe1VrVWuccIQSUUmwtIgTXWtZW11aOMWUMIgRkDAkhlVI5Z9ZaF18XX/Ve9l7UVtRaFV9Yaxdj917WWvZe9160VosxgxBBCAAAIABqKbRWWmtZazhnOGdYZzhnN2cXYxdjF2MXY/ZeFl/2XhdjF18WX9Va1Vr1XvVe9V71XtRa9V71XvVe1FrUWtRa9V7UWvVe1Fr1XtRe9F7UXtRe01rTWrNas1rTWtRas1rUWrNa1F7UWvRe01rUWrNa01qzVtNas1rUWrNas1qyVrNWslazWrJWs1azVrNas1bUWrNa1FrUWvVe1FrUWrNWtFqzVtRatFrUWpFScFKRVpFSklaRUpJWkVKRVpFSkVaRUpFSkVKyVrJWslaSVrJaklaSVpFSslayVrJaklazWrJWslaSVrJaslbTXrNWs1qzVtRa1Fr2XtVac04hBOcYUkZDCColtlaOMWUMZhCOMfheOme2VhhjGGMXYxZfFmMVXzZnV2c2Y9NW1Vr2Xhdf1lr2XvZeF2P2XpNSizGlFCAEAABBCGsttFZ6azhnOGM3Y1lrWWtZazhjWWf2XvZe9l4XY/ZeF2MXY/Ve9Vr2XvVeFl/1XhZj9V71XtVa9V71WvVe1Vr1XvVa9WL0XvVi9F70XtNa01qzWtRe01rUXtNa1FrTWtRe01r0XtRa9F7UWtRe01rUXtNa1FqzWrNaslazWrNW01qzVtRas1azVpJWs1azVtRa1FrUWrNa1FqzWtRa1FrVXtRakVayVpFWklaRUpFWcVKRUnFSkVaRUpFWkVKSVpJWslqSVrNaklayVpJWslaSVrNakVKSVpFSklaRVpJWkVayVtNa01qyVrNas1bUWtRW1VqUUowxAACNMUwpAgBsLQIAIwRUTtha+V4ZY3NKzznNNbRW9lr2XhVf1FrUWvRaFmMWYxdj9l7VWrVW9l73XhdjtFYXX/Zeck6LMcUYIQQAAIMQrDG0VlprOGcXX/deOGcXYzhnF2MXYxdfF2P2XvZe9Vr2XvVeFmMWXxZj9l4WY/VeFl/1XvVe1VrVWtRa1Fr0XvVe1F70XtNa1FqzVrNas1rTWrNW01qzWtNas1bTWrNa1FqzWtRa01rUWrNWs1rTWtRas1azWrJWs1qzVtNak1azVpJSklJyUpJWklazVrNWs1qzVrRas1rUWrRa1FqRVpFSkVJwUpFScFJxUnBScFJwUpFWkVKRVpFSkVaRVrJWklayVpJWslaRVrJWklaSVpFWklaSVrJaslazWrJWs1qyVtNas1bUWtRa9VrVWtZatVZLKQEA6BhDBEQIRAgRQjpn+F6VUu89IQQAACAAYwysNfZeN2MXY/ZeFl/UWhdj9l72XvZeOGc3Y/Zes1L2XvZe9lq0VvZa1VowRkkpQQgAACAAgwysMZRSOGM5ZzhjWmtaaxdf9144Y1lnOGMWYxZfFmMWYzdnFmMXYxZjFmMWXxZj9V71XtVa1VrUWvVe1F70XtRe9F7UXtRe01rUWtNa1FrTWtRe1FrUXtRa1FrTWtRas1rUWrNa01qzVtRe01rUWrNa01qzVtNas1qzVpJWs1aSUrNWklKSVpJSs1azVrNas1bUWrNatFqzVlBOcFJwTnBScE5wUnBSkVJPTnBScVKSVpFSkVZxUpFWkVKyVpJWslqSVpJWklayVpFSklaSVrJWklazWrNa01qyVtJaslbTWrNW1FqzVrRW9l73XnNK6BwCACMEAgARPhhjGF8QQsUUAAAIIXNOtFbGGCAEYwwwRhhj9l7VVlln9VoWX/Ze9V60VtRaFmNZa/Ze9l7VWtVa1Fr1WvVeFl/VVlFGaimDDAAAAACEECklckr2WllnWWcYYzhj9l7VWhZfFmMWYxdjFl8WY/ZeFmP1XvVe9V71XvVa9V7VWvVe1Fr0XtRe9V7UXvRe1F71XtNa1F7UWvRe1F70XtRe9V6zWtNas1rTWrNa01qzWtNas1bTWrNa01qyVrJWklazVpJSs1aTVrNWklaTVpJSklJxUpJWk1azWpNWs1aSUrNWkVJwUpFScFKRUnFSklaRVpFScVKSVpFWkVaRUpJWkVayVrJW01qzWrNaslazWrJWslaSVrJWklayWrJWs1qyVtNa0lrTWrNa01ayUrNWk1K0VpRS11q3VqYUAgAkBEspzjlhCEAEpBRJKTFG9172Xhhjc04pIQAAhRBTShljlFIXX/ZeF2MXYzdjFl/2XtVaFmP1WhZfFmMXY9Ra1VrVWvZa9lr2XrRSMUZqKaQQAAAgAEIIailSShdfOGN6a3tvOGc3ZzdnF2MXYxZjF2MWY/Ze9V72XvVe9l71XvZe9V70XtRe9V70XvVe9F71YvRe9F7UXvVe9F71YvRe9V7UXtRe01rUWrNa01qzWtRa01qzWrNa1F7TWrNaklazVpJWs1qzVtRas1q0WrNWs1aSUpJSklK0WrNatFqzVrNWs1aRUpFWcFJxUnBScVJwUpFScFKRUnBOcFJQTnBScFKRUnFSklaSVrNaklayVpFSkVaRUpJWkVKSVpFSklaRUpFWkVayVpFSslayVrNWs1bUWtVatVbXXjJGAQACACMEAQAgBGEISCkvRvVeN2eTUvZetFbVWtZac04IIQEAQwitNYsxD0KzUhZj9l71XvVaF2P2XhZf9l4WX/ZeFmP2XhZf9l72WtVW9lr2WvZalFJySmoppBAAAAAAQQjGGM019l5Za1lrOGc4ZxdjF2MXYxdj9l4WY/Ve9l71XvVe1Fr1WtRa1F7TWtRe1Fr0XtNa1FrUWvRe1Fr0XtRa1F6zWtNa01rUWrNWs1ayVrNas1bTWrJW1FrUWtRes1qzWpJWslazWtRas1rUWrNWs1qSVpJWcVKzVrNW1Fq0WtRas1bTWrJaklaSVpFSklZxUnFScE6RVnFScVJxUpJWkVKSVnFSslaSVrJWklayWrJWslqyVpJWkVKRUnFSkVaRUpJWkVayVpFWslaxVtJa0lrUWtRa1Vq1VtZa5xwBACklKSUAAO49s1YWY9Ra1FrUWvVe1Fb1XtVa1Vr2XtZaMEYpJUIIIAAAAIMQailzThdjGGPVWhdj1lr2XhdjOGf2XtZa1VrVWvZeFl/UVtVa1VrVWpNS1VrUVnJOizHEFCAEIAAAAOcc7z34XhljGGMYYxhj9l72XvZeF2P2XvVe1Fr1XvVe1Fr1XhZj9V7UXrNW1FrUWvVe1Fr0XtRa9V70XtRes1bUWrNas1qzWtNas1qzWrNa016zWtNaslrTWrJa01qyWvRe1FrUWrNWs1aSUpJScVKSVpJWs1ayVrNaslazWrNacFJxUnFSkVJxUpFScVKRUpFSklaRUpJWkVayVpJWklaSVrJWklayVpJWklaSVrJWkVKSVpFSkVZxUpJWkVayVnFOkVKRUrFWkFKxVrJWs1aTUtVaMkalFMcY1lpRRkAEKCUXY9Ra9V7UWvVe1Fr1XtRa1FqzVtRa9l4WY9VatVa0Ug8+5xxCCCEE5hzuObRWlFIXYxhj1Vq0UhdfGGP2XvVa1Vq0VtVa9Vr2XvVa9VqzVrNWk1LUVrNWcUqKMeYYAAABAAEAphSNMXRO9145ZzhnF2P2WvZeFmM3ZxVf9VoWX9Ras1bUWvVeN2f1XtRa01bUWrNW1FqzVtRa1Fr1XtNa1FqzWtRas1rTWrNa01qyVrNaslayWpJWslaSVrJWslazWrNWs1qSVpJWcVJxUpJSs1azWtRas1rTWrNa1FpwTlBOcVJxUpFSkVKyVpJWslqSVrJWklazWrJWs1qSVrNaklazWpJWslaSVrJWklayVpJWslaSVrJWklazWrJWslaSVrJWsVbSWrFW01qzWrRW9l7OOQAACCEYY9VaKCViDPZes1bUWvVa9V7UWvVe9V7UWtVatFbUWtRa9l7WWvZe9l73XnJOizGEECAAAAAAAGMM7j32Xhhjk1K0VhdjFl/1WhZfFmP1WpJSs1LVWhZj1VrUVrRW9l4WX/Zek1K1VqwxpBAAAAAAIATGGGoptFb2XllrOGf2XrVW9l4XYzdjN2M3ZxZf1FrUWvVeFmP1XvVe9V7UWtRa1Fr1XvVe9V7UWvVe1FrUXtRa9F7UWtNas1rUWrNa01qyVrJWklKyVpJW01qzWtNaslayVpFSslayVtNa01rTWrNa01qzWlBOcE5QTnFScVKSVpFSklaSVpJWkVKSVpJWslaRVpJWklayVpFWklaSVrJWkVKSVpJWslaSVrJWklayVpJWslazVtNaslbSWtJa0lrTWtRa1Vr3XiklAAAIIXNOck5RSgAAMEa0VtRas1b1WrJS1FqzVtRa1FrVWtRa1Fq0VrRWk1K0VrRWtFaTUnJOD0LuPSglgxAAAGIMrDUXYzhn9l72XrRWck7UWvZeN2P2XvZetFb1WtVa1FqTUrRWtFb2XtRW1FazVrNSzTnFGCAEAAAAAIMQay1zThhjOWcYY/Ze1VrUWrRW9V4WYzdnFl/1XvVe9V71WvVe9V71XtRa1FrVWvVe1FrUWtRa9VrUWvRa01rUWtRa9FrTWtNaslazVrJWs1qzVtNas1rTWrJWslaRUrJWslazWrNWs1aSVrNWkVJxUpFScVKSVpFSklaRUrJWklaSVpFSslaSVpJWkVKSVpFWklaSVrJWklayWrJWslaSVrJWklayWrJWslqSVrNas1azWrJW0lqyVtNas1b1XtVaxhhCCDFGtVa0UpNSYgwHIRdj1VqzVtRa1FrTWtRas1azVrNW1VrVWvZe9l72XtRWtFa0VvZe9VrUVpJO9VqTUsw1gxAgAGEMii1QRvZeOGNZaxdj9l7VWvZa1Vr2XvZe9l7VVtVa1Vq1VpJS01ayVtNW01bUWpJSUUovQiglpBQhBAAAYwwpJTJG1lp6bzdnF2P1XvZe9l4WY/Ze9l7VWtVa1Fr2XvVe9V7UWvZe9Vr1XtVa9V7VWvVe1FrUWtRa9V70WvVe1FrUWtNW1FrTWtNas1bTWrNa01qzWrNWs1bTWrNa01qzVrNaslZxUpFScVKRVnFSkVaRUpJWklaSVpFSklaRVrJWkVaSVnFSkVKRUpJWkVayVpJWs1qRUpJWklayVpJWslaSVrJWklazVrJWslaxVrJWslazWpNS1lqEEGMMUkr2XrRWs1IHISAEtFbVWpJS1FqzVrNW1FrUWrNWs1azUrNWk1KTUpNSk1KSUpNSklKzVrNWtFazVpJSck5xTosxgxAgBGEMKCUPQtVaF2PWWvZe9l72XhdjF2PVWrRWlFLVWtZa9V7TVvNa0lbSVtNW9V7UVpJStFaTUu89SiljDAEEIgSEEKUYizGTUjdnN2cWY/Ve9l4XYxZj1Vr1XtVa9l7VWvVe1Vr1XtVa9VrUWtVa1Vr1WrRW1FrUWvRa1FrUWtNW1FqzWtNaslazVpJWs1azVtNaklazVrJWs1qSVrJWklazVnFScFKRUnFSklaRUrJWklazWpJWslaSVrJWklayVpFWklaRUpJWklayVpJWslqyVpJWklayWrJWs1qSVrJaklazVrNW01qyVtJaslbTWtNas1b2XoQQQghSSpRS1FazVg9CAADuPdRa1FqzVrNWs1bTWtNW9Fr1WvVe1VrVWrRW9V71XvVe1FrUWrNW1FrUWtRa1FrUWpJS1FbUWlBKaS1iDEEIgxApJVFK9144Z/ZetFbWWjhnF2P2XtVa1lrVWrNW01r0XtNWs1azVtRa1FbUVrRWtVbVWrVWEEJKKYQQQQgAACAEYgxJKVBKF2NZa/Ze9l4XYxdjF2P1XvZe9l72XvZa9l71WvZe1Vr2XvVa9VrUWvVa1FrUWtRW1FrTVtNas1rTWrNWs1qzVtRa01qzVrJWs1qSVpJWkVKyVrJWT05wTlBOcVJxUpJWkVayVpJWklaRUpJWkVaSVpFSkVKRUpJWkVKSVpFWklaRUpJWkVayVpJWslqyVrNaklayVpJWs1aSVrJWslbSWrJW01rUWtZaIQSlFLVW1Vq0VrNWtFZCCAch1Vr1XvVes1b0XvRa9F7UWtNas1bUVtRa9V6zVrNWslazVrNW01azVrNWs1ayVpJS1FqzVrNWklLUWlFKrDWkFAAEAABCCAgh7j3VWhdjF2MXY/Ze9l7VWtRa9Fr0WtNW1FrUWtRas1a0VrNWtFazUrRWk1K0VrRWtFZyTu49ByFBCAAAIASDEAchD0KTUtVaF2MXY/Ze9l4XY/Ze9l71WvZe1Vr2XtVa9l71WvVa1FbUWtRW1FazVtNWs1bTWrNa1FrTWtRe01rUWrNa01qzVrNWklayVrJW01qSVpFSklaRUpJWkVKSVpFSs1qyVrNaslazWrJWslqSVrNaklaSVpFSklaSVrNaslrTWrNas1qyVrNaslayVpJWtFqzVrNaslbTWtJa01q0WtVatFYhBKUUtFb2XvVe1Fa0VmotQQi0VvVetFb1WrNW9F7TWtRa01r1XtRa1FqzVtRas1rTWrJWs1ayVrNWslazWrJWslaSVrNWslbTWrNWtFa1WtVaUk6tOcYcQQgAAEEIYgwoJRBG92I4Zxdj1Vr2XvZe9l7VWtVa1VrVWrRW1FrTVrNWkU6yUtNW1FqzVrRWtFbVWpNSMEZqLcUYYgwgBAAAYgwHIe49k1L2XhdjF2MXYxdj1Vr2XhZfFl/UVvVa1Fr1WtRW9VrUVtRa01bUWtNa1FqzWtNas1bUWtRa1FrTWtRe01rUXtRa1F7TWpFSklaRUpJWkVKSVpFSklaRUpJWkVKSVpFSklaRUpJWkVaSVpFSklaRUpJWklayVpFSklaRVrJWklayVrJWs1qzVrRas1bTWrJW01rTWtRatFaTUgAA5hyUUvVe1FrUWrRWzTkgBFFK9V7UWtRa1FrUWtRas1bUWtRa1Fq0VrNWs1azVrNW01qzVrNaslazVrNWs1qzVtNaslbTWrNW1FqTVrRatFrVWrRWk1JRTlFKxRikFGIMIAgABMUYzT32XhhjGGPWWrVW1VoXX9VaklKTUtNW01bUWtRa9F7TVpJSklKzVrRW1Fq0VpNSck5yTqw1KCViDCAEAAAgBEEIgxAoJc01UUrVWtVa9l7VWvVa1FbUWtRW1VrUVtRa1FbUWrNW01qzWtNaslazVrNW1FqyVrNaslazVpJWs1azVrNaklaRUpJWkVKSVpFSklaRUpFScVKRVnFSkVaRUpJWkVKSVpFSslaSVrJWklayVpJWklaRVrJWklayWrJWs1qzWrRas1bTWrNa01rTWtNa1Fq0VjFKAAAoJdVa1VrVWtVa1lpRSiEEizEWY7RW9VrUWvRe01bTWrNW1FrUWtRas1bTWrNW1FrTWtRa01rTWrNW01qzWtRa01rUWrNa01qzVvVetFq0WrRW1VrUWtVak1b2YrRWcU6sOQclYgxBCCEEpRSuNdZaGGP3XtZa9l72WrRW9FoVY9RaslaxUvNa9F7UWrRWtFaTUrNWk1K0VpNStFaTUrRWklIwRoox5hyCECAEAAAgAAAAIADFGC9GN2fVWtRa9VrUWtRa1Fr0WtRa1FrTWtRes1qzWrJWs1qzWrNaslayVpJSklaSUrNWslZxUpFScFKRUnFSkVJxUpFScVKRUnFSkVKRUpJWkVKSVpFSklaSVrNaslazWpFWklayVrNaklazWrJWs1qyVrNak1azVpJWslayVrJWslazVrRWEEIAAIsx1VrVWtNW9V61WrVWQQjmHPZe1FqzVtRas1bTVpJSslazVtRas1bTWrNa01qzWtNas1bTWrJWs1ayVrNaslbTWrNWs1aSVrNWs1aTVpJSs1a0VtRas1aTUrNWs1azVvVe9V6SUqw5KCVjDCIEIgToHO891lr2XtVa1VrUVpJSslbTWvReslaRUrNWtFaTUrNWs1bUVrNWtFbVWtRas1azVpNSs1aTUrRWtFZRSosxBiGCEMUYrDXTVtRa1FrUVtRa01rUWtNW1FrTWtRe01rTWrNWs1qyVrNWslazVpJWslaSUrJWklKyVpFScVKRUnFSklaRUpJWkVKRVpFSklaRUpJWklayVpJWslaSVrNas1rTXrNas1qSVrNaslqzWrJWs1qyWrNas1q0VpNWs1ayVrJWslazVrNW1VruPQAA7j32XtVa1Fr1WtZa917GHGIM9l7UWtVa01rUWrNWs1ayUrNWslazVrNW1FqzWrNaslazWrNW1FrTWrNas1azWrNW01qzVrNWklaSVpJSs1azVtVe1FrVXtRa1FqzVrNWkla0WrNWtFqTUnJOzjkIIWMMAAAgBEkpck72XhdfN2P2XvVatFbUWvVa1FqzVtRa1Fb1XvVe9l71XrRWs1b1WtRa9V7UWtRas1azVpNStFrUWrRaklKTVtRa1FrTWtRa01bUWtNa1FrTWvRe1FrUXtNa1FqzWtNaslbTWrNa1FrTWtRas1qzVpJWcVKRUpFSklaRUpJWkVaSVnBSkVJxUpFScVKRUpFSklaRVrJWklazWrJWs1qyVrJakVKSVpJWslaSVrNaslqzWrNWtFqzVrNaslayVrJWs1q0Vs49AAAxRtVa1VrUWvVa1Vr3YosxIQi0VvVe1VrUWtRa1FqzVtNWslKyUpJSklKSVrJWklKSVpJSs1rTWvRes1azWrNWs1qzVrNas1azVrNa1FqzWrNWklKRUnFSklaSUrNWs1azWpNWs1q0WtRatFa0VrRW1VowRgchIAQAAGIMSSlSShdjF1/WWtVaF2P1XvVe1FrUWrNSs1aSUrNWs1bUWrNWs1aSUrNSklKSUrNWs1aSUrNatFrUWrNa01qyVtNas1bTWrJW01qzWtNas1rTWrNa1FqzWtNas1azWrNW1FrUWvRe01rTWrJWslaRUnFSklaRUpJWkVKyVpJWkVJxUpFWcVKRVnFSklaRUrJWkVaSVpFSklaRVrJWklayVpJWs1qyVrNaslbTWrNatFq0VtRas1rTWrJW01qzVtVazTkgBFJK1VrUWvRa1Fb2XtZaMUYAAHJO1VoWY9Ra9FrUWvRa01rTWrJWs1ayUrNak1azVpJWs1azVtRa1FrUWrNW1FqzVrRas1bUWrNas1qzVtRas1azWrJWs1qzWrNas1azVpJSs1azWtNaklIWY7NWklKzUtVas1IxRs05xhhCCCEEQwwpJfA9tlYYY/Ve9V4WY/Ve1FrTVvVe9V6zVrNW1FrUWvVe9V71XtNa1FqzVpJWcVKSVrNW1F6yVrNaslazWrJWs1qyVtNaslrTWrJWs1qzWtRa01rTWrNW01rTWtRe01rUWrNWs1aSVnBOcVJwTnFScFKRUnFSkVKRUpJWcVKRUnFSkVZxUpFSkVKRUnBOcFJwTpFScVKSVrNa01qyWrNaslazWpJWs1azVrRas1azVrJWslayVrNW1FrOOQAAck60VtVa1FazVtVatVZzTgAAD0LUWvVe1FqzVtNa01rUWtNa1FqzVtRas1rUWrNWs1aTVrNWklKTVrNWs1aTVrNWs1azWrNW1FqSUrJWs1bTWrNas1qSUpJSklLTWtNaslaRUrJWslazWpFO1FrUWrNWs1LVWrRWk1K0VnJOrTXnHCEEAQCEEEopklLUWvVeFl/UWtRas1bUWvVa9F6zVpJSklLTVrNWklKyVtRes1qzVpJWs1qyVpJWklayWpJWslqyVrNaslayWpJWslaSUrNWs1rUWrNWs1azWtNaslazVpJWslaSUpJSslaSVpJWcVKRUnBScVJxUpJWkVKSVpFSklaRVpJWkVayVpJWslaSUrJWklayVpJSslayVrJWslbTWrNa01qzWtRas1ayVrJW01rTWvRe1FrVWg9CAACtNfZe1VrTVrNW1Vq0VvZeAACsNfVeN2ezVvVe1Fr1WtRa1FrUWtRa01bUWtRW1FqzVtRas1azWrNWs1aSUpNWklKzVrNWtFqzVtRa01rUWtRa1FqzVrNWklLUWtNW1FqzVtRa01bUWrNW9FrTVtNWslbTWrNWs1aSUrNWklKSUpJSck7MOeUcIAQgBOYcMEbVWhdj9l7VWrRW9VqzVrNWs1b0XtRa01qyVtRes1qyVpJWs1qzVrNaklazWrJWslaSVrJWklayVpJWslayVrNaslbTWrNa1FrTWtRas1rUWtRa1F7UWtRe01pxUpJWkVKSVnFScVJxUpFScE5xUnFSkVaRUpJWklayVpFSslaSUrJWkVKyVpJSslZwTnFScE6RUnBOkVJxUpFSklayVrJWslqxVtJa01rVWtVaMEYAAK01tFbVWrNW1Fq0VtRa1FpBCEgp9V72XtRa1FrVWtRa1FqzVtRas1bUWtRW1FqzVtRas1azVrNWs1azVrNWs1KzVrNW1FqzVtRas1KzVrNW1FqzVtRas1bUVrNWs1azVtRWs1azVrNW01ayVrJWslKzVrNW01qzVrNWs1ayVnFOkU5wTnBKLkIOPgchQQgAAOYcD0LVWtVa1VqzVtVa9V7UWpJSklKyUtRaklKyVrNW1FrTWtNas1azVpJWslaSVrJWklKSVpJSslaSVrJWslazVpJWslayVtNas1rUWtRa1F7UWtRatFrUWpFSkVKyVpJWklaRUpJWkVKRUnFSklaRUpJWklayVpJWslaSUrJWklayVpJSslaSVrJWklayVpJWslaSUrJWklaSVrJW01qyVrJWsVbTWtRa9l5RSiEEizHVWtRa1FrUWtVa1VrUWoMQ5hzVWvVe1VrVWtRa1FrUWtRas1bUWrNW1FrUWtRa1FbUWrNW1FqzVtRas1bUWrNW1FrUVtRas1azVrNW1FqzVtRa1FbUWtRa1FqzVtRas1bUWrNW1FqzVrNWslKzVrNW1FrTWvRa01rTWrNW01ayVrNWslLTVrNWcU4vRkkpAAAAAMQYMEb1XrRWs1bUWtRa1FqzVrNWslKzWrJWs1aSVpJWkVKzVrJWs1ayVrNas1azWrJWs1aSVrJWkVayVrJWslayVtRa1F7UXtRa9V7UXtVe1FrUXtRacVKRVnFSkVJxUpFSkVKSVpJWklaRUpJWkVKRVnFSkVKRUpJSkVKRUpFSklKRUpFSkVKSUpFSklKRUpJWkVKSVpJSslayVrJWsVayVrNW1FrVWnNOIQRrLdVa1FrTVtRatFb2XrNW5hyDEPVetFbVWtRa1FqzVtRas1bUWrNWs1azVtRas1bUVrNW1FazVrNWs1bUVrNSs1azVrNWs1azVrNWs1azVrNWs1azVrNW1FazVtRas1bUVrNW1FqzVtNWs1bTWrNW01rTVtRas1bTWrNW1FrTWtNaslaSUnBOcU5yTnFOUUowRiglIAQAAIMQDkJxTrNW1FaSUpJSs1b1XtRa01qyVrJWklazVrJW01qSVrNaslbTWrNWs1qSVrJWslayVpJWslaSUrJWs1bUXtNa1FrTWtRa1FrUWrNa1FqSVpFSkVJwUnFScVKSVpJWslqSVrJWkVaSVpFSklZxUpJWkVKSVpFSklaRUpJWkVKyVpJSslaSVrNWslazWrJWs1qyVrJWsVbSWtJa01qzVvZek1JjDEop9l7UWvRa01bUWvZe1VpJKWIM9V7UWtVa1VrUWtRa1FbUWrNW01qzVtRa1FrUWtRW1FrUVtRas1bUWrNWs1azUrNWs1azVpJS1FazVrNWklKzVrNWs1azVtRa1FrUWtRa1FrUWtRa01rUWtNa9FrTWtRa01bTWrNWFV/UWtNWklKyVpJSslKRUnFOklKSUg5CD0IOQmktYQwgBMQYL0bVWhZjtFazVrNSklaSUrJWslbTWrNaslZxUtNas1rUWtNa1FqzWrNaslb0XtNa01qyVrJWklKyVrJW1FqzWtRas1rUWtRa1F7UWpFSklZxUnFSUE5wUnFSklZxUpFWkVKSVpFSklaSVrJWkVKSVpFSslaRUpJWkVKyVpJWslayVrNaslbTWtNa1FqyVrJWkVKyVrJW01qzVrRWtFa0VmMMKSXVWtRa1FrTWrRW9l60Vqs1IAT1XrRW1VrUWtRa1FrUWrNW1FqzVtNa1FbUWtRa1FrUVtRa1FrUWrNW1FazVrNWs1azVrNWs1aSUpJSklKzVpJSs1azVtRa1FrUWtRa1FrUWtRa1FrUWrNW01rTWtRa01bTWtNW1FrUWtNaslKyVrJW01ayVrJWcU5PSlBK01qzVnFKL0aSTqs1xBgAAEAIKCVQSpJSck6zVrNWklayVpJSklaSUpJWslazWrNW01qzVrNaslazVrJWslayVrJWklKyVrJW01qyVrNWs1azWrNW1FrUWtVeslaSVrJWkVKRUnBOkVJxUpJWkVKSVpJWslaSVrJaklayVpJWslaSVrJWklayVpJWkVJxUpFSkVKSVpFSslaSUrNWklayVrFWslayVtNas1bVWrRWhBDnHPZe1Fb1XtRa9V7VWtVaqzUgBNRa1VrVWvVa1Fr1WtRa1FrTVtRa01bUWrNW1FrUWtRa1FbUWtRa1FqzVtRas1bUWrNW1FqzVrNWs1KzVrNWs1azVtRa1FrUWtRa1FrUWtRa1FrUWtRa01bTVvRa01rUWtNW1FrTWtNas1bUWtRa9F7TWrNWkVKSUrJWklJPRk9KkVKzVnFOUEZRSjBGJyUgBAAAByEOQlBOcVLTWtNa01qzWtRe9F6zWrJWs1qyVrNWslazWrJWklKRUrJWklayVrJW01rTWtRas1rUWrNa1FrUWtVe1FqRVrJWklayVpFSkVJQTnBOklaSVpFSklaRUpJWkVKSVpFSslaRUpJWkVKyVpFSklaSVrJWklayVpJWslaSVrJWkVKyVpFWsVaRUrFWklK0WrRW1VpjDOYc1VbUWvRa9FrVWtVatFaLMQAAtFbUWtVa1Fr1WtRa1FrTWtRas1bUWrNWs1azUrNWs1azVrNWs1azVtRWs1azVrNW1FqzVrNWs1bUWrNW1FazVtRWs1azVtRW1FqzVtRa1FbUWrNW1FqzVtRa01rUWrNW01ayVtNa01bTWrNW01azVtNas1bTWrNWs1ayUtNWslKRUnBKcU5xTnFOUUpyTlFKzTnmHEEIghBHKQ5Gs1qzWrJWkVKSVpJWslaSUpJWklKSVpJSslayVrJaslayVpFSkVJwTnFS1FrUWrNa01qzWtRa1FrUWpJWkVKRVnFSkVJxUnFScE6SVpFSklaRUpJWkVKRVnFSslaSUpJWkVKSVpFSslaRUrJWklayVpJSslaSVrJWklaSVpFSslaxVtJaslbTWrRa1VqUViklpBS0VtRaFl/TVvVetFbUWs05IASzVtRa1Fr1WtRa1FrUWvRe1Fr0WtRa1FqzVrNWs1azVrNW1FqzVtRa1FrUWtRa1FrUVtRa1FrUWtRa1FqzVtRas1bUVrNWs1azUrNWklKzVrNW1FqzVrNWs1bTWtNW1FrTWtRa01bUWtNa1FrTWtRa01rUWtNa1FrTVtNWslazVpJSklJxTpJScU5xTlFKcU5RSnJOcU5QSsw9qzkNQpJSs1azWrJW1FqzWtRas1rUWrNa01qzVrJWslazWrJW01qyVrNWklazWrNW1FqzWtRe1FrUXtRakVKSVpFSklZxUpFWkVKRVpFSklaRVpJWkVKSVpFSklaRUpJWkVKSVpFSklKRUpJWklKyVpFSslaRUpJWklKyVpFSklaRUrFWkVKyVpJSs1a0VrVWKSWDELRW1Fr1XtRa1FrUWrRWzTkAALNWtFbVWrRW1FrUVtRas1bUWtNW1FqzVtRWs1bUVrNW1FqzVtRas1bUWtRa1FqzVtRa1FbUWtRW1FqzVtRas1azVrNWs1azVrNWklKzVrNW1FazVtNWslazVrNW01qzVtNa01bTWrNW01azVtNas1bTWtNW1FrTVtNaslbTVrJWs1aSUpJScU5xTnFOcU5xTnJOck6TUnFST0ouRnFSslazWpJWs1qyVrNas1azWpJWslaSUrJWklayVpJWslaSVrJWklazVrNWs1qzWtRatFrUWtRa1FqyVpJWslqSVrJWklayVpJWslqSVrNaklayVpJWslaSVrJWkVKyVpJSslaRUrJWklayVpJWslaSVrJWklKyVrJWslaSVrJWsVayVrFWs1azVtVatVaMMSEEtFazVvVe01bVWtVa9l7MOQAAs1bVWtVa1FrUWtRa1FrUWtRa1FrUWtRa1FrUWtRa1FrUWvVa1FrUWtRa9VrUWtRas1bUWtRa1FrUWtRa1FrUWrNW1FqzVtRas1bUWrNW1FrUVtRas1bUWrNW01rTVtNa01bUWtNa01qzVtRa01rUWtNa9FrUWvRa01rUWtNa9FrTWtNas1aSUpFSklKSUpJSklKzVpJSs1qSUrJW01rUWrJWslayVrNaslazWrJWs1aSVrJWklLTWrJWs1aSVrJWslazWrNa01qzWtRas1rUWtRa1F7UWrJWs1qSVrJWklayVpFSklaSVrJWklaSVpJWklaRUpJWkVKyVpFSslaSUrJWkVKSVpJWslaRUpJWkVKyVpFSslaRUrJWkVKyVrJW01qzVtRatFa1Wq01AACTUrRW1Fb0WtRa9V7VWqw1AAC0VrRW9V7UWtVa1FrUWtRa1FrTWtRa1FrUWtRW1FrUWtRa1FrUWrNW1FrUWtRas1bUWrNW1FrUWtRas1bUWrNW1FqzVtRas1bUWrNW1FrUVtRas1azVrNW01qzVtNWs1bTWtNW1FrTVtRa01bUWtRa9F7UWvRe1Fr0WtNa9FrUWvRe01rTWrNW01ayUrJSklKSUnFOklKRUpJSkVKzWrJWklaRUrJWklayVpJWs1ayVrNaslazWrJWslqyVrJWslazVrJWs1qzVrNas1azWrNW1FqzVtRa01qyWrNaklayVpFWklaRUrJWklaSVpFSklaRUpJWkVKyVpJWslayVrNWslayVpJSslaSVrJWklKyVpJWslaSVrJWklayVrJW0lrSWtRa1FrVWrVWEEIAAHJO1Fb1WvRe1Vr1XvZeizFBCLRW1VrVWvVe1Vr1WtRa9VrUWtRa1FrUWtRa1FrUWvVa1FrUWtRa1FrUWtRa1FrUWtRW1FrUWtRa1FrUWtRa1FrUWtRa1FrUWtRW1FrUVtRa1FrUVrJW1FrTWtNas1bTWtNa1FrTWtRa01r0WtRa9F70XvVe9F71XvRa9V7UWvVe9Fr0WtNW9F7UWtRas1azVpJSklKRTpJWcVKRUpFSslaSVrJWklazWrJWs1qzVtRas1rTWrNaslaSVrJWslbTWrJWs1aSVrNas1azVrJWs1qzVtRas1ayVrNaslayVpFWklaRUpFWkVKSVpFSklZxUpFScVKRVpFSslaSVrJWklayVpJSslaSUrJWkVKyVpFSklaSUrJWklayVrJWslaxVrJWsla0VrRWtFYxRgAAzTm0VtNW9FrUWvZe1VpqLUEI1FrUWtVa1FrUWtRa1FqzVtRas1bUWrNW1FrUVtRa1FrUWtRa1FqzVtRa1FrUWrNW1FrUVtRa1FrUWtRa1FrUVtRa1FrUWrNW1FqzVtRas1bUWrNWs1azVtNa01bTWrNW01rTVtRas1bTWtNW1FrTWtRa1Fr0WtRa9V7UWvVe1Fr0XtRa01rTWtRa01bTWrJWslayVrJWslayVpFSklaSVrNWslazWrNWs1qzVtNaslazVpJWslZxTpFSkVKyVpJWslaSUpJWklayVpJWs1aSVrNWs1bUWtNas1rTWrNas1qyVrNaslayVpJWslaSVrJWkVayVpJWslaSVrNaslazWrJWslaSVrJWklayVpJWslaSUrJWslazVrJWs1qyVrJWslbTWrNW1VqUUpRSQQiLMbNW1FbTVtVa9V71XkgpYgzUWtVa1Fr1WtRa1FrUWtRas1bUWrNW1FrUVtRa1Fr1WtRa1FrUWtRa1Fr1WtRa1FqzVtRa1FrUWtRa9VrUWtRa1Fr1WtRa9VrUWtRa1FrUWtRa1FrTWtRa01rUWtNa1FrTWtRa01rUWtNW1FrTWtRa01r0WtRa9V7UWvVe9V71XvVe9V7UWvRa01r0XtNa9FrTWvNa01rUXrNa01qzVrNas1rUWtNa1FqzWtRas1rTWrJWs1ayVpJWkVKyVpJWslaSVrNWslazVpJWs1ayVrNas1rUXtRas1bTWrNW01qzWtNas1rTWrJWslaSVrJWklayVpJSslaRUrJWklazVrJWslaSVpJWklayVpFSklaRVrJWkVayVpJWslayVrJaslbTWtNa1Fr1XtVa1VaEEEop9VrUVvVa1Vr2XtRaKCViDNVa1FrUVtRa9V7UWtRa1FrUWrNa1FqzVtRa1FrUWtRa9VrUWtRas1bUWtRa1FqzVtRas1bUWtRa1FrUWtRa1FrUWtRa1FrUWtRas1bUWtRa1FrUWtRas1bUWtNW1FrUWtRas1bTVtRa1FrTWtRa1Fr0WtRa1FrUWtVa1Fr1XvVeFl/1XvVe1Fr0XtRa9F70WvRe01r0WrNW1FrTWtRas1bUWrNa1FqzVtRas1rUWrNa1FqzVrNaslayVpJSslaSVrNWslbTWrJWs1aSVrNWs1bUWtRa9V4VY/Ve9V70XvVe1Fr0XtNa1FqzWtNas1bUWtRa1FqzVtNaslaSVpFSslaSVrJWkVKSVpFWklaRVrJWkVayVpFW01qyWtNaslayVrJW01rUWvVe1VrUWgchxRj3XvZatFb2WtVa1VrmHMQY1Fr1XtRa1FrTWvRe1Fr0XtNa01qzVtRa1FrUWtRa1FrUWtRa1FrUWrNW1FqzVtRas1bUWrNW1VrUWtRa1Fr1WtRa9VrUWtVa1FrUWtRW1FrUVtRas1bUWtNa1FrTVtRa1FrUWtRa1FrUWtRa01rUWtRa1FrUVtVa1Fr1XvVa9V71WvVe9V4WX/Ve9V70WvVe1FrUWtNa1FrUVtRas1bUWrNW1FqzVtRa1FrUXtRa1V7UWtRas1azWrNWs1azVtNas1bUWtRWs1azVtRa1FbUXtRa1FrUWvReFV/0XvVe9Fr0XtRa9F7UWtRa01bUWtNa1FrTWtNas1qzWpJWslqSVrJakVaSVpFWklaRVpJWkVKRVpFWklaRUrFWkVaxVpFSkVKyVrNaklLUWtRWSSkAABBCtVbWWtZa1VrWWsQUBh3UWtRa9F7TWtNa01rUWrNa01qzVtNas1azVrNW1FqzVtRa1FbUWrNW1FqzVtRas1bUWrNW1Fq0VtRa1FrUWtRa1FrUWtVatFbUWtRW1Fq0VtRatFbUWrNW1FqzVtRas1bUWtRa1FrUWvVa1Fr1XtRa9VrUWvVa1FbVWtVa9V7VWvVa1Vr1XvVa9V71WvVe1Fr1WtRa9Vq0VtRa1FbUWrNW1FqzVtRas1bUWtRW1FrUVtRatFbUWrNWs1azVtRWs1bUWtRW1FqzVtRWs1bUWrNW1FqzVtRaFV/0XhVf9F71XvRa9F7UWvRe01rUWtNW1FrTVtNaslbTWrJWslqSVrJWklayWpJWslqSVrJaklayVpFWslaRVrJWslbSWrJWslayVtNas1ayUtRa9VrtOQAASinWVvda9lrVVvZeQQiKMdRa9Fr0WvRe01rTWrNWs1qzVtNa01rUWrNW1FrUWtRa1Fr1WtRa1FrUWvVa1FrUWtRa9VrUWtVa1FrVWtRa1VrUWvVe1FrVWtRa1VrUWtRa1FbUWtRW1FrUVtRa1FrUWtRa1FrUWvVe1Fr1XvVa9V71WvVe9V71WtVa9l71XvVe1Vr1XvVa9l71XhZf9V72XvVa9l71XvVa1Fr1WtRa1FrUVtRatFbUWrRW1FrUWtRa1FbUWrRW1FrUWtRa1FrUWtRa1FrUWtRa1FrUWrNW1FqzVtRas1b0WvRe1Fr0WtRa9FrTWtRa01rUWtNW01qzVtNaslazVpFSklaRUpJWklayWpJWslayVrNaklayVpJWslqSVrJWslbTWrNa01rSWtNaslbTWrJW1FqzUpJOQggHIbVW1VbVVtVWk1IAAO491FqzVtRa1FrUWrJWslaSVrNas1bTWrNa1FrUVtRa1Fr1XtRa9V7UWtRa1FrUWtRa1FrUWtRa1FrVWtRa1FrUWtVa1FrVWtRa1VrUWtRa1FbUWrRW1FrUVtRas1bUWrNW1FrUVtRa1FrUWtRa1FrUWvVa1Fr1WtRa9V7VWvVe1Fr1WtRa9Vr1WvVe9Vr1XvVa9V71WvVe1Vr1XtRa1VrUWtRatFbUWrNW1FqzVtRatFbUWrNW1FrUWtRa1FbUWtRW1FrUVtRa1FrUWrNW1FazVtRas1bUWvVe9F71XtRa9V7UWvRa1Fr1XvRa9V7UWvVe1Fr0WtRa01qzWtNas1rTWrNas1qyWrNaslazWrJa01qzWtNas1rTWrJa01qyWtNa01rTWrJW01qzVrNStFbmHKQUlFK1VtZa1VYxRgAAck7UVtRa01r0XtNa01qyVrNas1bTWtNa1FrUWtRa1Fr1XtRa9V7UWvVa1FrUWtRa9VrUWtRa1Fr1XtRa9VrUWvVe1FrVWtRa9V7VWvVa1FrVWtRa1FrUVtRa1FrUWtRW1FrUWtRa1Fr1WtRa1FrUWvVe1Fr1XtRa9VrVWvVe1Vr1XtRa9VrUWvVe9V71XvVa9l71XvZe9V72XvVe9V7VWvVe1FrVWtRa1FrUWtRa1FbUWtRa1FrUWvVe1FrUWtRa1FrUWtRa1Fr1WtRa1FqzVtRa1Fr1WtRa9F71XvVe9V70WvVe9Fr1XtNa1FrUWvRa01rUWtRa1F6zVtNas1rTWrJWslaSVrJWklayWrJWs1qzWtNa01rUXrNa01qyVtNaslbTWrJWslazVtRatFbVWmotQQgxRhhj1Vr2XosxYgy0VtRa1FrUWtNa01qzVtNaslazWrNW01qzVtRas1bUWrNW1FrUVtRa1FrUWtRa1FrUWtRa1FrUWtRa1VrUWtVa1FrVWtRa1VrUWvVa1FrVWtRa1FrUVtRas1bUWrNW1FqzVtRa1FrUWtRa1FrUWvVe1Fr1XvVa9V7UVtVa1Vr1XtRa1VrUWvVe1Vr1XvVa9V71WvVe9Vr1XvVe9V71XvVe1Vr1WtRa9VrUWtVa1FrUWtRW1FrUWtVa1FrUWtRa1FrUWtRa1Fr1WtRa1FrUWtRa1FrUWtRa9V4VY/VeFWP1XvVe9V4VX/Ve1FrTWtRa01rTVrNW01azVrNWslbTWrNas1aSVrJWklazWrJW01qzWtNas1rUWtNa9F7TWtNa01rTWtNa9F7TWvRa1FoWX9RaUUpBBO89GGP2WhdjByHlHPZe1Fr1XtNW1FrTWtRe01rUWrNa01qzVtRa1FbUWtRW1FqzVtRas1bUWtRa9VrUWtRa1Fr1WtRa9V7VWvVe1Vr1WtRa9VrUWvVe9Vr1XtVa9VrUWtVa1FrUWtRW1FrUWtRa1FrUWtRa9V7UWvVe9V71XvVeFl/1XvVa1Vr2XvVe9V71WvZe9V4WX/VeFl/1XvZe9V4WX/VeFl/1XhZf9V72XvVe9V71XhZf9V71XtVa9VrUWvVe1Vr1XtRa9V7UWvVe1Fr1XvVe9V7UWvVe9V71XtRa9V7UWvVe9V70WvVe9F71XtRa9V7UWvRe1FrUWrNWs1ayUrNWklKzVrNW01qzWtNas1rUWrJWs1qyVrNWslazWrJWs1rUXtRes1azWrNW01rTWtNa01qzVtRatFbVWmIMiy3VVtVWOGODECgl9V7UWvRas1azWtRa01rUXtNa1FqzVrNW1FrUWtRW1FqzVtRas1bUWtRa9VrUWtRa1Fr1WtRa1FrUWvVe1FrVWtRa1VrUWtRa9Vr1XtRa9VrUWtRatFbUWtRW1FqzVtRas1bUWtRW1FrUWvVe1Fr1XvVa9V71XvVe1Fr1XvVe9l71XvZe9V4WX/ZeFmP1XhZf9V4WX/Ve9l71XvZe9V71XvVe9V71WvVe9l4WY/Ve9V7UWvVa1Fr1WtRa9V7UWvVe1Fr1XvVe9V71XvVe9V71XvVe9V7UWtRaFmMWYxZj9V71XvVe9V71WhZjFmMWY/Ve9V71WvVe9V71YvRe1F6zWtRa01rUWtRa1FrTWtRas1bUWrNa1FrTWvRe1FrUXtNa1FrTWtNaslbUWvVe1FqTUhZfizFCCHJK9l72XiAEMEb1XpJS9V7TWvRe01rUWrNa01qzWtNas1bUWrNW1FrUWvVa1Fr1XtRa9V71WvVe1Fr1XvVa9V71WvVe1Vr1XtVa9V71WvVe9VoWY/Ve9l71XvVe9V71XvVe9V7UWvVe1Fr1XvVa9V71WhZj9V4WX/VeFmP1XhZf9V71XvVa9V71WhZf9l4WY/Ve9V71WvZe9V4WY/Ve9V7VWhZj9l4WY/VeFmP2XhZj9l4WX/Ve9V71XvZe9VrVWtRW1FrUWtRa1Fr1XvVeFl/1XhZf9V4WYxZfFmP1XvVe1FYWYxZj9V4WY/Ve9V71XvVe1Fr1XvVe9V7UWvVe1Fr1XtRa1FrTWtRas1bTWrNW01qzWtRas1rUWrNW1FrTWtRa01rUWtRa1FqzVtNaslazVtNWs1bUWtRWs1YvQkEEzTlyThBCIARxSvZe1FrUWrNW01rTWrNWs1qSVrJWklayVrNWs1azVtRas1bUWtRa1FqzVtRa1FrUWtRa1FrUWtRa9V71XvVe9l71XvZe9V72XvVe9V71XvVe9Vr1XvVa9V71WvVe9V71XvVe9V71XvVe9V71XvVe9V71XvVe9V71XvZeFmP1XvZe1Vr1WtRa9VrUWtVa1Vr1XvVa9l71XhZj9V4WX/VeFmP1XhZjFl8WY/ZeFmP2XhZj9V71XtRa1Fr1WvVe9Vr1XvVeFmP1XhZj9V71XvVeFmP1XhZf1FrUWjdjFmMXYxZjFmMWXxdjFmMWY/VeFmP2XhZjFl8WY/Ve9V71XhVj9V71XtRe9F7UWtRa1Fr0XtRa1F7UWtRe1FrUXtRa1F7TWtRas1bTWrNW1FpxTvVe1FqSUrRWoxDmGFJKSSXFGFFK9V7UWtRa01r0XtNa1FrTWtNas1bTWrNW1FrUWtRa1FrUWtRa9V7UWtRa1Fr1XvVe9V71XvVe9VoWY/VeFmP2XhZj9V4WY/Ve9V71XhZf9V4WX/Ve9l71XvVe9V4WX/VeFmP1XhZj9V4WX/VeFmP1XhZf9V4WY/Ve9l71XhZj9l72XvVaFl/2XhZj9V4WX/VeFl8WXzdjN2MXYxZjN2cXYzdnN2M4ZzdnN2MWYzdjFmMXY/Ve9V7UWtRas1bUWtRW1FrUWvVe1FoWY/VeFmMWXxZjFl8WY/VeFmMWY/ZeFmMWXxZjFl8WYxZfFmP1XhZjFmM3ZxZjFmP1YhZj9V4VY/Ve9WL0XvVe01rUWtNa1FrUWtRa01rUWtRa1F7UWtRa01rUWrNW01rTVnFO1FrUVnJO9V4oJSAEaimDEGstkk6TUvRas1bTWrNW01qyVtNas1rUWtNa1FrUWtRa1FbUWtRa1FrUWtRa1FrUWtRa9VrUWvVe9V71XvVe9V7VWvVe9Vr1XtVa9V7UWvVe9V72XvVeFl/1XvVe9Vr1XvVa9V71XvVe9V71XvVe9V71XvVe9V71XvVe9V7VWhZfFl8WY/Ve9V71XhdjFmMWY/ZeFl/1XhZj9l4WYxZjFmMWYxdjF2M3ZxdjN2cWYxdjFmM3YxZjFmP1WtVa1FrUWtRa9Vr1XhZj9V4WYxZjFmP1XhZjFl8WY/VeFmMXYxZjFmP2XhZjFmMXYxZjFmP1XvZe9V4XYxZjFmP2XhZj9V71XtRa9VrUWvVe1FrUWtRa1FrUWvVa1FrUWtRa9V7UXvVe1F70XtRa1F7TWtRaklLUWpJS1FqzVjBGIAAhBCEEUUrUWrRW9V6zVrJWs1ayVrJWslazWrNW01qzWtRas1bUWrNW1FqzVtRas1bUWtRW1FqzVtRa1Fr1XvVe9V7VWvVe1Vr1XtVa9V7UWvVe9Vr2XvVeFmP1XvZe9Vr1XvVe9V71XhZj9V4WY/VeFmP1XhZf9V4WY/VeFl/1XjdjN2M3ZxZjFl/1WvVe9V4WY/ZeFl/1XhZf9V72XvVeFl/1XhZj9l4XYxZjF2MWYzhnN2c4ZzdnWGs3ZzdnFl8WX/Ve9V71XhZjFmM3YxZjN2cWYxZjFl8WYxZjFmMWYxZjFmMWYxZj9l4WYxZjF2MWYxZjFl8WYxZjFmMWYxZj9V71XtRa1FqzVtRa1Fr1WtRa1FrUWtRas1bUWtRa1FrVXvVe1F71XtRa9F7TWvRes1bTWrNWklLVWnJOtFbmHGIMKCW1VvVaklL0WrJW1FqyVrNWslayVpJWslaSVrNWs1bUVrNW1FqzVtRa1FbUWrNW1FqzVrNWs1bUWtRa9V7UWtVa1Fr1WtRa9VrVWvVe1Fr1WtVa9V71WvVe1Vr1XvVa9V71XhZf9V4WYxZfFmP1XvVe9V71XvVe9V71XvVe9V4WYxZjFmP1XvVe9V4WY/Va9l71XhZj9l4WY/ZeFmP1XhZj9l4WYxZfF2MWYzdjN2c4ZzdnWGc3Z1hnN2c3Z/Ve9V71XvVe9V4WY/VeFl8WYxZjFl8WYxZfFmMWYxZjOGcXYzhnF2M3ZxdjOGc3ZzhnN2c4ZzdnN2cWYxdjFmMWY/VeFmP1XvVe9Vr1XvVe9V7UWtRa1FrUWtRa9V71XvVe1V71XvRe9V7UXvRe1FrTWvRa1FqzUvVeklL2Xu497j2TTtVas1KzUrNWs1b0WtNas1bTWrJWs1ayVrNaslazVrNW1FqzVtRas1bUWtRa1FqzVtRa1FrUWtRa1FrUWtRa1Fr1WtRa9V7VWvVe9V71XtVa9V7VWvVe1Fr1XtVa9V71XhZf9V4WY/VeFmMWYxZf9V4WY/VeFl/1XhZj9V71XtVa9l71XhZf9l4WYxZfFmP2XhZj9V4WX/ZeF2MWYxdjFmM3YxZjN2MWYzdnF2M3ZxZjFmMWXxZjFl8WY/VeFmP1XhZjFmM3YxZjN2cWYzdnFmM3YxZjFmMWYxZj9V44Z1hrN2c4ZzdnOGc3ZzhnF2M4ZxdjN2f2XvZe9V4WY/VeFmP1XhZf9V71XtRa9V71XvVe1FrUWtRW1FrUWvVe1Fr1XtRa9F7UWvRe01rUWrJW9F7TVtNW01rUWrRW1FaSTjhnUUqSUtRa1FpxTrNWkVKyVpFSklKSUrJWklKyVnFOklJxTpJSklKyUpJSslaSUrNWs1bTWrNW01aSVrNSs1bUWrNW1FrUWvVa1Fr1XtVa9V7UWtRa1FrUWtRa1FrUWvVe1Fr1XvVe9V71XhZf9V71XvVe9V71XvVe9V71XvVe9V7UWvVe1Fr1XtRa1Fr1XvVe1FrUWrNW1FrUWvVe9V71XvVe9V71XhZf9V71XtRe1FqzVrNWs1bUVrNWs1aSUrNWslbUWtRaFV/1XhZjFmM3YxZjFmMWYxZj9V71XjdnN2dYZzdnOGc3YzhnN2dYZzdnN2cWYzdjFmM3YxZjOGcXYxZjFmM3YxZf9V6zVtRa1FrUWtRa9V70WvRe9FoVY/Re9WL0XvVe9F70XtNa01rTWtNas1bTWrJWs1aSUrNWklKzVpJSs1aSVrJWklazVpJWslaRUpJWcVKRUnFOklaSUrJWklKSUpFSklaSUrJWslbTWtNa1F7TWtNas1bUWrNW1FqzWtRa1Fr1XtRa1FrTWtRa1FrUXtRa9V71XtRa01rUWtNa1FrUWtRa01bUWtRa1FrUWvVe9Fr1XtRa9V70XvVe9F71XtRe9F7UWvVe9F71XvVeFmP1XvRes1r0XtRa9F7UWvRe01qzVpFSklKRUpJSklKzWrNWs1aSUrNakVKRUnFOklKRUrNa1Fr1XvVeFmMWYzdnN2c3ZxZjF2M4ZzdnWGc3YzdnN2M4ZzdnOGc3ZzhnN2M3ZzdnOGc3ZzdnFmMXYxZjFmP1XvVe01bUWtNa1FrTVtRa01rUWtRa9F7TXvRe01rUXtNa9F6zWtNas1rTWrJWslayVrJWklKSVpJSklaRUpJWklKSVpFSklaRUpJWcVKSUnFSklKRUrJWslayVpFSklaSVrJWkVKSVpJWs1qyVrNaslazVrNW01qzVtNas1bUWtRa1F7UWtRe1FrUXtRa1F7UWvRe1Fr1XtRa9V7UWvRa1FrUWrNW01qzVtRas1bUWrNW1FqzWtRa01rUWrNa01qzWtNas1bTWrNa1F7UWtRes1qzWrNWs1aSUpJWkVKSVpFSklKRUpJWklKyVpJWslaSUpJWkVKRUnBOcVJwTpFSklKzWpJWs1rUXhZjFmc3azdnWGtYZzhnWGtYZ1hnN2c4ZzdnWGtYZ1hrWGtYa1hnWGtYZ1hnN2c3ZxdjN2MWYzZjFmP1XvRa9V70WvRa01r0WtNa9F7TWvRe01rUXtNa9F7TWtRa01rUXtNa01qyVrNaslayVpJWslaSUpJWkVKSVpFSklKRUpJWklKSVpJSslaSVpJWklazWrJWslaSVrJWslayVpJSslayVrNWslbTWrNWs1aSVrNWklazVpJWs1qzVtRes1rUWrNa1F7UWvRe1Fr0WtRa1FrUWtRas1bUWrNWs1azVtNWs1azVrJWs1ayVrNas1bTWrNWs1qzVrNas1aSVpJSslaSVrNaslazWpJWs1aSVpJWkVKSVpJSslaSUrNWklazVrJWs1qyVrJWkVKyVnFSkVKRUpFScVKSVpJWs1azVtRe9V4WYxZjN2c3ZzdnWGc4Z1hrOGdYazdnWGc4Z1hrOGdYa1hnWGs3ZzdnF2M3ZxdjN2MWYxZj9V4WX/VeFV/1XvVe9Fr0XtRa9FrTWtRe01rUWtNa01qzWtNas1rTWrNa01qyVrNWklayVpJSslaRUpJWkVKSUnFSkVJxUpJScVKSUpJSslaSUrJWcE6RUnFSklKRUpFScU6RUpFSklKRUpFSkVKyVpJWslaRUpJWkVKSUpJSklaSUpJWklaSUnFOklKzVtRas1qzWrJWs1aSUrJSklKyUpJSklKSUrJWklKSUpJSslKSUpJWklKSVpFSklKRUpJWkVKSVnFOcVJwTnFScU6RUnFSkVKRUpJWklKzVrJWs1aRUnFSklayVpJSslaSVrNWklKSUpJSkVJxUpJWkVKRUnFSklaSUpJWklKzWtRa9V71YhZjWGc3Z1hnOGdZa1hrWWtYa1lrWGtZa1hrWGs4ZzhnN2M3ZzdnWGs4ZzdnFmMVX/VaFl/1XhVf9Fr1XvRa9F7UWvRe1F70XtNa1FrTWtNas1bTWtNa01qzVtNaslayVpJSslaSVrJWklKSVpFSklJxUrJWklKyVpJSslaSVrJWklaRUnFSkVKRUpJWkVKRUnBOkVJxUpFScE6RUpFSklaRUrNWslayVpJWs1ayVrNWslaSVnFOcU5xTrJWslazVpJSslaSUpJWkVKyVpJSslayVpJWkVKSUpFSklaSUrJWklaRUnFScVJwTnFScE5xUnFOkVJxUnFScE5xUnBOcVJxTpFScVKSVpJSslaSUpFSUE6SVpFSklKSUrNWslazVpJWslaRUpJWklayVpFSklKRUpJScVKRUpFSs1rVXhdnN2cXYzdnN2dYZ1hneWtYa1lrWGtZa1hrWWtYZ1hrOGdYZzdnWGtYa1lrOGc3Z/Ze9V7UWvVa1Fr0WtNW1FrTVtNa01rUWtNa1FqzVtNas1bTWrNW01qzVtNaslayVpJSslaSUpJWklKSVpFSklKRUpJSklKyVpJSslaSUpJWklKSVpFSklKRUpJWkVKSVpFSkVKRUpFScVKRUnFOkVKRUpJWkVKSUpFSklaRUpJWklKyVpFSkVJxTpFScVKSUnFSkVJxTpFScU6RUnFOklKSUrJWcU6RUnFOkVJxTpJSklKyVpFSklJxUpFScE5xUnFSkVJxUpJScVKRUnBOcU5xTpFSkVKSUnFSkVJxUpFScVKRUnFOcVJxTpJSklKzVrJWs1aRUpFSkVKyVpFSkVJxUpJSklKSVnFSklKSUtRa9V4WYzhnN2M4ZzhnWWtYa3lrWGt5a1hreWtYa1lrWGt5a1lreWtZa3lrWWt5a1hnN2cWX/Ve9Fr1XtRa1FqzVtNWslbTWrNW01qzWtNas1rUWtNa1FrTWtRe01rTWrNWs1qyVrJWklKyVpJWslaSUrJWklayVpJWslaSVrJWklazVpJWslaRUpJWkVKSVpFSkVJxTrJWkVKSVpFSkVJxUpFSkVJxUnBOcVJwTnFScVKRVpFSklaRUpJWcVKRUnFSkVJxUpFScU6RUnBOkVJxTpJSkVKSUpFSkVJxTpFSkVKyVpJS01qyVrNWklKSVpFSklaSUpJWklazVpJWklaRUrJWklayVpJSklaSUrJWslazWrJWklJxUpJSkVKyVrJW01qzVrJWkVKSVpJWslaRUpJWklazWrNWs1aSVrNWklazWrNWN2c4ZzdjOGdYZ1lrWGdYZzhnWGs3Z1hnWGdZa1hreW9Za1lrOGdYa1hrWWs3Zxdj9V71XtRa1FrTVtNWslKyUpJSslayVrNWs1bTWrNW01rUWvRe01rUWtNa01qyVrNWklKSVpJSklaSUrJWklKyVpJSklaSUrJWklayVpJWslaRUpFScE5wTnBOcVJQTnBOcE5xTlBOcE5QSlBOT0pQSlBOcE5QTnBOcE5xUnFSkVJwTnFScFJxUnBOcVJxUpFSkVKSUnFOcVJwTpFScVKSUpFSkVJwTnFOcE6RUnFOkVKSVrJWcVJxUnBOcVJwTnFSkVKyVrJWs1qyVrNWslazWnFOkVKRUrNWs1rTWrJWslaRUpJScVKSVpJWs1qyVrNaklaSVpFSslayVrJWklKzVnFOklJxUpJWklKTVpJSklJYazhnOGc3ZzhnOGdYa1hreWtYa1lrWGtZa1hreWtYa1lrWGdZa1hreWtYa1lrWGsXYxZf9V7UWvVa1FbTVrJSs1azVtRa1Fr1XvRa9V7UWvRa1Fr1XvVe9V7UWtNWslazVpJWklaRUrJWklayVpJSs1qSVpJScVKSVpJWklaRUrJWkVJxUnBOkVKRUpFScVJxTlBKT0ouRk9KT0pQSk9KcVJwTnFScE5xUnFSklaRUpFWcVJxUnBSkVaRUpFScE6SUpFSkVJxTpFScU6RUnFOcVJxUpFScVKRUnBOcVJwTpJScVJxUnFOkVJxUpJSkVKyVpJSklZxUpJSkVKSVpFSs1aSVrJWslbUWtNa01qzVrNWslbTWrNa1F7TWtNas1ayVrJWs1ayVtNaslayVpJSklKSUpJWklazVpJWklaSUvZeFmMWXxZjFl83YxdjN2c3YzdnN2dYZzdnWGtYa1lrWGdZa1lreWtZa1lrWGtZaxdjF2P2XvVe1Fr0WtNW1FbTVtRa1Fr0XtRa1FrUWtRa01bUWtRa9F7UWtRa1FrUWtNa01qyVrJWklKSVpFSkVJxUpFSkVKSVpJSslaSUpJWcU5xUnBOkVJxUpFScU5xUlBOcE5PSnBOUE5wTnBOcE5QTnBOUE5wTlBOcVJxUpFSkVKRUnBOcVJxUpFScVKRUnBOcVJwTnFScE5xTnBOcVJwTpFSkVKRUnBOcE5wTpFScU5xUnFOkVJxTpFScVKSUnFSkVJxUpFScVKSUpJSslaSVrJWklazVrJWs1qyVrJWklazVrNW01qzWtNas1rTWpFSklaRUpJWkVKSVpJSslaSUpJWklKSVnJSklKSUpJSF2MWYzdjF2M3ZzdnWGs4ZzdnN2M4ZzdnWGtYZ3lrWWt5b1lrem9Za3pvWWt5b1lrWWs3ZzdnFmMWY/Ve9V70WhZj9V4WY/VeFV/1XhVf9V71XvRa9V70WvVe9Fr1XvRe9V7UXtRes1qzWpJWslaRUpFSkVKyVpJWslaSUrJWklJxTnBOkVKRUpJSkVKRUnBOcVJwTnFScVKRUnFSkVJwTlBOT05wUnBOcFJwTnFScFKRVnBScVJwUnFScVKRVnFSkVJwUpFScFJxUnBSkVJxUnFScFKRVnFSkVJwTpFScVKRUnFSklKRUpJSkVKSVpFSklJxUpJSkVKSVpJSslaSVrJWklKyVpJWs1ayVrNaklayVpJWs1ayVrNWslazWrJWs1aSVrJWkVKSVpFSs1ayVtNas1azVpJSklJxUpJSklI3YzhnN2dYa1hnWWtYZ1hrN2dYZzdnWGdYZ1lrWGt5a1lrem9Za3pvWWt5a1lrWWtZa1lrN2c3YxZjFmP1XvVeFV8WY/VeFV/1XhZj9V4WYxVfFmP1XvVe9V71XvRa9V70XvRe01rUWrNas1qSVpJWkVKSVpJWklZxUnFScE6RUlBOcE5wTnFScVKRUnBOcVJxUpFScE5xTnBOcE5PSk9KT05QTk9OcFJwTnBSUE5wTlBOcFJQTnBScE5wUnBOcFJwUnFScE5xUnBSkVJwUpFScE5xUnBOcVJwUnFScE5wUnFOkVJxUpJSkVKSVnFSkVKRUpJWkVKSUnFSklJxUpFScVKRUnFSklKSUrNWslazWpJWslaSUrJWklazVpJWs1ayVrJWklayVpJWslaSVrNWs1azVpJSklJyUpJScVKSUlhnN2dYZzdnWGs4Z1hnN2dZa1hrWGtYZ1lrWGt5a1lrem9aa3pvWWt6b1lreWtZa3pvWWtYazdnN2cXYxdjFV8WY/VeFl/1XhZf9V4WX/VeFmMWYzZjFmM2YxZfFl/1XhVj9V71XtRe9F7TWrNaklayVpJWslZxUnFScE5xUnFSkVJwTnFScE6RUnFSkVKRUpJWcVJxTlBOcE5wTnBOT0pwUnBScFJwUnFScFJwUlBOUE5PTnBScFKRVnBScFJPTpFScFKQUnBSkVJwUpFWkVJwUnBOcFJwTpFScFJwUnBOkVJxUpJSkVKSVpJSklJxUpJWklKSVpFSklaRUpJScVKRUnFSklKRUpJWklazVrNW01qzVrNaslbTWrNa01qzWrNaslazWrJW01qyVrNaslayVpJWs1aSVrNWklaSVpJSN2M3ZzdjN2cXYzdnF2M3ZzhnWGs4Z1hrOGdYa1hnWWtZa3prWWt6b1lremtZa3lreWt5a1hrWGs3ZzdnFmMWYxZfFmMWXxZj9V4WX/VeFl/1XhZfFl82YxZjFmMWXxZjFmMWY/Ve9WLUXtRaslayVpFSklJxUnFSUE5xTnFSklZwTpFScU5xUnBOcVKRUrJWcU5xUnBOcE5wTnFScU5xUnBOcFJwUnBScFJwUnBScFJPTnBScFKRVnBScVJwUnBScE5wUnBOcFJwTnBScFKRUnBOcFJwTnBScFKQUnBOcFJwTpFScVKSUnFSkVJxUpFScE5xUnFSklKRUpJWklKSVpFSklaRUpJScVKRUpFSslaSVrJWklazVpJWslaSVrJWkVKRVpJWslaSVrJWkVKSVnFSklKSUrNWklazVpJSklZYazhnWGc3ZzhnN2dYa1hnWGc3Z1hrOGdYa1hnWWtYa3pvWmt6b3pvem96b3pveW96b3lreW9Za1hrN2c3ZxZfFmMWXzZjFmM2YxZjFmMWXxZf9V4WYxZfFmMWXzZjFmM3ZxZjFmcVYxVj9F7UXrNas1aSUpJScVKRUnFSklaRUpFSkVKSVpFSkVJxTpJSkVKRUnFSkVKRUpJWkVKSVpFSkVZwUpFWcFJwUnBScFJwUnBScFKRVnFSkVZwUpFWkVaRVnBSkVZwUpFScFKRVnBSkVJwUnBScFKRVpFSkVZwUpFScVKRUnFSkVJxUpJSkVKRUnFSklaSUpJWklKyVpJSslaSVrJWkVKRUnFSklaSVrJWklazVrJWs1aSVrJWklKSUpFSklaRUpJWkVKSVpFSklaSUrNWklazVpJWs1aSVjhnWGc3ZzdnN2dYa1hnWWs3ZzhnN2dYZ1hnWWtYa3lrWWt6b3prem96b3pvem96b3lvem9Za3lvWGtYaxZjFmOzVtRa1Fr1XvVeFl/1XhVfFmMWY/Ve9V71WvVe9V4WYxVjFmMVYxZjFmMWY/Re9F6zVrNWklKSUpJSklJxTnBOcE6RUpFSklaRUpFScU6RUnFSkVKRUrJWklayVnFOcFJxUpFWcFJwUlBOcFJQTnBScFJxUnBScFJPTnBScVKyVpJWslaRVpFWkVaRVpFSkVZxUpFScFKRUpFWklaRUpFScVKRUnBOcVJwTpFScVKRUnFSklKRUpJWkVKSUnFSkVKRUpJWkVKSUnFSkVKRUrNWslbTWrNW01qzWtNaslayVpFSkVJxUpFScVKRUnFSklKSVrJWkVKSUpJSklaSVrNWWGs4Z1hnN2c4ZzdnOGc3Z1hrWGdYZzdnWGc4Z1hrWGd6b3lrem9Za3lvWWt6b3pvem96b5pvem+ab1lrWGs3Z1hnN2M3YxZjFmP1XhZjN2NYZzdnN2cWYxZj9V71XvVaN2cWYzdnFmM3ZxZjFmMWY/Ve1FrUWtRW1FqzVtRWs1ayVpFSklKRUpJWklKSVnFSslaRUpJSkVKSVpFSkVJwTpFWcVKSVpJWslaSVpJWkVaSVpFSklaRUpJWklayWpJWslaRUpFWkVKyVpJWslaSUrJWklKSVpJSslaSVrJWklKSVpFSkVJxUpFSkVKRUpFSklaRUrJWkVKyVpFSkVJxUpJSkVKSVpJSslayUrJWklLTWtNW1FrTWtRe01rUXtNaslayVrJWT04uRg5GcFKzWrNaklayVpJWs1qyWrNaslYXYzdjFmMXYxZfFmMWYzdjN2M3ZxdjN2MWYzdjN2M3ZzhnWGtYa3lrWWt6b3pvm3N5a3pvem96b3lreWtYa1hrN2MXYxZfF2MWYxZjFmM3Z/ZeFmMWXxdjFmMXYxZjN2P2XhZjFl8XYxZfFmMWXxZj9l4WX/Ve9V7UWvVa1Fr1WtNa01qyVrJWklKSVnFScVKSUrJWslazVpJSklaRUpJWcVKRVpFSklaRUpJWkVaSVpJWklaRUpJWcVKSVpJWslZxUpFScU6RUnFSklKRUpJSklayVpJSklaRUpJWkVKSVnFSkVJwTnBSUE5wTk9OcE5wTpFSkVKRVpFSklaRUrJWkVKSUpFSslKSUrJWslKzVrJW01azVtNWslKyVrJSs1aRUrJaklZxUi5KLkpPTpJWcVKRVnFSkVaRUpJWkVaSVllrWGdYazhnWGs4Z1hrWGs4ZzdnN2c3YzdnN2M4ZzdnOGc4Z1lrWWt5b3lrmm96b5pzem+ab3pvem95a3pveW84ZxZjFmMXYzhnN2M3ZzdjF2MWYzdjFmMXYxZjN2MWYxZjFmM3YxZjN2MWYxdjFmM3YxZjN2MWYxZj9l4WX/Ve9V7UXvRe1F70XtRe9F7TWrNas1rUXtNas1qSVrNWs1aSVpFSklaRUpJWkVKyVpJWslaRUpJWcVKRUnFSklaRUpJWkVKSUpFSklaSUpJWkVKSVpFSklJxUpFScVKSVpJSklaRUpFScVJxUnBOcVJwTpJWkVKSVpFSklaRUrJWklayVpJSslKSUrJSklKzVrJW01azVtNWslayVpJSs1ayVrNWs1rTWrJWkVJQTnFScVKRUnFSklaRUpJWkVKyVpJSN2c4ZzdjN2c3YzdnN2c4ZzdnOGc3YzdnN2M3ZzdjOGc4Z1lrWGdZa1lrWWtYZ1lreWt6b3lrem95a3pveW96b1hnN2cWYxdjF2MXYxZfN2MWYxZj9l4WY/VeFl/1XvVeFmMXYxZjN2MXYzdnFmM3YxZfFmMWXxZjFl8WY/Ve9V71XvVi9F71YvViFWP1XvVis1bTWrNa01qzVrNaklazVpJWklZxUpFScVKSVpFSklaRUpJWkVKSVpFSklZxUpFSklaSVpFSklKSUrJWklKSVnFSkVJxTnFScVKSUpFSslaRUpJWkVKRUpFSklaRUpJWklayVpFSkVJxUpFScVKRUnFSklKRTpJSkVKyUpFSklKSUrJWslbTVrNW01qzVtRas1rTXrNa01qyVrJWkVKSVpFWslaSVrJWklayVpJWs1Y3ZzdjN2cXYzdnN2M4ZzdnOGc3YzdnFmM3ZxdjN2c3Y1lrWGt5a1lrWWtYZ1lrOGd5b1lrem96b5pzem96b3lvem9Ya1hnN2MWY/VeFl8WYxZf9V4WX/ZeFmMWXxZjFl8XYxZjN2MWYzdnN2M3ZxdjFmMWYxdjFmMXYxZfFmP1XjZnFWMVY/Ve9V70XtRe01r1XtRa01qzWvRe1FrUWpJWs1qSVpJWklKSVpJWklaSVpJWklazWrNa1FqzWrNaklazWpJWklaSUrJWklayVpJWs1aSVrJWklKSVpJSslaSVrJWkVKSVpFSslaSUrJWklayVpJSklaRUpFSkVKRUpFSklKRUrJWslbTVrJWslKRUpFSklLTVtNW1FrTWtNas1rUWrNa01qzWtNes1rTWrJas1qzWtNas1qzWrJWs1qzWhdjN2cXYzdnF2M3ZzdnWGs3YzdnF2M3YxZjN2c3YzdnN2M4ZzhnWWs4Z1lrWGt5a1hneWt5a3pvem96b3pvem96b3lvWGtYZ/Ze9Vr1WhZjFl8WYxZfFmP1XhZf9V4WX/Ve9l72XhZjFl8XYxZjF2MWXxZjFmMXYxZfFmMWXxZj9mIWY/Ve9WL1XvVe9F70XvVe9F7TWtRe9F71YtRa01qzVrNas1azWpJWs1aSVrNWcVKSVpJWs1qzWrNaklaSVpJWklaRUpJWkVKSVpFSklaSVrJWklKSVnFScVJwTnFOkVKRUnFSkVJwTnFScE5xUnFOkVJxUpFSkVKSVpFSslaSUrNWs1bUWtNW01ayVrJWcU6SUrJS01ayUrJWkVKSUrJWslaSVrJWklazWrNa01qyVtNas1rTWpJWslaSVrNaFl/1XhZf9l4WYxZfN2MXY1hnN2c4ZzdjN2c3YzhnN2c3ZzdnWGtYZ1hrWGt5b3lvem95a3pveW+ab3pvmnOab5pzeW95b1hrWGcWYxZjFl83ZxdjN2MWYxZj9V71XtVa9V71XhZjFl8XYxZjN2MWYzdjFmM3YxZjN2MWYzdnNmMWZxZjFmMWYzZnFmM3ZxZjFmP1XvVe9V4WY/Vi9WLUWtRe1Fr0XtRa1FqzWtRas1azVrJWs1qzVrNas1azVpJWs1aSVrJWklKyVpJWslaSUpJWklKyVpJSklJxUnFScE6SUnFSkVJxUnFScU6RUnFOkVJxUpJWklKyVpJWs1qyVtNa01bUWtNa1FrTVtRa01azVrJW01ayVrJWkVKyUpFSklaSUrJWklKyVrJW01qzWtNa01rUXrNaslaRUrJWslYXYzdnFmM3YzdjOGc3Z1hrFmMXYxZfFmMWXxdjFmM3YzdnOGc3Z1hnOGdZa1lrem96b5pveWt5b3lvmm+ab5tzeW95b1hreW9Za1hnFmMWX/Ve9l71XvZe9V4WX/Ve9l71WvZe9V4WYxZjN2MWYzdjFmMXYxZfFmMWXxdjFmM3YzdnN2cWYxZjFmMWY/Ve9V71XhVj9V71YvVe9WL0XvVe1F71XtRe9V7UXtRes1rUWtRe9V7UWtRas1rUWrNa1FqyVrNWklKyVpJWs1aSVpJWkVKSVpJWs1ayVrNWklKSVnFSkVJxUpFSkVKSVpFSklaRUpJWklKyVrJWs1aSVrJW01rUWrNWs1ayVtNa01bUWtNa1FqzVrNWklKyVrJS01aRUpJWklKyVpJWslayVrNas1rUWtNa01qSUpJSkVKyVjdnF2M3ZxdjN2cXYzdnF2NYZzhnWGc3YzhnN2c3Z/VeN2MXYzdjF2NYZ1hneWtZa1lrWWt6b3lvmnN6b5pzmm+ab3lveW9Za3lrWGtYazhnN2cXYzdjFmM3YxZjF2MWYxZj9l4WY/ZeF2MWYzdnN2MXYxZjF2MWYzdnN2M3ZzdjN2cWYzdnN2M3ZxZjFmMWYzdnFmMWY/VeFmP1XvVe1Fr1XvVe9V71XvVe1FrUWrNW9V7UWtRatFrUWrNWtFqzVrNWslazVrJWs1qyVrNWslazWpJWslaSVrNWslazWrJWs1qzVrNaslazVpJSklaSUpJWklazWrNa1FqzWrNaslbUWtNW01qzVtNa01bUWtNa9F7TWtRa01bTWtNW1FrTWtRa01rUWrNa1FqzWtRas1bTWrNW01qyVrJWklKyVrJWWGdYazhnWGc3ZzdnN2M3ZzdnWGc3ZzdnN2NYazhnN2cXYzdjF2M3YxdjN2MXYzdnN2NYa3lrmm96b3pveW96b3lvem95b3pveWt5b1lreW8WYzdjFmMXYxZfFmMWXxZj9V4WX/VeFl/1XhZjFmM3YzdjN2c3ZzhnN2dYZzhnWGsWYzdnN2M3ZxZjN2cWYzdn9V4WX/VeFl/1XhZf9V71XvVe9V71XvVe1FrUWtRa1FrUWtRa1FrUWrRa1Fq0WtRas1rTWrNa01qzVrNas1azWpJSklaRUpJWklKyVpJWslazVtNas1rUWrJWslaSUpJWklKzVrNW1FrUWtRe01rUWtNa1FrTVtRa01bUWtNa9FrTWtRa01bTWrNW01rTVtRa1FrUXtRa1F7UWtRa1FrUWtRa9F7UWtRas1azWrNW1FpYa1hnWGs4ZzhnN2M3ZzdjN2c3YzdnFl8XYzdjOGc3YzdnF2M4ZxdjF2MWXxdjFl8XYxdjOGc4Z1hnOGdZa1hnWWtYa3lrWGt5a1hreW9Za1hrN2dYZzdnN2cXYzdnF2M3YxZjF2MWYxdjFmM3ZzdjN2MWYzdnN2M3ZzdjOGc3ZzdnN2M3ZxdjN2MXYzdnF2M4ZzdjN2c3YzhnN2c4ZzdjFmP1XvZe1V71XtRa9V7UWtRas1bUWrRW1FqzVtRas1azWrJWs1qzVrNaslazWrNW1F7TWtRa01rUXtRa9F7UWrJWklazWrNWslaRUpJScVKSVpJSs1azVtNas1rUWtRa01qzVtRa01bUWtNW1FrTVtRa01bTWrNW01azVtNa01bUWtNa1FrTWtRas1bUWrNa1FqzWtRas1azVpJWs1azVjdnOGc3ZzhnN2c4ZzdnOGc4Z1hnN2M3ZxdjN2cXYzdjN2M4ZzhnWGc4Z1hnN2c4ZzhnOGcXYxdjFmM4Z1hneW9Ya3lrWGt5a1lreW9Za3lveW96b3lreW9Ya3lrWGdYa1hnWGs3Z1hnN2dYZzdnWGs3YzdnF2M3ZzdnOGc3ZzhnWGdYazdnOGc3ZzhnN2dYZ1hnWGc3ZzdnN2c3ZxdjF2M3ZzdnFmMWY/ZiFmP2YhZj1V71XtRa1V7UWtVe1FrUWrNa1FqzWtRa01rUXtRa9F6zVrNaklazVrJWs1qyVrNas1azWrNWs1aSUpJWklKzVrNW01qzVtRa01rUXtRa9V7UWvRe1Fr0XvRa9F7UWvRa1Fr0XtRa9FrUWvRa01r0WtRa1F7UWtRa1FrUWtNa1FrTWtRas1azWrNWs1azVtNaF2MWYxZjFl8XYxZjFmMWXzdnF2M3ZzdjN2cWYxZjFl8XYxZjN2MXYzhnN2M3ZxdjWGc3Zzdj9l4XYxdjWWt5a3lvWWt5a1hreW9Ya3lrWGtZa1hrWGs4Z1hrN2c4ZzdnWGc3ZzdnFmM3YxZjN2MXYzdnN2M3ZzdjN2c3ZzdnN2NYazdnOGc3YzdnN2M4ZzdnWGc3ZzdnF2M3ZzdjN2MWYzdnN2M3YxZjFmMWYxZjFmMWY/ZeFl/1XvVe1Vr1XtRa9V7UXvRe1Fr0XtRa1F7UWvVe1F7UXtNa9F7UXvRe1FrUWrNas1aSUpJSklKzVrNW1F7UWtRas1rUWtRa1F7UWtRe1Fr0XtRa9F7UWvRa01rUWtNa1FrTVtRa01bTWrNW1FrUWtRa1FbUWtRW1FqzVtRa1FbUWrNW1FqzVtRas1Y3ZzdnN2M3ZxZjF2MWYxZj9V4WXxZfN2cWYxZjFl8XYxZfF2MWYxdjFl8XYxZfF2MXYzdnN2M4ZzdjOGc4Z1hreWt5b3lreW9Ya3lrWGt5a1hrWWtYa1lrWGdYa1hnWGs4Z1hrN2c4ZzdjN2c3ZzhnN2c4ZzdnWGc3ZzhnN2dYZ1hnWGtYZ1hrOGdYazhnWGtYZ1hrWGdZa1hreW9Za3lrN2c4ZzdnN2cXYzdnF2M3ZxZjN2MWYxZj9V72XvVe9V71YhVj9V71YtRe1F7TWtRas1azWrJWs1ayVrNaslazVtRa1FqzVrNWklKzVrNW1FrUWtRe1FrUXtRa1F7UWvRe01rUWtNa9FrTWtRa01rUWtNa9FrUWvRe1Fr0WtNa1FrUWtRa1FrUWrNW1FrUVtRas1azVrNWs1azVtRWs1bUWjhnN2c3ZxdjN2MWYxdjFmP1XvVaFl8WXxZj9VoWXxZjF2MWXxdj9l4WX/ZeF2P2XhdjF2M4ZzhnOGc3YzhnN2dZa1hrWWtYa1hrWGdYa1hneWtYa3lrWGt5a1hreWtYa3lrWGtZa1hnWGs4Z1hrWGc4ZzdnOGc3ZzhnN2c4ZzdnWGtYZ1lrWGtYazhnWGs4ZzdnF2M3ZzdnWGc4Z1hrOGc4ZzdnWGs4ZzhnN2c4ZxdjN2cWYxdjFmMWY/Ve9l71XhZj9V4VY/Re9F7UWvRe1FoWY/ViFWP1XhVj9V4VY/Ve1V7UWtRetFq0WrNW1FrUWtRa1FrUXtRa1F7UWvVe1Fr0XtNa9FrTWtRa01bUWtNa9F70WvVe9F71XvRa9F7UWtRa1FrUWtRa1FrUWtRa1FqzVpJSs1aSUrNWs1bUVrNWMEZQSjBGUEowRlBKMEZQSlBKUEovRlBKL0YvRi9CUUowRlBGL0YwRjBGUEYwRlFKUUpyTlFKcUpRSnJOck6SUnJOklJxTpJOck6SUnJOklJxTpJOcU6STnJOklJxTpJSck6SUnFOcU5xSnJOcU5yTnFOck5xTnJOcU5yTnFOcU5xSnJOcU6STnFOck5RSnFOck6STnFOck5yTpJSck5yTnFOck5xTnJOcU5yTlFKUUpRSnFOUEpRSlBKUUowRlBKL0YvSi5GL0ovRk9KL0pPSi9KT0ouRi9GLkYvSi5GL0YPRi9KL0YvSi9GL0YOQi9GDkIORg5CL0YvRi9KL0YvRi9GT0YuRi5GLkIvRi5CL0YuQi9GLkYvRi5GL0YOQi5CL0YvRg5CL0YOQi9GDkIvRg5CDkLtPQ4+DkIvQg5CDkJGAAAAFAAAAAgAAABHRElDAwAAACIAAAAMAAAA/////yIAAAAMAAAA/////yUAAAAMAAAADQAAgCgAAAAMAAAABAAAACIAAAAMAAAA/////yIAAAAMAAAA/v///ycAAAAYAAAABAAAAAAAAAD///8AAAAAACUAAAAMAAAABAAAAEwAAABkAAAAAAAAAHIAAACaAQAAugAAAAAAAAByAAAAmwEAAEkAAAAhAPAAAAAAAAAAAAAAAIA/AAAAAAAAAAAAAIA/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAAAAIAoAAAADAAAAAQAAAAnAAAAGAAAAAQAAAAAAAAA////AAAAAAAlAAAADAAAAAQAAABMAAAAZAAAABUAAAByAAAAfwEAAIYAAAAVAAAAcgAAAGsBAAAVAAAAIQDwAAAAAAAAAAAAAACAPwAAAAAAAAAAAACAPwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJQAAAAwAAAAAAACAKAAAAAwAAAAEAAAAJQAAAAwAAAABAAAAGAAAAAwAAAAAAAAAEgAAAAwAAAABAAAAHgAAABgAAAAVAAAAcgAAAIABAACHAAAAJQAAAAwAAAABAAAAVAAAAKgAAAAWAAAAcgAAAIkAAACGAAAAAQAAAADAgEGO44BBFgAAAHIAAAAPAAAATAAAAAAAAAAAAAAAAAAAAP//////////bAAAAFMAdwBhAHAAbgBpAGwAIABDAGgAYQBuAGcAbABlAAAACQAAAAwAAAAIAAAACQAAAAkAAAAEAAAABAAAAAQAAAAKAAAACQAAAAgAAAAJAAAACQAAAAQAAAAIAAAASwAAAEAAAAAwAAAABQAAACAAAAABAAAAAQAAABAAAAAAAAAAAAAAAJsBAADAAAAAAAAAAAAAAACbAQAAwAAAACUAAAAMAAAAAgAAACcAAAAYAAAABAAAAAAAAAD///8AAAAAACUAAAAMAAAABAAAAEwAAABkAAAAFQAAAIwAAAB/AQAAoAAAABUAAACMAAAAawEAABUAAAAhAPAAAAAAAAAAAAAAAIA/AAAAAAAAAAAAAIA/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlAAAADAAAAAAAAIAoAAAADAAAAAQAAAAlAAAADAAAAAEAAAAYAAAADAAAAAAAAAASAAAADAAAAAEAAAAeAAAAGAAAABUAAACMAAAAgAEAAKEAAAAlAAAADAAAAAEAAABUAAAAYAAAABYAAACMAAAAMwAAAKAAAAABAAAAAMCAQY7jgEEWAAAAjAAAAAMAAABMAAAAAAAAAAAAAAAAAAAA//////////9UAAAARABCAEEAAAALAAAACQAAAAoAAABLAAAAQAAAADAAAAAFAAAAIAAAAAEAAAABAAAAEAAAAAAAAAAAAAAAmwEAAMAAAAAAAAAAAAAAAJsBAADAAAAAJQAAAAwAAAACAAAAJwAAABgAAAAEAAAAAAAAAP///wAAAAAAJQAAAAwAAAAEAAAATAAAAGQAAAAVAAAApgAAAIUBAAC6AAAAFQAAAKYAAABxAQAAFQAAACEA8AAAAAAAAAAAAAAAgD8AAAAAAAAAAAAAgD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACUAAAAMAAAAAAAAgCgAAAAMAAAABAAAACUAAAAMAAAAAQAAABgAAAAMAAAAAAAAABIAAAAMAAAAAQAAABYAAAAMAAAAAAAAAFQAAABoAQAAFgAAAKYAAACEAQAAugAAAAEAAAAAwIBBjuOAQRYAAACmAAAALwAAAEwAAAAEAAAAFQAAAKYAAACGAQAAuwAAAKwAAABTAGkAZwBuAGUAZAAgAGIAeQA6ACAANwAyADgAMAA2AGUAZABkAC0AOABiAGYANAAtADQAMwAxAGEALQA4ADIAYwBmAC0AZgBhADYAMgBlADcAYQAwADUAMgBhAGUAAAAJAAAABAAAAAkAAAAJAAAACAAAAAkAAAAEAAAACQAAAAgAAAADAAAABAAAAAkAAAAJAAAACQAAAAkAAAAJAAAACAAAAAkAAAAJAAAABgAAAAkAAAAJAAAABQAAAAkAAAAGAAAACQAAAAkAAAAJAAAACAAAAAYAAAAJAAAACQAAAAcAAAAFAAAABgAAAAUAAAAIAAAACQAAAAkAAAAIAAAACQAAAAgAAAAJAAAACQAAAAkAAAAIAAAACAAAABYAAAAMAAAAAAAAACUAAAAMAAAAAgAAAA4AAAAUAAAAAAAAABAAAAAUAAAA</Object>
+</Signature>
 </file>